--- a/ecdc_csv/data/ecdc_csv_diff.xlsx
+++ b/ecdc_csv/data/ecdc_csv_diff.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="205">
   <si>
-    <t>Date</t>
+    <t>index</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -991,7 +991,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GW97"/>
+  <dimension ref="A1:GW98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -28214,6 +28214,614 @@
         <v>1</v>
       </c>
     </row>
+    <row r="98" spans="1:205">
+      <c r="A98" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B98">
+        <v>35</v>
+      </c>
+      <c r="C98">
+        <v>29</v>
+      </c>
+      <c r="D98">
+        <v>314</v>
+      </c>
+      <c r="E98">
+        <v>27</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>186</v>
+      </c>
+      <c r="J98">
+        <v>34</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>139</v>
+      </c>
+      <c r="M98">
+        <v>241</v>
+      </c>
+      <c r="N98">
+        <v>78</v>
+      </c>
+      <c r="O98">
+        <v>4</v>
+      </c>
+      <c r="P98">
+        <v>45</v>
+      </c>
+      <c r="Q98">
+        <v>9</v>
+      </c>
+      <c r="R98">
+        <v>6</v>
+      </c>
+      <c r="S98">
+        <v>43</v>
+      </c>
+      <c r="T98">
+        <v>1661</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>2</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>18</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>46</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <v>1222</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>2</v>
+      </c>
+      <c r="AF98">
+        <v>18</v>
+      </c>
+      <c r="AG98">
+        <v>14</v>
+      </c>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
+        <v>46</v>
+      </c>
+      <c r="AK98">
+        <v>1363</v>
+      </c>
+      <c r="AL98">
+        <v>1</v>
+      </c>
+      <c r="AN98">
+        <v>6</v>
+      </c>
+      <c r="AO98">
+        <v>1</v>
+      </c>
+      <c r="AP98">
+        <v>1</v>
+      </c>
+      <c r="AQ98">
+        <v>424</v>
+      </c>
+      <c r="AR98">
+        <v>48</v>
+      </c>
+      <c r="AS98">
+        <v>139</v>
+      </c>
+      <c r="AT98">
+        <v>4</v>
+      </c>
+      <c r="AU98">
+        <v>19</v>
+      </c>
+      <c r="AV98">
+        <v>27</v>
+      </c>
+      <c r="AW98">
+        <v>47</v>
+      </c>
+      <c r="AX98">
+        <v>19</v>
+      </c>
+      <c r="AY98">
+        <v>0</v>
+      </c>
+      <c r="AZ98">
+        <v>30</v>
+      </c>
+      <c r="BA98">
+        <v>282</v>
+      </c>
+      <c r="BB98">
+        <v>20</v>
+      </c>
+      <c r="BC98">
+        <v>320</v>
+      </c>
+      <c r="BD98">
+        <v>10</v>
+      </c>
+      <c r="BE98">
+        <v>0</v>
+      </c>
+      <c r="BF98">
+        <v>90</v>
+      </c>
+      <c r="BG98">
+        <v>97</v>
+      </c>
+      <c r="BH98">
+        <v>206</v>
+      </c>
+      <c r="BI98">
+        <v>6</v>
+      </c>
+      <c r="BJ98">
+        <v>0</v>
+      </c>
+      <c r="BK98">
+        <v>7</v>
+      </c>
+      <c r="BL98">
+        <v>57</v>
+      </c>
+      <c r="BM98">
+        <v>0</v>
+      </c>
+      <c r="BN98">
+        <v>3</v>
+      </c>
+      <c r="BO98">
+        <v>0</v>
+      </c>
+      <c r="BP98">
+        <v>2</v>
+      </c>
+      <c r="BQ98">
+        <v>0</v>
+      </c>
+      <c r="BR98">
+        <v>267</v>
+      </c>
+      <c r="BS98">
+        <v>4267</v>
+      </c>
+      <c r="BT98">
+        <v>1</v>
+      </c>
+      <c r="BU98">
+        <v>0</v>
+      </c>
+      <c r="BV98">
+        <v>0</v>
+      </c>
+      <c r="BW98">
+        <v>9</v>
+      </c>
+      <c r="BX98">
+        <v>12018</v>
+      </c>
+      <c r="BY98">
+        <v>9</v>
+      </c>
+      <c r="BZ98">
+        <v>3</v>
+      </c>
+      <c r="CA98">
+        <v>60</v>
+      </c>
+      <c r="CB98">
+        <v>0</v>
+      </c>
+      <c r="CC98">
+        <v>0</v>
+      </c>
+      <c r="CD98">
+        <v>6</v>
+      </c>
+      <c r="CE98">
+        <v>11</v>
+      </c>
+      <c r="CF98">
+        <v>22</v>
+      </c>
+      <c r="CG98">
+        <v>59</v>
+      </c>
+      <c r="CH98">
+        <v>3</v>
+      </c>
+      <c r="CI98">
+        <v>1</v>
+      </c>
+      <c r="CJ98">
+        <v>3</v>
+      </c>
+      <c r="CK98">
+        <v>0</v>
+      </c>
+      <c r="CL98">
+        <v>4</v>
+      </c>
+      <c r="CM98">
+        <v>55</v>
+      </c>
+      <c r="CN98">
+        <v>53</v>
+      </c>
+      <c r="CO98">
+        <v>472</v>
+      </c>
+      <c r="CP98">
+        <v>106</v>
+      </c>
+      <c r="CQ98">
+        <v>5275</v>
+      </c>
+      <c r="CR98">
+        <v>106</v>
+      </c>
+      <c r="CS98">
+        <v>331</v>
+      </c>
+      <c r="CT98">
+        <v>12</v>
+      </c>
+      <c r="CU98">
+        <v>590</v>
+      </c>
+      <c r="CV98">
+        <v>4805</v>
+      </c>
+      <c r="CW98">
+        <v>2</v>
+      </c>
+      <c r="CX98">
+        <v>336</v>
+      </c>
+      <c r="CY98">
+        <v>5</v>
+      </c>
+      <c r="CZ98">
+        <v>24</v>
+      </c>
+      <c r="DA98">
+        <v>0</v>
+      </c>
+      <c r="DB98">
+        <v>4</v>
+      </c>
+      <c r="DC98">
+        <v>0</v>
+      </c>
+      <c r="DD98">
+        <v>137</v>
+      </c>
+      <c r="DE98">
+        <v>0</v>
+      </c>
+      <c r="DF98">
+        <v>0</v>
+      </c>
+      <c r="DG98">
+        <v>16</v>
+      </c>
+      <c r="DH98">
+        <v>26</v>
+      </c>
+      <c r="DI98">
+        <v>3</v>
+      </c>
+      <c r="DJ98">
+        <v>7</v>
+      </c>
+      <c r="DK98">
+        <v>2</v>
+      </c>
+      <c r="DL98">
+        <v>0</v>
+      </c>
+      <c r="DM98">
+        <v>117</v>
+      </c>
+      <c r="DN98">
+        <v>6</v>
+      </c>
+      <c r="DO98">
+        <v>1</v>
+      </c>
+      <c r="DP98">
+        <v>150</v>
+      </c>
+      <c r="DQ98">
+        <v>0</v>
+      </c>
+      <c r="DR98">
+        <v>2</v>
+      </c>
+      <c r="DS98">
+        <v>11</v>
+      </c>
+      <c r="DT98">
+        <v>0</v>
+      </c>
+      <c r="DU98">
+        <v>10</v>
+      </c>
+      <c r="DV98">
+        <v>202</v>
+      </c>
+      <c r="DW98">
+        <v>161</v>
+      </c>
+      <c r="DX98">
+        <v>2</v>
+      </c>
+      <c r="DY98">
+        <v>0</v>
+      </c>
+      <c r="DZ98">
+        <v>27</v>
+      </c>
+      <c r="EA98">
+        <v>1</v>
+      </c>
+      <c r="EB98">
+        <v>211</v>
+      </c>
+      <c r="EC98">
+        <v>0</v>
+      </c>
+      <c r="ED98">
+        <v>1</v>
+      </c>
+      <c r="EE98">
+        <v>0</v>
+      </c>
+      <c r="EF98">
+        <v>0</v>
+      </c>
+      <c r="EG98">
+        <v>904</v>
+      </c>
+      <c r="EH98">
+        <v>0</v>
+      </c>
+      <c r="EI98">
+        <v>48</v>
+      </c>
+      <c r="EJ98">
+        <v>0</v>
+      </c>
+      <c r="EK98">
+        <v>22</v>
+      </c>
+      <c r="EL98">
+        <v>20</v>
+      </c>
+      <c r="EM98">
+        <v>53</v>
+      </c>
+      <c r="EN98">
+        <v>0</v>
+      </c>
+      <c r="EO98">
+        <v>302</v>
+      </c>
+      <c r="EP98">
+        <v>46</v>
+      </c>
+      <c r="EQ98">
+        <v>159</v>
+      </c>
+      <c r="ES98">
+        <v>128</v>
+      </c>
+      <c r="ET98">
+        <v>0</v>
+      </c>
+      <c r="EU98">
+        <v>8</v>
+      </c>
+      <c r="EV98">
+        <v>151</v>
+      </c>
+      <c r="EW98">
+        <v>76</v>
+      </c>
+      <c r="EX98">
+        <v>244</v>
+      </c>
+      <c r="EY98">
+        <v>638</v>
+      </c>
+      <c r="EZ98">
+        <v>74</v>
+      </c>
+      <c r="FA98">
+        <v>376</v>
+      </c>
+      <c r="FB98">
+        <v>430</v>
+      </c>
+      <c r="FC98">
+        <v>582</v>
+      </c>
+      <c r="FD98">
+        <v>13</v>
+      </c>
+      <c r="FF98">
+        <v>1</v>
+      </c>
+      <c r="FG98">
+        <v>1</v>
+      </c>
+      <c r="FH98">
+        <v>0</v>
+      </c>
+      <c r="FI98">
+        <v>8</v>
+      </c>
+      <c r="FJ98">
+        <v>294</v>
+      </c>
+      <c r="FK98">
+        <v>12</v>
+      </c>
+      <c r="FL98">
+        <v>148</v>
+      </c>
+      <c r="FM98">
+        <v>0</v>
+      </c>
+      <c r="FN98">
+        <v>2</v>
+      </c>
+      <c r="FO98">
+        <v>75</v>
+      </c>
+      <c r="FP98">
+        <v>0</v>
+      </c>
+      <c r="FQ98">
+        <v>21</v>
+      </c>
+      <c r="FR98">
+        <v>43</v>
+      </c>
+      <c r="FS98">
+        <v>2</v>
+      </c>
+      <c r="FT98">
+        <v>80</v>
+      </c>
+      <c r="FU98">
+        <v>81</v>
+      </c>
+      <c r="FV98">
+        <v>7026</v>
+      </c>
+      <c r="FW98">
+        <v>8</v>
+      </c>
+      <c r="FX98">
+        <v>3</v>
+      </c>
+      <c r="FY98">
+        <v>0</v>
+      </c>
+      <c r="FZ98">
+        <v>365</v>
+      </c>
+      <c r="GA98">
+        <v>783</v>
+      </c>
+      <c r="GB98">
+        <v>0</v>
+      </c>
+      <c r="GC98">
+        <v>8</v>
+      </c>
+      <c r="GD98">
+        <v>191</v>
+      </c>
+      <c r="GE98">
+        <v>0</v>
+      </c>
+      <c r="GF98">
+        <v>1</v>
+      </c>
+      <c r="GG98">
+        <v>3</v>
+      </c>
+      <c r="GH98">
+        <v>40</v>
+      </c>
+      <c r="GI98">
+        <v>3013</v>
+      </c>
+      <c r="GJ98">
+        <v>0</v>
+      </c>
+      <c r="GK98">
+        <v>0</v>
+      </c>
+      <c r="GL98">
+        <v>109</v>
+      </c>
+      <c r="GM98">
+        <v>481</v>
+      </c>
+      <c r="GN98">
+        <v>3735</v>
+      </c>
+      <c r="GO98">
+        <v>0</v>
+      </c>
+      <c r="GP98">
+        <v>0</v>
+      </c>
+      <c r="GQ98">
+        <v>34272</v>
+      </c>
+      <c r="GR98">
+        <v>14</v>
+      </c>
+      <c r="GS98">
+        <v>39</v>
+      </c>
+      <c r="GT98">
+        <v>0</v>
+      </c>
+      <c r="GU98">
+        <v>1</v>
+      </c>
+      <c r="GV98">
+        <v>0</v>
+      </c>
+      <c r="GW98">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28221,7 +28829,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GW97"/>
+  <dimension ref="A1:GW98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -55378,7 +55986,7 @@
         <v>71</v>
       </c>
       <c r="GB97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC97">
         <v>0</v>
@@ -55441,6 +56049,614 @@
         <v>0</v>
       </c>
       <c r="GW97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:205">
+      <c r="A98" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>47</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>6</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+      <c r="M98">
+        <v>18</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>2</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+      <c r="T98">
+        <v>140</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>3</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <v>73</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AF98">
+        <v>3</v>
+      </c>
+      <c r="AG98">
+        <v>0</v>
+      </c>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
+        <v>1</v>
+      </c>
+      <c r="AK98">
+        <v>44</v>
+      </c>
+      <c r="AL98">
+        <v>0</v>
+      </c>
+      <c r="AN98">
+        <v>0</v>
+      </c>
+      <c r="AO98">
+        <v>0</v>
+      </c>
+      <c r="AP98">
+        <v>0</v>
+      </c>
+      <c r="AQ98">
+        <v>5</v>
+      </c>
+      <c r="AR98">
+        <v>3</v>
+      </c>
+      <c r="AS98">
+        <v>7</v>
+      </c>
+      <c r="AT98">
+        <v>2</v>
+      </c>
+      <c r="AU98">
+        <v>0</v>
+      </c>
+      <c r="AV98">
+        <v>1</v>
+      </c>
+      <c r="AW98">
+        <v>4</v>
+      </c>
+      <c r="AX98">
+        <v>0</v>
+      </c>
+      <c r="AY98">
+        <v>0</v>
+      </c>
+      <c r="AZ98">
+        <v>0</v>
+      </c>
+      <c r="BA98">
+        <v>6</v>
+      </c>
+      <c r="BB98">
+        <v>5</v>
+      </c>
+      <c r="BC98">
+        <v>22</v>
+      </c>
+      <c r="BD98">
+        <v>0</v>
+      </c>
+      <c r="BE98">
+        <v>0</v>
+      </c>
+      <c r="BF98">
+        <v>9</v>
+      </c>
+      <c r="BG98">
+        <v>27</v>
+      </c>
+      <c r="BH98">
+        <v>14</v>
+      </c>
+      <c r="BI98">
+        <v>0</v>
+      </c>
+      <c r="BJ98">
+        <v>0</v>
+      </c>
+      <c r="BK98">
+        <v>0</v>
+      </c>
+      <c r="BL98">
+        <v>1</v>
+      </c>
+      <c r="BM98">
+        <v>0</v>
+      </c>
+      <c r="BN98">
+        <v>0</v>
+      </c>
+      <c r="BO98">
+        <v>0</v>
+      </c>
+      <c r="BP98">
+        <v>0</v>
+      </c>
+      <c r="BQ98">
+        <v>0</v>
+      </c>
+      <c r="BR98">
+        <v>5</v>
+      </c>
+      <c r="BS98">
+        <v>1053</v>
+      </c>
+      <c r="BT98">
+        <v>0</v>
+      </c>
+      <c r="BU98">
+        <v>0</v>
+      </c>
+      <c r="BV98">
+        <v>0</v>
+      </c>
+      <c r="BW98">
+        <v>0</v>
+      </c>
+      <c r="BX98">
+        <v>325</v>
+      </c>
+      <c r="BY98">
+        <v>0</v>
+      </c>
+      <c r="BZ98">
+        <v>0</v>
+      </c>
+      <c r="CA98">
+        <v>9</v>
+      </c>
+      <c r="CB98">
+        <v>0</v>
+      </c>
+      <c r="CC98">
+        <v>0</v>
+      </c>
+      <c r="CD98">
+        <v>0</v>
+      </c>
+      <c r="CE98">
+        <v>1</v>
+      </c>
+      <c r="CF98">
+        <v>0</v>
+      </c>
+      <c r="CG98">
+        <v>0</v>
+      </c>
+      <c r="CH98">
+        <v>0</v>
+      </c>
+      <c r="CI98">
+        <v>0</v>
+      </c>
+      <c r="CJ98">
+        <v>0</v>
+      </c>
+      <c r="CK98">
+        <v>0</v>
+      </c>
+      <c r="CL98">
+        <v>7</v>
+      </c>
+      <c r="CM98">
+        <v>2</v>
+      </c>
+      <c r="CN98">
+        <v>0</v>
+      </c>
+      <c r="CO98">
+        <v>9</v>
+      </c>
+      <c r="CP98">
+        <v>10</v>
+      </c>
+      <c r="CQ98">
+        <v>292</v>
+      </c>
+      <c r="CR98">
+        <v>2</v>
+      </c>
+      <c r="CS98">
+        <v>17</v>
+      </c>
+      <c r="CT98">
+        <v>0</v>
+      </c>
+      <c r="CU98">
+        <v>7</v>
+      </c>
+      <c r="CV98">
+        <v>681</v>
+      </c>
+      <c r="CW98">
+        <v>0</v>
+      </c>
+      <c r="CX98">
+        <v>1</v>
+      </c>
+      <c r="CY98">
+        <v>1</v>
+      </c>
+      <c r="CZ98">
+        <v>0</v>
+      </c>
+      <c r="DA98">
+        <v>0</v>
+      </c>
+      <c r="DB98">
+        <v>0</v>
+      </c>
+      <c r="DC98">
+        <v>0</v>
+      </c>
+      <c r="DD98">
+        <v>1</v>
+      </c>
+      <c r="DE98">
+        <v>0</v>
+      </c>
+      <c r="DF98">
+        <v>0</v>
+      </c>
+      <c r="DG98">
+        <v>0</v>
+      </c>
+      <c r="DH98">
+        <v>1</v>
+      </c>
+      <c r="DI98">
+        <v>1</v>
+      </c>
+      <c r="DJ98">
+        <v>0</v>
+      </c>
+      <c r="DK98">
+        <v>1</v>
+      </c>
+      <c r="DL98">
+        <v>0</v>
+      </c>
+      <c r="DM98">
+        <v>0</v>
+      </c>
+      <c r="DN98">
+        <v>0</v>
+      </c>
+      <c r="DO98">
+        <v>0</v>
+      </c>
+      <c r="DP98">
+        <v>4</v>
+      </c>
+      <c r="DQ98">
+        <v>0</v>
+      </c>
+      <c r="DR98">
+        <v>0</v>
+      </c>
+      <c r="DS98">
+        <v>0</v>
+      </c>
+      <c r="DT98">
+        <v>0</v>
+      </c>
+      <c r="DU98">
+        <v>0</v>
+      </c>
+      <c r="DV98">
+        <v>19</v>
+      </c>
+      <c r="DW98">
+        <v>4</v>
+      </c>
+      <c r="DX98">
+        <v>2</v>
+      </c>
+      <c r="DY98">
+        <v>0</v>
+      </c>
+      <c r="DZ98">
+        <v>0</v>
+      </c>
+      <c r="EA98">
+        <v>0</v>
+      </c>
+      <c r="EB98">
+        <v>15</v>
+      </c>
+      <c r="EC98">
+        <v>0</v>
+      </c>
+      <c r="ED98">
+        <v>0</v>
+      </c>
+      <c r="EE98">
+        <v>0</v>
+      </c>
+      <c r="EF98">
+        <v>0</v>
+      </c>
+      <c r="EG98">
+        <v>164</v>
+      </c>
+      <c r="EH98">
+        <v>0</v>
+      </c>
+      <c r="EI98">
+        <v>0</v>
+      </c>
+      <c r="EJ98">
+        <v>0</v>
+      </c>
+      <c r="EK98">
+        <v>0</v>
+      </c>
+      <c r="EL98">
+        <v>2</v>
+      </c>
+      <c r="EM98">
+        <v>5</v>
+      </c>
+      <c r="EN98">
+        <v>0</v>
+      </c>
+      <c r="EO98">
+        <v>6</v>
+      </c>
+      <c r="EP98">
+        <v>1</v>
+      </c>
+      <c r="EQ98">
+        <v>4</v>
+      </c>
+      <c r="ES98">
+        <v>5</v>
+      </c>
+      <c r="ET98">
+        <v>0</v>
+      </c>
+      <c r="EU98">
+        <v>0</v>
+      </c>
+      <c r="EV98">
+        <v>12</v>
+      </c>
+      <c r="EW98">
+        <v>8</v>
+      </c>
+      <c r="EX98">
+        <v>8</v>
+      </c>
+      <c r="EY98">
+        <v>20</v>
+      </c>
+      <c r="EZ98">
+        <v>3</v>
+      </c>
+      <c r="FA98">
+        <v>0</v>
+      </c>
+      <c r="FB98">
+        <v>8</v>
+      </c>
+      <c r="FC98">
+        <v>9</v>
+      </c>
+      <c r="FD98">
+        <v>0</v>
+      </c>
+      <c r="FF98">
+        <v>0</v>
+      </c>
+      <c r="FG98">
+        <v>0</v>
+      </c>
+      <c r="FH98">
+        <v>0</v>
+      </c>
+      <c r="FI98">
+        <v>0</v>
+      </c>
+      <c r="FJ98">
+        <v>8</v>
+      </c>
+      <c r="FK98">
+        <v>1</v>
+      </c>
+      <c r="FL98">
+        <v>5</v>
+      </c>
+      <c r="FM98">
+        <v>0</v>
+      </c>
+      <c r="FN98">
+        <v>0</v>
+      </c>
+      <c r="FO98">
+        <v>1</v>
+      </c>
+      <c r="FP98">
+        <v>0</v>
+      </c>
+      <c r="FQ98">
+        <v>0</v>
+      </c>
+      <c r="FR98">
+        <v>2</v>
+      </c>
+      <c r="FS98">
+        <v>0</v>
+      </c>
+      <c r="FT98">
+        <v>2</v>
+      </c>
+      <c r="FU98">
+        <v>6</v>
+      </c>
+      <c r="FV98">
+        <v>809</v>
+      </c>
+      <c r="FW98">
+        <v>1</v>
+      </c>
+      <c r="FX98">
+        <v>0</v>
+      </c>
+      <c r="FY98">
+        <v>0</v>
+      </c>
+      <c r="FZ98">
+        <v>40</v>
+      </c>
+      <c r="GA98">
+        <v>59</v>
+      </c>
+      <c r="GB98">
+        <v>0</v>
+      </c>
+      <c r="GC98">
+        <v>0</v>
+      </c>
+      <c r="GD98">
+        <v>4</v>
+      </c>
+      <c r="GE98">
+        <v>0</v>
+      </c>
+      <c r="GF98">
+        <v>0</v>
+      </c>
+      <c r="GG98">
+        <v>0</v>
+      </c>
+      <c r="GH98">
+        <v>5</v>
+      </c>
+      <c r="GI98">
+        <v>76</v>
+      </c>
+      <c r="GJ98">
+        <v>0</v>
+      </c>
+      <c r="GK98">
+        <v>0</v>
+      </c>
+      <c r="GL98">
+        <v>5</v>
+      </c>
+      <c r="GM98">
+        <v>2</v>
+      </c>
+      <c r="GN98">
+        <v>708</v>
+      </c>
+      <c r="GO98">
+        <v>0</v>
+      </c>
+      <c r="GP98">
+        <v>0</v>
+      </c>
+      <c r="GQ98">
+        <v>1344</v>
+      </c>
+      <c r="GR98">
+        <v>1</v>
+      </c>
+      <c r="GS98">
+        <v>0</v>
+      </c>
+      <c r="GT98">
+        <v>2</v>
+      </c>
+      <c r="GU98">
+        <v>0</v>
+      </c>
+      <c r="GV98">
+        <v>0</v>
+      </c>
+      <c r="GW98">
         <v>0</v>
       </c>
     </row>

--- a/ecdc_csv/data/ecdc_csv_diff.xlsx
+++ b/ecdc_csv/data/ecdc_csv_diff.xlsx
@@ -991,7 +991,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GW100"/>
+  <dimension ref="A1:GW101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -24332,7 +24332,7 @@
         <v>7</v>
       </c>
       <c r="DC91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DD91">
         <v>10</v>
@@ -24922,7 +24922,7 @@
         <v>4</v>
       </c>
       <c r="DC92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DD92">
         <v>20</v>
@@ -25458,7 +25458,7 @@
         <v>2</v>
       </c>
       <c r="CM93">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="CN93">
         <v>66</v>
@@ -25506,7 +25506,7 @@
         <v>8</v>
       </c>
       <c r="DC93">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="DD93">
         <v>11</v>
@@ -25746,7 +25746,7 @@
         <v>34</v>
       </c>
       <c r="GI93">
-        <v>2318</v>
+        <v>1610</v>
       </c>
       <c r="GJ93">
         <v>0</v>
@@ -26051,7 +26051,7 @@
         <v>31</v>
       </c>
       <c r="CM94">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="CN94">
         <v>49</v>
@@ -26342,7 +26342,7 @@
         <v>50</v>
       </c>
       <c r="GI94">
-        <v>1996</v>
+        <v>2704</v>
       </c>
       <c r="GJ94">
         <v>0</v>
@@ -26653,7 +26653,7 @@
         <v>47</v>
       </c>
       <c r="CM95">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="CN95">
         <v>85</v>
@@ -27258,7 +27258,7 @@
         <v>3</v>
       </c>
       <c r="CM96">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="CN96">
         <v>99</v>
@@ -27363,7 +27363,7 @@
         <v>15</v>
       </c>
       <c r="DV96">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="DW96">
         <v>82</v>
@@ -27869,7 +27869,7 @@
         <v>42</v>
       </c>
       <c r="CM97">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="CN97">
         <v>45</v>
@@ -27974,7 +27974,7 @@
         <v>17</v>
       </c>
       <c r="DV97">
-        <v>310</v>
+        <v>178</v>
       </c>
       <c r="DW97">
         <v>86</v>
@@ -28528,7 +28528,7 @@
         <v>4</v>
       </c>
       <c r="DC98">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="DD98">
         <v>137</v>
@@ -29136,7 +29136,7 @@
         <v>16</v>
       </c>
       <c r="DC99">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="DD99">
         <v>77</v>
@@ -30045,6 +30045,620 @@
       </c>
       <c r="GW100">
         <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:205">
+      <c r="A101" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B101">
+        <v>30</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>45</v>
+      </c>
+      <c r="E101">
+        <v>19</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>87</v>
+      </c>
+      <c r="J101">
+        <v>20</v>
+      </c>
+      <c r="K101">
+        <v>3</v>
+      </c>
+      <c r="L101">
+        <v>112</v>
+      </c>
+      <c r="M101">
+        <v>343</v>
+      </c>
+      <c r="N101">
+        <v>76</v>
+      </c>
+      <c r="O101">
+        <v>3</v>
+      </c>
+      <c r="P101">
+        <v>55</v>
+      </c>
+      <c r="Q101">
+        <v>41</v>
+      </c>
+      <c r="R101">
+        <v>3</v>
+      </c>
+      <c r="S101">
+        <v>161</v>
+      </c>
+      <c r="T101">
+        <v>1380</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>16</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>86</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+      <c r="AC101">
+        <v>1661</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+      <c r="AF101">
+        <v>28</v>
+      </c>
+      <c r="AG101">
+        <v>20</v>
+      </c>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>2</v>
+      </c>
+      <c r="AJ101">
+        <v>27</v>
+      </c>
+      <c r="AK101">
+        <v>1230</v>
+      </c>
+      <c r="AL101">
+        <v>0</v>
+      </c>
+      <c r="AN101">
+        <v>6</v>
+      </c>
+      <c r="AO101">
+        <v>0</v>
+      </c>
+      <c r="AP101">
+        <v>0</v>
+      </c>
+      <c r="AQ101">
+        <v>301</v>
+      </c>
+      <c r="AR101">
+        <v>86</v>
+      </c>
+      <c r="AS101">
+        <v>201</v>
+      </c>
+      <c r="AT101">
+        <v>0</v>
+      </c>
+      <c r="AU101">
+        <v>16</v>
+      </c>
+      <c r="AV101">
+        <v>26</v>
+      </c>
+      <c r="AW101">
+        <v>60</v>
+      </c>
+      <c r="AX101">
+        <v>46</v>
+      </c>
+      <c r="AY101">
+        <v>0</v>
+      </c>
+      <c r="AZ101">
+        <v>29</v>
+      </c>
+      <c r="BA101">
+        <v>195</v>
+      </c>
+      <c r="BB101">
+        <v>19</v>
+      </c>
+      <c r="BC101">
+        <v>390</v>
+      </c>
+      <c r="BD101">
+        <v>31</v>
+      </c>
+      <c r="BE101">
+        <v>0</v>
+      </c>
+      <c r="BF101">
+        <v>128</v>
+      </c>
+      <c r="BG101">
+        <v>248</v>
+      </c>
+      <c r="BH101">
+        <v>249</v>
+      </c>
+      <c r="BI101">
+        <v>0</v>
+      </c>
+      <c r="BJ101">
+        <v>0</v>
+      </c>
+      <c r="BK101">
+        <v>0</v>
+      </c>
+      <c r="BL101">
+        <v>41</v>
+      </c>
+      <c r="BM101">
+        <v>0</v>
+      </c>
+      <c r="BN101">
+        <v>8</v>
+      </c>
+      <c r="BO101">
+        <v>3</v>
+      </c>
+      <c r="BP101">
+        <v>1</v>
+      </c>
+      <c r="BQ101">
+        <v>1</v>
+      </c>
+      <c r="BR101">
+        <v>132</v>
+      </c>
+      <c r="BS101">
+        <v>3777</v>
+      </c>
+      <c r="BT101">
+        <v>6</v>
+      </c>
+      <c r="BU101">
+        <v>9</v>
+      </c>
+      <c r="BV101">
+        <v>0</v>
+      </c>
+      <c r="BW101">
+        <v>8</v>
+      </c>
+      <c r="BX101">
+        <v>4003</v>
+      </c>
+      <c r="BY101">
+        <v>0</v>
+      </c>
+      <c r="BZ101">
+        <v>4</v>
+      </c>
+      <c r="CA101">
+        <v>77</v>
+      </c>
+      <c r="CB101">
+        <v>0</v>
+      </c>
+      <c r="CC101">
+        <v>0</v>
+      </c>
+      <c r="CD101">
+        <v>9</v>
+      </c>
+      <c r="CE101">
+        <v>6</v>
+      </c>
+      <c r="CF101">
+        <v>1</v>
+      </c>
+      <c r="CG101">
+        <v>16</v>
+      </c>
+      <c r="CH101">
+        <v>0</v>
+      </c>
+      <c r="CI101">
+        <v>2</v>
+      </c>
+      <c r="CJ101">
+        <v>1</v>
+      </c>
+      <c r="CK101">
+        <v>0</v>
+      </c>
+      <c r="CL101">
+        <v>7</v>
+      </c>
+      <c r="CM101">
+        <v>78</v>
+      </c>
+      <c r="CN101">
+        <v>24</v>
+      </c>
+      <c r="CO101">
+        <v>773</v>
+      </c>
+      <c r="CP101">
+        <v>247</v>
+      </c>
+      <c r="CQ101">
+        <v>2089</v>
+      </c>
+      <c r="CR101">
+        <v>0</v>
+      </c>
+      <c r="CS101">
+        <v>345</v>
+      </c>
+      <c r="CT101">
+        <v>11</v>
+      </c>
+      <c r="CU101">
+        <v>344</v>
+      </c>
+      <c r="CV101">
+        <v>3039</v>
+      </c>
+      <c r="CW101">
+        <v>4</v>
+      </c>
+      <c r="CX101">
+        <v>89</v>
+      </c>
+      <c r="CY101">
+        <v>1</v>
+      </c>
+      <c r="CZ101">
+        <v>0</v>
+      </c>
+      <c r="DA101">
+        <v>34</v>
+      </c>
+      <c r="DB101">
+        <v>14</v>
+      </c>
+      <c r="DC101">
+        <v>39</v>
+      </c>
+      <c r="DD101">
+        <v>78</v>
+      </c>
+      <c r="DE101">
+        <v>42</v>
+      </c>
+      <c r="DF101">
+        <v>0</v>
+      </c>
+      <c r="DG101">
+        <v>6</v>
+      </c>
+      <c r="DH101">
+        <v>7</v>
+      </c>
+      <c r="DI101">
+        <v>0</v>
+      </c>
+      <c r="DJ101">
+        <v>1</v>
+      </c>
+      <c r="DK101">
+        <v>0</v>
+      </c>
+      <c r="DL101">
+        <v>37</v>
+      </c>
+      <c r="DM101">
+        <v>127</v>
+      </c>
+      <c r="DN101">
+        <v>8</v>
+      </c>
+      <c r="DO101">
+        <v>3</v>
+      </c>
+      <c r="DP101">
+        <v>170</v>
+      </c>
+      <c r="DQ101">
+        <v>0</v>
+      </c>
+      <c r="DR101">
+        <v>9</v>
+      </c>
+      <c r="DS101">
+        <v>52</v>
+      </c>
+      <c r="DT101">
+        <v>0</v>
+      </c>
+      <c r="DU101">
+        <v>24</v>
+      </c>
+      <c r="DV101">
+        <v>346</v>
+      </c>
+      <c r="DW101">
+        <v>91</v>
+      </c>
+      <c r="DX101">
+        <v>2</v>
+      </c>
+      <c r="DY101">
+        <v>0</v>
+      </c>
+      <c r="DZ101">
+        <v>8</v>
+      </c>
+      <c r="EA101">
+        <v>0</v>
+      </c>
+      <c r="EB101">
+        <v>64</v>
+      </c>
+      <c r="EC101">
+        <v>0</v>
+      </c>
+      <c r="ED101">
+        <v>0</v>
+      </c>
+      <c r="EE101">
+        <v>0</v>
+      </c>
+      <c r="EF101">
+        <v>0</v>
+      </c>
+      <c r="EG101">
+        <v>777</v>
+      </c>
+      <c r="EH101">
+        <v>0</v>
+      </c>
+      <c r="EI101">
+        <v>26</v>
+      </c>
+      <c r="EJ101">
+        <v>0</v>
+      </c>
+      <c r="EK101">
+        <v>25</v>
+      </c>
+      <c r="EL101">
+        <v>16</v>
+      </c>
+      <c r="EM101">
+        <v>29</v>
+      </c>
+      <c r="EN101">
+        <v>0</v>
+      </c>
+      <c r="EO101">
+        <v>108</v>
+      </c>
+      <c r="EP101">
+        <v>48</v>
+      </c>
+      <c r="EQ101">
+        <v>208</v>
+      </c>
+      <c r="ER101">
+        <v>7</v>
+      </c>
+      <c r="ES101">
+        <v>149</v>
+      </c>
+      <c r="ET101">
+        <v>1</v>
+      </c>
+      <c r="EU101">
+        <v>2</v>
+      </c>
+      <c r="EV101">
+        <v>393</v>
+      </c>
+      <c r="EW101">
+        <v>104</v>
+      </c>
+      <c r="EX101">
+        <v>435</v>
+      </c>
+      <c r="EY101">
+        <v>712</v>
+      </c>
+      <c r="EZ101">
+        <v>60</v>
+      </c>
+      <c r="FA101">
+        <v>225</v>
+      </c>
+      <c r="FB101">
+        <v>360</v>
+      </c>
+      <c r="FC101">
+        <v>1154</v>
+      </c>
+      <c r="FD101">
+        <v>0</v>
+      </c>
+      <c r="FE101">
+        <v>0</v>
+      </c>
+      <c r="FF101">
+        <v>0</v>
+      </c>
+      <c r="FG101">
+        <v>1</v>
+      </c>
+      <c r="FH101">
+        <v>2</v>
+      </c>
+      <c r="FI101">
+        <v>272</v>
+      </c>
+      <c r="FJ101">
+        <v>11</v>
+      </c>
+      <c r="FK101">
+        <v>247</v>
+      </c>
+      <c r="FL101">
+        <v>0</v>
+      </c>
+      <c r="FM101">
+        <v>0</v>
+      </c>
+      <c r="FN101">
+        <v>106</v>
+      </c>
+      <c r="FO101">
+        <v>15</v>
+      </c>
+      <c r="FP101">
+        <v>47</v>
+      </c>
+      <c r="FQ101">
+        <v>34</v>
+      </c>
+      <c r="FR101">
+        <v>1</v>
+      </c>
+      <c r="FS101">
+        <v>63</v>
+      </c>
+      <c r="FT101">
+        <v>53</v>
+      </c>
+      <c r="FU101">
+        <v>0</v>
+      </c>
+      <c r="FV101">
+        <v>5478</v>
+      </c>
+      <c r="FW101">
+        <v>7</v>
+      </c>
+      <c r="FX101">
+        <v>2</v>
+      </c>
+      <c r="FY101">
+        <v>0</v>
+      </c>
+      <c r="FZ101">
+        <v>487</v>
+      </c>
+      <c r="GA101">
+        <v>590</v>
+      </c>
+      <c r="GB101">
+        <v>0</v>
+      </c>
+      <c r="GC101">
+        <v>3</v>
+      </c>
+      <c r="GD101">
+        <v>111</v>
+      </c>
+      <c r="GE101">
+        <v>0</v>
+      </c>
+      <c r="GF101">
+        <v>7</v>
+      </c>
+      <c r="GG101">
+        <v>2</v>
+      </c>
+      <c r="GH101">
+        <v>22</v>
+      </c>
+      <c r="GI101">
+        <v>3892</v>
+      </c>
+      <c r="GJ101">
+        <v>0</v>
+      </c>
+      <c r="GK101">
+        <v>0</v>
+      </c>
+      <c r="GL101">
+        <v>143</v>
+      </c>
+      <c r="GM101">
+        <v>283</v>
+      </c>
+      <c r="GN101">
+        <v>3634</v>
+      </c>
+      <c r="GO101">
+        <v>0</v>
+      </c>
+      <c r="GP101">
+        <v>3</v>
+      </c>
+      <c r="GQ101">
+        <v>30613</v>
+      </c>
+      <c r="GR101">
+        <v>9</v>
+      </c>
+      <c r="GS101">
+        <v>107</v>
+      </c>
+      <c r="GT101">
+        <v>7</v>
+      </c>
+      <c r="GU101">
+        <v>6</v>
+      </c>
+      <c r="GV101">
+        <v>0</v>
+      </c>
+      <c r="GW101">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -30054,7 +30668,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GW100"/>
+  <dimension ref="A1:GW101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -54521,7 +55135,7 @@
         <v>4</v>
       </c>
       <c r="CM93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN93">
         <v>0</v>
@@ -55114,7 +55728,7 @@
         <v>3</v>
       </c>
       <c r="CM94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CN94">
         <v>0</v>
@@ -55716,7 +56330,7 @@
         <v>4</v>
       </c>
       <c r="CM95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CN95">
         <v>0</v>
@@ -56321,7 +56935,7 @@
         <v>1</v>
       </c>
       <c r="CM96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CN96">
         <v>2</v>
@@ -56426,7 +57040,7 @@
         <v>2</v>
       </c>
       <c r="DV96">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="DW96">
         <v>1</v>
@@ -56932,7 +57546,7 @@
         <v>0</v>
       </c>
       <c r="CM97">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="CN97">
         <v>0</v>
@@ -57037,7 +57651,7 @@
         <v>0</v>
       </c>
       <c r="DV97">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="DW97">
         <v>2</v>
@@ -59107,6 +59721,620 @@
         <v>0</v>
       </c>
       <c r="GW100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:205">
+      <c r="A101" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>21</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>7</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>3</v>
+      </c>
+      <c r="M101">
+        <v>23</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>5</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>403</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>1</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>4</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+      <c r="AC101">
+        <v>114</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+      <c r="AF101">
+        <v>1</v>
+      </c>
+      <c r="AG101">
+        <v>2</v>
+      </c>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
+      </c>
+      <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>57</v>
+      </c>
+      <c r="AL101">
+        <v>0</v>
+      </c>
+      <c r="AN101">
+        <v>0</v>
+      </c>
+      <c r="AO101">
+        <v>0</v>
+      </c>
+      <c r="AP101">
+        <v>0</v>
+      </c>
+      <c r="AQ101">
+        <v>6</v>
+      </c>
+      <c r="AR101">
+        <v>2</v>
+      </c>
+      <c r="AS101">
+        <v>4</v>
+      </c>
+      <c r="AT101">
+        <v>0</v>
+      </c>
+      <c r="AU101">
+        <v>0</v>
+      </c>
+      <c r="AV101">
+        <v>0</v>
+      </c>
+      <c r="AW101">
+        <v>2</v>
+      </c>
+      <c r="AX101">
+        <v>2</v>
+      </c>
+      <c r="AY101">
+        <v>0</v>
+      </c>
+      <c r="AZ101">
+        <v>0</v>
+      </c>
+      <c r="BA101">
+        <v>10</v>
+      </c>
+      <c r="BB101">
+        <v>0</v>
+      </c>
+      <c r="BC101">
+        <v>16</v>
+      </c>
+      <c r="BD101">
+        <v>0</v>
+      </c>
+      <c r="BE101">
+        <v>0</v>
+      </c>
+      <c r="BF101">
+        <v>12</v>
+      </c>
+      <c r="BG101">
+        <v>29</v>
+      </c>
+      <c r="BH101">
+        <v>7</v>
+      </c>
+      <c r="BI101">
+        <v>0</v>
+      </c>
+      <c r="BJ101">
+        <v>0</v>
+      </c>
+      <c r="BK101">
+        <v>0</v>
+      </c>
+      <c r="BL101">
+        <v>2</v>
+      </c>
+      <c r="BM101">
+        <v>0</v>
+      </c>
+      <c r="BN101">
+        <v>0</v>
+      </c>
+      <c r="BO101">
+        <v>0</v>
+      </c>
+      <c r="BP101">
+        <v>0</v>
+      </c>
+      <c r="BQ101">
+        <v>0</v>
+      </c>
+      <c r="BR101">
+        <v>7</v>
+      </c>
+      <c r="BS101">
+        <v>1417</v>
+      </c>
+      <c r="BT101">
+        <v>0</v>
+      </c>
+      <c r="BU101">
+        <v>0</v>
+      </c>
+      <c r="BV101">
+        <v>0</v>
+      </c>
+      <c r="BW101">
+        <v>1</v>
+      </c>
+      <c r="BX101">
+        <v>254</v>
+      </c>
+      <c r="BY101">
+        <v>0</v>
+      </c>
+      <c r="BZ101">
+        <v>0</v>
+      </c>
+      <c r="CA101">
+        <v>2</v>
+      </c>
+      <c r="CB101">
+        <v>0</v>
+      </c>
+      <c r="CC101">
+        <v>0</v>
+      </c>
+      <c r="CD101">
+        <v>0</v>
+      </c>
+      <c r="CE101">
+        <v>0</v>
+      </c>
+      <c r="CF101">
+        <v>0</v>
+      </c>
+      <c r="CG101">
+        <v>0</v>
+      </c>
+      <c r="CH101">
+        <v>0</v>
+      </c>
+      <c r="CI101">
+        <v>0</v>
+      </c>
+      <c r="CJ101">
+        <v>0</v>
+      </c>
+      <c r="CK101">
+        <v>0</v>
+      </c>
+      <c r="CL101">
+        <v>0</v>
+      </c>
+      <c r="CM101">
+        <v>11</v>
+      </c>
+      <c r="CN101">
+        <v>0</v>
+      </c>
+      <c r="CO101">
+        <v>35</v>
+      </c>
+      <c r="CP101">
+        <v>12</v>
+      </c>
+      <c r="CQ101">
+        <v>133</v>
+      </c>
+      <c r="CR101">
+        <v>0</v>
+      </c>
+      <c r="CS101">
+        <v>36</v>
+      </c>
+      <c r="CT101">
+        <v>0</v>
+      </c>
+      <c r="CU101">
+        <v>8</v>
+      </c>
+      <c r="CV101">
+        <v>604</v>
+      </c>
+      <c r="CW101">
+        <v>0</v>
+      </c>
+      <c r="CX101">
+        <v>0</v>
+      </c>
+      <c r="CY101">
+        <v>0</v>
+      </c>
+      <c r="CZ101">
+        <v>0</v>
+      </c>
+      <c r="DA101">
+        <v>0</v>
+      </c>
+      <c r="DB101">
+        <v>2</v>
+      </c>
+      <c r="DC101">
+        <v>2</v>
+      </c>
+      <c r="DD101">
+        <v>0</v>
+      </c>
+      <c r="DE101">
+        <v>0</v>
+      </c>
+      <c r="DF101">
+        <v>0</v>
+      </c>
+      <c r="DG101">
+        <v>1</v>
+      </c>
+      <c r="DH101">
+        <v>0</v>
+      </c>
+      <c r="DI101">
+        <v>0</v>
+      </c>
+      <c r="DJ101">
+        <v>0</v>
+      </c>
+      <c r="DK101">
+        <v>0</v>
+      </c>
+      <c r="DL101">
+        <v>1</v>
+      </c>
+      <c r="DM101">
+        <v>3</v>
+      </c>
+      <c r="DN101">
+        <v>0</v>
+      </c>
+      <c r="DO101">
+        <v>1</v>
+      </c>
+      <c r="DP101">
+        <v>1</v>
+      </c>
+      <c r="DQ101">
+        <v>0</v>
+      </c>
+      <c r="DR101">
+        <v>0</v>
+      </c>
+      <c r="DS101">
+        <v>0</v>
+      </c>
+      <c r="DT101">
+        <v>0</v>
+      </c>
+      <c r="DU101">
+        <v>0</v>
+      </c>
+      <c r="DV101">
+        <v>16</v>
+      </c>
+      <c r="DW101">
+        <v>3</v>
+      </c>
+      <c r="DX101">
+        <v>0</v>
+      </c>
+      <c r="DY101">
+        <v>0</v>
+      </c>
+      <c r="DZ101">
+        <v>0</v>
+      </c>
+      <c r="EA101">
+        <v>0</v>
+      </c>
+      <c r="EB101">
+        <v>10</v>
+      </c>
+      <c r="EC101">
+        <v>0</v>
+      </c>
+      <c r="ED101">
+        <v>0</v>
+      </c>
+      <c r="EE101">
+        <v>0</v>
+      </c>
+      <c r="EF101">
+        <v>0</v>
+      </c>
+      <c r="EG101">
+        <v>234</v>
+      </c>
+      <c r="EH101">
+        <v>0</v>
+      </c>
+      <c r="EI101">
+        <v>0</v>
+      </c>
+      <c r="EJ101">
+        <v>0</v>
+      </c>
+      <c r="EK101">
+        <v>1</v>
+      </c>
+      <c r="EL101">
+        <v>1</v>
+      </c>
+      <c r="EM101">
+        <v>5</v>
+      </c>
+      <c r="EN101">
+        <v>1</v>
+      </c>
+      <c r="EO101">
+        <v>10</v>
+      </c>
+      <c r="EP101">
+        <v>0</v>
+      </c>
+      <c r="EQ101">
+        <v>4</v>
+      </c>
+      <c r="ER101">
+        <v>0</v>
+      </c>
+      <c r="ES101">
+        <v>4</v>
+      </c>
+      <c r="ET101">
+        <v>0</v>
+      </c>
+      <c r="EU101">
+        <v>0</v>
+      </c>
+      <c r="EV101">
+        <v>15</v>
+      </c>
+      <c r="EW101">
+        <v>14</v>
+      </c>
+      <c r="EX101">
+        <v>22</v>
+      </c>
+      <c r="EY101">
+        <v>34</v>
+      </c>
+      <c r="EZ101">
+        <v>2</v>
+      </c>
+      <c r="FA101">
+        <v>2</v>
+      </c>
+      <c r="FB101">
+        <v>25</v>
+      </c>
+      <c r="FC101">
+        <v>11</v>
+      </c>
+      <c r="FD101">
+        <v>0</v>
+      </c>
+      <c r="FE101">
+        <v>0</v>
+      </c>
+      <c r="FF101">
+        <v>0</v>
+      </c>
+      <c r="FG101">
+        <v>0</v>
+      </c>
+      <c r="FH101">
+        <v>2</v>
+      </c>
+      <c r="FI101">
+        <v>3</v>
+      </c>
+      <c r="FJ101">
+        <v>0</v>
+      </c>
+      <c r="FK101">
+        <v>3</v>
+      </c>
+      <c r="FL101">
+        <v>0</v>
+      </c>
+      <c r="FM101">
+        <v>0</v>
+      </c>
+      <c r="FN101">
+        <v>0</v>
+      </c>
+      <c r="FO101">
+        <v>4</v>
+      </c>
+      <c r="FP101">
+        <v>0</v>
+      </c>
+      <c r="FQ101">
+        <v>6</v>
+      </c>
+      <c r="FR101">
+        <v>0</v>
+      </c>
+      <c r="FS101">
+        <v>1</v>
+      </c>
+      <c r="FT101">
+        <v>8</v>
+      </c>
+      <c r="FU101">
+        <v>0</v>
+      </c>
+      <c r="FV101">
+        <v>743</v>
+      </c>
+      <c r="FW101">
+        <v>1</v>
+      </c>
+      <c r="FX101">
+        <v>0</v>
+      </c>
+      <c r="FY101">
+        <v>0</v>
+      </c>
+      <c r="FZ101">
+        <v>114</v>
+      </c>
+      <c r="GA101">
+        <v>57</v>
+      </c>
+      <c r="GB101">
+        <v>0</v>
+      </c>
+      <c r="GC101">
+        <v>0</v>
+      </c>
+      <c r="GD101">
+        <v>4</v>
+      </c>
+      <c r="GE101">
+        <v>0</v>
+      </c>
+      <c r="GF101">
+        <v>0</v>
+      </c>
+      <c r="GG101">
+        <v>0</v>
+      </c>
+      <c r="GH101">
+        <v>0</v>
+      </c>
+      <c r="GI101">
+        <v>76</v>
+      </c>
+      <c r="GJ101">
+        <v>0</v>
+      </c>
+      <c r="GK101">
+        <v>0</v>
+      </c>
+      <c r="GL101">
+        <v>7</v>
+      </c>
+      <c r="GM101">
+        <v>1</v>
+      </c>
+      <c r="GN101">
+        <v>786</v>
+      </c>
+      <c r="GO101">
+        <v>0</v>
+      </c>
+      <c r="GP101">
+        <v>0</v>
+      </c>
+      <c r="GQ101">
+        <v>1906</v>
+      </c>
+      <c r="GR101">
+        <v>1</v>
+      </c>
+      <c r="GS101">
+        <v>0</v>
+      </c>
+      <c r="GT101">
+        <v>2</v>
+      </c>
+      <c r="GU101">
+        <v>0</v>
+      </c>
+      <c r="GV101">
+        <v>0</v>
+      </c>
+      <c r="GW101">
         <v>0</v>
       </c>
     </row>

--- a/ecdc_csv/data/ecdc_csv_diff.xlsx
+++ b/ecdc_csv/data/ecdc_csv_diff.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="207">
   <si>
     <t>index</t>
   </si>
@@ -629,6 +629,9 @@
     <t>Vietnam</t>
   </si>
   <si>
+    <t>Yemen</t>
+  </si>
+  <si>
     <t>Zambia</t>
   </si>
   <si>
@@ -994,7 +997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GX102"/>
+  <dimension ref="A1:GY103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1008,7 +1011,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:206">
+    <row r="1" spans="1:207">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1627,8 +1630,11 @@
       <c r="GX1" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="GY1" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="2" spans="1:206">
+    <row r="2" spans="1:207">
       <c r="A2" s="2">
         <v>43830</v>
       </c>
@@ -1834,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:206">
+    <row r="3" spans="1:207">
       <c r="A3" s="2">
         <v>43831</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:206">
+    <row r="4" spans="1:207">
       <c r="A4" s="2">
         <v>43832</v>
       </c>
@@ -2246,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:206">
+    <row r="5" spans="1:207">
       <c r="A5" s="2">
         <v>43833</v>
       </c>
@@ -2452,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:206">
+    <row r="6" spans="1:207">
       <c r="A6" s="2">
         <v>43834</v>
       </c>
@@ -2658,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:206">
+    <row r="7" spans="1:207">
       <c r="A7" s="2">
         <v>43835</v>
       </c>
@@ -2864,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:206">
+    <row r="8" spans="1:207">
       <c r="A8" s="2">
         <v>43836</v>
       </c>
@@ -3070,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:206">
+    <row r="9" spans="1:207">
       <c r="A9" s="2">
         <v>43837</v>
       </c>
@@ -3276,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:206">
+    <row r="10" spans="1:207">
       <c r="A10" s="2">
         <v>43838</v>
       </c>
@@ -3482,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:206">
+    <row r="11" spans="1:207">
       <c r="A11" s="2">
         <v>43839</v>
       </c>
@@ -3688,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:206">
+    <row r="12" spans="1:207">
       <c r="A12" s="2">
         <v>43840</v>
       </c>
@@ -3894,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:206">
+    <row r="13" spans="1:207">
       <c r="A13" s="2">
         <v>43841</v>
       </c>
@@ -4100,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:206">
+    <row r="14" spans="1:207">
       <c r="A14" s="2">
         <v>43842</v>
       </c>
@@ -4306,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:206">
+    <row r="15" spans="1:207">
       <c r="A15" s="2">
         <v>43843</v>
       </c>
@@ -4512,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:206">
+    <row r="16" spans="1:207">
       <c r="A16" s="2">
         <v>43844</v>
       </c>
@@ -18619,7 +18625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:206">
+    <row r="81" spans="1:207">
       <c r="A81" s="2">
         <v>43909</v>
       </c>
@@ -19067,11 +19073,11 @@
       <c r="GV81">
         <v>15</v>
       </c>
-      <c r="GW81">
+      <c r="GX81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:206">
+    <row r="82" spans="1:207">
       <c r="A82" s="2">
         <v>43910</v>
       </c>
@@ -19561,11 +19567,11 @@
       <c r="GV82">
         <v>9</v>
       </c>
-      <c r="GW82">
+      <c r="GX82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:206">
+    <row r="83" spans="1:207">
       <c r="A83" s="2">
         <v>43911</v>
       </c>
@@ -20076,14 +20082,14 @@
       <c r="GV83">
         <v>2</v>
       </c>
-      <c r="GW83">
-        <v>0</v>
-      </c>
       <c r="GX83">
+        <v>0</v>
+      </c>
+      <c r="GY83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:206">
+    <row r="84" spans="1:207">
       <c r="A84" s="2">
         <v>43912</v>
       </c>
@@ -20606,14 +20612,14 @@
       <c r="GV84">
         <v>7</v>
       </c>
-      <c r="GW84">
-        <v>0</v>
-      </c>
       <c r="GX84">
+        <v>0</v>
+      </c>
+      <c r="GY84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:206">
+    <row r="85" spans="1:207">
       <c r="A85" s="2">
         <v>43913</v>
       </c>
@@ -21148,14 +21154,14 @@
       <c r="GV85">
         <v>24</v>
       </c>
-      <c r="GW85">
-        <v>1</v>
-      </c>
       <c r="GX85">
+        <v>1</v>
+      </c>
+      <c r="GY85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:206">
+    <row r="86" spans="1:207">
       <c r="A86" s="2">
         <v>43914</v>
       </c>
@@ -21705,14 +21711,14 @@
       <c r="GV86">
         <v>5</v>
       </c>
-      <c r="GW86">
-        <v>0</v>
-      </c>
       <c r="GX86">
         <v>0</v>
       </c>
+      <c r="GY86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:206">
+    <row r="87" spans="1:207">
       <c r="A87" s="2">
         <v>43915</v>
       </c>
@@ -22271,14 +22277,14 @@
       <c r="GV87">
         <v>11</v>
       </c>
-      <c r="GW87">
-        <v>0</v>
-      </c>
       <c r="GX87">
         <v>0</v>
       </c>
+      <c r="GY87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:206">
+    <row r="88" spans="1:207">
       <c r="A88" s="2">
         <v>43916</v>
       </c>
@@ -22849,14 +22855,14 @@
       <c r="GV88">
         <v>14</v>
       </c>
-      <c r="GW88">
+      <c r="GX88">
         <v>9</v>
       </c>
-      <c r="GX88">
+      <c r="GY88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:206">
+    <row r="89" spans="1:207">
       <c r="A89" s="2">
         <v>43917</v>
       </c>
@@ -23436,14 +23442,14 @@
       <c r="GV89">
         <v>5</v>
       </c>
-      <c r="GW89">
-        <v>2</v>
-      </c>
       <c r="GX89">
+        <v>2</v>
+      </c>
+      <c r="GY89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:206">
+    <row r="90" spans="1:207">
       <c r="A90" s="2">
         <v>43918</v>
       </c>
@@ -24026,14 +24032,14 @@
       <c r="GV90">
         <v>16</v>
       </c>
-      <c r="GW90">
-        <v>2</v>
-      </c>
       <c r="GX90">
         <v>2</v>
       </c>
+      <c r="GY90">
+        <v>2</v>
+      </c>
     </row>
-    <row r="91" spans="1:206">
+    <row r="91" spans="1:207">
       <c r="A91" s="2">
         <v>43919</v>
       </c>
@@ -24616,14 +24622,14 @@
       <c r="GV91">
         <v>54</v>
       </c>
-      <c r="GW91">
+      <c r="GX91">
         <v>12</v>
       </c>
-      <c r="GX91">
+      <c r="GY91">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:206">
+    <row r="92" spans="1:207">
       <c r="A92" s="2">
         <v>43920</v>
       </c>
@@ -25206,14 +25212,14 @@
       <c r="GV92">
         <v>5</v>
       </c>
-      <c r="GW92">
-        <v>1</v>
-      </c>
       <c r="GX92">
+        <v>1</v>
+      </c>
+      <c r="GY92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:206">
+    <row r="93" spans="1:207">
       <c r="A93" s="2">
         <v>43921</v>
       </c>
@@ -25787,14 +25793,14 @@
       <c r="GV93">
         <v>1</v>
       </c>
-      <c r="GW93">
+      <c r="GX93">
         <v>6</v>
       </c>
-      <c r="GX93">
+      <c r="GY93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:206">
+    <row r="94" spans="1:207">
       <c r="A94" s="2">
         <v>43922</v>
       </c>
@@ -26386,14 +26392,14 @@
       <c r="GV94">
         <v>0</v>
       </c>
-      <c r="GW94">
-        <v>0</v>
-      </c>
       <c r="GX94">
+        <v>0</v>
+      </c>
+      <c r="GY94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:206">
+    <row r="95" spans="1:207">
       <c r="A95" s="2">
         <v>43923</v>
       </c>
@@ -26991,14 +26997,14 @@
       <c r="GV95">
         <v>6</v>
       </c>
-      <c r="GW95">
-        <v>1</v>
-      </c>
       <c r="GX95">
+        <v>1</v>
+      </c>
+      <c r="GY95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:206">
+    <row r="96" spans="1:207">
       <c r="A96" s="2">
         <v>43924</v>
       </c>
@@ -27599,14 +27605,14 @@
       <c r="GV96">
         <v>4</v>
       </c>
-      <c r="GW96">
+      <c r="GX96">
         <v>3</v>
       </c>
-      <c r="GX96">
+      <c r="GY96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:206">
+    <row r="97" spans="1:207">
       <c r="A97" s="2">
         <v>43925</v>
       </c>
@@ -28210,14 +28216,14 @@
       <c r="GV97">
         <v>0</v>
       </c>
-      <c r="GW97">
-        <v>0</v>
-      </c>
       <c r="GX97">
+        <v>0</v>
+      </c>
+      <c r="GY97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:206">
+    <row r="98" spans="1:207">
       <c r="A98" s="2">
         <v>43926</v>
       </c>
@@ -28818,14 +28824,14 @@
       <c r="GV98">
         <v>1</v>
       </c>
-      <c r="GW98">
-        <v>0</v>
-      </c>
       <c r="GX98">
         <v>0</v>
       </c>
+      <c r="GY98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:206">
+    <row r="99" spans="1:207">
       <c r="A99" s="2">
         <v>43927</v>
       </c>
@@ -29432,14 +29438,14 @@
       <c r="GV99">
         <v>1</v>
       </c>
-      <c r="GW99">
-        <v>0</v>
-      </c>
       <c r="GX99">
         <v>0</v>
       </c>
+      <c r="GY99">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:206">
+    <row r="100" spans="1:207">
       <c r="A100" s="2">
         <v>43928</v>
       </c>
@@ -29939,7 +29945,7 @@
         <v>292</v>
       </c>
       <c r="FM100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN100">
         <v>0</v>
@@ -30046,14 +30052,14 @@
       <c r="GV100">
         <v>4</v>
       </c>
-      <c r="GW100">
-        <v>0</v>
-      </c>
       <c r="GX100">
         <v>0</v>
       </c>
+      <c r="GY100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:206">
+    <row r="101" spans="1:207">
       <c r="A101" s="2">
         <v>43929</v>
       </c>
@@ -30660,14 +30666,14 @@
       <c r="GV101">
         <v>6</v>
       </c>
-      <c r="GW101">
-        <v>0</v>
-      </c>
       <c r="GX101">
+        <v>0</v>
+      </c>
+      <c r="GY101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:206">
+    <row r="102" spans="1:207">
       <c r="A102" s="2">
         <v>43930</v>
       </c>
@@ -31277,11 +31283,631 @@
       <c r="GV102">
         <v>0</v>
       </c>
-      <c r="GW102">
-        <v>0</v>
-      </c>
       <c r="GX102">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="GY102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:207">
+      <c r="A103" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B103">
+        <v>61</v>
+      </c>
+      <c r="C103">
+        <v>9</v>
+      </c>
+      <c r="D103">
+        <v>94</v>
+      </c>
+      <c r="E103">
+        <v>19</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>4</v>
+      </c>
+      <c r="I103">
+        <v>99</v>
+      </c>
+      <c r="J103">
+        <v>40</v>
+      </c>
+      <c r="K103">
+        <v>5</v>
+      </c>
+      <c r="L103">
+        <v>100</v>
+      </c>
+      <c r="M103">
+        <v>279</v>
+      </c>
+      <c r="N103">
+        <v>104</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <v>64</v>
+      </c>
+      <c r="Q103">
+        <v>112</v>
+      </c>
+      <c r="R103">
+        <v>3</v>
+      </c>
+      <c r="S103">
+        <v>420</v>
+      </c>
+      <c r="T103">
+        <v>1580</v>
+      </c>
+      <c r="U103">
+        <v>1</v>
+      </c>
+      <c r="V103">
+        <v>4</v>
+      </c>
+      <c r="W103">
+        <v>9</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>4</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>59</v>
+      </c>
+      <c r="AB103">
+        <v>6</v>
+      </c>
+      <c r="AC103">
+        <v>1930</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
+        <v>31</v>
+      </c>
+      <c r="AG103">
+        <v>29</v>
+      </c>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>1</v>
+      </c>
+      <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>1474</v>
+      </c>
+      <c r="AL103">
+        <v>0</v>
+      </c>
+      <c r="AN103">
+        <v>0</v>
+      </c>
+      <c r="AO103">
+        <v>1</v>
+      </c>
+      <c r="AP103">
+        <v>1</v>
+      </c>
+      <c r="AQ103">
+        <v>426</v>
+      </c>
+      <c r="AR103">
+        <v>55</v>
+      </c>
+      <c r="AS103">
+        <v>169</v>
+      </c>
+      <c r="AT103">
+        <v>0</v>
+      </c>
+      <c r="AU103">
+        <v>37</v>
+      </c>
+      <c r="AV103">
+        <v>60</v>
+      </c>
+      <c r="AW103">
+        <v>64</v>
+      </c>
+      <c r="AX103">
+        <v>58</v>
+      </c>
+      <c r="AY103">
+        <v>0</v>
+      </c>
+      <c r="AZ103">
+        <v>38</v>
+      </c>
+      <c r="BA103">
+        <v>257</v>
+      </c>
+      <c r="BB103">
+        <v>32</v>
+      </c>
+      <c r="BC103">
+        <v>233</v>
+      </c>
+      <c r="BD103">
+        <v>5</v>
+      </c>
+      <c r="BE103">
+        <v>1</v>
+      </c>
+      <c r="BF103">
+        <v>238</v>
+      </c>
+      <c r="BG103">
+        <v>515</v>
+      </c>
+      <c r="BH103">
+        <v>139</v>
+      </c>
+      <c r="BI103">
+        <v>14</v>
+      </c>
+      <c r="BJ103">
+        <v>0</v>
+      </c>
+      <c r="BK103">
+        <v>0</v>
+      </c>
+      <c r="BL103">
+        <v>22</v>
+      </c>
+      <c r="BM103">
+        <v>0</v>
+      </c>
+      <c r="BN103">
+        <v>1</v>
+      </c>
+      <c r="BO103">
+        <v>0</v>
+      </c>
+      <c r="BP103">
+        <v>0</v>
+      </c>
+      <c r="BQ103">
+        <v>0</v>
+      </c>
+      <c r="BR103">
+        <v>118</v>
+      </c>
+      <c r="BS103">
+        <v>4286</v>
+      </c>
+      <c r="BT103">
+        <v>0</v>
+      </c>
+      <c r="BU103">
+        <v>11</v>
+      </c>
+      <c r="BV103">
+        <v>0</v>
+      </c>
+      <c r="BW103">
+        <v>7</v>
+      </c>
+      <c r="BX103">
+        <v>5323</v>
+      </c>
+      <c r="BY103">
+        <v>65</v>
+      </c>
+      <c r="BZ103">
+        <v>3</v>
+      </c>
+      <c r="CA103">
+        <v>71</v>
+      </c>
+      <c r="CB103">
+        <v>0</v>
+      </c>
+      <c r="CC103">
+        <v>0</v>
+      </c>
+      <c r="CD103">
+        <v>3</v>
+      </c>
+      <c r="CE103">
+        <v>39</v>
+      </c>
+      <c r="CF103">
+        <v>10</v>
+      </c>
+      <c r="CG103">
+        <v>30</v>
+      </c>
+      <c r="CH103">
+        <v>2</v>
+      </c>
+      <c r="CI103">
+        <v>0</v>
+      </c>
+      <c r="CJ103">
+        <v>3</v>
+      </c>
+      <c r="CK103">
+        <v>0</v>
+      </c>
+      <c r="CL103">
+        <v>39</v>
+      </c>
+      <c r="CM103">
+        <v>210</v>
+      </c>
+      <c r="CN103">
+        <v>32</v>
+      </c>
+      <c r="CO103">
+        <v>678</v>
+      </c>
+      <c r="CP103">
+        <v>337</v>
+      </c>
+      <c r="CQ103">
+        <v>1634</v>
+      </c>
+      <c r="CR103">
+        <v>30</v>
+      </c>
+      <c r="CS103">
+        <v>1169</v>
+      </c>
+      <c r="CT103">
+        <v>32</v>
+      </c>
+      <c r="CU103">
+        <v>564</v>
+      </c>
+      <c r="CV103">
+        <v>4204</v>
+      </c>
+      <c r="CW103">
+        <v>0</v>
+      </c>
+      <c r="CX103">
+        <v>410</v>
+      </c>
+      <c r="CY103">
+        <v>13</v>
+      </c>
+      <c r="CZ103">
+        <v>14</v>
+      </c>
+      <c r="DA103">
+        <v>43</v>
+      </c>
+      <c r="DB103">
+        <v>5</v>
+      </c>
+      <c r="DC103">
+        <v>43</v>
+      </c>
+      <c r="DD103">
+        <v>55</v>
+      </c>
+      <c r="DE103">
+        <v>18</v>
+      </c>
+      <c r="DF103">
+        <v>1</v>
+      </c>
+      <c r="DG103">
+        <v>12</v>
+      </c>
+      <c r="DH103">
+        <v>7</v>
+      </c>
+      <c r="DI103">
+        <v>0</v>
+      </c>
+      <c r="DJ103">
+        <v>3</v>
+      </c>
+      <c r="DK103">
+        <v>0</v>
+      </c>
+      <c r="DL103">
+        <v>43</v>
+      </c>
+      <c r="DM103">
+        <v>81</v>
+      </c>
+      <c r="DN103">
+        <v>0</v>
+      </c>
+      <c r="DO103">
+        <v>0</v>
+      </c>
+      <c r="DP103">
+        <v>109</v>
+      </c>
+      <c r="DQ103">
+        <v>0</v>
+      </c>
+      <c r="DR103">
+        <v>0</v>
+      </c>
+      <c r="DS103">
+        <v>38</v>
+      </c>
+      <c r="DT103">
+        <v>1</v>
+      </c>
+      <c r="DU103">
+        <v>41</v>
+      </c>
+      <c r="DV103">
+        <v>260</v>
+      </c>
+      <c r="DW103">
+        <v>115</v>
+      </c>
+      <c r="DX103">
+        <v>3</v>
+      </c>
+      <c r="DY103">
+        <v>0</v>
+      </c>
+      <c r="DZ103">
+        <v>3</v>
+      </c>
+      <c r="EA103">
+        <v>0</v>
+      </c>
+      <c r="EB103">
+        <v>99</v>
+      </c>
+      <c r="EC103">
+        <v>0</v>
+      </c>
+      <c r="ED103">
+        <v>5</v>
+      </c>
+      <c r="EE103">
+        <v>0</v>
+      </c>
+      <c r="EF103">
+        <v>0</v>
+      </c>
+      <c r="EG103">
+        <v>1213</v>
+      </c>
+      <c r="EH103">
+        <v>0</v>
+      </c>
+      <c r="EI103">
+        <v>23</v>
+      </c>
+      <c r="EJ103">
+        <v>0</v>
+      </c>
+      <c r="EK103">
+        <v>68</v>
+      </c>
+      <c r="EL103">
+        <v>12</v>
+      </c>
+      <c r="EM103">
+        <v>46</v>
+      </c>
+      <c r="EN103">
+        <v>0</v>
+      </c>
+      <c r="EO103">
+        <v>150</v>
+      </c>
+      <c r="EP103">
+        <v>38</v>
+      </c>
+      <c r="EQ103">
+        <v>279</v>
+      </c>
+      <c r="ER103">
+        <v>0</v>
+      </c>
+      <c r="ES103">
+        <v>224</v>
+      </c>
+      <c r="ET103">
+        <v>0</v>
+      </c>
+      <c r="EU103">
+        <v>5</v>
+      </c>
+      <c r="EV103">
+        <v>914</v>
+      </c>
+      <c r="EW103">
+        <v>206</v>
+      </c>
+      <c r="EX103">
+        <v>370</v>
+      </c>
+      <c r="EY103">
+        <v>815</v>
+      </c>
+      <c r="EZ103">
+        <v>63</v>
+      </c>
+      <c r="FA103">
+        <v>166</v>
+      </c>
+      <c r="FB103">
+        <v>441</v>
+      </c>
+      <c r="FC103">
+        <v>1459</v>
+      </c>
+      <c r="FD103">
+        <v>3</v>
+      </c>
+      <c r="FE103">
+        <v>0</v>
+      </c>
+      <c r="FF103">
+        <v>0</v>
+      </c>
+      <c r="FG103">
+        <v>4</v>
+      </c>
+      <c r="FH103">
+        <v>25</v>
+      </c>
+      <c r="FI103">
+        <v>0</v>
+      </c>
+      <c r="FJ103">
+        <v>355</v>
+      </c>
+      <c r="FK103">
+        <v>6</v>
+      </c>
+      <c r="FL103">
+        <v>201</v>
+      </c>
+      <c r="FM103">
+        <v>0</v>
+      </c>
+      <c r="FN103">
+        <v>0</v>
+      </c>
+      <c r="FO103">
+        <v>286</v>
+      </c>
+      <c r="FP103">
+        <v>10</v>
+      </c>
+      <c r="FQ103">
+        <v>19</v>
+      </c>
+      <c r="FR103">
+        <v>33</v>
+      </c>
+      <c r="FS103">
+        <v>4</v>
+      </c>
+      <c r="FT103">
+        <v>89</v>
+      </c>
+      <c r="FU103">
+        <v>27</v>
+      </c>
+      <c r="FV103">
+        <v>0</v>
+      </c>
+      <c r="FW103">
+        <v>5756</v>
+      </c>
+      <c r="FX103">
+        <v>1</v>
+      </c>
+      <c r="FY103">
+        <v>0</v>
+      </c>
+      <c r="FZ103">
+        <v>0</v>
+      </c>
+      <c r="GA103">
+        <v>722</v>
+      </c>
+      <c r="GB103">
+        <v>785</v>
+      </c>
+      <c r="GC103">
+        <v>0</v>
+      </c>
+      <c r="GD103">
+        <v>1</v>
+      </c>
+      <c r="GE103">
+        <v>50</v>
+      </c>
+      <c r="GF103">
+        <v>1</v>
+      </c>
+      <c r="GG103">
+        <v>3</v>
+      </c>
+      <c r="GH103">
+        <v>2</v>
+      </c>
+      <c r="GI103">
+        <v>20</v>
+      </c>
+      <c r="GJ103">
+        <v>4056</v>
+      </c>
+      <c r="GK103">
+        <v>0</v>
+      </c>
+      <c r="GL103">
+        <v>0</v>
+      </c>
+      <c r="GM103">
+        <v>224</v>
+      </c>
+      <c r="GN103">
+        <v>331</v>
+      </c>
+      <c r="GO103">
+        <v>4344</v>
+      </c>
+      <c r="GP103">
+        <v>0</v>
+      </c>
+      <c r="GQ103">
+        <v>5</v>
+      </c>
+      <c r="GR103">
+        <v>33901</v>
+      </c>
+      <c r="GS103">
+        <v>17</v>
+      </c>
+      <c r="GT103">
+        <v>27</v>
+      </c>
+      <c r="GU103">
+        <v>4</v>
+      </c>
+      <c r="GV103">
+        <v>4</v>
+      </c>
+      <c r="GW103">
+        <v>1</v>
+      </c>
+      <c r="GX103">
+        <v>0</v>
+      </c>
+      <c r="GY103">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31291,7 +31917,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GX102"/>
+  <dimension ref="A1:GY103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -31305,7 +31931,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:206">
+    <row r="1" spans="1:207">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31924,8 +32550,11 @@
       <c r="GX1" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="GY1" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="2" spans="1:206">
+    <row r="2" spans="1:207">
       <c r="A2" s="2">
         <v>43830</v>
       </c>
@@ -32131,7 +32760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:206">
+    <row r="3" spans="1:207">
       <c r="A3" s="2">
         <v>43831</v>
       </c>
@@ -32337,7 +32966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:206">
+    <row r="4" spans="1:207">
       <c r="A4" s="2">
         <v>43832</v>
       </c>
@@ -32543,7 +33172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:206">
+    <row r="5" spans="1:207">
       <c r="A5" s="2">
         <v>43833</v>
       </c>
@@ -32749,7 +33378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:206">
+    <row r="6" spans="1:207">
       <c r="A6" s="2">
         <v>43834</v>
       </c>
@@ -32955,7 +33584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:206">
+    <row r="7" spans="1:207">
       <c r="A7" s="2">
         <v>43835</v>
       </c>
@@ -33161,7 +33790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:206">
+    <row r="8" spans="1:207">
       <c r="A8" s="2">
         <v>43836</v>
       </c>
@@ -33367,7 +33996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:206">
+    <row r="9" spans="1:207">
       <c r="A9" s="2">
         <v>43837</v>
       </c>
@@ -33573,7 +34202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:206">
+    <row r="10" spans="1:207">
       <c r="A10" s="2">
         <v>43838</v>
       </c>
@@ -33779,7 +34408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:206">
+    <row r="11" spans="1:207">
       <c r="A11" s="2">
         <v>43839</v>
       </c>
@@ -33985,7 +34614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:206">
+    <row r="12" spans="1:207">
       <c r="A12" s="2">
         <v>43840</v>
       </c>
@@ -34191,7 +34820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:206">
+    <row r="13" spans="1:207">
       <c r="A13" s="2">
         <v>43841</v>
       </c>
@@ -34397,7 +35026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:206">
+    <row r="14" spans="1:207">
       <c r="A14" s="2">
         <v>43842</v>
       </c>
@@ -34603,7 +35232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:206">
+    <row r="15" spans="1:207">
       <c r="A15" s="2">
         <v>43843</v>
       </c>
@@ -34809,7 +35438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:206">
+    <row r="16" spans="1:207">
       <c r="A16" s="2">
         <v>43844</v>
       </c>
@@ -48916,7 +49545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:206">
+    <row r="81" spans="1:207">
       <c r="A81" s="2">
         <v>43909</v>
       </c>
@@ -49364,11 +49993,11 @@
       <c r="GV81">
         <v>0</v>
       </c>
-      <c r="GW81">
+      <c r="GX81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:206">
+    <row r="82" spans="1:207">
       <c r="A82" s="2">
         <v>43910</v>
       </c>
@@ -49858,11 +50487,11 @@
       <c r="GV82">
         <v>0</v>
       </c>
-      <c r="GW82">
+      <c r="GX82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:206">
+    <row r="83" spans="1:207">
       <c r="A83" s="2">
         <v>43911</v>
       </c>
@@ -50373,14 +51002,14 @@
       <c r="GV83">
         <v>0</v>
       </c>
-      <c r="GW83">
-        <v>0</v>
-      </c>
       <c r="GX83">
         <v>0</v>
       </c>
+      <c r="GY83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:206">
+    <row r="84" spans="1:207">
       <c r="A84" s="2">
         <v>43912</v>
       </c>
@@ -50903,14 +51532,14 @@
       <c r="GV84">
         <v>0</v>
       </c>
-      <c r="GW84">
-        <v>0</v>
-      </c>
       <c r="GX84">
         <v>0</v>
       </c>
+      <c r="GY84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:206">
+    <row r="85" spans="1:207">
       <c r="A85" s="2">
         <v>43913</v>
       </c>
@@ -51445,14 +52074,14 @@
       <c r="GV85">
         <v>0</v>
       </c>
-      <c r="GW85">
-        <v>0</v>
-      </c>
       <c r="GX85">
         <v>0</v>
       </c>
+      <c r="GY85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:206">
+    <row r="86" spans="1:207">
       <c r="A86" s="2">
         <v>43914</v>
       </c>
@@ -52002,14 +52631,14 @@
       <c r="GV86">
         <v>0</v>
       </c>
-      <c r="GW86">
-        <v>0</v>
-      </c>
       <c r="GX86">
+        <v>0</v>
+      </c>
+      <c r="GY86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:206">
+    <row r="87" spans="1:207">
       <c r="A87" s="2">
         <v>43915</v>
       </c>
@@ -52568,14 +53197,14 @@
       <c r="GV87">
         <v>0</v>
       </c>
-      <c r="GW87">
-        <v>0</v>
-      </c>
       <c r="GX87">
         <v>0</v>
       </c>
+      <c r="GY87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:206">
+    <row r="88" spans="1:207">
       <c r="A88" s="2">
         <v>43916</v>
       </c>
@@ -53146,14 +53775,14 @@
       <c r="GV88">
         <v>0</v>
       </c>
-      <c r="GW88">
-        <v>0</v>
-      </c>
       <c r="GX88">
         <v>0</v>
       </c>
+      <c r="GY88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:206">
+    <row r="89" spans="1:207">
       <c r="A89" s="2">
         <v>43917</v>
       </c>
@@ -53733,14 +54362,14 @@
       <c r="GV89">
         <v>0</v>
       </c>
-      <c r="GW89">
-        <v>0</v>
-      </c>
       <c r="GX89">
         <v>0</v>
       </c>
+      <c r="GY89">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:206">
+    <row r="90" spans="1:207">
       <c r="A90" s="2">
         <v>43918</v>
       </c>
@@ -54323,14 +54952,14 @@
       <c r="GV90">
         <v>0</v>
       </c>
-      <c r="GW90">
-        <v>0</v>
-      </c>
       <c r="GX90">
         <v>0</v>
       </c>
+      <c r="GY90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:206">
+    <row r="91" spans="1:207">
       <c r="A91" s="2">
         <v>43919</v>
       </c>
@@ -54913,14 +55542,14 @@
       <c r="GV91">
         <v>0</v>
       </c>
-      <c r="GW91">
-        <v>0</v>
-      </c>
       <c r="GX91">
         <v>0</v>
       </c>
+      <c r="GY91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:206">
+    <row r="92" spans="1:207">
       <c r="A92" s="2">
         <v>43920</v>
       </c>
@@ -55503,14 +56132,14 @@
       <c r="GV92">
         <v>0</v>
       </c>
-      <c r="GW92">
-        <v>0</v>
-      </c>
       <c r="GX92">
         <v>0</v>
       </c>
+      <c r="GY92">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:206">
+    <row r="93" spans="1:207">
       <c r="A93" s="2">
         <v>43921</v>
       </c>
@@ -56084,14 +56713,14 @@
       <c r="GV93">
         <v>0</v>
       </c>
-      <c r="GW93">
-        <v>0</v>
-      </c>
       <c r="GX93">
         <v>0</v>
       </c>
+      <c r="GY93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:206">
+    <row r="94" spans="1:207">
       <c r="A94" s="2">
         <v>43922</v>
       </c>
@@ -56683,14 +57312,14 @@
       <c r="GV94">
         <v>0</v>
       </c>
-      <c r="GW94">
-        <v>0</v>
-      </c>
       <c r="GX94">
         <v>0</v>
       </c>
+      <c r="GY94">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:206">
+    <row r="95" spans="1:207">
       <c r="A95" s="2">
         <v>43923</v>
       </c>
@@ -57288,14 +57917,14 @@
       <c r="GV95">
         <v>0</v>
       </c>
-      <c r="GW95">
-        <v>0</v>
-      </c>
       <c r="GX95">
         <v>0</v>
       </c>
+      <c r="GY95">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:206">
+    <row r="96" spans="1:207">
       <c r="A96" s="2">
         <v>43924</v>
       </c>
@@ -57896,14 +58525,14 @@
       <c r="GV96">
         <v>0</v>
       </c>
-      <c r="GW96">
-        <v>1</v>
-      </c>
       <c r="GX96">
+        <v>1</v>
+      </c>
+      <c r="GY96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:206">
+    <row r="97" spans="1:207">
       <c r="A97" s="2">
         <v>43925</v>
       </c>
@@ -58507,14 +59136,14 @@
       <c r="GV97">
         <v>0</v>
       </c>
-      <c r="GW97">
-        <v>0</v>
-      </c>
       <c r="GX97">
         <v>0</v>
       </c>
+      <c r="GY97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:206">
+    <row r="98" spans="1:207">
       <c r="A98" s="2">
         <v>43926</v>
       </c>
@@ -59115,14 +59744,14 @@
       <c r="GV98">
         <v>0</v>
       </c>
-      <c r="GW98">
-        <v>0</v>
-      </c>
       <c r="GX98">
         <v>0</v>
       </c>
+      <c r="GY98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:206">
+    <row r="99" spans="1:207">
       <c r="A99" s="2">
         <v>43927</v>
       </c>
@@ -59729,14 +60358,14 @@
       <c r="GV99">
         <v>0</v>
       </c>
-      <c r="GW99">
-        <v>0</v>
-      </c>
       <c r="GX99">
         <v>0</v>
       </c>
+      <c r="GY99">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:206">
+    <row r="100" spans="1:207">
       <c r="A100" s="2">
         <v>43928</v>
       </c>
@@ -60343,14 +60972,14 @@
       <c r="GV100">
         <v>0</v>
       </c>
-      <c r="GW100">
-        <v>0</v>
-      </c>
       <c r="GX100">
         <v>0</v>
       </c>
+      <c r="GY100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:206">
+    <row r="101" spans="1:207">
       <c r="A101" s="2">
         <v>43929</v>
       </c>
@@ -60957,14 +61586,14 @@
       <c r="GV101">
         <v>0</v>
       </c>
-      <c r="GW101">
-        <v>0</v>
-      </c>
       <c r="GX101">
         <v>0</v>
       </c>
+      <c r="GY101">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:206">
+    <row r="102" spans="1:207">
       <c r="A102" s="2">
         <v>43930</v>
       </c>
@@ -61574,10 +62203,630 @@
       <c r="GV102">
         <v>0</v>
       </c>
-      <c r="GW102">
-        <v>0</v>
-      </c>
       <c r="GX102">
+        <v>0</v>
+      </c>
+      <c r="GY102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:207">
+      <c r="A103" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>30</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>14</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>2</v>
+      </c>
+      <c r="M103">
+        <v>22</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>3</v>
+      </c>
+      <c r="T103">
+        <v>283</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>1</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>1</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>1</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
+        <v>141</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
+        <v>0</v>
+      </c>
+      <c r="AG103">
+        <v>1</v>
+      </c>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>74</v>
+      </c>
+      <c r="AL103">
+        <v>0</v>
+      </c>
+      <c r="AN103">
+        <v>0</v>
+      </c>
+      <c r="AO103">
+        <v>0</v>
+      </c>
+      <c r="AP103">
+        <v>0</v>
+      </c>
+      <c r="AQ103">
+        <v>9</v>
+      </c>
+      <c r="AR103">
+        <v>1</v>
+      </c>
+      <c r="AS103">
+        <v>14</v>
+      </c>
+      <c r="AT103">
+        <v>0</v>
+      </c>
+      <c r="AU103">
+        <v>1</v>
+      </c>
+      <c r="AV103">
+        <v>0</v>
+      </c>
+      <c r="AW103">
+        <v>1</v>
+      </c>
+      <c r="AX103">
+        <v>3</v>
+      </c>
+      <c r="AY103">
+        <v>0</v>
+      </c>
+      <c r="AZ103">
+        <v>1</v>
+      </c>
+      <c r="BA103">
+        <v>13</v>
+      </c>
+      <c r="BB103">
+        <v>0</v>
+      </c>
+      <c r="BC103">
+        <v>19</v>
+      </c>
+      <c r="BD103">
+        <v>1</v>
+      </c>
+      <c r="BE103">
+        <v>0</v>
+      </c>
+      <c r="BF103">
+        <v>10</v>
+      </c>
+      <c r="BG103">
+        <v>30</v>
+      </c>
+      <c r="BH103">
+        <v>15</v>
+      </c>
+      <c r="BI103">
+        <v>1</v>
+      </c>
+      <c r="BJ103">
+        <v>0</v>
+      </c>
+      <c r="BK103">
+        <v>0</v>
+      </c>
+      <c r="BL103">
+        <v>0</v>
+      </c>
+      <c r="BM103">
+        <v>0</v>
+      </c>
+      <c r="BN103">
+        <v>0</v>
+      </c>
+      <c r="BO103">
+        <v>0</v>
+      </c>
+      <c r="BP103">
+        <v>0</v>
+      </c>
+      <c r="BQ103">
+        <v>0</v>
+      </c>
+      <c r="BR103">
+        <v>2</v>
+      </c>
+      <c r="BS103">
+        <v>1341</v>
+      </c>
+      <c r="BT103">
+        <v>0</v>
+      </c>
+      <c r="BU103">
+        <v>0</v>
+      </c>
+      <c r="BV103">
+        <v>0</v>
+      </c>
+      <c r="BW103">
+        <v>0</v>
+      </c>
+      <c r="BX103">
+        <v>266</v>
+      </c>
+      <c r="BY103">
+        <v>0</v>
+      </c>
+      <c r="BZ103">
+        <v>0</v>
+      </c>
+      <c r="CA103">
+        <v>3</v>
+      </c>
+      <c r="CB103">
+        <v>0</v>
+      </c>
+      <c r="CC103">
+        <v>0</v>
+      </c>
+      <c r="CD103">
+        <v>0</v>
+      </c>
+      <c r="CE103">
+        <v>0</v>
+      </c>
+      <c r="CF103">
+        <v>0</v>
+      </c>
+      <c r="CG103">
+        <v>0</v>
+      </c>
+      <c r="CH103">
+        <v>0</v>
+      </c>
+      <c r="CI103">
+        <v>0</v>
+      </c>
+      <c r="CJ103">
+        <v>1</v>
+      </c>
+      <c r="CK103">
+        <v>0</v>
+      </c>
+      <c r="CL103">
+        <v>0</v>
+      </c>
+      <c r="CM103">
+        <v>11</v>
+      </c>
+      <c r="CN103">
+        <v>0</v>
+      </c>
+      <c r="CO103">
+        <v>33</v>
+      </c>
+      <c r="CP103">
+        <v>40</v>
+      </c>
+      <c r="CQ103">
+        <v>117</v>
+      </c>
+      <c r="CR103">
+        <v>0</v>
+      </c>
+      <c r="CS103">
+        <v>28</v>
+      </c>
+      <c r="CT103">
+        <v>0</v>
+      </c>
+      <c r="CU103">
+        <v>15</v>
+      </c>
+      <c r="CV103">
+        <v>612</v>
+      </c>
+      <c r="CW103">
+        <v>0</v>
+      </c>
+      <c r="CX103">
+        <v>4</v>
+      </c>
+      <c r="CY103">
+        <v>0</v>
+      </c>
+      <c r="CZ103">
+        <v>1</v>
+      </c>
+      <c r="DA103">
+        <v>2</v>
+      </c>
+      <c r="DB103">
+        <v>1</v>
+      </c>
+      <c r="DC103">
+        <v>2</v>
+      </c>
+      <c r="DD103">
+        <v>0</v>
+      </c>
+      <c r="DE103">
+        <v>1</v>
+      </c>
+      <c r="DF103">
+        <v>0</v>
+      </c>
+      <c r="DG103">
+        <v>0</v>
+      </c>
+      <c r="DH103">
+        <v>0</v>
+      </c>
+      <c r="DI103">
+        <v>0</v>
+      </c>
+      <c r="DJ103">
+        <v>0</v>
+      </c>
+      <c r="DK103">
+        <v>0</v>
+      </c>
+      <c r="DL103">
+        <v>0</v>
+      </c>
+      <c r="DM103">
+        <v>6</v>
+      </c>
+      <c r="DN103">
+        <v>0</v>
+      </c>
+      <c r="DO103">
+        <v>0</v>
+      </c>
+      <c r="DP103">
+        <v>2</v>
+      </c>
+      <c r="DQ103">
+        <v>0</v>
+      </c>
+      <c r="DR103">
+        <v>0</v>
+      </c>
+      <c r="DS103">
+        <v>1</v>
+      </c>
+      <c r="DT103">
+        <v>0</v>
+      </c>
+      <c r="DU103">
+        <v>0</v>
+      </c>
+      <c r="DV103">
+        <v>20</v>
+      </c>
+      <c r="DW103">
+        <v>2</v>
+      </c>
+      <c r="DX103">
+        <v>0</v>
+      </c>
+      <c r="DY103">
+        <v>0</v>
+      </c>
+      <c r="DZ103">
+        <v>0</v>
+      </c>
+      <c r="EA103">
+        <v>0</v>
+      </c>
+      <c r="EB103">
+        <v>4</v>
+      </c>
+      <c r="EC103">
+        <v>0</v>
+      </c>
+      <c r="ED103">
+        <v>0</v>
+      </c>
+      <c r="EE103">
+        <v>0</v>
+      </c>
+      <c r="EF103">
+        <v>0</v>
+      </c>
+      <c r="EG103">
+        <v>148</v>
+      </c>
+      <c r="EH103">
+        <v>0</v>
+      </c>
+      <c r="EI103">
+        <v>1</v>
+      </c>
+      <c r="EJ103">
+        <v>0</v>
+      </c>
+      <c r="EK103">
+        <v>0</v>
+      </c>
+      <c r="EL103">
+        <v>1</v>
+      </c>
+      <c r="EM103">
+        <v>7</v>
+      </c>
+      <c r="EN103">
+        <v>0</v>
+      </c>
+      <c r="EO103">
+        <v>8</v>
+      </c>
+      <c r="EP103">
+        <v>1</v>
+      </c>
+      <c r="EQ103">
+        <v>3</v>
+      </c>
+      <c r="ER103">
+        <v>0</v>
+      </c>
+      <c r="ES103">
+        <v>3</v>
+      </c>
+      <c r="ET103">
+        <v>0</v>
+      </c>
+      <c r="EU103">
+        <v>1</v>
+      </c>
+      <c r="EV103">
+        <v>17</v>
+      </c>
+      <c r="EW103">
+        <v>21</v>
+      </c>
+      <c r="EX103">
+        <v>15</v>
+      </c>
+      <c r="EY103">
+        <v>29</v>
+      </c>
+      <c r="EZ103">
+        <v>9</v>
+      </c>
+      <c r="FA103">
+        <v>0</v>
+      </c>
+      <c r="FB103">
+        <v>20</v>
+      </c>
+      <c r="FC103">
+        <v>13</v>
+      </c>
+      <c r="FD103">
+        <v>0</v>
+      </c>
+      <c r="FE103">
+        <v>0</v>
+      </c>
+      <c r="FF103">
+        <v>0</v>
+      </c>
+      <c r="FG103">
+        <v>0</v>
+      </c>
+      <c r="FH103">
+        <v>0</v>
+      </c>
+      <c r="FI103">
+        <v>0</v>
+      </c>
+      <c r="FJ103">
+        <v>3</v>
+      </c>
+      <c r="FK103">
+        <v>0</v>
+      </c>
+      <c r="FL103">
+        <v>1</v>
+      </c>
+      <c r="FM103">
+        <v>0</v>
+      </c>
+      <c r="FN103">
+        <v>0</v>
+      </c>
+      <c r="FO103">
+        <v>0</v>
+      </c>
+      <c r="FP103">
+        <v>0</v>
+      </c>
+      <c r="FQ103">
+        <v>0</v>
+      </c>
+      <c r="FR103">
+        <v>3</v>
+      </c>
+      <c r="FS103">
+        <v>1</v>
+      </c>
+      <c r="FT103">
+        <v>0</v>
+      </c>
+      <c r="FU103">
+        <v>4</v>
+      </c>
+      <c r="FV103">
+        <v>0</v>
+      </c>
+      <c r="FW103">
+        <v>683</v>
+      </c>
+      <c r="FX103">
+        <v>0</v>
+      </c>
+      <c r="FY103">
+        <v>0</v>
+      </c>
+      <c r="FZ103">
+        <v>0</v>
+      </c>
+      <c r="GA103">
+        <v>106</v>
+      </c>
+      <c r="GB103">
+        <v>51</v>
+      </c>
+      <c r="GC103">
+        <v>0</v>
+      </c>
+      <c r="GD103">
+        <v>0</v>
+      </c>
+      <c r="GE103">
+        <v>1</v>
+      </c>
+      <c r="GF103">
+        <v>0</v>
+      </c>
+      <c r="GG103">
+        <v>0</v>
+      </c>
+      <c r="GH103">
+        <v>0</v>
+      </c>
+      <c r="GI103">
+        <v>2</v>
+      </c>
+      <c r="GJ103">
+        <v>96</v>
+      </c>
+      <c r="GK103">
+        <v>0</v>
+      </c>
+      <c r="GL103">
+        <v>0</v>
+      </c>
+      <c r="GM103">
+        <v>5</v>
+      </c>
+      <c r="GN103">
+        <v>2</v>
+      </c>
+      <c r="GO103">
+        <v>881</v>
+      </c>
+      <c r="GP103">
+        <v>0</v>
+      </c>
+      <c r="GQ103">
+        <v>0</v>
+      </c>
+      <c r="GR103">
+        <v>1873</v>
+      </c>
+      <c r="GS103">
+        <v>0</v>
+      </c>
+      <c r="GT103">
+        <v>0</v>
+      </c>
+      <c r="GU103">
+        <v>1</v>
+      </c>
+      <c r="GV103">
+        <v>0</v>
+      </c>
+      <c r="GW103">
+        <v>0</v>
+      </c>
+      <c r="GX103">
+        <v>0</v>
+      </c>
+      <c r="GY103">
         <v>1</v>
       </c>
     </row>

--- a/ecdc_csv/data/ecdc_csv_diff.xlsx
+++ b/ecdc_csv/data/ecdc_csv_diff.xlsx
@@ -997,7 +997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY103"/>
+  <dimension ref="A1:GY104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -31910,6 +31910,626 @@
         <v>0</v>
       </c>
     </row>
+    <row r="104" spans="1:207">
+      <c r="A104" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B104">
+        <v>37</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+      <c r="D104">
+        <v>95</v>
+      </c>
+      <c r="E104">
+        <v>18</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
+        <v>81</v>
+      </c>
+      <c r="J104">
+        <v>16</v>
+      </c>
+      <c r="K104">
+        <v>4</v>
+      </c>
+      <c r="L104">
+        <v>86</v>
+      </c>
+      <c r="M104">
+        <v>312</v>
+      </c>
+      <c r="N104">
+        <v>65</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104">
+        <v>111</v>
+      </c>
+      <c r="Q104">
+        <v>94</v>
+      </c>
+      <c r="R104">
+        <v>1</v>
+      </c>
+      <c r="S104">
+        <v>495</v>
+      </c>
+      <c r="T104">
+        <v>1684</v>
+      </c>
+      <c r="U104">
+        <v>1</v>
+      </c>
+      <c r="V104">
+        <v>5</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>8</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>26</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>1781</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>1</v>
+      </c>
+      <c r="AF104">
+        <v>11</v>
+      </c>
+      <c r="AG104">
+        <v>5</v>
+      </c>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>1</v>
+      </c>
+      <c r="AJ104">
+        <v>73</v>
+      </c>
+      <c r="AK104">
+        <v>1385</v>
+      </c>
+      <c r="AL104">
+        <v>0</v>
+      </c>
+      <c r="AN104">
+        <v>0</v>
+      </c>
+      <c r="AO104">
+        <v>0</v>
+      </c>
+      <c r="AP104">
+        <v>0</v>
+      </c>
+      <c r="AQ104">
+        <v>529</v>
+      </c>
+      <c r="AR104">
+        <v>79</v>
+      </c>
+      <c r="AS104">
+        <v>250</v>
+      </c>
+      <c r="AT104">
+        <v>0</v>
+      </c>
+      <c r="AU104">
+        <v>19</v>
+      </c>
+      <c r="AV104">
+        <v>36</v>
+      </c>
+      <c r="AW104">
+        <v>88</v>
+      </c>
+      <c r="AX104">
+        <v>49</v>
+      </c>
+      <c r="AY104">
+        <v>0</v>
+      </c>
+      <c r="AZ104">
+        <v>31</v>
+      </c>
+      <c r="BA104">
+        <v>163</v>
+      </c>
+      <c r="BB104">
+        <v>8</v>
+      </c>
+      <c r="BC104">
+        <v>184</v>
+      </c>
+      <c r="BD104">
+        <v>10</v>
+      </c>
+      <c r="BE104">
+        <v>0</v>
+      </c>
+      <c r="BF104">
+        <v>271</v>
+      </c>
+      <c r="BG104">
+        <v>2196</v>
+      </c>
+      <c r="BH104">
+        <v>95</v>
+      </c>
+      <c r="BI104">
+        <v>1</v>
+      </c>
+      <c r="BJ104">
+        <v>0</v>
+      </c>
+      <c r="BK104">
+        <v>1</v>
+      </c>
+      <c r="BL104">
+        <v>51</v>
+      </c>
+      <c r="BM104">
+        <v>0</v>
+      </c>
+      <c r="BN104">
+        <v>9</v>
+      </c>
+      <c r="BO104">
+        <v>0</v>
+      </c>
+      <c r="BP104">
+        <v>0</v>
+      </c>
+      <c r="BQ104">
+        <v>1</v>
+      </c>
+      <c r="BR104">
+        <v>164</v>
+      </c>
+      <c r="BS104">
+        <v>4342</v>
+      </c>
+      <c r="BT104">
+        <v>0</v>
+      </c>
+      <c r="BU104">
+        <v>2</v>
+      </c>
+      <c r="BV104">
+        <v>0</v>
+      </c>
+      <c r="BW104">
+        <v>16</v>
+      </c>
+      <c r="BX104">
+        <v>4133</v>
+      </c>
+      <c r="BY104">
+        <v>0</v>
+      </c>
+      <c r="BZ104">
+        <v>4</v>
+      </c>
+      <c r="CA104">
+        <v>56</v>
+      </c>
+      <c r="CB104">
+        <v>0</v>
+      </c>
+      <c r="CC104">
+        <v>2</v>
+      </c>
+      <c r="CD104">
+        <v>2</v>
+      </c>
+      <c r="CE104">
+        <v>11</v>
+      </c>
+      <c r="CF104">
+        <v>9</v>
+      </c>
+      <c r="CG104">
+        <v>18</v>
+      </c>
+      <c r="CH104">
+        <v>0</v>
+      </c>
+      <c r="CI104">
+        <v>3</v>
+      </c>
+      <c r="CJ104">
+        <v>1</v>
+      </c>
+      <c r="CK104">
+        <v>0</v>
+      </c>
+      <c r="CL104">
+        <v>10</v>
+      </c>
+      <c r="CM104">
+        <v>120</v>
+      </c>
+      <c r="CN104">
+        <v>27</v>
+      </c>
+      <c r="CO104">
+        <v>1035</v>
+      </c>
+      <c r="CP104">
+        <v>219</v>
+      </c>
+      <c r="CQ104">
+        <v>1972</v>
+      </c>
+      <c r="CR104">
+        <v>47</v>
+      </c>
+      <c r="CS104">
+        <v>696</v>
+      </c>
+      <c r="CT104">
+        <v>11</v>
+      </c>
+      <c r="CU104">
+        <v>440</v>
+      </c>
+      <c r="CV104">
+        <v>3951</v>
+      </c>
+      <c r="CW104">
+        <v>2</v>
+      </c>
+      <c r="CX104">
+        <v>680</v>
+      </c>
+      <c r="CY104">
+        <v>15</v>
+      </c>
+      <c r="CZ104">
+        <v>0</v>
+      </c>
+      <c r="DA104">
+        <v>38</v>
+      </c>
+      <c r="DB104">
+        <v>5</v>
+      </c>
+      <c r="DC104">
+        <v>23</v>
+      </c>
+      <c r="DD104">
+        <v>83</v>
+      </c>
+      <c r="DE104">
+        <v>41</v>
+      </c>
+      <c r="DF104">
+        <v>0</v>
+      </c>
+      <c r="DG104">
+        <v>23</v>
+      </c>
+      <c r="DH104">
+        <v>27</v>
+      </c>
+      <c r="DI104">
+        <v>6</v>
+      </c>
+      <c r="DJ104">
+        <v>0</v>
+      </c>
+      <c r="DK104">
+        <v>1</v>
+      </c>
+      <c r="DL104">
+        <v>44</v>
+      </c>
+      <c r="DM104">
+        <v>108</v>
+      </c>
+      <c r="DN104">
+        <v>9</v>
+      </c>
+      <c r="DO104">
+        <v>1</v>
+      </c>
+      <c r="DP104">
+        <v>118</v>
+      </c>
+      <c r="DQ104">
+        <v>0</v>
+      </c>
+      <c r="DR104">
+        <v>28</v>
+      </c>
+      <c r="DS104">
+        <v>13</v>
+      </c>
+      <c r="DT104">
+        <v>0</v>
+      </c>
+      <c r="DU104">
+        <v>4</v>
+      </c>
+      <c r="DV104">
+        <v>403</v>
+      </c>
+      <c r="DW104">
+        <v>149</v>
+      </c>
+      <c r="DX104">
+        <v>6</v>
+      </c>
+      <c r="DY104">
+        <v>0</v>
+      </c>
+      <c r="DZ104">
+        <v>5</v>
+      </c>
+      <c r="EA104">
+        <v>0</v>
+      </c>
+      <c r="EB104">
+        <v>74</v>
+      </c>
+      <c r="EC104">
+        <v>3</v>
+      </c>
+      <c r="ED104">
+        <v>1</v>
+      </c>
+      <c r="EE104">
+        <v>0</v>
+      </c>
+      <c r="EF104">
+        <v>0</v>
+      </c>
+      <c r="EG104">
+        <v>1335</v>
+      </c>
+      <c r="EH104">
+        <v>0</v>
+      </c>
+      <c r="EI104">
+        <v>20</v>
+      </c>
+      <c r="EJ104">
+        <v>0</v>
+      </c>
+      <c r="EK104">
+        <v>28</v>
+      </c>
+      <c r="EL104">
+        <v>17</v>
+      </c>
+      <c r="EM104">
+        <v>48</v>
+      </c>
+      <c r="EN104">
+        <v>0</v>
+      </c>
+      <c r="EO104">
+        <v>84</v>
+      </c>
+      <c r="EP104">
+        <v>27</v>
+      </c>
+      <c r="EQ104">
+        <v>187</v>
+      </c>
+      <c r="ER104">
+        <v>3</v>
+      </c>
+      <c r="ES104">
+        <v>222</v>
+      </c>
+      <c r="ET104">
+        <v>0</v>
+      </c>
+      <c r="EU104">
+        <v>4</v>
+      </c>
+      <c r="EV104">
+        <v>641</v>
+      </c>
+      <c r="EW104">
+        <v>0</v>
+      </c>
+      <c r="EX104">
+        <v>380</v>
+      </c>
+      <c r="EY104">
+        <v>1516</v>
+      </c>
+      <c r="EZ104">
+        <v>42</v>
+      </c>
+      <c r="FA104">
+        <v>136</v>
+      </c>
+      <c r="FB104">
+        <v>265</v>
+      </c>
+      <c r="FC104">
+        <v>1786</v>
+      </c>
+      <c r="FD104">
+        <v>5</v>
+      </c>
+      <c r="FE104">
+        <v>1</v>
+      </c>
+      <c r="FF104">
+        <v>1</v>
+      </c>
+      <c r="FG104">
+        <v>0</v>
+      </c>
+      <c r="FH104">
+        <v>11</v>
+      </c>
+      <c r="FI104">
+        <v>0</v>
+      </c>
+      <c r="FJ104">
+        <v>364</v>
+      </c>
+      <c r="FK104">
+        <v>15</v>
+      </c>
+      <c r="FL104">
+        <v>238</v>
+      </c>
+      <c r="FM104">
+        <v>0</v>
+      </c>
+      <c r="FN104">
+        <v>1</v>
+      </c>
+      <c r="FO104">
+        <v>0</v>
+      </c>
+      <c r="FP104">
+        <v>0</v>
+      </c>
+      <c r="FQ104">
+        <v>14</v>
+      </c>
+      <c r="FR104">
+        <v>36</v>
+      </c>
+      <c r="FS104">
+        <v>9</v>
+      </c>
+      <c r="FT104">
+        <v>69</v>
+      </c>
+      <c r="FU104">
+        <v>0</v>
+      </c>
+      <c r="FV104">
+        <v>1</v>
+      </c>
+      <c r="FW104">
+        <v>4576</v>
+      </c>
+      <c r="FX104">
+        <v>7</v>
+      </c>
+      <c r="FY104">
+        <v>1</v>
+      </c>
+      <c r="FZ104">
+        <v>0</v>
+      </c>
+      <c r="GA104">
+        <v>544</v>
+      </c>
+      <c r="GB104">
+        <v>733</v>
+      </c>
+      <c r="GC104">
+        <v>0</v>
+      </c>
+      <c r="GD104">
+        <v>0</v>
+      </c>
+      <c r="GE104">
+        <v>45</v>
+      </c>
+      <c r="GF104">
+        <v>0</v>
+      </c>
+      <c r="GG104">
+        <v>3</v>
+      </c>
+      <c r="GH104">
+        <v>0</v>
+      </c>
+      <c r="GI104">
+        <v>28</v>
+      </c>
+      <c r="GJ104">
+        <v>4747</v>
+      </c>
+      <c r="GK104">
+        <v>1</v>
+      </c>
+      <c r="GL104">
+        <v>0</v>
+      </c>
+      <c r="GM104">
+        <v>311</v>
+      </c>
+      <c r="GN104">
+        <v>370</v>
+      </c>
+      <c r="GO104">
+        <v>5195</v>
+      </c>
+      <c r="GP104">
+        <v>7</v>
+      </c>
+      <c r="GQ104">
+        <v>0</v>
+      </c>
+      <c r="GR104">
+        <v>35527</v>
+      </c>
+      <c r="GS104">
+        <v>21</v>
+      </c>
+      <c r="GT104">
+        <v>42</v>
+      </c>
+      <c r="GU104">
+        <v>4</v>
+      </c>
+      <c r="GV104">
+        <v>0</v>
+      </c>
+      <c r="GW104">
+        <v>0</v>
+      </c>
+      <c r="GX104">
+        <v>1</v>
+      </c>
+      <c r="GY104">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31917,7 +32537,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY103"/>
+  <dimension ref="A1:GY104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -62635,7 +63255,7 @@
         <v>1</v>
       </c>
       <c r="EM103">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="EN103">
         <v>0</v>
@@ -62828,6 +63448,626 @@
       </c>
       <c r="GY103">
         <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:207">
+      <c r="A104" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>21</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>3</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>24</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>6</v>
+      </c>
+      <c r="R104">
+        <v>1</v>
+      </c>
+      <c r="S104">
+        <v>3</v>
+      </c>
+      <c r="T104">
+        <v>496</v>
+      </c>
+      <c r="U104">
+        <v>1</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>1</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>1</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>115</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
+      <c r="AF104">
+        <v>1</v>
+      </c>
+      <c r="AG104">
+        <v>2</v>
+      </c>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>60</v>
+      </c>
+      <c r="AL104">
+        <v>0</v>
+      </c>
+      <c r="AN104">
+        <v>0</v>
+      </c>
+      <c r="AO104">
+        <v>0</v>
+      </c>
+      <c r="AP104">
+        <v>0</v>
+      </c>
+      <c r="AQ104">
+        <v>8</v>
+      </c>
+      <c r="AR104">
+        <v>3</v>
+      </c>
+      <c r="AS104">
+        <v>11</v>
+      </c>
+      <c r="AT104">
+        <v>0</v>
+      </c>
+      <c r="AU104">
+        <v>0</v>
+      </c>
+      <c r="AV104">
+        <v>0</v>
+      </c>
+      <c r="AW104">
+        <v>1</v>
+      </c>
+      <c r="AX104">
+        <v>0</v>
+      </c>
+      <c r="AY104">
+        <v>0</v>
+      </c>
+      <c r="AZ104">
+        <v>0</v>
+      </c>
+      <c r="BA104">
+        <v>7</v>
+      </c>
+      <c r="BB104">
+        <v>0</v>
+      </c>
+      <c r="BC104">
+        <v>10</v>
+      </c>
+      <c r="BD104">
+        <v>0</v>
+      </c>
+      <c r="BE104">
+        <v>0</v>
+      </c>
+      <c r="BF104">
+        <v>8</v>
+      </c>
+      <c r="BG104">
+        <v>25</v>
+      </c>
+      <c r="BH104">
+        <v>17</v>
+      </c>
+      <c r="BI104">
+        <v>0</v>
+      </c>
+      <c r="BJ104">
+        <v>0</v>
+      </c>
+      <c r="BK104">
+        <v>0</v>
+      </c>
+      <c r="BL104">
+        <v>0</v>
+      </c>
+      <c r="BM104">
+        <v>0</v>
+      </c>
+      <c r="BN104">
+        <v>0</v>
+      </c>
+      <c r="BO104">
+        <v>0</v>
+      </c>
+      <c r="BP104">
+        <v>0</v>
+      </c>
+      <c r="BQ104">
+        <v>0</v>
+      </c>
+      <c r="BR104">
+        <v>6</v>
+      </c>
+      <c r="BS104">
+        <v>987</v>
+      </c>
+      <c r="BT104">
+        <v>0</v>
+      </c>
+      <c r="BU104">
+        <v>0</v>
+      </c>
+      <c r="BV104">
+        <v>0</v>
+      </c>
+      <c r="BW104">
+        <v>0</v>
+      </c>
+      <c r="BX104">
+        <v>171</v>
+      </c>
+      <c r="BY104">
+        <v>0</v>
+      </c>
+      <c r="BZ104">
+        <v>0</v>
+      </c>
+      <c r="CA104">
+        <v>4</v>
+      </c>
+      <c r="CB104">
+        <v>0</v>
+      </c>
+      <c r="CC104">
+        <v>0</v>
+      </c>
+      <c r="CD104">
+        <v>0</v>
+      </c>
+      <c r="CE104">
+        <v>0</v>
+      </c>
+      <c r="CF104">
+        <v>1</v>
+      </c>
+      <c r="CG104">
+        <v>0</v>
+      </c>
+      <c r="CH104">
+        <v>0</v>
+      </c>
+      <c r="CI104">
+        <v>0</v>
+      </c>
+      <c r="CJ104">
+        <v>0</v>
+      </c>
+      <c r="CK104">
+        <v>0</v>
+      </c>
+      <c r="CL104">
+        <v>1</v>
+      </c>
+      <c r="CM104">
+        <v>8</v>
+      </c>
+      <c r="CN104">
+        <v>1</v>
+      </c>
+      <c r="CO104">
+        <v>40</v>
+      </c>
+      <c r="CP104">
+        <v>26</v>
+      </c>
+      <c r="CQ104">
+        <v>122</v>
+      </c>
+      <c r="CR104">
+        <v>1</v>
+      </c>
+      <c r="CS104">
+        <v>24</v>
+      </c>
+      <c r="CT104">
+        <v>0</v>
+      </c>
+      <c r="CU104">
+        <v>9</v>
+      </c>
+      <c r="CV104">
+        <v>570</v>
+      </c>
+      <c r="CW104">
+        <v>0</v>
+      </c>
+      <c r="CX104">
+        <v>3</v>
+      </c>
+      <c r="CY104">
+        <v>1</v>
+      </c>
+      <c r="CZ104">
+        <v>0</v>
+      </c>
+      <c r="DA104">
+        <v>1</v>
+      </c>
+      <c r="DB104">
+        <v>0</v>
+      </c>
+      <c r="DC104">
+        <v>0</v>
+      </c>
+      <c r="DD104">
+        <v>0</v>
+      </c>
+      <c r="DE104">
+        <v>0</v>
+      </c>
+      <c r="DF104">
+        <v>0</v>
+      </c>
+      <c r="DG104">
+        <v>0</v>
+      </c>
+      <c r="DH104">
+        <v>1</v>
+      </c>
+      <c r="DI104">
+        <v>0</v>
+      </c>
+      <c r="DJ104">
+        <v>0</v>
+      </c>
+      <c r="DK104">
+        <v>0</v>
+      </c>
+      <c r="DL104">
+        <v>2</v>
+      </c>
+      <c r="DM104">
+        <v>2</v>
+      </c>
+      <c r="DN104">
+        <v>0</v>
+      </c>
+      <c r="DO104">
+        <v>0</v>
+      </c>
+      <c r="DP104">
+        <v>3</v>
+      </c>
+      <c r="DQ104">
+        <v>0</v>
+      </c>
+      <c r="DR104">
+        <v>0</v>
+      </c>
+      <c r="DS104">
+        <v>0</v>
+      </c>
+      <c r="DT104">
+        <v>0</v>
+      </c>
+      <c r="DU104">
+        <v>2</v>
+      </c>
+      <c r="DV104">
+        <v>39</v>
+      </c>
+      <c r="DW104">
+        <v>0</v>
+      </c>
+      <c r="DX104">
+        <v>0</v>
+      </c>
+      <c r="DY104">
+        <v>0</v>
+      </c>
+      <c r="DZ104">
+        <v>0</v>
+      </c>
+      <c r="EA104">
+        <v>0</v>
+      </c>
+      <c r="EB104">
+        <v>10</v>
+      </c>
+      <c r="EC104">
+        <v>0</v>
+      </c>
+      <c r="ED104">
+        <v>0</v>
+      </c>
+      <c r="EE104">
+        <v>0</v>
+      </c>
+      <c r="EF104">
+        <v>0</v>
+      </c>
+      <c r="EG104">
+        <v>115</v>
+      </c>
+      <c r="EH104">
+        <v>0</v>
+      </c>
+      <c r="EI104">
+        <v>2</v>
+      </c>
+      <c r="EJ104">
+        <v>0</v>
+      </c>
+      <c r="EK104">
+        <v>0</v>
+      </c>
+      <c r="EL104">
+        <v>0</v>
+      </c>
+      <c r="EM104">
+        <v>0</v>
+      </c>
+      <c r="EN104">
+        <v>0</v>
+      </c>
+      <c r="EO104">
+        <v>4</v>
+      </c>
+      <c r="EP104">
+        <v>0</v>
+      </c>
+      <c r="EQ104">
+        <v>5</v>
+      </c>
+      <c r="ER104">
+        <v>1</v>
+      </c>
+      <c r="ES104">
+        <v>8</v>
+      </c>
+      <c r="ET104">
+        <v>0</v>
+      </c>
+      <c r="EU104">
+        <v>0</v>
+      </c>
+      <c r="EV104">
+        <v>31</v>
+      </c>
+      <c r="EW104">
+        <v>0</v>
+      </c>
+      <c r="EX104">
+        <v>7</v>
+      </c>
+      <c r="EY104">
+        <v>26</v>
+      </c>
+      <c r="EZ104">
+        <v>6</v>
+      </c>
+      <c r="FA104">
+        <v>0</v>
+      </c>
+      <c r="FB104">
+        <v>28</v>
+      </c>
+      <c r="FC104">
+        <v>18</v>
+      </c>
+      <c r="FD104">
+        <v>0</v>
+      </c>
+      <c r="FE104">
+        <v>0</v>
+      </c>
+      <c r="FF104">
+        <v>0</v>
+      </c>
+      <c r="FG104">
+        <v>0</v>
+      </c>
+      <c r="FH104">
+        <v>0</v>
+      </c>
+      <c r="FI104">
+        <v>0</v>
+      </c>
+      <c r="FJ104">
+        <v>3</v>
+      </c>
+      <c r="FK104">
+        <v>0</v>
+      </c>
+      <c r="FL104">
+        <v>5</v>
+      </c>
+      <c r="FM104">
+        <v>0</v>
+      </c>
+      <c r="FN104">
+        <v>0</v>
+      </c>
+      <c r="FO104">
+        <v>0</v>
+      </c>
+      <c r="FP104">
+        <v>1</v>
+      </c>
+      <c r="FQ104">
+        <v>0</v>
+      </c>
+      <c r="FR104">
+        <v>2</v>
+      </c>
+      <c r="FS104">
+        <v>0</v>
+      </c>
+      <c r="FT104">
+        <v>6</v>
+      </c>
+      <c r="FU104">
+        <v>0</v>
+      </c>
+      <c r="FV104">
+        <v>0</v>
+      </c>
+      <c r="FW104">
+        <v>605</v>
+      </c>
+      <c r="FX104">
+        <v>0</v>
+      </c>
+      <c r="FY104">
+        <v>0</v>
+      </c>
+      <c r="FZ104">
+        <v>0</v>
+      </c>
+      <c r="GA104">
+        <v>77</v>
+      </c>
+      <c r="GB104">
+        <v>49</v>
+      </c>
+      <c r="GC104">
+        <v>0</v>
+      </c>
+      <c r="GD104">
+        <v>0</v>
+      </c>
+      <c r="GE104">
+        <v>2</v>
+      </c>
+      <c r="GF104">
+        <v>0</v>
+      </c>
+      <c r="GG104">
+        <v>0</v>
+      </c>
+      <c r="GH104">
+        <v>0</v>
+      </c>
+      <c r="GI104">
+        <v>0</v>
+      </c>
+      <c r="GJ104">
+        <v>98</v>
+      </c>
+      <c r="GK104">
+        <v>0</v>
+      </c>
+      <c r="GL104">
+        <v>0</v>
+      </c>
+      <c r="GM104">
+        <v>12</v>
+      </c>
+      <c r="GN104">
+        <v>2</v>
+      </c>
+      <c r="GO104">
+        <v>980</v>
+      </c>
+      <c r="GP104">
+        <v>2</v>
+      </c>
+      <c r="GQ104">
+        <v>0</v>
+      </c>
+      <c r="GR104">
+        <v>2087</v>
+      </c>
+      <c r="GS104">
+        <v>0</v>
+      </c>
+      <c r="GT104">
+        <v>0</v>
+      </c>
+      <c r="GU104">
+        <v>0</v>
+      </c>
+      <c r="GV104">
+        <v>0</v>
+      </c>
+      <c r="GW104">
+        <v>0</v>
+      </c>
+      <c r="GX104">
+        <v>1</v>
+      </c>
+      <c r="GY104">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ecdc_csv/data/ecdc_csv_diff.xlsx
+++ b/ecdc_csv/data/ecdc_csv_diff.xlsx
@@ -997,7 +997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY104"/>
+  <dimension ref="A1:GY105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -32518,7 +32518,7 @@
         <v>4</v>
       </c>
       <c r="GV104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GW104">
         <v>0</v>
@@ -32528,6 +32528,626 @@
       </c>
       <c r="GY104">
         <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:207">
+      <c r="A105" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B105">
+        <v>34</v>
+      </c>
+      <c r="C105">
+        <v>17</v>
+      </c>
+      <c r="D105">
+        <v>64</v>
+      </c>
+      <c r="E105">
+        <v>21</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>162</v>
+      </c>
+      <c r="J105">
+        <v>30</v>
+      </c>
+      <c r="K105">
+        <v>6</v>
+      </c>
+      <c r="L105">
+        <v>51</v>
+      </c>
+      <c r="M105">
+        <v>247</v>
+      </c>
+      <c r="N105">
+        <v>67</v>
+      </c>
+      <c r="O105">
+        <v>4</v>
+      </c>
+      <c r="P105">
+        <v>42</v>
+      </c>
+      <c r="Q105">
+        <v>58</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
+      </c>
+      <c r="S105">
+        <v>245</v>
+      </c>
+      <c r="T105">
+        <v>1351</v>
+      </c>
+      <c r="U105">
+        <v>3</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>2</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>24</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>47</v>
+      </c>
+      <c r="AB105">
+        <v>0</v>
+      </c>
+      <c r="AC105">
+        <v>1089</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
+      <c r="AF105">
+        <v>26</v>
+      </c>
+      <c r="AG105">
+        <v>36</v>
+      </c>
+      <c r="AH105">
+        <v>2</v>
+      </c>
+      <c r="AI105">
+        <v>2</v>
+      </c>
+      <c r="AJ105">
+        <v>17</v>
+      </c>
+      <c r="AK105">
+        <v>1168</v>
+      </c>
+      <c r="AL105">
+        <v>1</v>
+      </c>
+      <c r="AN105">
+        <v>8</v>
+      </c>
+      <c r="AO105">
+        <v>0</v>
+      </c>
+      <c r="AP105">
+        <v>0</v>
+      </c>
+      <c r="AQ105">
+        <v>426</v>
+      </c>
+      <c r="AR105">
+        <v>93</v>
+      </c>
+      <c r="AS105">
+        <v>236</v>
+      </c>
+      <c r="AT105">
+        <v>0</v>
+      </c>
+      <c r="AU105">
+        <v>19</v>
+      </c>
+      <c r="AV105">
+        <v>53</v>
+      </c>
+      <c r="AW105">
+        <v>39</v>
+      </c>
+      <c r="AX105">
+        <v>56</v>
+      </c>
+      <c r="AY105">
+        <v>0</v>
+      </c>
+      <c r="AZ105">
+        <v>21</v>
+      </c>
+      <c r="BA105">
+        <v>170</v>
+      </c>
+      <c r="BB105">
+        <v>11</v>
+      </c>
+      <c r="BC105">
+        <v>177</v>
+      </c>
+      <c r="BD105">
+        <v>37</v>
+      </c>
+      <c r="BE105">
+        <v>0</v>
+      </c>
+      <c r="BF105">
+        <v>139</v>
+      </c>
+      <c r="BG105">
+        <v>96</v>
+      </c>
+      <c r="BH105">
+        <v>145</v>
+      </c>
+      <c r="BI105">
+        <v>0</v>
+      </c>
+      <c r="BJ105">
+        <v>0</v>
+      </c>
+      <c r="BK105">
+        <v>0</v>
+      </c>
+      <c r="BL105">
+        <v>46</v>
+      </c>
+      <c r="BM105">
+        <v>2</v>
+      </c>
+      <c r="BN105">
+        <v>4</v>
+      </c>
+      <c r="BO105">
+        <v>0</v>
+      </c>
+      <c r="BP105">
+        <v>0</v>
+      </c>
+      <c r="BQ105">
+        <v>0</v>
+      </c>
+      <c r="BR105">
+        <v>136</v>
+      </c>
+      <c r="BS105">
+        <v>3114</v>
+      </c>
+      <c r="BT105">
+        <v>0</v>
+      </c>
+      <c r="BU105">
+        <v>3</v>
+      </c>
+      <c r="BV105">
+        <v>5</v>
+      </c>
+      <c r="BW105">
+        <v>8</v>
+      </c>
+      <c r="BX105">
+        <v>2821</v>
+      </c>
+      <c r="BY105">
+        <v>30</v>
+      </c>
+      <c r="BZ105">
+        <v>2</v>
+      </c>
+      <c r="CA105">
+        <v>70</v>
+      </c>
+      <c r="CB105">
+        <v>0</v>
+      </c>
+      <c r="CC105">
+        <v>0</v>
+      </c>
+      <c r="CD105">
+        <v>3</v>
+      </c>
+      <c r="CE105">
+        <v>16</v>
+      </c>
+      <c r="CF105">
+        <v>9</v>
+      </c>
+      <c r="CG105">
+        <v>38</v>
+      </c>
+      <c r="CH105">
+        <v>3</v>
+      </c>
+      <c r="CI105">
+        <v>5</v>
+      </c>
+      <c r="CJ105">
+        <v>2</v>
+      </c>
+      <c r="CK105">
+        <v>0</v>
+      </c>
+      <c r="CL105">
+        <v>1</v>
+      </c>
+      <c r="CM105">
+        <v>100</v>
+      </c>
+      <c r="CN105">
+        <v>14</v>
+      </c>
+      <c r="CO105">
+        <v>909</v>
+      </c>
+      <c r="CP105">
+        <v>330</v>
+      </c>
+      <c r="CQ105">
+        <v>1837</v>
+      </c>
+      <c r="CR105">
+        <v>39</v>
+      </c>
+      <c r="CS105">
+        <v>839</v>
+      </c>
+      <c r="CT105">
+        <v>25</v>
+      </c>
+      <c r="CU105">
+        <v>335</v>
+      </c>
+      <c r="CV105">
+        <v>4694</v>
+      </c>
+      <c r="CW105">
+        <v>4</v>
+      </c>
+      <c r="CX105">
+        <v>1401</v>
+      </c>
+      <c r="CY105">
+        <v>0</v>
+      </c>
+      <c r="CZ105">
+        <v>9</v>
+      </c>
+      <c r="DA105">
+        <v>40</v>
+      </c>
+      <c r="DB105">
+        <v>2</v>
+      </c>
+      <c r="DC105">
+        <v>33</v>
+      </c>
+      <c r="DD105">
+        <v>161</v>
+      </c>
+      <c r="DE105">
+        <v>38</v>
+      </c>
+      <c r="DF105">
+        <v>2</v>
+      </c>
+      <c r="DG105">
+        <v>18</v>
+      </c>
+      <c r="DH105">
+        <v>10</v>
+      </c>
+      <c r="DI105">
+        <v>11</v>
+      </c>
+      <c r="DJ105">
+        <v>1</v>
+      </c>
+      <c r="DK105">
+        <v>0</v>
+      </c>
+      <c r="DL105">
+        <v>54</v>
+      </c>
+      <c r="DM105">
+        <v>47</v>
+      </c>
+      <c r="DN105">
+        <v>0</v>
+      </c>
+      <c r="DO105">
+        <v>3</v>
+      </c>
+      <c r="DP105">
+        <v>184</v>
+      </c>
+      <c r="DQ105">
+        <v>0</v>
+      </c>
+      <c r="DR105">
+        <v>18</v>
+      </c>
+      <c r="DS105">
+        <v>20</v>
+      </c>
+      <c r="DT105">
+        <v>0</v>
+      </c>
+      <c r="DU105">
+        <v>1</v>
+      </c>
+      <c r="DV105">
+        <v>375</v>
+      </c>
+      <c r="DW105">
+        <v>122</v>
+      </c>
+      <c r="DX105">
+        <v>2</v>
+      </c>
+      <c r="DY105">
+        <v>0</v>
+      </c>
+      <c r="DZ105">
+        <v>6</v>
+      </c>
+      <c r="EA105">
+        <v>0</v>
+      </c>
+      <c r="EB105">
+        <v>97</v>
+      </c>
+      <c r="EC105">
+        <v>0</v>
+      </c>
+      <c r="ED105">
+        <v>3</v>
+      </c>
+      <c r="EE105">
+        <v>0</v>
+      </c>
+      <c r="EF105">
+        <v>0</v>
+      </c>
+      <c r="EG105">
+        <v>1316</v>
+      </c>
+      <c r="EH105">
+        <v>0</v>
+      </c>
+      <c r="EI105">
+        <v>14</v>
+      </c>
+      <c r="EJ105">
+        <v>2</v>
+      </c>
+      <c r="EK105">
+        <v>53</v>
+      </c>
+      <c r="EL105">
+        <v>13</v>
+      </c>
+      <c r="EM105">
+        <v>49</v>
+      </c>
+      <c r="EN105">
+        <v>0</v>
+      </c>
+      <c r="EO105">
+        <v>76</v>
+      </c>
+      <c r="EP105">
+        <v>62</v>
+      </c>
+      <c r="EQ105">
+        <v>250</v>
+      </c>
+      <c r="ER105">
+        <v>2</v>
+      </c>
+      <c r="ES105">
+        <v>260</v>
+      </c>
+      <c r="ET105">
+        <v>0</v>
+      </c>
+      <c r="EU105">
+        <v>1</v>
+      </c>
+      <c r="EV105">
+        <v>951</v>
+      </c>
+      <c r="EW105">
+        <v>352</v>
+      </c>
+      <c r="EX105">
+        <v>401</v>
+      </c>
+      <c r="EY105">
+        <v>515</v>
+      </c>
+      <c r="EZ105">
+        <v>63</v>
+      </c>
+      <c r="FA105">
+        <v>216</v>
+      </c>
+      <c r="FB105">
+        <v>523</v>
+      </c>
+      <c r="FC105">
+        <v>1667</v>
+      </c>
+      <c r="FD105">
+        <v>2</v>
+      </c>
+      <c r="FE105">
+        <v>0</v>
+      </c>
+      <c r="FF105">
+        <v>0</v>
+      </c>
+      <c r="FG105">
+        <v>0</v>
+      </c>
+      <c r="FH105">
+        <v>12</v>
+      </c>
+      <c r="FI105">
+        <v>0</v>
+      </c>
+      <c r="FJ105">
+        <v>382</v>
+      </c>
+      <c r="FK105">
+        <v>13</v>
+      </c>
+      <c r="FL105">
+        <v>275</v>
+      </c>
+      <c r="FM105">
+        <v>0</v>
+      </c>
+      <c r="FN105">
+        <v>2</v>
+      </c>
+      <c r="FO105">
+        <v>390</v>
+      </c>
+      <c r="FP105">
+        <v>0</v>
+      </c>
+      <c r="FQ105">
+        <v>13</v>
+      </c>
+      <c r="FR105">
+        <v>28</v>
+      </c>
+      <c r="FS105">
+        <v>0</v>
+      </c>
+      <c r="FT105">
+        <v>25</v>
+      </c>
+      <c r="FU105">
+        <v>62</v>
+      </c>
+      <c r="FV105">
+        <v>1</v>
+      </c>
+      <c r="FW105">
+        <v>4830</v>
+      </c>
+      <c r="FX105">
+        <v>2</v>
+      </c>
+      <c r="FY105">
+        <v>4</v>
+      </c>
+      <c r="FZ105">
+        <v>0</v>
+      </c>
+      <c r="GA105">
+        <v>466</v>
+      </c>
+      <c r="GB105">
+        <v>592</v>
+      </c>
+      <c r="GC105">
+        <v>6</v>
+      </c>
+      <c r="GD105">
+        <v>5</v>
+      </c>
+      <c r="GE105">
+        <v>33</v>
+      </c>
+      <c r="GF105">
+        <v>0</v>
+      </c>
+      <c r="GG105">
+        <v>0</v>
+      </c>
+      <c r="GH105">
+        <v>3</v>
+      </c>
+      <c r="GI105">
+        <v>14</v>
+      </c>
+      <c r="GJ105">
+        <v>5138</v>
+      </c>
+      <c r="GK105">
+        <v>0</v>
+      </c>
+      <c r="GL105">
+        <v>0</v>
+      </c>
+      <c r="GM105">
+        <v>308</v>
+      </c>
+      <c r="GN105">
+        <v>376</v>
+      </c>
+      <c r="GO105">
+        <v>8719</v>
+      </c>
+      <c r="GP105">
+        <v>0</v>
+      </c>
+      <c r="GQ105">
+        <v>1</v>
+      </c>
+      <c r="GR105">
+        <v>28391</v>
+      </c>
+      <c r="GS105">
+        <v>7</v>
+      </c>
+      <c r="GT105">
+        <v>172</v>
+      </c>
+      <c r="GU105">
+        <v>0</v>
+      </c>
+      <c r="GV105">
+        <v>1</v>
+      </c>
+      <c r="GW105">
+        <v>0</v>
+      </c>
+      <c r="GX105">
+        <v>0</v>
+      </c>
+      <c r="GY105">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -32537,7 +33157,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY104"/>
+  <dimension ref="A1:GY105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -64070,6 +64690,626 @@
         <v>0</v>
       </c>
     </row>
+    <row r="105" spans="1:207">
+      <c r="A105" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>19</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>7</v>
+      </c>
+      <c r="J105">
+        <v>2</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>18</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>3</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>4</v>
+      </c>
+      <c r="T105">
+        <v>327</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>4</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+      <c r="AB105">
+        <v>0</v>
+      </c>
+      <c r="AC105">
+        <v>68</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
+      <c r="AF105">
+        <v>3</v>
+      </c>
+      <c r="AG105">
+        <v>1</v>
+      </c>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
+      </c>
+      <c r="AJ105">
+        <v>1</v>
+      </c>
+      <c r="AK105">
+        <v>84</v>
+      </c>
+      <c r="AL105">
+        <v>0</v>
+      </c>
+      <c r="AN105">
+        <v>0</v>
+      </c>
+      <c r="AO105">
+        <v>0</v>
+      </c>
+      <c r="AP105">
+        <v>0</v>
+      </c>
+      <c r="AQ105">
+        <v>8</v>
+      </c>
+      <c r="AR105">
+        <v>0</v>
+      </c>
+      <c r="AS105">
+        <v>20</v>
+      </c>
+      <c r="AT105">
+        <v>0</v>
+      </c>
+      <c r="AU105">
+        <v>0</v>
+      </c>
+      <c r="AV105">
+        <v>1</v>
+      </c>
+      <c r="AW105">
+        <v>0</v>
+      </c>
+      <c r="AX105">
+        <v>1</v>
+      </c>
+      <c r="AY105">
+        <v>0</v>
+      </c>
+      <c r="AZ105">
+        <v>0</v>
+      </c>
+      <c r="BA105">
+        <v>10</v>
+      </c>
+      <c r="BB105">
+        <v>0</v>
+      </c>
+      <c r="BC105">
+        <v>13</v>
+      </c>
+      <c r="BD105">
+        <v>1</v>
+      </c>
+      <c r="BE105">
+        <v>0</v>
+      </c>
+      <c r="BF105">
+        <v>9</v>
+      </c>
+      <c r="BG105">
+        <v>18</v>
+      </c>
+      <c r="BH105">
+        <v>11</v>
+      </c>
+      <c r="BI105">
+        <v>0</v>
+      </c>
+      <c r="BJ105">
+        <v>0</v>
+      </c>
+      <c r="BK105">
+        <v>0</v>
+      </c>
+      <c r="BL105">
+        <v>0</v>
+      </c>
+      <c r="BM105">
+        <v>0</v>
+      </c>
+      <c r="BN105">
+        <v>1</v>
+      </c>
+      <c r="BO105">
+        <v>0</v>
+      </c>
+      <c r="BP105">
+        <v>0</v>
+      </c>
+      <c r="BQ105">
+        <v>0</v>
+      </c>
+      <c r="BR105">
+        <v>1</v>
+      </c>
+      <c r="BS105">
+        <v>635</v>
+      </c>
+      <c r="BT105">
+        <v>0</v>
+      </c>
+      <c r="BU105">
+        <v>0</v>
+      </c>
+      <c r="BV105">
+        <v>0</v>
+      </c>
+      <c r="BW105">
+        <v>0</v>
+      </c>
+      <c r="BX105">
+        <v>129</v>
+      </c>
+      <c r="BY105">
+        <v>2</v>
+      </c>
+      <c r="BZ105">
+        <v>0</v>
+      </c>
+      <c r="CA105">
+        <v>3</v>
+      </c>
+      <c r="CB105">
+        <v>0</v>
+      </c>
+      <c r="CC105">
+        <v>0</v>
+      </c>
+      <c r="CD105">
+        <v>1</v>
+      </c>
+      <c r="CE105">
+        <v>0</v>
+      </c>
+      <c r="CF105">
+        <v>0</v>
+      </c>
+      <c r="CG105">
+        <v>0</v>
+      </c>
+      <c r="CH105">
+        <v>0</v>
+      </c>
+      <c r="CI105">
+        <v>0</v>
+      </c>
+      <c r="CJ105">
+        <v>0</v>
+      </c>
+      <c r="CK105">
+        <v>0</v>
+      </c>
+      <c r="CL105">
+        <v>1</v>
+      </c>
+      <c r="CM105">
+        <v>14</v>
+      </c>
+      <c r="CN105">
+        <v>1</v>
+      </c>
+      <c r="CO105">
+        <v>34</v>
+      </c>
+      <c r="CP105">
+        <v>21</v>
+      </c>
+      <c r="CQ105">
+        <v>125</v>
+      </c>
+      <c r="CR105">
+        <v>2</v>
+      </c>
+      <c r="CS105">
+        <v>33</v>
+      </c>
+      <c r="CT105">
+        <v>0</v>
+      </c>
+      <c r="CU105">
+        <v>6</v>
+      </c>
+      <c r="CV105">
+        <v>619</v>
+      </c>
+      <c r="CW105">
+        <v>0</v>
+      </c>
+      <c r="CX105">
+        <v>10</v>
+      </c>
+      <c r="CY105">
+        <v>0</v>
+      </c>
+      <c r="CZ105">
+        <v>0</v>
+      </c>
+      <c r="DA105">
+        <v>0</v>
+      </c>
+      <c r="DB105">
+        <v>0</v>
+      </c>
+      <c r="DC105">
+        <v>0</v>
+      </c>
+      <c r="DD105">
+        <v>0</v>
+      </c>
+      <c r="DE105">
+        <v>0</v>
+      </c>
+      <c r="DF105">
+        <v>0</v>
+      </c>
+      <c r="DG105">
+        <v>1</v>
+      </c>
+      <c r="DH105">
+        <v>0</v>
+      </c>
+      <c r="DI105">
+        <v>1</v>
+      </c>
+      <c r="DJ105">
+        <v>0</v>
+      </c>
+      <c r="DK105">
+        <v>0</v>
+      </c>
+      <c r="DL105">
+        <v>6</v>
+      </c>
+      <c r="DM105">
+        <v>8</v>
+      </c>
+      <c r="DN105">
+        <v>0</v>
+      </c>
+      <c r="DO105">
+        <v>1</v>
+      </c>
+      <c r="DP105">
+        <v>3</v>
+      </c>
+      <c r="DQ105">
+        <v>0</v>
+      </c>
+      <c r="DR105">
+        <v>2</v>
+      </c>
+      <c r="DS105">
+        <v>1</v>
+      </c>
+      <c r="DT105">
+        <v>0</v>
+      </c>
+      <c r="DU105">
+        <v>0</v>
+      </c>
+      <c r="DV105">
+        <v>40</v>
+      </c>
+      <c r="DW105">
+        <v>1</v>
+      </c>
+      <c r="DX105">
+        <v>0</v>
+      </c>
+      <c r="DY105">
+        <v>0</v>
+      </c>
+      <c r="DZ105">
+        <v>0</v>
+      </c>
+      <c r="EA105">
+        <v>0</v>
+      </c>
+      <c r="EB105">
+        <v>4</v>
+      </c>
+      <c r="EC105">
+        <v>0</v>
+      </c>
+      <c r="ED105">
+        <v>0</v>
+      </c>
+      <c r="EE105">
+        <v>0</v>
+      </c>
+      <c r="EF105">
+        <v>0</v>
+      </c>
+      <c r="EG105">
+        <v>132</v>
+      </c>
+      <c r="EH105">
+        <v>0</v>
+      </c>
+      <c r="EI105">
+        <v>0</v>
+      </c>
+      <c r="EJ105">
+        <v>0</v>
+      </c>
+      <c r="EK105">
+        <v>0</v>
+      </c>
+      <c r="EL105">
+        <v>3</v>
+      </c>
+      <c r="EM105">
+        <v>2</v>
+      </c>
+      <c r="EN105">
+        <v>0</v>
+      </c>
+      <c r="EO105">
+        <v>6</v>
+      </c>
+      <c r="EP105">
+        <v>0</v>
+      </c>
+      <c r="EQ105">
+        <v>15</v>
+      </c>
+      <c r="ER105">
+        <v>0</v>
+      </c>
+      <c r="ES105">
+        <v>5</v>
+      </c>
+      <c r="ET105">
+        <v>0</v>
+      </c>
+      <c r="EU105">
+        <v>0</v>
+      </c>
+      <c r="EV105">
+        <v>12</v>
+      </c>
+      <c r="EW105">
+        <v>44</v>
+      </c>
+      <c r="EX105">
+        <v>27</v>
+      </c>
+      <c r="EY105">
+        <v>35</v>
+      </c>
+      <c r="EZ105">
+        <v>3</v>
+      </c>
+      <c r="FA105">
+        <v>0</v>
+      </c>
+      <c r="FB105">
+        <v>25</v>
+      </c>
+      <c r="FC105">
+        <v>12</v>
+      </c>
+      <c r="FD105">
+        <v>0</v>
+      </c>
+      <c r="FE105">
+        <v>0</v>
+      </c>
+      <c r="FF105">
+        <v>0</v>
+      </c>
+      <c r="FG105">
+        <v>0</v>
+      </c>
+      <c r="FH105">
+        <v>1</v>
+      </c>
+      <c r="FI105">
+        <v>0</v>
+      </c>
+      <c r="FJ105">
+        <v>5</v>
+      </c>
+      <c r="FK105">
+        <v>0</v>
+      </c>
+      <c r="FL105">
+        <v>3</v>
+      </c>
+      <c r="FM105">
+        <v>0</v>
+      </c>
+      <c r="FN105">
+        <v>0</v>
+      </c>
+      <c r="FO105">
+        <v>2</v>
+      </c>
+      <c r="FP105">
+        <v>0</v>
+      </c>
+      <c r="FQ105">
+        <v>0</v>
+      </c>
+      <c r="FR105">
+        <v>5</v>
+      </c>
+      <c r="FS105">
+        <v>0</v>
+      </c>
+      <c r="FT105">
+        <v>1</v>
+      </c>
+      <c r="FU105">
+        <v>6</v>
+      </c>
+      <c r="FV105">
+        <v>0</v>
+      </c>
+      <c r="FW105">
+        <v>510</v>
+      </c>
+      <c r="FX105">
+        <v>0</v>
+      </c>
+      <c r="FY105">
+        <v>0</v>
+      </c>
+      <c r="FZ105">
+        <v>0</v>
+      </c>
+      <c r="GA105">
+        <v>17</v>
+      </c>
+      <c r="GB105">
+        <v>26</v>
+      </c>
+      <c r="GC105">
+        <v>0</v>
+      </c>
+      <c r="GD105">
+        <v>1</v>
+      </c>
+      <c r="GE105">
+        <v>3</v>
+      </c>
+      <c r="GF105">
+        <v>0</v>
+      </c>
+      <c r="GG105">
+        <v>0</v>
+      </c>
+      <c r="GH105">
+        <v>0</v>
+      </c>
+      <c r="GI105">
+        <v>3</v>
+      </c>
+      <c r="GJ105">
+        <v>95</v>
+      </c>
+      <c r="GK105">
+        <v>0</v>
+      </c>
+      <c r="GL105">
+        <v>0</v>
+      </c>
+      <c r="GM105">
+        <v>4</v>
+      </c>
+      <c r="GN105">
+        <v>4</v>
+      </c>
+      <c r="GO105">
+        <v>917</v>
+      </c>
+      <c r="GP105">
+        <v>0</v>
+      </c>
+      <c r="GQ105">
+        <v>0</v>
+      </c>
+      <c r="GR105">
+        <v>1831</v>
+      </c>
+      <c r="GS105">
+        <v>0</v>
+      </c>
+      <c r="GT105">
+        <v>1</v>
+      </c>
+      <c r="GU105">
+        <v>0</v>
+      </c>
+      <c r="GV105">
+        <v>0</v>
+      </c>
+      <c r="GW105">
+        <v>0</v>
+      </c>
+      <c r="GX105">
+        <v>0</v>
+      </c>
+      <c r="GY105">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ecdc_csv/data/ecdc_csv_diff.xlsx
+++ b/ecdc_csv/data/ecdc_csv_diff.xlsx
@@ -997,7 +997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY105"/>
+  <dimension ref="A1:GY106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -33150,6 +33150,626 @@
         <v>3</v>
       </c>
     </row>
+    <row r="106" spans="1:207">
+      <c r="A106" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B106">
+        <v>52</v>
+      </c>
+      <c r="C106">
+        <v>13</v>
+      </c>
+      <c r="D106">
+        <v>89</v>
+      </c>
+      <c r="E106">
+        <v>16</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>71</v>
+      </c>
+      <c r="J106">
+        <v>46</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>33</v>
+      </c>
+      <c r="M106">
+        <v>130</v>
+      </c>
+      <c r="N106">
+        <v>40</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <v>96</v>
+      </c>
+      <c r="Q106">
+        <v>139</v>
+      </c>
+      <c r="R106">
+        <v>3</v>
+      </c>
+      <c r="S106">
+        <v>352</v>
+      </c>
+      <c r="T106">
+        <v>1629</v>
+      </c>
+      <c r="U106">
+        <v>1</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>7</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>30</v>
+      </c>
+      <c r="Z106">
+        <v>1</v>
+      </c>
+      <c r="AA106">
+        <v>59</v>
+      </c>
+      <c r="AB106">
+        <v>0</v>
+      </c>
+      <c r="AC106">
+        <v>1442</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+      <c r="AF106">
+        <v>14</v>
+      </c>
+      <c r="AG106">
+        <v>13</v>
+      </c>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
+      </c>
+      <c r="AJ106">
+        <v>0</v>
+      </c>
+      <c r="AK106">
+        <v>1064</v>
+      </c>
+      <c r="AL106">
+        <v>2</v>
+      </c>
+      <c r="AN106">
+        <v>0</v>
+      </c>
+      <c r="AO106">
+        <v>0</v>
+      </c>
+      <c r="AP106">
+        <v>4</v>
+      </c>
+      <c r="AQ106">
+        <v>286</v>
+      </c>
+      <c r="AR106">
+        <v>112</v>
+      </c>
+      <c r="AS106">
+        <v>67</v>
+      </c>
+      <c r="AT106">
+        <v>10</v>
+      </c>
+      <c r="AU106">
+        <v>18</v>
+      </c>
+      <c r="AV106">
+        <v>41</v>
+      </c>
+      <c r="AW106">
+        <v>66</v>
+      </c>
+      <c r="AX106">
+        <v>49</v>
+      </c>
+      <c r="AY106">
+        <v>0</v>
+      </c>
+      <c r="AZ106">
+        <v>17</v>
+      </c>
+      <c r="BA106">
+        <v>89</v>
+      </c>
+      <c r="BB106">
+        <v>0</v>
+      </c>
+      <c r="BC106">
+        <v>178</v>
+      </c>
+      <c r="BD106">
+        <v>27</v>
+      </c>
+      <c r="BE106">
+        <v>0</v>
+      </c>
+      <c r="BF106">
+        <v>208</v>
+      </c>
+      <c r="BG106">
+        <v>209</v>
+      </c>
+      <c r="BH106">
+        <v>126</v>
+      </c>
+      <c r="BI106">
+        <v>7</v>
+      </c>
+      <c r="BJ106">
+        <v>3</v>
+      </c>
+      <c r="BK106">
+        <v>0</v>
+      </c>
+      <c r="BL106">
+        <v>5</v>
+      </c>
+      <c r="BM106">
+        <v>0</v>
+      </c>
+      <c r="BN106">
+        <v>2</v>
+      </c>
+      <c r="BO106">
+        <v>0</v>
+      </c>
+      <c r="BP106">
+        <v>0</v>
+      </c>
+      <c r="BQ106">
+        <v>0</v>
+      </c>
+      <c r="BR106">
+        <v>69</v>
+      </c>
+      <c r="BS106">
+        <v>1613</v>
+      </c>
+      <c r="BT106">
+        <v>2</v>
+      </c>
+      <c r="BU106">
+        <v>8</v>
+      </c>
+      <c r="BV106">
+        <v>0</v>
+      </c>
+      <c r="BW106">
+        <v>15</v>
+      </c>
+      <c r="BX106">
+        <v>2537</v>
+      </c>
+      <c r="BY106">
+        <v>158</v>
+      </c>
+      <c r="BZ106">
+        <v>0</v>
+      </c>
+      <c r="CA106">
+        <v>33</v>
+      </c>
+      <c r="CB106">
+        <v>0</v>
+      </c>
+      <c r="CC106">
+        <v>0</v>
+      </c>
+      <c r="CD106">
+        <v>0</v>
+      </c>
+      <c r="CE106">
+        <v>3</v>
+      </c>
+      <c r="CF106">
+        <v>9</v>
+      </c>
+      <c r="CG106">
+        <v>0</v>
+      </c>
+      <c r="CH106">
+        <v>1</v>
+      </c>
+      <c r="CI106">
+        <v>0</v>
+      </c>
+      <c r="CJ106">
+        <v>0</v>
+      </c>
+      <c r="CK106">
+        <v>0</v>
+      </c>
+      <c r="CL106">
+        <v>4</v>
+      </c>
+      <c r="CM106">
+        <v>48</v>
+      </c>
+      <c r="CN106">
+        <v>12</v>
+      </c>
+      <c r="CO106">
+        <v>796</v>
+      </c>
+      <c r="CP106">
+        <v>399</v>
+      </c>
+      <c r="CQ106">
+        <v>1657</v>
+      </c>
+      <c r="CR106">
+        <v>34</v>
+      </c>
+      <c r="CS106">
+        <v>727</v>
+      </c>
+      <c r="CT106">
+        <v>2</v>
+      </c>
+      <c r="CU106">
+        <v>402</v>
+      </c>
+      <c r="CV106">
+        <v>4092</v>
+      </c>
+      <c r="CW106">
+        <v>3</v>
+      </c>
+      <c r="CX106">
+        <v>507</v>
+      </c>
+      <c r="CY106">
+        <v>15</v>
+      </c>
+      <c r="CZ106">
+        <v>8</v>
+      </c>
+      <c r="DA106">
+        <v>81</v>
+      </c>
+      <c r="DB106">
+        <v>6</v>
+      </c>
+      <c r="DC106">
+        <v>79</v>
+      </c>
+      <c r="DD106">
+        <v>80</v>
+      </c>
+      <c r="DE106">
+        <v>42</v>
+      </c>
+      <c r="DF106">
+        <v>1</v>
+      </c>
+      <c r="DG106">
+        <v>21</v>
+      </c>
+      <c r="DH106">
+        <v>11</v>
+      </c>
+      <c r="DI106">
+        <v>2</v>
+      </c>
+      <c r="DJ106">
+        <v>0</v>
+      </c>
+      <c r="DK106">
+        <v>0</v>
+      </c>
+      <c r="DL106">
+        <v>9</v>
+      </c>
+      <c r="DM106">
+        <v>11</v>
+      </c>
+      <c r="DN106">
+        <v>4</v>
+      </c>
+      <c r="DO106">
+        <v>1</v>
+      </c>
+      <c r="DP106">
+        <v>153</v>
+      </c>
+      <c r="DQ106">
+        <v>1</v>
+      </c>
+      <c r="DR106">
+        <v>11</v>
+      </c>
+      <c r="DS106">
+        <v>8</v>
+      </c>
+      <c r="DT106">
+        <v>0</v>
+      </c>
+      <c r="DU106">
+        <v>5</v>
+      </c>
+      <c r="DV106">
+        <v>442</v>
+      </c>
+      <c r="DW106">
+        <v>102</v>
+      </c>
+      <c r="DX106">
+        <v>1</v>
+      </c>
+      <c r="DY106">
+        <v>0</v>
+      </c>
+      <c r="DZ106">
+        <v>9</v>
+      </c>
+      <c r="EA106">
+        <v>2</v>
+      </c>
+      <c r="EB106">
+        <v>116</v>
+      </c>
+      <c r="EC106">
+        <v>1</v>
+      </c>
+      <c r="ED106">
+        <v>10</v>
+      </c>
+      <c r="EE106">
+        <v>0</v>
+      </c>
+      <c r="EF106">
+        <v>3</v>
+      </c>
+      <c r="EG106">
+        <v>1174</v>
+      </c>
+      <c r="EH106">
+        <v>0</v>
+      </c>
+      <c r="EI106">
+        <v>15</v>
+      </c>
+      <c r="EJ106">
+        <v>3</v>
+      </c>
+      <c r="EK106">
+        <v>38</v>
+      </c>
+      <c r="EL106">
+        <v>5</v>
+      </c>
+      <c r="EM106">
+        <v>68</v>
+      </c>
+      <c r="EN106">
+        <v>0</v>
+      </c>
+      <c r="EO106">
+        <v>95</v>
+      </c>
+      <c r="EP106">
+        <v>53</v>
+      </c>
+      <c r="EQ106">
+        <v>336</v>
+      </c>
+      <c r="ER106">
+        <v>0</v>
+      </c>
+      <c r="ES106">
+        <v>166</v>
+      </c>
+      <c r="ET106">
+        <v>0</v>
+      </c>
+      <c r="EU106">
+        <v>13</v>
+      </c>
+      <c r="EV106">
+        <v>671</v>
+      </c>
+      <c r="EW106">
+        <v>220</v>
+      </c>
+      <c r="EX106">
+        <v>318</v>
+      </c>
+      <c r="EY106">
+        <v>598</v>
+      </c>
+      <c r="EZ106">
+        <v>109</v>
+      </c>
+      <c r="FA106">
+        <v>251</v>
+      </c>
+      <c r="FB106">
+        <v>310</v>
+      </c>
+      <c r="FC106">
+        <v>2186</v>
+      </c>
+      <c r="FD106">
+        <v>6</v>
+      </c>
+      <c r="FE106">
+        <v>0</v>
+      </c>
+      <c r="FF106">
+        <v>0</v>
+      </c>
+      <c r="FG106">
+        <v>0</v>
+      </c>
+      <c r="FH106">
+        <v>0</v>
+      </c>
+      <c r="FI106">
+        <v>0</v>
+      </c>
+      <c r="FJ106">
+        <v>429</v>
+      </c>
+      <c r="FK106">
+        <v>2</v>
+      </c>
+      <c r="FL106">
+        <v>250</v>
+      </c>
+      <c r="FM106">
+        <v>0</v>
+      </c>
+      <c r="FN106">
+        <v>0</v>
+      </c>
+      <c r="FO106">
+        <v>233</v>
+      </c>
+      <c r="FP106">
+        <v>0</v>
+      </c>
+      <c r="FQ106">
+        <v>14</v>
+      </c>
+      <c r="FR106">
+        <v>17</v>
+      </c>
+      <c r="FS106">
+        <v>4</v>
+      </c>
+      <c r="FT106">
+        <v>145</v>
+      </c>
+      <c r="FU106">
+        <v>25</v>
+      </c>
+      <c r="FV106">
+        <v>0</v>
+      </c>
+      <c r="FW106">
+        <v>4167</v>
+      </c>
+      <c r="FX106">
+        <v>11</v>
+      </c>
+      <c r="FY106">
+        <v>0</v>
+      </c>
+      <c r="FZ106">
+        <v>0</v>
+      </c>
+      <c r="GA106">
+        <v>332</v>
+      </c>
+      <c r="GB106">
+        <v>400</v>
+      </c>
+      <c r="GC106">
+        <v>0</v>
+      </c>
+      <c r="GD106">
+        <v>3</v>
+      </c>
+      <c r="GE106">
+        <v>28</v>
+      </c>
+      <c r="GF106">
+        <v>0</v>
+      </c>
+      <c r="GG106">
+        <v>0</v>
+      </c>
+      <c r="GH106">
+        <v>1</v>
+      </c>
+      <c r="GI106">
+        <v>22</v>
+      </c>
+      <c r="GJ106">
+        <v>4789</v>
+      </c>
+      <c r="GK106">
+        <v>0</v>
+      </c>
+      <c r="GL106">
+        <v>1</v>
+      </c>
+      <c r="GM106">
+        <v>266</v>
+      </c>
+      <c r="GN106">
+        <v>387</v>
+      </c>
+      <c r="GO106">
+        <v>5288</v>
+      </c>
+      <c r="GP106">
+        <v>0</v>
+      </c>
+      <c r="GQ106">
+        <v>0</v>
+      </c>
+      <c r="GR106">
+        <v>27620</v>
+      </c>
+      <c r="GS106">
+        <v>11</v>
+      </c>
+      <c r="GT106">
+        <v>69</v>
+      </c>
+      <c r="GU106">
+        <v>6</v>
+      </c>
+      <c r="GV106">
+        <v>4</v>
+      </c>
+      <c r="GW106">
+        <v>0</v>
+      </c>
+      <c r="GX106">
+        <v>3</v>
+      </c>
+      <c r="GY106">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33157,7 +33777,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY105"/>
+  <dimension ref="A1:GY106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -65310,6 +65930,626 @@
         <v>0</v>
       </c>
     </row>
+    <row r="106" spans="1:207">
+      <c r="A106" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>18</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>6</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>4</v>
+      </c>
+      <c r="M106">
+        <v>13</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>4</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>3</v>
+      </c>
+      <c r="T106">
+        <v>254</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>3</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>1</v>
+      </c>
+      <c r="AB106">
+        <v>0</v>
+      </c>
+      <c r="AC106">
+        <v>99</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+      <c r="AF106">
+        <v>1</v>
+      </c>
+      <c r="AG106">
+        <v>0</v>
+      </c>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
+      </c>
+      <c r="AJ106">
+        <v>1</v>
+      </c>
+      <c r="AK106">
+        <v>64</v>
+      </c>
+      <c r="AL106">
+        <v>0</v>
+      </c>
+      <c r="AN106">
+        <v>0</v>
+      </c>
+      <c r="AO106">
+        <v>0</v>
+      </c>
+      <c r="AP106">
+        <v>0</v>
+      </c>
+      <c r="AQ106">
+        <v>7</v>
+      </c>
+      <c r="AR106">
+        <v>2</v>
+      </c>
+      <c r="AS106">
+        <v>9</v>
+      </c>
+      <c r="AT106">
+        <v>0</v>
+      </c>
+      <c r="AU106">
+        <v>0</v>
+      </c>
+      <c r="AV106">
+        <v>1</v>
+      </c>
+      <c r="AW106">
+        <v>2</v>
+      </c>
+      <c r="AX106">
+        <v>2</v>
+      </c>
+      <c r="AY106">
+        <v>0</v>
+      </c>
+      <c r="AZ106">
+        <v>1</v>
+      </c>
+      <c r="BA106">
+        <v>9</v>
+      </c>
+      <c r="BB106">
+        <v>0</v>
+      </c>
+      <c r="BC106">
+        <v>13</v>
+      </c>
+      <c r="BD106">
+        <v>0</v>
+      </c>
+      <c r="BE106">
+        <v>0</v>
+      </c>
+      <c r="BF106">
+        <v>38</v>
+      </c>
+      <c r="BG106">
+        <v>18</v>
+      </c>
+      <c r="BH106">
+        <v>13</v>
+      </c>
+      <c r="BI106">
+        <v>0</v>
+      </c>
+      <c r="BJ106">
+        <v>0</v>
+      </c>
+      <c r="BK106">
+        <v>0</v>
+      </c>
+      <c r="BL106">
+        <v>1</v>
+      </c>
+      <c r="BM106">
+        <v>0</v>
+      </c>
+      <c r="BN106">
+        <v>0</v>
+      </c>
+      <c r="BO106">
+        <v>0</v>
+      </c>
+      <c r="BP106">
+        <v>0</v>
+      </c>
+      <c r="BQ106">
+        <v>0</v>
+      </c>
+      <c r="BR106">
+        <v>7</v>
+      </c>
+      <c r="BS106">
+        <v>561</v>
+      </c>
+      <c r="BT106">
+        <v>0</v>
+      </c>
+      <c r="BU106">
+        <v>0</v>
+      </c>
+      <c r="BV106">
+        <v>0</v>
+      </c>
+      <c r="BW106">
+        <v>0</v>
+      </c>
+      <c r="BX106">
+        <v>126</v>
+      </c>
+      <c r="BY106">
+        <v>0</v>
+      </c>
+      <c r="BZ106">
+        <v>4</v>
+      </c>
+      <c r="CA106">
+        <v>5</v>
+      </c>
+      <c r="CB106">
+        <v>0</v>
+      </c>
+      <c r="CC106">
+        <v>0</v>
+      </c>
+      <c r="CD106">
+        <v>0</v>
+      </c>
+      <c r="CE106">
+        <v>2</v>
+      </c>
+      <c r="CF106">
+        <v>0</v>
+      </c>
+      <c r="CG106">
+        <v>0</v>
+      </c>
+      <c r="CH106">
+        <v>0</v>
+      </c>
+      <c r="CI106">
+        <v>0</v>
+      </c>
+      <c r="CJ106">
+        <v>1</v>
+      </c>
+      <c r="CK106">
+        <v>0</v>
+      </c>
+      <c r="CL106">
+        <v>0</v>
+      </c>
+      <c r="CM106">
+        <v>10</v>
+      </c>
+      <c r="CN106">
+        <v>0</v>
+      </c>
+      <c r="CO106">
+        <v>35</v>
+      </c>
+      <c r="CP106">
+        <v>46</v>
+      </c>
+      <c r="CQ106">
+        <v>117</v>
+      </c>
+      <c r="CR106">
+        <v>4</v>
+      </c>
+      <c r="CS106">
+        <v>14</v>
+      </c>
+      <c r="CT106">
+        <v>1</v>
+      </c>
+      <c r="CU106">
+        <v>2</v>
+      </c>
+      <c r="CV106">
+        <v>431</v>
+      </c>
+      <c r="CW106">
+        <v>0</v>
+      </c>
+      <c r="CX106">
+        <v>4</v>
+      </c>
+      <c r="CY106">
+        <v>0</v>
+      </c>
+      <c r="CZ106">
+        <v>0</v>
+      </c>
+      <c r="DA106">
+        <v>0</v>
+      </c>
+      <c r="DB106">
+        <v>1</v>
+      </c>
+      <c r="DC106">
+        <v>0</v>
+      </c>
+      <c r="DD106">
+        <v>0</v>
+      </c>
+      <c r="DE106">
+        <v>0</v>
+      </c>
+      <c r="DF106">
+        <v>0</v>
+      </c>
+      <c r="DG106">
+        <v>2</v>
+      </c>
+      <c r="DH106">
+        <v>0</v>
+      </c>
+      <c r="DI106">
+        <v>0</v>
+      </c>
+      <c r="DJ106">
+        <v>0</v>
+      </c>
+      <c r="DK106">
+        <v>0</v>
+      </c>
+      <c r="DL106">
+        <v>1</v>
+      </c>
+      <c r="DM106">
+        <v>4</v>
+      </c>
+      <c r="DN106">
+        <v>0</v>
+      </c>
+      <c r="DO106">
+        <v>0</v>
+      </c>
+      <c r="DP106">
+        <v>3</v>
+      </c>
+      <c r="DQ106">
+        <v>0</v>
+      </c>
+      <c r="DR106">
+        <v>0</v>
+      </c>
+      <c r="DS106">
+        <v>0</v>
+      </c>
+      <c r="DT106">
+        <v>0</v>
+      </c>
+      <c r="DU106">
+        <v>0</v>
+      </c>
+      <c r="DV106">
+        <v>23</v>
+      </c>
+      <c r="DW106">
+        <v>2</v>
+      </c>
+      <c r="DX106">
+        <v>0</v>
+      </c>
+      <c r="DY106">
+        <v>0</v>
+      </c>
+      <c r="DZ106">
+        <v>1</v>
+      </c>
+      <c r="EA106">
+        <v>0</v>
+      </c>
+      <c r="EB106">
+        <v>7</v>
+      </c>
+      <c r="EC106">
+        <v>0</v>
+      </c>
+      <c r="ED106">
+        <v>1</v>
+      </c>
+      <c r="EE106">
+        <v>0</v>
+      </c>
+      <c r="EF106">
+        <v>0</v>
+      </c>
+      <c r="EG106">
+        <v>94</v>
+      </c>
+      <c r="EH106">
+        <v>0</v>
+      </c>
+      <c r="EI106">
+        <v>1</v>
+      </c>
+      <c r="EJ106">
+        <v>0</v>
+      </c>
+      <c r="EK106">
+        <v>1</v>
+      </c>
+      <c r="EL106">
+        <v>0</v>
+      </c>
+      <c r="EM106">
+        <v>0</v>
+      </c>
+      <c r="EN106">
+        <v>0</v>
+      </c>
+      <c r="EO106">
+        <v>5</v>
+      </c>
+      <c r="EP106">
+        <v>1</v>
+      </c>
+      <c r="EQ106">
+        <v>7</v>
+      </c>
+      <c r="ER106">
+        <v>0</v>
+      </c>
+      <c r="ES106">
+        <v>8</v>
+      </c>
+      <c r="ET106">
+        <v>0</v>
+      </c>
+      <c r="EU106">
+        <v>0</v>
+      </c>
+      <c r="EV106">
+        <v>12</v>
+      </c>
+      <c r="EW106">
+        <v>50</v>
+      </c>
+      <c r="EX106">
+        <v>24</v>
+      </c>
+      <c r="EY106">
+        <v>34</v>
+      </c>
+      <c r="EZ106">
+        <v>2</v>
+      </c>
+      <c r="FA106">
+        <v>1</v>
+      </c>
+      <c r="FB106">
+        <v>24</v>
+      </c>
+      <c r="FC106">
+        <v>24</v>
+      </c>
+      <c r="FD106">
+        <v>0</v>
+      </c>
+      <c r="FE106">
+        <v>0</v>
+      </c>
+      <c r="FF106">
+        <v>0</v>
+      </c>
+      <c r="FG106">
+        <v>0</v>
+      </c>
+      <c r="FH106">
+        <v>0</v>
+      </c>
+      <c r="FI106">
+        <v>0</v>
+      </c>
+      <c r="FJ106">
+        <v>7</v>
+      </c>
+      <c r="FK106">
+        <v>0</v>
+      </c>
+      <c r="FL106">
+        <v>6</v>
+      </c>
+      <c r="FM106">
+        <v>0</v>
+      </c>
+      <c r="FN106">
+        <v>0</v>
+      </c>
+      <c r="FO106">
+        <v>0</v>
+      </c>
+      <c r="FP106">
+        <v>0</v>
+      </c>
+      <c r="FQ106">
+        <v>0</v>
+      </c>
+      <c r="FR106">
+        <v>3</v>
+      </c>
+      <c r="FS106">
+        <v>1</v>
+      </c>
+      <c r="FT106">
+        <v>0</v>
+      </c>
+      <c r="FU106">
+        <v>3</v>
+      </c>
+      <c r="FV106">
+        <v>0</v>
+      </c>
+      <c r="FW106">
+        <v>619</v>
+      </c>
+      <c r="FX106">
+        <v>0</v>
+      </c>
+      <c r="FY106">
+        <v>0</v>
+      </c>
+      <c r="FZ106">
+        <v>0</v>
+      </c>
+      <c r="GA106">
+        <v>12</v>
+      </c>
+      <c r="GB106">
+        <v>27</v>
+      </c>
+      <c r="GC106">
+        <v>0</v>
+      </c>
+      <c r="GD106">
+        <v>0</v>
+      </c>
+      <c r="GE106">
+        <v>2</v>
+      </c>
+      <c r="GF106">
+        <v>0</v>
+      </c>
+      <c r="GG106">
+        <v>0</v>
+      </c>
+      <c r="GH106">
+        <v>0</v>
+      </c>
+      <c r="GI106">
+        <v>3</v>
+      </c>
+      <c r="GJ106">
+        <v>97</v>
+      </c>
+      <c r="GK106">
+        <v>0</v>
+      </c>
+      <c r="GL106">
+        <v>0</v>
+      </c>
+      <c r="GM106">
+        <v>10</v>
+      </c>
+      <c r="GN106">
+        <v>2</v>
+      </c>
+      <c r="GO106">
+        <v>737</v>
+      </c>
+      <c r="GP106">
+        <v>0</v>
+      </c>
+      <c r="GQ106">
+        <v>0</v>
+      </c>
+      <c r="GR106">
+        <v>1500</v>
+      </c>
+      <c r="GS106">
+        <v>1</v>
+      </c>
+      <c r="GT106">
+        <v>0</v>
+      </c>
+      <c r="GU106">
+        <v>0</v>
+      </c>
+      <c r="GV106">
+        <v>0</v>
+      </c>
+      <c r="GW106">
+        <v>0</v>
+      </c>
+      <c r="GX106">
+        <v>0</v>
+      </c>
+      <c r="GY106">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ecdc_csv/data/ecdc_csv_diff.xlsx
+++ b/ecdc_csv/data/ecdc_csv_diff.xlsx
@@ -997,7 +997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY106"/>
+  <dimension ref="A1:GY107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -33176,7 +33176,7 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J106">
         <v>46</v>
@@ -33768,6 +33768,626 @@
       </c>
       <c r="GY106">
         <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:207">
+      <c r="A107" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B107">
+        <v>58</v>
+      </c>
+      <c r="C107">
+        <v>21</v>
+      </c>
+      <c r="D107">
+        <v>69</v>
+      </c>
+      <c r="E107">
+        <v>8</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>2</v>
+      </c>
+      <c r="I107">
+        <v>69</v>
+      </c>
+      <c r="J107">
+        <v>26</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>44</v>
+      </c>
+      <c r="M107">
+        <v>106</v>
+      </c>
+      <c r="N107">
+        <v>50</v>
+      </c>
+      <c r="O107">
+        <v>2</v>
+      </c>
+      <c r="P107">
+        <v>225</v>
+      </c>
+      <c r="Q107">
+        <v>182</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
+      <c r="S107">
+        <v>341</v>
+      </c>
+      <c r="T107">
+        <v>942</v>
+      </c>
+      <c r="U107">
+        <v>4</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>24</v>
+      </c>
+      <c r="Z107">
+        <v>1</v>
+      </c>
+      <c r="AA107">
+        <v>21</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <v>1261</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
+      </c>
+      <c r="AF107">
+        <v>10</v>
+      </c>
+      <c r="AG107">
+        <v>18</v>
+      </c>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
+      </c>
+      <c r="AJ107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>1298</v>
+      </c>
+      <c r="AL107">
+        <v>0</v>
+      </c>
+      <c r="AN107">
+        <v>0</v>
+      </c>
+      <c r="AO107">
+        <v>0</v>
+      </c>
+      <c r="AP107">
+        <v>8</v>
+      </c>
+      <c r="AQ107">
+        <v>312</v>
+      </c>
+      <c r="AR107">
+        <v>94</v>
+      </c>
+      <c r="AS107">
+        <v>76</v>
+      </c>
+      <c r="AT107">
+        <v>0</v>
+      </c>
+      <c r="AU107">
+        <v>17</v>
+      </c>
+      <c r="AV107">
+        <v>52</v>
+      </c>
+      <c r="AW107">
+        <v>50</v>
+      </c>
+      <c r="AX107">
+        <v>57</v>
+      </c>
+      <c r="AY107">
+        <v>0</v>
+      </c>
+      <c r="AZ107">
+        <v>29</v>
+      </c>
+      <c r="BA107">
+        <v>68</v>
+      </c>
+      <c r="BB107">
+        <v>1</v>
+      </c>
+      <c r="BC107">
+        <v>144</v>
+      </c>
+      <c r="BD107">
+        <v>84</v>
+      </c>
+      <c r="BE107">
+        <v>0</v>
+      </c>
+      <c r="BF107">
+        <v>200</v>
+      </c>
+      <c r="BG107">
+        <v>63</v>
+      </c>
+      <c r="BH107">
+        <v>125</v>
+      </c>
+      <c r="BI107">
+        <v>24</v>
+      </c>
+      <c r="BJ107">
+        <v>0</v>
+      </c>
+      <c r="BK107">
+        <v>0</v>
+      </c>
+      <c r="BL107">
+        <v>23</v>
+      </c>
+      <c r="BM107">
+        <v>1</v>
+      </c>
+      <c r="BN107">
+        <v>3</v>
+      </c>
+      <c r="BO107">
+        <v>0</v>
+      </c>
+      <c r="BP107">
+        <v>0</v>
+      </c>
+      <c r="BQ107">
+        <v>0</v>
+      </c>
+      <c r="BR107">
+        <v>90</v>
+      </c>
+      <c r="BS107">
+        <v>2673</v>
+      </c>
+      <c r="BT107">
+        <v>2</v>
+      </c>
+      <c r="BU107">
+        <v>0</v>
+      </c>
+      <c r="BV107">
+        <v>0</v>
+      </c>
+      <c r="BW107">
+        <v>15</v>
+      </c>
+      <c r="BX107">
+        <v>2082</v>
+      </c>
+      <c r="BY107">
+        <v>0</v>
+      </c>
+      <c r="BZ107">
+        <v>0</v>
+      </c>
+      <c r="CA107">
+        <v>31</v>
+      </c>
+      <c r="CB107">
+        <v>0</v>
+      </c>
+      <c r="CC107">
+        <v>0</v>
+      </c>
+      <c r="CD107">
+        <v>1</v>
+      </c>
+      <c r="CE107">
+        <v>11</v>
+      </c>
+      <c r="CF107">
+        <v>1</v>
+      </c>
+      <c r="CG107">
+        <v>69</v>
+      </c>
+      <c r="CH107">
+        <v>0</v>
+      </c>
+      <c r="CI107">
+        <v>2</v>
+      </c>
+      <c r="CJ107">
+        <v>7</v>
+      </c>
+      <c r="CK107">
+        <v>0</v>
+      </c>
+      <c r="CL107">
+        <v>10</v>
+      </c>
+      <c r="CM107">
+        <v>54</v>
+      </c>
+      <c r="CN107">
+        <v>10</v>
+      </c>
+      <c r="CO107">
+        <v>1211</v>
+      </c>
+      <c r="CP107">
+        <v>316</v>
+      </c>
+      <c r="CQ107">
+        <v>1617</v>
+      </c>
+      <c r="CR107">
+        <v>26</v>
+      </c>
+      <c r="CS107">
+        <v>992</v>
+      </c>
+      <c r="CT107">
+        <v>14</v>
+      </c>
+      <c r="CU107">
+        <v>441</v>
+      </c>
+      <c r="CV107">
+        <v>3153</v>
+      </c>
+      <c r="CW107">
+        <v>1</v>
+      </c>
+      <c r="CX107">
+        <v>390</v>
+      </c>
+      <c r="CY107">
+        <v>4</v>
+      </c>
+      <c r="CZ107">
+        <v>2</v>
+      </c>
+      <c r="DA107">
+        <v>218</v>
+      </c>
+      <c r="DB107">
+        <v>11</v>
+      </c>
+      <c r="DC107">
+        <v>15</v>
+      </c>
+      <c r="DD107">
+        <v>66</v>
+      </c>
+      <c r="DE107">
+        <v>11</v>
+      </c>
+      <c r="DF107">
+        <v>0</v>
+      </c>
+      <c r="DG107">
+        <v>4</v>
+      </c>
+      <c r="DH107">
+        <v>2</v>
+      </c>
+      <c r="DI107">
+        <v>9</v>
+      </c>
+      <c r="DJ107">
+        <v>1</v>
+      </c>
+      <c r="DK107">
+        <v>1</v>
+      </c>
+      <c r="DL107">
+        <v>8</v>
+      </c>
+      <c r="DM107">
+        <v>11</v>
+      </c>
+      <c r="DN107">
+        <v>0</v>
+      </c>
+      <c r="DO107">
+        <v>3</v>
+      </c>
+      <c r="DP107">
+        <v>134</v>
+      </c>
+      <c r="DQ107">
+        <v>0</v>
+      </c>
+      <c r="DR107">
+        <v>7</v>
+      </c>
+      <c r="DS107">
+        <v>6</v>
+      </c>
+      <c r="DT107">
+        <v>0</v>
+      </c>
+      <c r="DU107">
+        <v>0</v>
+      </c>
+      <c r="DV107">
+        <v>353</v>
+      </c>
+      <c r="DW107">
+        <v>50</v>
+      </c>
+      <c r="DX107">
+        <v>0</v>
+      </c>
+      <c r="DY107">
+        <v>0</v>
+      </c>
+      <c r="DZ107">
+        <v>2</v>
+      </c>
+      <c r="EA107">
+        <v>0</v>
+      </c>
+      <c r="EB107">
+        <v>102</v>
+      </c>
+      <c r="EC107">
+        <v>6</v>
+      </c>
+      <c r="ED107">
+        <v>21</v>
+      </c>
+      <c r="EE107">
+        <v>0</v>
+      </c>
+      <c r="EF107">
+        <v>2</v>
+      </c>
+      <c r="EG107">
+        <v>964</v>
+      </c>
+      <c r="EH107">
+        <v>0</v>
+      </c>
+      <c r="EI107">
+        <v>8</v>
+      </c>
+      <c r="EJ107">
+        <v>1</v>
+      </c>
+      <c r="EK107">
+        <v>19</v>
+      </c>
+      <c r="EL107">
+        <v>20</v>
+      </c>
+      <c r="EM107">
+        <v>26</v>
+      </c>
+      <c r="EN107">
+        <v>0</v>
+      </c>
+      <c r="EO107">
+        <v>73</v>
+      </c>
+      <c r="EP107">
+        <v>214</v>
+      </c>
+      <c r="EQ107">
+        <v>342</v>
+      </c>
+      <c r="ER107">
+        <v>0</v>
+      </c>
+      <c r="ES107">
+        <v>72</v>
+      </c>
+      <c r="ET107">
+        <v>0</v>
+      </c>
+      <c r="EU107">
+        <v>12</v>
+      </c>
+      <c r="EV107">
+        <v>0</v>
+      </c>
+      <c r="EW107">
+        <v>284</v>
+      </c>
+      <c r="EX107">
+        <v>260</v>
+      </c>
+      <c r="EY107">
+        <v>349</v>
+      </c>
+      <c r="EZ107">
+        <v>6</v>
+      </c>
+      <c r="FA107">
+        <v>252</v>
+      </c>
+      <c r="FB107">
+        <v>333</v>
+      </c>
+      <c r="FC107">
+        <v>2558</v>
+      </c>
+      <c r="FD107">
+        <v>1</v>
+      </c>
+      <c r="FE107">
+        <v>0</v>
+      </c>
+      <c r="FF107">
+        <v>0</v>
+      </c>
+      <c r="FG107">
+        <v>0</v>
+      </c>
+      <c r="FH107">
+        <v>0</v>
+      </c>
+      <c r="FI107">
+        <v>0</v>
+      </c>
+      <c r="FJ107">
+        <v>472</v>
+      </c>
+      <c r="FK107">
+        <v>11</v>
+      </c>
+      <c r="FL107">
+        <v>0</v>
+      </c>
+      <c r="FM107">
+        <v>0</v>
+      </c>
+      <c r="FN107">
+        <v>1</v>
+      </c>
+      <c r="FO107">
+        <v>386</v>
+      </c>
+      <c r="FP107">
+        <v>2</v>
+      </c>
+      <c r="FQ107">
+        <v>27</v>
+      </c>
+      <c r="FR107">
+        <v>7</v>
+      </c>
+      <c r="FS107">
+        <v>0</v>
+      </c>
+      <c r="FT107">
+        <v>99</v>
+      </c>
+      <c r="FU107">
+        <v>27</v>
+      </c>
+      <c r="FV107">
+        <v>0</v>
+      </c>
+      <c r="FW107">
+        <v>3477</v>
+      </c>
+      <c r="FX107">
+        <v>8</v>
+      </c>
+      <c r="FY107">
+        <v>10</v>
+      </c>
+      <c r="FZ107">
+        <v>0</v>
+      </c>
+      <c r="GA107">
+        <v>465</v>
+      </c>
+      <c r="GB107">
+        <v>279</v>
+      </c>
+      <c r="GC107">
+        <v>0</v>
+      </c>
+      <c r="GD107">
+        <v>5</v>
+      </c>
+      <c r="GE107">
+        <v>34</v>
+      </c>
+      <c r="GF107">
+        <v>2</v>
+      </c>
+      <c r="GG107">
+        <v>1</v>
+      </c>
+      <c r="GH107">
+        <v>0</v>
+      </c>
+      <c r="GI107">
+        <v>19</v>
+      </c>
+      <c r="GJ107">
+        <v>4093</v>
+      </c>
+      <c r="GK107">
+        <v>1</v>
+      </c>
+      <c r="GL107">
+        <v>0</v>
+      </c>
+      <c r="GM107">
+        <v>325</v>
+      </c>
+      <c r="GN107">
+        <v>398</v>
+      </c>
+      <c r="GO107">
+        <v>4342</v>
+      </c>
+      <c r="GP107">
+        <v>14</v>
+      </c>
+      <c r="GQ107">
+        <v>0</v>
+      </c>
+      <c r="GR107">
+        <v>25023</v>
+      </c>
+      <c r="GS107">
+        <v>9</v>
+      </c>
+      <c r="GT107">
+        <v>133</v>
+      </c>
+      <c r="GU107">
+        <v>8</v>
+      </c>
+      <c r="GV107">
+        <v>3</v>
+      </c>
+      <c r="GW107">
+        <v>0</v>
+      </c>
+      <c r="GX107">
+        <v>2</v>
+      </c>
+      <c r="GY107">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -33777,7 +34397,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY106"/>
+  <dimension ref="A1:GY107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -66550,6 +67170,626 @@
         <v>0</v>
       </c>
     </row>
+    <row r="107" spans="1:207">
+      <c r="A107" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>20</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>3</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>18</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>5</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>3</v>
+      </c>
+      <c r="T107">
+        <v>303</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>1</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <v>105</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
+      </c>
+      <c r="AF107">
+        <v>3</v>
+      </c>
+      <c r="AG107">
+        <v>1</v>
+      </c>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
+      </c>
+      <c r="AJ107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>63</v>
+      </c>
+      <c r="AL107">
+        <v>0</v>
+      </c>
+      <c r="AN107">
+        <v>0</v>
+      </c>
+      <c r="AO107">
+        <v>0</v>
+      </c>
+      <c r="AP107">
+        <v>0</v>
+      </c>
+      <c r="AQ107">
+        <v>2</v>
+      </c>
+      <c r="AR107">
+        <v>0</v>
+      </c>
+      <c r="AS107">
+        <v>3</v>
+      </c>
+      <c r="AT107">
+        <v>0</v>
+      </c>
+      <c r="AU107">
+        <v>0</v>
+      </c>
+      <c r="AV107">
+        <v>1</v>
+      </c>
+      <c r="AW107">
+        <v>2</v>
+      </c>
+      <c r="AX107">
+        <v>3</v>
+      </c>
+      <c r="AY107">
+        <v>0</v>
+      </c>
+      <c r="AZ107">
+        <v>1</v>
+      </c>
+      <c r="BA107">
+        <v>5</v>
+      </c>
+      <c r="BB107">
+        <v>0</v>
+      </c>
+      <c r="BC107">
+        <v>12</v>
+      </c>
+      <c r="BD107">
+        <v>0</v>
+      </c>
+      <c r="BE107">
+        <v>0</v>
+      </c>
+      <c r="BF107">
+        <v>4</v>
+      </c>
+      <c r="BG107">
+        <v>22</v>
+      </c>
+      <c r="BH107">
+        <v>5</v>
+      </c>
+      <c r="BI107">
+        <v>0</v>
+      </c>
+      <c r="BJ107">
+        <v>0</v>
+      </c>
+      <c r="BK107">
+        <v>0</v>
+      </c>
+      <c r="BL107">
+        <v>3</v>
+      </c>
+      <c r="BM107">
+        <v>0</v>
+      </c>
+      <c r="BN107">
+        <v>0</v>
+      </c>
+      <c r="BO107">
+        <v>0</v>
+      </c>
+      <c r="BP107">
+        <v>0</v>
+      </c>
+      <c r="BQ107">
+        <v>0</v>
+      </c>
+      <c r="BR107">
+        <v>3</v>
+      </c>
+      <c r="BS107">
+        <v>574</v>
+      </c>
+      <c r="BT107">
+        <v>0</v>
+      </c>
+      <c r="BU107">
+        <v>0</v>
+      </c>
+      <c r="BV107">
+        <v>0</v>
+      </c>
+      <c r="BW107">
+        <v>0</v>
+      </c>
+      <c r="BX107">
+        <v>170</v>
+      </c>
+      <c r="BY107">
+        <v>0</v>
+      </c>
+      <c r="BZ107">
+        <v>0</v>
+      </c>
+      <c r="CA107">
+        <v>1</v>
+      </c>
+      <c r="CB107">
+        <v>0</v>
+      </c>
+      <c r="CC107">
+        <v>0</v>
+      </c>
+      <c r="CD107">
+        <v>0</v>
+      </c>
+      <c r="CE107">
+        <v>0</v>
+      </c>
+      <c r="CF107">
+        <v>0</v>
+      </c>
+      <c r="CG107">
+        <v>0</v>
+      </c>
+      <c r="CH107">
+        <v>0</v>
+      </c>
+      <c r="CI107">
+        <v>0</v>
+      </c>
+      <c r="CJ107">
+        <v>0</v>
+      </c>
+      <c r="CK107">
+        <v>0</v>
+      </c>
+      <c r="CL107">
+        <v>1</v>
+      </c>
+      <c r="CM107">
+        <v>13</v>
+      </c>
+      <c r="CN107">
+        <v>0</v>
+      </c>
+      <c r="CO107">
+        <v>31</v>
+      </c>
+      <c r="CP107">
+        <v>26</v>
+      </c>
+      <c r="CQ107">
+        <v>111</v>
+      </c>
+      <c r="CR107">
+        <v>2</v>
+      </c>
+      <c r="CS107">
+        <v>31</v>
+      </c>
+      <c r="CT107">
+        <v>0</v>
+      </c>
+      <c r="CU107">
+        <v>13</v>
+      </c>
+      <c r="CV107">
+        <v>564</v>
+      </c>
+      <c r="CW107">
+        <v>0</v>
+      </c>
+      <c r="CX107">
+        <v>7</v>
+      </c>
+      <c r="CY107">
+        <v>0</v>
+      </c>
+      <c r="CZ107">
+        <v>0</v>
+      </c>
+      <c r="DA107">
+        <v>4</v>
+      </c>
+      <c r="DB107">
+        <v>1</v>
+      </c>
+      <c r="DC107">
+        <v>1</v>
+      </c>
+      <c r="DD107">
+        <v>1</v>
+      </c>
+      <c r="DE107">
+        <v>0</v>
+      </c>
+      <c r="DF107">
+        <v>0</v>
+      </c>
+      <c r="DG107">
+        <v>0</v>
+      </c>
+      <c r="DH107">
+        <v>0</v>
+      </c>
+      <c r="DI107">
+        <v>1</v>
+      </c>
+      <c r="DJ107">
+        <v>0</v>
+      </c>
+      <c r="DK107">
+        <v>0</v>
+      </c>
+      <c r="DL107">
+        <v>0</v>
+      </c>
+      <c r="DM107">
+        <v>3</v>
+      </c>
+      <c r="DN107">
+        <v>0</v>
+      </c>
+      <c r="DO107">
+        <v>0</v>
+      </c>
+      <c r="DP107">
+        <v>1</v>
+      </c>
+      <c r="DQ107">
+        <v>0</v>
+      </c>
+      <c r="DR107">
+        <v>1</v>
+      </c>
+      <c r="DS107">
+        <v>0</v>
+      </c>
+      <c r="DT107">
+        <v>0</v>
+      </c>
+      <c r="DU107">
+        <v>0</v>
+      </c>
+      <c r="DV107">
+        <v>36</v>
+      </c>
+      <c r="DW107">
+        <v>4</v>
+      </c>
+      <c r="DX107">
+        <v>0</v>
+      </c>
+      <c r="DY107">
+        <v>0</v>
+      </c>
+      <c r="DZ107">
+        <v>0</v>
+      </c>
+      <c r="EA107">
+        <v>0</v>
+      </c>
+      <c r="EB107">
+        <v>8</v>
+      </c>
+      <c r="EC107">
+        <v>0</v>
+      </c>
+      <c r="ED107">
+        <v>0</v>
+      </c>
+      <c r="EE107">
+        <v>0</v>
+      </c>
+      <c r="EF107">
+        <v>0</v>
+      </c>
+      <c r="EG107">
+        <v>86</v>
+      </c>
+      <c r="EH107">
+        <v>0</v>
+      </c>
+      <c r="EI107">
+        <v>4</v>
+      </c>
+      <c r="EJ107">
+        <v>0</v>
+      </c>
+      <c r="EK107">
+        <v>1</v>
+      </c>
+      <c r="EL107">
+        <v>0</v>
+      </c>
+      <c r="EM107">
+        <v>4</v>
+      </c>
+      <c r="EN107">
+        <v>0</v>
+      </c>
+      <c r="EO107">
+        <v>11</v>
+      </c>
+      <c r="EP107">
+        <v>0</v>
+      </c>
+      <c r="EQ107">
+        <v>3</v>
+      </c>
+      <c r="ER107">
+        <v>0</v>
+      </c>
+      <c r="ES107">
+        <v>7</v>
+      </c>
+      <c r="ET107">
+        <v>0</v>
+      </c>
+      <c r="EU107">
+        <v>1</v>
+      </c>
+      <c r="EV107">
+        <v>0</v>
+      </c>
+      <c r="EW107">
+        <v>18</v>
+      </c>
+      <c r="EX107">
+        <v>13</v>
+      </c>
+      <c r="EY107">
+        <v>31</v>
+      </c>
+      <c r="EZ107">
+        <v>1</v>
+      </c>
+      <c r="FA107">
+        <v>0</v>
+      </c>
+      <c r="FB107">
+        <v>12</v>
+      </c>
+      <c r="FC107">
+        <v>18</v>
+      </c>
+      <c r="FD107">
+        <v>0</v>
+      </c>
+      <c r="FE107">
+        <v>0</v>
+      </c>
+      <c r="FF107">
+        <v>0</v>
+      </c>
+      <c r="FG107">
+        <v>0</v>
+      </c>
+      <c r="FH107">
+        <v>1</v>
+      </c>
+      <c r="FI107">
+        <v>0</v>
+      </c>
+      <c r="FJ107">
+        <v>6</v>
+      </c>
+      <c r="FK107">
+        <v>0</v>
+      </c>
+      <c r="FL107">
+        <v>0</v>
+      </c>
+      <c r="FM107">
+        <v>0</v>
+      </c>
+      <c r="FN107">
+        <v>0</v>
+      </c>
+      <c r="FO107">
+        <v>1</v>
+      </c>
+      <c r="FP107">
+        <v>0</v>
+      </c>
+      <c r="FQ107">
+        <v>0</v>
+      </c>
+      <c r="FR107">
+        <v>2</v>
+      </c>
+      <c r="FS107">
+        <v>0</v>
+      </c>
+      <c r="FT107">
+        <v>2</v>
+      </c>
+      <c r="FU107">
+        <v>5</v>
+      </c>
+      <c r="FV107">
+        <v>0</v>
+      </c>
+      <c r="FW107">
+        <v>517</v>
+      </c>
+      <c r="FX107">
+        <v>0</v>
+      </c>
+      <c r="FY107">
+        <v>2</v>
+      </c>
+      <c r="FZ107">
+        <v>0</v>
+      </c>
+      <c r="GA107">
+        <v>20</v>
+      </c>
+      <c r="GB107">
+        <v>0</v>
+      </c>
+      <c r="GC107">
+        <v>0</v>
+      </c>
+      <c r="GD107">
+        <v>0</v>
+      </c>
+      <c r="GE107">
+        <v>1</v>
+      </c>
+      <c r="GF107">
+        <v>0</v>
+      </c>
+      <c r="GG107">
+        <v>0</v>
+      </c>
+      <c r="GH107">
+        <v>0</v>
+      </c>
+      <c r="GI107">
+        <v>3</v>
+      </c>
+      <c r="GJ107">
+        <v>98</v>
+      </c>
+      <c r="GK107">
+        <v>0</v>
+      </c>
+      <c r="GL107">
+        <v>0</v>
+      </c>
+      <c r="GM107">
+        <v>10</v>
+      </c>
+      <c r="GN107">
+        <v>3</v>
+      </c>
+      <c r="GO107">
+        <v>717</v>
+      </c>
+      <c r="GP107">
+        <v>0</v>
+      </c>
+      <c r="GQ107">
+        <v>0</v>
+      </c>
+      <c r="GR107">
+        <v>1541</v>
+      </c>
+      <c r="GS107">
+        <v>0</v>
+      </c>
+      <c r="GT107">
+        <v>0</v>
+      </c>
+      <c r="GU107">
+        <v>0</v>
+      </c>
+      <c r="GV107">
+        <v>0</v>
+      </c>
+      <c r="GW107">
+        <v>0</v>
+      </c>
+      <c r="GX107">
+        <v>0</v>
+      </c>
+      <c r="GY107">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ecdc_csv/data/ecdc_csv_diff.xlsx
+++ b/ecdc_csv/data/ecdc_csv_diff.xlsx
@@ -997,7 +997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY107"/>
+  <dimension ref="A1:GY108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -34390,6 +34390,626 @@
         <v>3</v>
       </c>
     </row>
+    <row r="108" spans="1:207">
+      <c r="A108" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B108">
+        <v>49</v>
+      </c>
+      <c r="C108">
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>87</v>
+      </c>
+      <c r="E108">
+        <v>13</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>160</v>
+      </c>
+      <c r="J108">
+        <v>72</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>50</v>
+      </c>
+      <c r="M108">
+        <v>191</v>
+      </c>
+      <c r="N108">
+        <v>49</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>167</v>
+      </c>
+      <c r="Q108">
+        <v>209</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
+      </c>
+      <c r="S108">
+        <v>362</v>
+      </c>
+      <c r="T108">
+        <v>530</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>43</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>45</v>
+      </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
+      <c r="AC108">
+        <v>1832</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+      <c r="AF108">
+        <v>28</v>
+      </c>
+      <c r="AG108">
+        <v>13</v>
+      </c>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AJ108">
+        <v>35</v>
+      </c>
+      <c r="AK108">
+        <v>1383</v>
+      </c>
+      <c r="AL108">
+        <v>1</v>
+      </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
+        <v>0</v>
+      </c>
+      <c r="AP108">
+        <v>0</v>
+      </c>
+      <c r="AQ108">
+        <v>392</v>
+      </c>
+      <c r="AR108">
+        <v>49</v>
+      </c>
+      <c r="AS108">
+        <v>127</v>
+      </c>
+      <c r="AT108">
+        <v>4</v>
+      </c>
+      <c r="AU108">
+        <v>6</v>
+      </c>
+      <c r="AV108">
+        <v>0</v>
+      </c>
+      <c r="AW108">
+        <v>54</v>
+      </c>
+      <c r="AX108">
+        <v>40</v>
+      </c>
+      <c r="AY108">
+        <v>0</v>
+      </c>
+      <c r="AZ108">
+        <v>33</v>
+      </c>
+      <c r="BA108">
+        <v>82</v>
+      </c>
+      <c r="BB108">
+        <v>19</v>
+      </c>
+      <c r="BC108">
+        <v>193</v>
+      </c>
+      <c r="BD108">
+        <v>65</v>
+      </c>
+      <c r="BE108">
+        <v>0</v>
+      </c>
+      <c r="BF108">
+        <v>119</v>
+      </c>
+      <c r="BG108">
+        <v>74</v>
+      </c>
+      <c r="BH108">
+        <v>160</v>
+      </c>
+      <c r="BI108">
+        <v>10</v>
+      </c>
+      <c r="BJ108">
+        <v>20</v>
+      </c>
+      <c r="BK108">
+        <v>1</v>
+      </c>
+      <c r="BL108">
+        <v>41</v>
+      </c>
+      <c r="BM108">
+        <v>0</v>
+      </c>
+      <c r="BN108">
+        <v>8</v>
+      </c>
+      <c r="BO108">
+        <v>6</v>
+      </c>
+      <c r="BP108">
+        <v>0</v>
+      </c>
+      <c r="BQ108">
+        <v>0</v>
+      </c>
+      <c r="BR108">
+        <v>97</v>
+      </c>
+      <c r="BS108">
+        <v>5497</v>
+      </c>
+      <c r="BT108">
+        <v>0</v>
+      </c>
+      <c r="BU108">
+        <v>18</v>
+      </c>
+      <c r="BV108">
+        <v>0</v>
+      </c>
+      <c r="BW108">
+        <v>28</v>
+      </c>
+      <c r="BX108">
+        <v>2486</v>
+      </c>
+      <c r="BY108">
+        <v>70</v>
+      </c>
+      <c r="BZ108">
+        <v>0</v>
+      </c>
+      <c r="CA108">
+        <v>25</v>
+      </c>
+      <c r="CB108">
+        <v>0</v>
+      </c>
+      <c r="CC108">
+        <v>0</v>
+      </c>
+      <c r="CD108">
+        <v>1</v>
+      </c>
+      <c r="CE108">
+        <v>13</v>
+      </c>
+      <c r="CF108">
+        <v>4</v>
+      </c>
+      <c r="CG108">
+        <v>44</v>
+      </c>
+      <c r="CH108">
+        <v>1</v>
+      </c>
+      <c r="CI108">
+        <v>1</v>
+      </c>
+      <c r="CJ108">
+        <v>0</v>
+      </c>
+      <c r="CK108">
+        <v>0</v>
+      </c>
+      <c r="CL108">
+        <v>12</v>
+      </c>
+      <c r="CM108">
+        <v>67</v>
+      </c>
+      <c r="CN108">
+        <v>9</v>
+      </c>
+      <c r="CO108">
+        <v>1075</v>
+      </c>
+      <c r="CP108">
+        <v>282</v>
+      </c>
+      <c r="CQ108">
+        <v>1574</v>
+      </c>
+      <c r="CR108">
+        <v>22</v>
+      </c>
+      <c r="CS108">
+        <v>832</v>
+      </c>
+      <c r="CT108">
+        <v>0</v>
+      </c>
+      <c r="CU108">
+        <v>460</v>
+      </c>
+      <c r="CV108">
+        <v>2972</v>
+      </c>
+      <c r="CW108">
+        <v>32</v>
+      </c>
+      <c r="CX108">
+        <v>455</v>
+      </c>
+      <c r="CY108">
+        <v>0</v>
+      </c>
+      <c r="CZ108">
+        <v>6</v>
+      </c>
+      <c r="DA108">
+        <v>88</v>
+      </c>
+      <c r="DB108">
+        <v>8</v>
+      </c>
+      <c r="DC108">
+        <v>10</v>
+      </c>
+      <c r="DD108">
+        <v>55</v>
+      </c>
+      <c r="DE108">
+        <v>19</v>
+      </c>
+      <c r="DF108">
+        <v>0</v>
+      </c>
+      <c r="DG108">
+        <v>2</v>
+      </c>
+      <c r="DH108">
+        <v>9</v>
+      </c>
+      <c r="DI108">
+        <v>0</v>
+      </c>
+      <c r="DJ108">
+        <v>9</v>
+      </c>
+      <c r="DK108">
+        <v>0</v>
+      </c>
+      <c r="DL108">
+        <v>0</v>
+      </c>
+      <c r="DM108">
+        <v>15</v>
+      </c>
+      <c r="DN108">
+        <v>2</v>
+      </c>
+      <c r="DO108">
+        <v>0</v>
+      </c>
+      <c r="DP108">
+        <v>170</v>
+      </c>
+      <c r="DQ108">
+        <v>1</v>
+      </c>
+      <c r="DR108">
+        <v>21</v>
+      </c>
+      <c r="DS108">
+        <v>9</v>
+      </c>
+      <c r="DT108">
+        <v>0</v>
+      </c>
+      <c r="DU108">
+        <v>0</v>
+      </c>
+      <c r="DV108">
+        <v>385</v>
+      </c>
+      <c r="DW108">
+        <v>222</v>
+      </c>
+      <c r="DX108">
+        <v>0</v>
+      </c>
+      <c r="DY108">
+        <v>14</v>
+      </c>
+      <c r="DZ108">
+        <v>9</v>
+      </c>
+      <c r="EA108">
+        <v>0</v>
+      </c>
+      <c r="EB108">
+        <v>125</v>
+      </c>
+      <c r="EC108">
+        <v>1</v>
+      </c>
+      <c r="ED108">
+        <v>12</v>
+      </c>
+      <c r="EE108">
+        <v>0</v>
+      </c>
+      <c r="EF108">
+        <v>2</v>
+      </c>
+      <c r="EG108">
+        <v>868</v>
+      </c>
+      <c r="EH108">
+        <v>0</v>
+      </c>
+      <c r="EI108">
+        <v>6</v>
+      </c>
+      <c r="EJ108">
+        <v>0</v>
+      </c>
+      <c r="EK108">
+        <v>22</v>
+      </c>
+      <c r="EL108">
+        <v>30</v>
+      </c>
+      <c r="EM108">
+        <v>54</v>
+      </c>
+      <c r="EN108">
+        <v>2</v>
+      </c>
+      <c r="EO108">
+        <v>78</v>
+      </c>
+      <c r="EP108">
+        <v>97</v>
+      </c>
+      <c r="EQ108">
+        <v>272</v>
+      </c>
+      <c r="ER108">
+        <v>19</v>
+      </c>
+      <c r="ES108">
+        <v>102</v>
+      </c>
+      <c r="ET108">
+        <v>0</v>
+      </c>
+      <c r="EU108">
+        <v>2</v>
+      </c>
+      <c r="EV108">
+        <v>2784</v>
+      </c>
+      <c r="EW108">
+        <v>291</v>
+      </c>
+      <c r="EX108">
+        <v>268</v>
+      </c>
+      <c r="EY108">
+        <v>514</v>
+      </c>
+      <c r="EZ108">
+        <v>20</v>
+      </c>
+      <c r="FA108">
+        <v>197</v>
+      </c>
+      <c r="FB108">
+        <v>246</v>
+      </c>
+      <c r="FC108">
+        <v>2774</v>
+      </c>
+      <c r="FD108">
+        <v>7</v>
+      </c>
+      <c r="FE108">
+        <v>2</v>
+      </c>
+      <c r="FF108">
+        <v>0</v>
+      </c>
+      <c r="FG108">
+        <v>0</v>
+      </c>
+      <c r="FH108">
+        <v>16</v>
+      </c>
+      <c r="FI108">
+        <v>0</v>
+      </c>
+      <c r="FJ108">
+        <v>435</v>
+      </c>
+      <c r="FK108">
+        <v>8</v>
+      </c>
+      <c r="FL108">
+        <v>424</v>
+      </c>
+      <c r="FM108">
+        <v>1</v>
+      </c>
+      <c r="FN108">
+        <v>0</v>
+      </c>
+      <c r="FO108">
+        <v>334</v>
+      </c>
+      <c r="FP108">
+        <v>0</v>
+      </c>
+      <c r="FQ108">
+        <v>66</v>
+      </c>
+      <c r="FR108">
+        <v>8</v>
+      </c>
+      <c r="FS108">
+        <v>35</v>
+      </c>
+      <c r="FT108">
+        <v>143</v>
+      </c>
+      <c r="FU108">
+        <v>27</v>
+      </c>
+      <c r="FV108">
+        <v>0</v>
+      </c>
+      <c r="FW108">
+        <v>3045</v>
+      </c>
+      <c r="FX108">
+        <v>15</v>
+      </c>
+      <c r="FY108">
+        <v>3</v>
+      </c>
+      <c r="FZ108">
+        <v>0</v>
+      </c>
+      <c r="GA108">
+        <v>497</v>
+      </c>
+      <c r="GB108">
+        <v>254</v>
+      </c>
+      <c r="GC108">
+        <v>4</v>
+      </c>
+      <c r="GD108">
+        <v>2</v>
+      </c>
+      <c r="GE108">
+        <v>30</v>
+      </c>
+      <c r="GF108">
+        <v>2</v>
+      </c>
+      <c r="GG108">
+        <v>0</v>
+      </c>
+      <c r="GH108">
+        <v>0</v>
+      </c>
+      <c r="GI108">
+        <v>21</v>
+      </c>
+      <c r="GJ108">
+        <v>4062</v>
+      </c>
+      <c r="GK108">
+        <v>0</v>
+      </c>
+      <c r="GL108">
+        <v>1</v>
+      </c>
+      <c r="GM108">
+        <v>270</v>
+      </c>
+      <c r="GN108">
+        <v>412</v>
+      </c>
+      <c r="GO108">
+        <v>5252</v>
+      </c>
+      <c r="GP108">
+        <v>7</v>
+      </c>
+      <c r="GQ108">
+        <v>0</v>
+      </c>
+      <c r="GR108">
+        <v>26922</v>
+      </c>
+      <c r="GS108">
+        <v>12</v>
+      </c>
+      <c r="GT108">
+        <v>167</v>
+      </c>
+      <c r="GU108">
+        <v>4</v>
+      </c>
+      <c r="GV108">
+        <v>9</v>
+      </c>
+      <c r="GW108">
+        <v>0</v>
+      </c>
+      <c r="GX108">
+        <v>0</v>
+      </c>
+      <c r="GY108">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34397,7 +35017,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY107"/>
+  <dimension ref="A1:GY108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -67517,7 +68137,7 @@
         <v>0</v>
       </c>
       <c r="DM107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DN107">
         <v>0</v>
@@ -67787,6 +68407,626 @@
         <v>0</v>
       </c>
       <c r="GY107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:207">
+      <c r="A108" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>13</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>7</v>
+      </c>
+      <c r="J108">
+        <v>3</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>16</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>7</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
+      </c>
+      <c r="S108">
+        <v>4</v>
+      </c>
+      <c r="T108">
+        <v>254</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>1</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>1</v>
+      </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
+      <c r="AC108">
+        <v>204</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+      <c r="AF108">
+        <v>3</v>
+      </c>
+      <c r="AG108">
+        <v>2</v>
+      </c>
+      <c r="AH108">
+        <v>1</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AJ108">
+        <v>5</v>
+      </c>
+      <c r="AK108">
+        <v>123</v>
+      </c>
+      <c r="AL108">
+        <v>0</v>
+      </c>
+      <c r="AN108">
+        <v>0</v>
+      </c>
+      <c r="AO108">
+        <v>0</v>
+      </c>
+      <c r="AP108">
+        <v>0</v>
+      </c>
+      <c r="AQ108">
+        <v>10</v>
+      </c>
+      <c r="AR108">
+        <v>1</v>
+      </c>
+      <c r="AS108">
+        <v>15</v>
+      </c>
+      <c r="AT108">
+        <v>0</v>
+      </c>
+      <c r="AU108">
+        <v>0</v>
+      </c>
+      <c r="AV108">
+        <v>0</v>
+      </c>
+      <c r="AW108">
+        <v>6</v>
+      </c>
+      <c r="AX108">
+        <v>0</v>
+      </c>
+      <c r="AY108">
+        <v>0</v>
+      </c>
+      <c r="AZ108">
+        <v>0</v>
+      </c>
+      <c r="BA108">
+        <v>18</v>
+      </c>
+      <c r="BB108">
+        <v>1</v>
+      </c>
+      <c r="BC108">
+        <v>14</v>
+      </c>
+      <c r="BD108">
+        <v>0</v>
+      </c>
+      <c r="BE108">
+        <v>0</v>
+      </c>
+      <c r="BF108">
+        <v>6</v>
+      </c>
+      <c r="BG108">
+        <v>0</v>
+      </c>
+      <c r="BH108">
+        <v>14</v>
+      </c>
+      <c r="BI108">
+        <v>0</v>
+      </c>
+      <c r="BJ108">
+        <v>0</v>
+      </c>
+      <c r="BK108">
+        <v>0</v>
+      </c>
+      <c r="BL108">
+        <v>3</v>
+      </c>
+      <c r="BM108">
+        <v>0</v>
+      </c>
+      <c r="BN108">
+        <v>0</v>
+      </c>
+      <c r="BO108">
+        <v>0</v>
+      </c>
+      <c r="BP108">
+        <v>0</v>
+      </c>
+      <c r="BQ108">
+        <v>0</v>
+      </c>
+      <c r="BR108">
+        <v>5</v>
+      </c>
+      <c r="BS108">
+        <v>762</v>
+      </c>
+      <c r="BT108">
+        <v>0</v>
+      </c>
+      <c r="BU108">
+        <v>0</v>
+      </c>
+      <c r="BV108">
+        <v>0</v>
+      </c>
+      <c r="BW108">
+        <v>0</v>
+      </c>
+      <c r="BX108">
+        <v>285</v>
+      </c>
+      <c r="BY108">
+        <v>0</v>
+      </c>
+      <c r="BZ108">
+        <v>0</v>
+      </c>
+      <c r="CA108">
+        <v>2</v>
+      </c>
+      <c r="CB108">
+        <v>0</v>
+      </c>
+      <c r="CC108">
+        <v>0</v>
+      </c>
+      <c r="CD108">
+        <v>0</v>
+      </c>
+      <c r="CE108">
+        <v>0</v>
+      </c>
+      <c r="CF108">
+        <v>1</v>
+      </c>
+      <c r="CG108">
+        <v>0</v>
+      </c>
+      <c r="CH108">
+        <v>0</v>
+      </c>
+      <c r="CI108">
+        <v>0</v>
+      </c>
+      <c r="CJ108">
+        <v>0</v>
+      </c>
+      <c r="CK108">
+        <v>0</v>
+      </c>
+      <c r="CL108">
+        <v>5</v>
+      </c>
+      <c r="CM108">
+        <v>12</v>
+      </c>
+      <c r="CN108">
+        <v>0</v>
+      </c>
+      <c r="CO108">
+        <v>38</v>
+      </c>
+      <c r="CP108">
+        <v>60</v>
+      </c>
+      <c r="CQ108">
+        <v>98</v>
+      </c>
+      <c r="CR108">
+        <v>0</v>
+      </c>
+      <c r="CS108">
+        <v>41</v>
+      </c>
+      <c r="CT108">
+        <v>0</v>
+      </c>
+      <c r="CU108">
+        <v>7</v>
+      </c>
+      <c r="CV108">
+        <v>604</v>
+      </c>
+      <c r="CW108">
+        <v>1</v>
+      </c>
+      <c r="CX108">
+        <v>10</v>
+      </c>
+      <c r="CY108">
+        <v>0</v>
+      </c>
+      <c r="CZ108">
+        <v>0</v>
+      </c>
+      <c r="DA108">
+        <v>0</v>
+      </c>
+      <c r="DB108">
+        <v>0</v>
+      </c>
+      <c r="DC108">
+        <v>0</v>
+      </c>
+      <c r="DD108">
+        <v>1</v>
+      </c>
+      <c r="DE108">
+        <v>0</v>
+      </c>
+      <c r="DF108">
+        <v>0</v>
+      </c>
+      <c r="DG108">
+        <v>0</v>
+      </c>
+      <c r="DH108">
+        <v>1</v>
+      </c>
+      <c r="DI108">
+        <v>0</v>
+      </c>
+      <c r="DJ108">
+        <v>0</v>
+      </c>
+      <c r="DK108">
+        <v>0</v>
+      </c>
+      <c r="DL108">
+        <v>0</v>
+      </c>
+      <c r="DM108">
+        <v>0</v>
+      </c>
+      <c r="DN108">
+        <v>0</v>
+      </c>
+      <c r="DO108">
+        <v>0</v>
+      </c>
+      <c r="DP108">
+        <v>5</v>
+      </c>
+      <c r="DQ108">
+        <v>0</v>
+      </c>
+      <c r="DR108">
+        <v>3</v>
+      </c>
+      <c r="DS108">
+        <v>0</v>
+      </c>
+      <c r="DT108">
+        <v>0</v>
+      </c>
+      <c r="DU108">
+        <v>0</v>
+      </c>
+      <c r="DV108">
+        <v>74</v>
+      </c>
+      <c r="DW108">
+        <v>4</v>
+      </c>
+      <c r="DX108">
+        <v>0</v>
+      </c>
+      <c r="DY108">
+        <v>0</v>
+      </c>
+      <c r="DZ108">
+        <v>1</v>
+      </c>
+      <c r="EA108">
+        <v>0</v>
+      </c>
+      <c r="EB108">
+        <v>0</v>
+      </c>
+      <c r="EC108">
+        <v>0</v>
+      </c>
+      <c r="ED108">
+        <v>0</v>
+      </c>
+      <c r="EE108">
+        <v>0</v>
+      </c>
+      <c r="EF108">
+        <v>0</v>
+      </c>
+      <c r="EG108">
+        <v>122</v>
+      </c>
+      <c r="EH108">
+        <v>0</v>
+      </c>
+      <c r="EI108">
+        <v>0</v>
+      </c>
+      <c r="EJ108">
+        <v>0</v>
+      </c>
+      <c r="EK108">
+        <v>1</v>
+      </c>
+      <c r="EL108">
+        <v>1</v>
+      </c>
+      <c r="EM108">
+        <v>6</v>
+      </c>
+      <c r="EN108">
+        <v>0</v>
+      </c>
+      <c r="EO108">
+        <v>13</v>
+      </c>
+      <c r="EP108">
+        <v>0</v>
+      </c>
+      <c r="EQ108">
+        <v>11</v>
+      </c>
+      <c r="ER108">
+        <v>0</v>
+      </c>
+      <c r="ES108">
+        <v>1</v>
+      </c>
+      <c r="ET108">
+        <v>0</v>
+      </c>
+      <c r="EU108">
+        <v>1</v>
+      </c>
+      <c r="EV108">
+        <v>37</v>
+      </c>
+      <c r="EW108">
+        <v>20</v>
+      </c>
+      <c r="EX108">
+        <v>18</v>
+      </c>
+      <c r="EY108">
+        <v>32</v>
+      </c>
+      <c r="EZ108">
+        <v>0</v>
+      </c>
+      <c r="FA108">
+        <v>0</v>
+      </c>
+      <c r="FB108">
+        <v>26</v>
+      </c>
+      <c r="FC108">
+        <v>22</v>
+      </c>
+      <c r="FD108">
+        <v>0</v>
+      </c>
+      <c r="FE108">
+        <v>0</v>
+      </c>
+      <c r="FF108">
+        <v>0</v>
+      </c>
+      <c r="FG108">
+        <v>0</v>
+      </c>
+      <c r="FH108">
+        <v>0</v>
+      </c>
+      <c r="FI108">
+        <v>0</v>
+      </c>
+      <c r="FJ108">
+        <v>8</v>
+      </c>
+      <c r="FK108">
+        <v>0</v>
+      </c>
+      <c r="FL108">
+        <v>4</v>
+      </c>
+      <c r="FM108">
+        <v>0</v>
+      </c>
+      <c r="FN108">
+        <v>0</v>
+      </c>
+      <c r="FO108">
+        <v>1</v>
+      </c>
+      <c r="FP108">
+        <v>0</v>
+      </c>
+      <c r="FQ108">
+        <v>0</v>
+      </c>
+      <c r="FR108">
+        <v>1</v>
+      </c>
+      <c r="FS108">
+        <v>0</v>
+      </c>
+      <c r="FT108">
+        <v>0</v>
+      </c>
+      <c r="FU108">
+        <v>3</v>
+      </c>
+      <c r="FV108">
+        <v>0</v>
+      </c>
+      <c r="FW108">
+        <v>567</v>
+      </c>
+      <c r="FX108">
+        <v>0</v>
+      </c>
+      <c r="FY108">
+        <v>1</v>
+      </c>
+      <c r="FZ108">
+        <v>0</v>
+      </c>
+      <c r="GA108">
+        <v>114</v>
+      </c>
+      <c r="GB108">
+        <v>42</v>
+      </c>
+      <c r="GC108">
+        <v>0</v>
+      </c>
+      <c r="GD108">
+        <v>0</v>
+      </c>
+      <c r="GE108">
+        <v>2</v>
+      </c>
+      <c r="GF108">
+        <v>0</v>
+      </c>
+      <c r="GG108">
+        <v>0</v>
+      </c>
+      <c r="GH108">
+        <v>0</v>
+      </c>
+      <c r="GI108">
+        <v>0</v>
+      </c>
+      <c r="GJ108">
+        <v>107</v>
+      </c>
+      <c r="GK108">
+        <v>0</v>
+      </c>
+      <c r="GL108">
+        <v>0</v>
+      </c>
+      <c r="GM108">
+        <v>5</v>
+      </c>
+      <c r="GN108">
+        <v>3</v>
+      </c>
+      <c r="GO108">
+        <v>778</v>
+      </c>
+      <c r="GP108">
+        <v>0</v>
+      </c>
+      <c r="GQ108">
+        <v>0</v>
+      </c>
+      <c r="GR108">
+        <v>2408</v>
+      </c>
+      <c r="GS108">
+        <v>0</v>
+      </c>
+      <c r="GT108">
+        <v>0</v>
+      </c>
+      <c r="GU108">
+        <v>0</v>
+      </c>
+      <c r="GV108">
+        <v>0</v>
+      </c>
+      <c r="GW108">
+        <v>0</v>
+      </c>
+      <c r="GX108">
+        <v>0</v>
+      </c>
+      <c r="GY108">
         <v>0</v>
       </c>
     </row>

--- a/ecdc_csv/data/ecdc_csv_diff.xlsx
+++ b/ecdc_csv/data/ecdc_csv_diff.xlsx
@@ -997,7 +997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY108"/>
+  <dimension ref="A1:GY109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -35010,6 +35010,626 @@
         <v>0</v>
       </c>
     </row>
+    <row r="109" spans="1:207">
+      <c r="A109" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B109">
+        <v>70</v>
+      </c>
+      <c r="C109">
+        <v>19</v>
+      </c>
+      <c r="D109">
+        <v>90</v>
+      </c>
+      <c r="E109">
+        <v>14</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>48</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>42</v>
+      </c>
+      <c r="M109">
+        <v>136</v>
+      </c>
+      <c r="N109">
+        <v>56</v>
+      </c>
+      <c r="O109">
+        <v>4</v>
+      </c>
+      <c r="P109">
+        <v>145</v>
+      </c>
+      <c r="Q109">
+        <v>219</v>
+      </c>
+      <c r="R109">
+        <v>2</v>
+      </c>
+      <c r="S109">
+        <v>447</v>
+      </c>
+      <c r="T109">
+        <v>2454</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>24</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>44</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <v>27</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109">
+        <v>3058</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
+      </c>
+      <c r="AF109">
+        <v>34</v>
+      </c>
+      <c r="AG109">
+        <v>14</v>
+      </c>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
+      </c>
+      <c r="AJ109">
+        <v>0</v>
+      </c>
+      <c r="AK109">
+        <v>1318</v>
+      </c>
+      <c r="AL109">
+        <v>44</v>
+      </c>
+      <c r="AN109">
+        <v>6</v>
+      </c>
+      <c r="AO109">
+        <v>0</v>
+      </c>
+      <c r="AP109">
+        <v>4</v>
+      </c>
+      <c r="AQ109">
+        <v>356</v>
+      </c>
+      <c r="AR109">
+        <v>50</v>
+      </c>
+      <c r="AS109">
+        <v>126</v>
+      </c>
+      <c r="AT109">
+        <v>43</v>
+      </c>
+      <c r="AU109">
+        <v>8</v>
+      </c>
+      <c r="AV109">
+        <v>28</v>
+      </c>
+      <c r="AW109">
+        <v>37</v>
+      </c>
+      <c r="AX109">
+        <v>48</v>
+      </c>
+      <c r="AY109">
+        <v>0</v>
+      </c>
+      <c r="AZ109">
+        <v>20</v>
+      </c>
+      <c r="BA109">
+        <v>162</v>
+      </c>
+      <c r="BB109">
+        <v>13</v>
+      </c>
+      <c r="BC109">
+        <v>170</v>
+      </c>
+      <c r="BD109">
+        <v>72</v>
+      </c>
+      <c r="BE109">
+        <v>0</v>
+      </c>
+      <c r="BF109">
+        <v>328</v>
+      </c>
+      <c r="BG109">
+        <v>255</v>
+      </c>
+      <c r="BH109">
+        <v>155</v>
+      </c>
+      <c r="BI109">
+        <v>0</v>
+      </c>
+      <c r="BJ109">
+        <v>10</v>
+      </c>
+      <c r="BK109">
+        <v>0</v>
+      </c>
+      <c r="BL109">
+        <v>29</v>
+      </c>
+      <c r="BM109">
+        <v>1</v>
+      </c>
+      <c r="BN109">
+        <v>3</v>
+      </c>
+      <c r="BO109">
+        <v>0</v>
+      </c>
+      <c r="BP109">
+        <v>0</v>
+      </c>
+      <c r="BQ109">
+        <v>0</v>
+      </c>
+      <c r="BR109">
+        <v>76</v>
+      </c>
+      <c r="BS109">
+        <v>2633</v>
+      </c>
+      <c r="BT109">
+        <v>0</v>
+      </c>
+      <c r="BU109">
+        <v>12</v>
+      </c>
+      <c r="BV109">
+        <v>0</v>
+      </c>
+      <c r="BW109">
+        <v>6</v>
+      </c>
+      <c r="BX109">
+        <v>2866</v>
+      </c>
+      <c r="BY109">
+        <v>5</v>
+      </c>
+      <c r="BZ109">
+        <v>2</v>
+      </c>
+      <c r="CA109">
+        <v>22</v>
+      </c>
+      <c r="CB109">
+        <v>0</v>
+      </c>
+      <c r="CC109">
+        <v>0</v>
+      </c>
+      <c r="CD109">
+        <v>0</v>
+      </c>
+      <c r="CE109">
+        <v>16</v>
+      </c>
+      <c r="CF109">
+        <v>0</v>
+      </c>
+      <c r="CG109">
+        <v>41</v>
+      </c>
+      <c r="CH109">
+        <v>3</v>
+      </c>
+      <c r="CI109">
+        <v>7</v>
+      </c>
+      <c r="CJ109">
+        <v>1</v>
+      </c>
+      <c r="CK109">
+        <v>0</v>
+      </c>
+      <c r="CL109">
+        <v>7</v>
+      </c>
+      <c r="CM109">
+        <v>73</v>
+      </c>
+      <c r="CN109">
+        <v>7</v>
+      </c>
+      <c r="CO109">
+        <v>942</v>
+      </c>
+      <c r="CP109">
+        <v>297</v>
+      </c>
+      <c r="CQ109">
+        <v>1512</v>
+      </c>
+      <c r="CR109">
+        <v>15</v>
+      </c>
+      <c r="CS109">
+        <v>1068</v>
+      </c>
+      <c r="CT109">
+        <v>12</v>
+      </c>
+      <c r="CU109">
+        <v>455</v>
+      </c>
+      <c r="CV109">
+        <v>2667</v>
+      </c>
+      <c r="CW109">
+        <v>20</v>
+      </c>
+      <c r="CX109">
+        <v>482</v>
+      </c>
+      <c r="CY109">
+        <v>0</v>
+      </c>
+      <c r="CZ109">
+        <v>4</v>
+      </c>
+      <c r="DA109">
+        <v>64</v>
+      </c>
+      <c r="DB109">
+        <v>9</v>
+      </c>
+      <c r="DC109">
+        <v>36</v>
+      </c>
+      <c r="DD109">
+        <v>50</v>
+      </c>
+      <c r="DE109">
+        <v>17</v>
+      </c>
+      <c r="DF109">
+        <v>0</v>
+      </c>
+      <c r="DG109">
+        <v>9</v>
+      </c>
+      <c r="DH109">
+        <v>17</v>
+      </c>
+      <c r="DI109">
+        <v>0</v>
+      </c>
+      <c r="DJ109">
+        <v>13</v>
+      </c>
+      <c r="DK109">
+        <v>0</v>
+      </c>
+      <c r="DL109">
+        <v>21</v>
+      </c>
+      <c r="DM109">
+        <v>66</v>
+      </c>
+      <c r="DN109">
+        <v>2</v>
+      </c>
+      <c r="DO109">
+        <v>0</v>
+      </c>
+      <c r="DP109">
+        <v>85</v>
+      </c>
+      <c r="DQ109">
+        <v>0</v>
+      </c>
+      <c r="DR109">
+        <v>4</v>
+      </c>
+      <c r="DS109">
+        <v>6</v>
+      </c>
+      <c r="DT109">
+        <v>0</v>
+      </c>
+      <c r="DU109">
+        <v>0</v>
+      </c>
+      <c r="DV109">
+        <v>448</v>
+      </c>
+      <c r="DW109">
+        <v>115</v>
+      </c>
+      <c r="DX109">
+        <v>0</v>
+      </c>
+      <c r="DY109">
+        <v>0</v>
+      </c>
+      <c r="DZ109">
+        <v>5</v>
+      </c>
+      <c r="EA109">
+        <v>0</v>
+      </c>
+      <c r="EB109">
+        <v>136</v>
+      </c>
+      <c r="EC109">
+        <v>1</v>
+      </c>
+      <c r="ED109">
+        <v>0</v>
+      </c>
+      <c r="EE109">
+        <v>0</v>
+      </c>
+      <c r="EF109">
+        <v>0</v>
+      </c>
+      <c r="EG109">
+        <v>734</v>
+      </c>
+      <c r="EH109">
+        <v>0</v>
+      </c>
+      <c r="EI109">
+        <v>6</v>
+      </c>
+      <c r="EJ109">
+        <v>0</v>
+      </c>
+      <c r="EK109">
+        <v>14</v>
+      </c>
+      <c r="EL109">
+        <v>34</v>
+      </c>
+      <c r="EM109">
+        <v>66</v>
+      </c>
+      <c r="EN109">
+        <v>0</v>
+      </c>
+      <c r="EO109">
+        <v>111</v>
+      </c>
+      <c r="EP109">
+        <v>0</v>
+      </c>
+      <c r="EQ109">
+        <v>517</v>
+      </c>
+      <c r="ER109">
+        <v>4</v>
+      </c>
+      <c r="ES109">
+        <v>177</v>
+      </c>
+      <c r="ET109">
+        <v>0</v>
+      </c>
+      <c r="EU109">
+        <v>13</v>
+      </c>
+      <c r="EV109">
+        <v>1172</v>
+      </c>
+      <c r="EW109">
+        <v>230</v>
+      </c>
+      <c r="EX109">
+        <v>380</v>
+      </c>
+      <c r="EY109">
+        <v>643</v>
+      </c>
+      <c r="EZ109">
+        <v>51</v>
+      </c>
+      <c r="FA109">
+        <v>283</v>
+      </c>
+      <c r="FB109">
+        <v>337</v>
+      </c>
+      <c r="FC109">
+        <v>3388</v>
+      </c>
+      <c r="FD109">
+        <v>2</v>
+      </c>
+      <c r="FE109">
+        <v>0</v>
+      </c>
+      <c r="FF109">
+        <v>0</v>
+      </c>
+      <c r="FG109">
+        <v>0</v>
+      </c>
+      <c r="FH109">
+        <v>20</v>
+      </c>
+      <c r="FI109">
+        <v>0</v>
+      </c>
+      <c r="FJ109">
+        <v>493</v>
+      </c>
+      <c r="FK109">
+        <v>15</v>
+      </c>
+      <c r="FL109">
+        <v>819</v>
+      </c>
+      <c r="FM109">
+        <v>0</v>
+      </c>
+      <c r="FN109">
+        <v>2</v>
+      </c>
+      <c r="FO109">
+        <v>447</v>
+      </c>
+      <c r="FP109">
+        <v>5</v>
+      </c>
+      <c r="FQ109">
+        <v>28</v>
+      </c>
+      <c r="FR109">
+        <v>28</v>
+      </c>
+      <c r="FS109">
+        <v>20</v>
+      </c>
+      <c r="FT109">
+        <v>91</v>
+      </c>
+      <c r="FU109">
+        <v>22</v>
+      </c>
+      <c r="FV109">
+        <v>0</v>
+      </c>
+      <c r="FW109">
+        <v>5092</v>
+      </c>
+      <c r="FX109">
+        <v>4</v>
+      </c>
+      <c r="FY109">
+        <v>0</v>
+      </c>
+      <c r="FZ109">
+        <v>0</v>
+      </c>
+      <c r="GA109">
+        <v>482</v>
+      </c>
+      <c r="GB109">
+        <v>583</v>
+      </c>
+      <c r="GC109">
+        <v>4</v>
+      </c>
+      <c r="GD109">
+        <v>0</v>
+      </c>
+      <c r="GE109">
+        <v>29</v>
+      </c>
+      <c r="GF109">
+        <v>0</v>
+      </c>
+      <c r="GG109">
+        <v>4</v>
+      </c>
+      <c r="GH109">
+        <v>1</v>
+      </c>
+      <c r="GI109">
+        <v>33</v>
+      </c>
+      <c r="GJ109">
+        <v>4281</v>
+      </c>
+      <c r="GK109">
+        <v>1</v>
+      </c>
+      <c r="GL109">
+        <v>0</v>
+      </c>
+      <c r="GM109">
+        <v>789</v>
+      </c>
+      <c r="GN109">
+        <v>432</v>
+      </c>
+      <c r="GO109">
+        <v>4603</v>
+      </c>
+      <c r="GP109">
+        <v>35</v>
+      </c>
+      <c r="GQ109">
+        <v>0</v>
+      </c>
+      <c r="GR109">
+        <v>30148</v>
+      </c>
+      <c r="GS109">
+        <v>6</v>
+      </c>
+      <c r="GT109">
+        <v>137</v>
+      </c>
+      <c r="GU109">
+        <v>4</v>
+      </c>
+      <c r="GV109">
+        <v>1</v>
+      </c>
+      <c r="GW109">
+        <v>0</v>
+      </c>
+      <c r="GX109">
+        <v>3</v>
+      </c>
+      <c r="GY109">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35017,7 +35637,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY108"/>
+  <dimension ref="A1:GY109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -69030,6 +69650,626 @@
         <v>0</v>
       </c>
     </row>
+    <row r="109" spans="1:207">
+      <c r="A109" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>10</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>4</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>9</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>4</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>3</v>
+      </c>
+      <c r="T109">
+        <v>283</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>1</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <v>1</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109">
+        <v>204</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
+      </c>
+      <c r="AF109">
+        <v>1</v>
+      </c>
+      <c r="AG109">
+        <v>2</v>
+      </c>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
+      </c>
+      <c r="AJ109">
+        <v>0</v>
+      </c>
+      <c r="AK109">
+        <v>107</v>
+      </c>
+      <c r="AL109">
+        <v>0</v>
+      </c>
+      <c r="AN109">
+        <v>0</v>
+      </c>
+      <c r="AO109">
+        <v>0</v>
+      </c>
+      <c r="AP109">
+        <v>0</v>
+      </c>
+      <c r="AQ109">
+        <v>2</v>
+      </c>
+      <c r="AR109">
+        <v>0</v>
+      </c>
+      <c r="AS109">
+        <v>4</v>
+      </c>
+      <c r="AT109">
+        <v>0</v>
+      </c>
+      <c r="AU109">
+        <v>1</v>
+      </c>
+      <c r="AV109">
+        <v>0</v>
+      </c>
+      <c r="AW109">
+        <v>3</v>
+      </c>
+      <c r="AX109">
+        <v>3</v>
+      </c>
+      <c r="AY109">
+        <v>0</v>
+      </c>
+      <c r="AZ109">
+        <v>0</v>
+      </c>
+      <c r="BA109">
+        <v>5</v>
+      </c>
+      <c r="BB109">
+        <v>1</v>
+      </c>
+      <c r="BC109">
+        <v>10</v>
+      </c>
+      <c r="BD109">
+        <v>0</v>
+      </c>
+      <c r="BE109">
+        <v>0</v>
+      </c>
+      <c r="BF109">
+        <v>6</v>
+      </c>
+      <c r="BG109">
+        <v>33</v>
+      </c>
+      <c r="BH109">
+        <v>5</v>
+      </c>
+      <c r="BI109">
+        <v>0</v>
+      </c>
+      <c r="BJ109">
+        <v>0</v>
+      </c>
+      <c r="BK109">
+        <v>0</v>
+      </c>
+      <c r="BL109">
+        <v>4</v>
+      </c>
+      <c r="BM109">
+        <v>0</v>
+      </c>
+      <c r="BN109">
+        <v>0</v>
+      </c>
+      <c r="BO109">
+        <v>0</v>
+      </c>
+      <c r="BP109">
+        <v>0</v>
+      </c>
+      <c r="BQ109">
+        <v>0</v>
+      </c>
+      <c r="BR109">
+        <v>8</v>
+      </c>
+      <c r="BS109">
+        <v>1438</v>
+      </c>
+      <c r="BT109">
+        <v>0</v>
+      </c>
+      <c r="BU109">
+        <v>0</v>
+      </c>
+      <c r="BV109">
+        <v>0</v>
+      </c>
+      <c r="BW109">
+        <v>0</v>
+      </c>
+      <c r="BX109">
+        <v>315</v>
+      </c>
+      <c r="BY109">
+        <v>0</v>
+      </c>
+      <c r="BZ109">
+        <v>0</v>
+      </c>
+      <c r="CA109">
+        <v>1</v>
+      </c>
+      <c r="CB109">
+        <v>0</v>
+      </c>
+      <c r="CC109">
+        <v>0</v>
+      </c>
+      <c r="CD109">
+        <v>0</v>
+      </c>
+      <c r="CE109">
+        <v>0</v>
+      </c>
+      <c r="CF109">
+        <v>0</v>
+      </c>
+      <c r="CG109">
+        <v>1</v>
+      </c>
+      <c r="CH109">
+        <v>0</v>
+      </c>
+      <c r="CI109">
+        <v>0</v>
+      </c>
+      <c r="CJ109">
+        <v>0</v>
+      </c>
+      <c r="CK109">
+        <v>0</v>
+      </c>
+      <c r="CL109">
+        <v>4</v>
+      </c>
+      <c r="CM109">
+        <v>8</v>
+      </c>
+      <c r="CN109">
+        <v>0</v>
+      </c>
+      <c r="CO109">
+        <v>37</v>
+      </c>
+      <c r="CP109">
+        <v>10</v>
+      </c>
+      <c r="CQ109">
+        <v>94</v>
+      </c>
+      <c r="CR109">
+        <v>1</v>
+      </c>
+      <c r="CS109">
+        <v>38</v>
+      </c>
+      <c r="CT109">
+        <v>0</v>
+      </c>
+      <c r="CU109">
+        <v>7</v>
+      </c>
+      <c r="CV109">
+        <v>578</v>
+      </c>
+      <c r="CW109">
+        <v>0</v>
+      </c>
+      <c r="CX109">
+        <v>17</v>
+      </c>
+      <c r="CY109">
+        <v>2</v>
+      </c>
+      <c r="CZ109">
+        <v>0</v>
+      </c>
+      <c r="DA109">
+        <v>2</v>
+      </c>
+      <c r="DB109">
+        <v>1</v>
+      </c>
+      <c r="DC109">
+        <v>1</v>
+      </c>
+      <c r="DD109">
+        <v>0</v>
+      </c>
+      <c r="DE109">
+        <v>0</v>
+      </c>
+      <c r="DF109">
+        <v>0</v>
+      </c>
+      <c r="DG109">
+        <v>0</v>
+      </c>
+      <c r="DH109">
+        <v>0</v>
+      </c>
+      <c r="DI109">
+        <v>0</v>
+      </c>
+      <c r="DJ109">
+        <v>0</v>
+      </c>
+      <c r="DK109">
+        <v>0</v>
+      </c>
+      <c r="DL109">
+        <v>5</v>
+      </c>
+      <c r="DM109">
+        <v>2</v>
+      </c>
+      <c r="DN109">
+        <v>0</v>
+      </c>
+      <c r="DO109">
+        <v>0</v>
+      </c>
+      <c r="DP109">
+        <v>1</v>
+      </c>
+      <c r="DQ109">
+        <v>0</v>
+      </c>
+      <c r="DR109">
+        <v>0</v>
+      </c>
+      <c r="DS109">
+        <v>0</v>
+      </c>
+      <c r="DT109">
+        <v>0</v>
+      </c>
+      <c r="DU109">
+        <v>0</v>
+      </c>
+      <c r="DV109">
+        <v>43</v>
+      </c>
+      <c r="DW109">
+        <v>6</v>
+      </c>
+      <c r="DX109">
+        <v>1</v>
+      </c>
+      <c r="DY109">
+        <v>0</v>
+      </c>
+      <c r="DZ109">
+        <v>0</v>
+      </c>
+      <c r="EA109">
+        <v>0</v>
+      </c>
+      <c r="EB109">
+        <v>1</v>
+      </c>
+      <c r="EC109">
+        <v>0</v>
+      </c>
+      <c r="ED109">
+        <v>0</v>
+      </c>
+      <c r="EE109">
+        <v>0</v>
+      </c>
+      <c r="EF109">
+        <v>0</v>
+      </c>
+      <c r="EG109">
+        <v>189</v>
+      </c>
+      <c r="EH109">
+        <v>0</v>
+      </c>
+      <c r="EI109">
+        <v>0</v>
+      </c>
+      <c r="EJ109">
+        <v>0</v>
+      </c>
+      <c r="EK109">
+        <v>0</v>
+      </c>
+      <c r="EL109">
+        <v>1</v>
+      </c>
+      <c r="EM109">
+        <v>1</v>
+      </c>
+      <c r="EN109">
+        <v>0</v>
+      </c>
+      <c r="EO109">
+        <v>3</v>
+      </c>
+      <c r="EP109">
+        <v>0</v>
+      </c>
+      <c r="EQ109">
+        <v>17</v>
+      </c>
+      <c r="ER109">
+        <v>0</v>
+      </c>
+      <c r="ES109">
+        <v>8</v>
+      </c>
+      <c r="ET109">
+        <v>0</v>
+      </c>
+      <c r="EU109">
+        <v>0</v>
+      </c>
+      <c r="EV109">
+        <v>24</v>
+      </c>
+      <c r="EW109">
+        <v>14</v>
+      </c>
+      <c r="EX109">
+        <v>23</v>
+      </c>
+      <c r="EY109">
+        <v>32</v>
+      </c>
+      <c r="EZ109">
+        <v>6</v>
+      </c>
+      <c r="FA109">
+        <v>0</v>
+      </c>
+      <c r="FB109">
+        <v>28</v>
+      </c>
+      <c r="FC109">
+        <v>28</v>
+      </c>
+      <c r="FD109">
+        <v>0</v>
+      </c>
+      <c r="FE109">
+        <v>0</v>
+      </c>
+      <c r="FF109">
+        <v>0</v>
+      </c>
+      <c r="FG109">
+        <v>0</v>
+      </c>
+      <c r="FH109">
+        <v>0</v>
+      </c>
+      <c r="FI109">
+        <v>0</v>
+      </c>
+      <c r="FJ109">
+        <v>6</v>
+      </c>
+      <c r="FK109">
+        <v>0</v>
+      </c>
+      <c r="FL109">
+        <v>15</v>
+      </c>
+      <c r="FM109">
+        <v>0</v>
+      </c>
+      <c r="FN109">
+        <v>0</v>
+      </c>
+      <c r="FO109">
+        <v>0</v>
+      </c>
+      <c r="FP109">
+        <v>0</v>
+      </c>
+      <c r="FQ109">
+        <v>4</v>
+      </c>
+      <c r="FR109">
+        <v>5</v>
+      </c>
+      <c r="FS109">
+        <v>3</v>
+      </c>
+      <c r="FT109">
+        <v>7</v>
+      </c>
+      <c r="FU109">
+        <v>4</v>
+      </c>
+      <c r="FV109">
+        <v>0</v>
+      </c>
+      <c r="FW109">
+        <v>523</v>
+      </c>
+      <c r="FX109">
+        <v>0</v>
+      </c>
+      <c r="FY109">
+        <v>0</v>
+      </c>
+      <c r="FZ109">
+        <v>0</v>
+      </c>
+      <c r="GA109">
+        <v>170</v>
+      </c>
+      <c r="GB109">
+        <v>73</v>
+      </c>
+      <c r="GC109">
+        <v>0</v>
+      </c>
+      <c r="GD109">
+        <v>0</v>
+      </c>
+      <c r="GE109">
+        <v>3</v>
+      </c>
+      <c r="GF109">
+        <v>0</v>
+      </c>
+      <c r="GG109">
+        <v>0</v>
+      </c>
+      <c r="GH109">
+        <v>0</v>
+      </c>
+      <c r="GI109">
+        <v>1</v>
+      </c>
+      <c r="GJ109">
+        <v>115</v>
+      </c>
+      <c r="GK109">
+        <v>0</v>
+      </c>
+      <c r="GL109">
+        <v>0</v>
+      </c>
+      <c r="GM109">
+        <v>18</v>
+      </c>
+      <c r="GN109">
+        <v>5</v>
+      </c>
+      <c r="GO109">
+        <v>761</v>
+      </c>
+      <c r="GP109">
+        <v>1</v>
+      </c>
+      <c r="GQ109">
+        <v>0</v>
+      </c>
+      <c r="GR109">
+        <v>4928</v>
+      </c>
+      <c r="GS109">
+        <v>1</v>
+      </c>
+      <c r="GT109">
+        <v>0</v>
+      </c>
+      <c r="GU109">
+        <v>0</v>
+      </c>
+      <c r="GV109">
+        <v>0</v>
+      </c>
+      <c r="GW109">
+        <v>0</v>
+      </c>
+      <c r="GX109">
+        <v>0</v>
+      </c>
+      <c r="GY109">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ecdc_csv/data/ecdc_csv_diff.xlsx
+++ b/ecdc_csv/data/ecdc_csv_diff.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="207">
   <si>
-    <t>index</t>
+    <t>Date</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -997,7 +997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY109"/>
+  <dimension ref="A1:GY110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -14208,7 +14208,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -14414,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -16458,7 +16458,7 @@
         <v>12</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I75">
         <v>12</v>
@@ -16736,7 +16736,7 @@
         <v>10</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -16818,6 +16818,9 @@
       </c>
       <c r="BN76">
         <v>1</v>
+      </c>
+      <c r="BR76">
+        <v>28</v>
       </c>
       <c r="BS76">
         <v>785</v>
@@ -17140,7 +17143,7 @@
         <v>0</v>
       </c>
       <c r="BR77">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="BS77">
         <v>838</v>
@@ -17786,7 +17789,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E79">
         <v>9</v>
@@ -18205,7 +18208,7 @@
         <v>4</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -18636,7 +18639,7 @@
         <v>4</v>
       </c>
       <c r="D81">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E81">
         <v>39</v>
@@ -19088,7 +19091,7 @@
         <v>11</v>
       </c>
       <c r="D82">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>22</v>
@@ -20100,7 +20103,7 @@
         <v>6</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E84">
         <v>13</v>
@@ -20630,7 +20633,7 @@
         <v>13</v>
       </c>
       <c r="D85">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E85">
         <v>25</v>
@@ -21172,7 +21175,7 @@
         <v>11</v>
       </c>
       <c r="D86">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="E86">
         <v>20</v>
@@ -21729,7 +21732,7 @@
         <v>23</v>
       </c>
       <c r="D87">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E87">
         <v>31</v>
@@ -22295,7 +22298,7 @@
         <v>23</v>
       </c>
       <c r="D88">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E88">
         <v>24</v>
@@ -22873,7 +22876,7 @@
         <v>28</v>
       </c>
       <c r="D89">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E89">
         <v>36</v>
@@ -23460,7 +23463,7 @@
         <v>12</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E90">
         <v>43</v>
@@ -24050,7 +24053,7 @@
         <v>11</v>
       </c>
       <c r="D91">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E91">
         <v>41</v>
@@ -24640,7 +24643,7 @@
         <v>15</v>
       </c>
       <c r="D92">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E92">
         <v>26</v>
@@ -25230,7 +25233,7 @@
         <v>11</v>
       </c>
       <c r="D93">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E93">
         <v>36</v>
@@ -25811,7 +25814,7 @@
         <v>20</v>
       </c>
       <c r="D94">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="E94">
         <v>6</v>
@@ -26410,7 +26413,7 @@
         <v>16</v>
       </c>
       <c r="D95">
-        <v>263</v>
+        <v>131</v>
       </c>
       <c r="E95">
         <v>14</v>
@@ -27015,7 +27018,7 @@
         <v>18</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="E96">
         <v>38</v>
@@ -27623,7 +27626,7 @@
         <v>27</v>
       </c>
       <c r="D97">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="E97">
         <v>11</v>
@@ -28234,7 +28237,7 @@
         <v>29</v>
       </c>
       <c r="D98">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="E98">
         <v>27</v>
@@ -28842,7 +28845,7 @@
         <v>28</v>
       </c>
       <c r="D99">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E99">
         <v>35</v>
@@ -35628,6 +35631,626 @@
       </c>
       <c r="GY109">
         <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:207">
+      <c r="A110" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="C110">
+        <v>24</v>
+      </c>
+      <c r="D110">
+        <v>108</v>
+      </c>
+      <c r="E110">
+        <v>9</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>128</v>
+      </c>
+      <c r="J110">
+        <v>42</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>39</v>
+      </c>
+      <c r="M110">
+        <v>78</v>
+      </c>
+      <c r="N110">
+        <v>30</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110">
+        <v>27</v>
+      </c>
+      <c r="Q110">
+        <v>341</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>476</v>
+      </c>
+      <c r="T110">
+        <v>1236</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>2</v>
+      </c>
+      <c r="W110">
+        <v>2</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>24</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>52</v>
+      </c>
+      <c r="AB110">
+        <v>2</v>
+      </c>
+      <c r="AC110">
+        <v>2105</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
+      </c>
+      <c r="AF110">
+        <v>53</v>
+      </c>
+      <c r="AG110">
+        <v>1</v>
+      </c>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AJ110">
+        <v>0</v>
+      </c>
+      <c r="AK110">
+        <v>1717</v>
+      </c>
+      <c r="AL110">
+        <v>0</v>
+      </c>
+      <c r="AN110">
+        <v>1</v>
+      </c>
+      <c r="AO110">
+        <v>1</v>
+      </c>
+      <c r="AP110">
+        <v>0</v>
+      </c>
+      <c r="AQ110">
+        <v>534</v>
+      </c>
+      <c r="AR110">
+        <v>352</v>
+      </c>
+      <c r="AS110">
+        <v>128</v>
+      </c>
+      <c r="AT110">
+        <v>0</v>
+      </c>
+      <c r="AU110">
+        <v>16</v>
+      </c>
+      <c r="AV110">
+        <v>34</v>
+      </c>
+      <c r="AW110">
+        <v>50</v>
+      </c>
+      <c r="AX110">
+        <v>48</v>
+      </c>
+      <c r="AY110">
+        <v>0</v>
+      </c>
+      <c r="AZ110">
+        <v>20</v>
+      </c>
+      <c r="BA110">
+        <v>130</v>
+      </c>
+      <c r="BB110">
+        <v>20</v>
+      </c>
+      <c r="BC110">
+        <v>198</v>
+      </c>
+      <c r="BD110">
+        <v>156</v>
+      </c>
+      <c r="BE110">
+        <v>0</v>
+      </c>
+      <c r="BF110">
+        <v>141</v>
+      </c>
+      <c r="BG110">
+        <v>367</v>
+      </c>
+      <c r="BH110">
+        <v>168</v>
+      </c>
+      <c r="BI110">
+        <v>5</v>
+      </c>
+      <c r="BJ110">
+        <v>0</v>
+      </c>
+      <c r="BK110">
+        <v>0</v>
+      </c>
+      <c r="BL110">
+        <v>32</v>
+      </c>
+      <c r="BM110">
+        <v>0</v>
+      </c>
+      <c r="BN110">
+        <v>7</v>
+      </c>
+      <c r="BO110">
+        <v>0</v>
+      </c>
+      <c r="BP110">
+        <v>0</v>
+      </c>
+      <c r="BQ110">
+        <v>1</v>
+      </c>
+      <c r="BR110">
+        <v>132</v>
+      </c>
+      <c r="BS110">
+        <v>2641</v>
+      </c>
+      <c r="BT110">
+        <v>0</v>
+      </c>
+      <c r="BU110">
+        <v>8</v>
+      </c>
+      <c r="BV110">
+        <v>0</v>
+      </c>
+      <c r="BW110">
+        <v>42</v>
+      </c>
+      <c r="BX110">
+        <v>3380</v>
+      </c>
+      <c r="BY110">
+        <v>0</v>
+      </c>
+      <c r="BZ110">
+        <v>2</v>
+      </c>
+      <c r="CA110">
+        <v>15</v>
+      </c>
+      <c r="CB110">
+        <v>0</v>
+      </c>
+      <c r="CC110">
+        <v>0</v>
+      </c>
+      <c r="CD110">
+        <v>0</v>
+      </c>
+      <c r="CE110">
+        <v>18</v>
+      </c>
+      <c r="CF110">
+        <v>11</v>
+      </c>
+      <c r="CG110">
+        <v>34</v>
+      </c>
+      <c r="CH110">
+        <v>3</v>
+      </c>
+      <c r="CI110">
+        <v>2</v>
+      </c>
+      <c r="CJ110">
+        <v>2</v>
+      </c>
+      <c r="CK110">
+        <v>0</v>
+      </c>
+      <c r="CL110">
+        <v>16</v>
+      </c>
+      <c r="CM110">
+        <v>111</v>
+      </c>
+      <c r="CN110">
+        <v>12</v>
+      </c>
+      <c r="CO110">
+        <v>1007</v>
+      </c>
+      <c r="CP110">
+        <v>380</v>
+      </c>
+      <c r="CQ110">
+        <v>1606</v>
+      </c>
+      <c r="CR110">
+        <v>19</v>
+      </c>
+      <c r="CS110">
+        <v>724</v>
+      </c>
+      <c r="CT110">
+        <v>30</v>
+      </c>
+      <c r="CU110">
+        <v>257</v>
+      </c>
+      <c r="CV110">
+        <v>3786</v>
+      </c>
+      <c r="CW110">
+        <v>18</v>
+      </c>
+      <c r="CX110">
+        <v>585</v>
+      </c>
+      <c r="CY110">
+        <v>6</v>
+      </c>
+      <c r="CZ110">
+        <v>1</v>
+      </c>
+      <c r="DA110">
+        <v>139</v>
+      </c>
+      <c r="DB110">
+        <v>9</v>
+      </c>
+      <c r="DC110">
+        <v>26</v>
+      </c>
+      <c r="DD110">
+        <v>119</v>
+      </c>
+      <c r="DE110">
+        <v>23</v>
+      </c>
+      <c r="DF110">
+        <v>0</v>
+      </c>
+      <c r="DG110">
+        <v>9</v>
+      </c>
+      <c r="DH110">
+        <v>5</v>
+      </c>
+      <c r="DI110">
+        <v>14</v>
+      </c>
+      <c r="DJ110">
+        <v>1</v>
+      </c>
+      <c r="DK110">
+        <v>0</v>
+      </c>
+      <c r="DL110">
+        <v>58</v>
+      </c>
+      <c r="DM110">
+        <v>71</v>
+      </c>
+      <c r="DN110">
+        <v>1</v>
+      </c>
+      <c r="DO110">
+        <v>0</v>
+      </c>
+      <c r="DP110">
+        <v>110</v>
+      </c>
+      <c r="DQ110">
+        <v>4</v>
+      </c>
+      <c r="DR110">
+        <v>23</v>
+      </c>
+      <c r="DS110">
+        <v>13</v>
+      </c>
+      <c r="DT110">
+        <v>0</v>
+      </c>
+      <c r="DU110">
+        <v>0</v>
+      </c>
+      <c r="DV110">
+        <v>450</v>
+      </c>
+      <c r="DW110">
+        <v>105</v>
+      </c>
+      <c r="DX110">
+        <v>0</v>
+      </c>
+      <c r="DY110">
+        <v>1</v>
+      </c>
+      <c r="DZ110">
+        <v>15</v>
+      </c>
+      <c r="EA110">
+        <v>0</v>
+      </c>
+      <c r="EB110">
+        <v>259</v>
+      </c>
+      <c r="EC110">
+        <v>2</v>
+      </c>
+      <c r="ED110">
+        <v>11</v>
+      </c>
+      <c r="EE110">
+        <v>0</v>
+      </c>
+      <c r="EF110">
+        <v>0</v>
+      </c>
+      <c r="EG110">
+        <v>1061</v>
+      </c>
+      <c r="EH110">
+        <v>0</v>
+      </c>
+      <c r="EI110">
+        <v>2</v>
+      </c>
+      <c r="EJ110">
+        <v>0</v>
+      </c>
+      <c r="EK110">
+        <v>25</v>
+      </c>
+      <c r="EL110">
+        <v>35</v>
+      </c>
+      <c r="EM110">
+        <v>107</v>
+      </c>
+      <c r="EN110">
+        <v>0</v>
+      </c>
+      <c r="EO110">
+        <v>114</v>
+      </c>
+      <c r="EP110">
+        <v>109</v>
+      </c>
+      <c r="EQ110">
+        <v>520</v>
+      </c>
+      <c r="ER110">
+        <v>3</v>
+      </c>
+      <c r="ES110">
+        <v>265</v>
+      </c>
+      <c r="ET110">
+        <v>5</v>
+      </c>
+      <c r="EU110">
+        <v>0</v>
+      </c>
+      <c r="EV110">
+        <v>1016</v>
+      </c>
+      <c r="EW110">
+        <v>207</v>
+      </c>
+      <c r="EX110">
+        <v>336</v>
+      </c>
+      <c r="EY110">
+        <v>750</v>
+      </c>
+      <c r="EZ110">
+        <v>69</v>
+      </c>
+      <c r="FA110">
+        <v>392</v>
+      </c>
+      <c r="FB110">
+        <v>491</v>
+      </c>
+      <c r="FC110">
+        <v>3448</v>
+      </c>
+      <c r="FD110">
+        <v>2</v>
+      </c>
+      <c r="FE110">
+        <v>0</v>
+      </c>
+      <c r="FF110">
+        <v>0</v>
+      </c>
+      <c r="FG110">
+        <v>0</v>
+      </c>
+      <c r="FH110">
+        <v>34</v>
+      </c>
+      <c r="FI110">
+        <v>0</v>
+      </c>
+      <c r="FJ110">
+        <v>518</v>
+      </c>
+      <c r="FK110">
+        <v>21</v>
+      </c>
+      <c r="FL110">
+        <v>445</v>
+      </c>
+      <c r="FM110">
+        <v>0</v>
+      </c>
+      <c r="FN110">
+        <v>2</v>
+      </c>
+      <c r="FO110">
+        <v>728</v>
+      </c>
+      <c r="FP110">
+        <v>0</v>
+      </c>
+      <c r="FQ110">
+        <v>114</v>
+      </c>
+      <c r="FR110">
+        <v>20</v>
+      </c>
+      <c r="FS110">
+        <v>0</v>
+      </c>
+      <c r="FT110">
+        <v>99</v>
+      </c>
+      <c r="FU110">
+        <v>22</v>
+      </c>
+      <c r="FV110">
+        <v>0</v>
+      </c>
+      <c r="FW110">
+        <v>5183</v>
+      </c>
+      <c r="FX110">
+        <v>1</v>
+      </c>
+      <c r="FY110">
+        <v>0</v>
+      </c>
+      <c r="FZ110">
+        <v>0</v>
+      </c>
+      <c r="GA110">
+        <v>613</v>
+      </c>
+      <c r="GB110">
+        <v>315</v>
+      </c>
+      <c r="GC110">
+        <v>0</v>
+      </c>
+      <c r="GD110">
+        <v>0</v>
+      </c>
+      <c r="GE110">
+        <v>28</v>
+      </c>
+      <c r="GF110">
+        <v>12</v>
+      </c>
+      <c r="GG110">
+        <v>0</v>
+      </c>
+      <c r="GH110">
+        <v>0</v>
+      </c>
+      <c r="GI110">
+        <v>42</v>
+      </c>
+      <c r="GJ110">
+        <v>4801</v>
+      </c>
+      <c r="GK110">
+        <v>0</v>
+      </c>
+      <c r="GL110">
+        <v>0</v>
+      </c>
+      <c r="GM110">
+        <v>301</v>
+      </c>
+      <c r="GN110">
+        <v>460</v>
+      </c>
+      <c r="GO110">
+        <v>4617</v>
+      </c>
+      <c r="GP110">
+        <v>6</v>
+      </c>
+      <c r="GQ110">
+        <v>0</v>
+      </c>
+      <c r="GR110">
+        <v>31667</v>
+      </c>
+      <c r="GS110">
+        <v>13</v>
+      </c>
+      <c r="GT110">
+        <v>78</v>
+      </c>
+      <c r="GU110">
+        <v>7</v>
+      </c>
+      <c r="GV110">
+        <v>0</v>
+      </c>
+      <c r="GW110">
+        <v>0</v>
+      </c>
+      <c r="GX110">
+        <v>0</v>
+      </c>
+      <c r="GY110">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -35637,7 +36260,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY109"/>
+  <dimension ref="A1:GY110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -51459,6 +52082,9 @@
       <c r="BN76">
         <v>0</v>
       </c>
+      <c r="BR76">
+        <v>0</v>
+      </c>
       <c r="BS76">
         <v>18</v>
       </c>
@@ -54740,7 +55366,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -55270,7 +55896,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -55812,7 +56438,7 @@
         <v>2</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -56369,7 +56995,7 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -56935,7 +57561,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -58100,7 +58726,7 @@
         <v>3</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -58690,7 +59316,7 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -59280,7 +59906,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -59870,7 +60496,7 @@
         <v>2</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -60451,7 +61077,7 @@
         <v>3</v>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E94">
         <v>4</v>
@@ -61050,7 +61676,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>2</v>
@@ -61655,7 +62281,7 @@
         <v>1</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -62263,7 +62889,7 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -62874,7 +63500,7 @@
         <v>2</v>
       </c>
       <c r="D98">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -64710,7 +65336,7 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -65324,7 +65950,7 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -69041,7 +69667,7 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E108">
         <v>2</v>
@@ -69661,7 +70287,7 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109">
         <v>2</v>
@@ -70267,6 +70893,626 @@
         <v>0</v>
       </c>
       <c r="GY109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:207">
+      <c r="A110" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>12</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>6</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>17</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>10</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>4</v>
+      </c>
+      <c r="T110">
+        <v>417</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>2</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>1</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+      <c r="AC110">
+        <v>188</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
+      </c>
+      <c r="AF110">
+        <v>2</v>
+      </c>
+      <c r="AG110">
+        <v>0</v>
+      </c>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AJ110">
+        <v>4</v>
+      </c>
+      <c r="AK110">
+        <v>183</v>
+      </c>
+      <c r="AL110">
+        <v>0</v>
+      </c>
+      <c r="AN110">
+        <v>0</v>
+      </c>
+      <c r="AO110">
+        <v>0</v>
+      </c>
+      <c r="AP110">
+        <v>0</v>
+      </c>
+      <c r="AQ110">
+        <v>11</v>
+      </c>
+      <c r="AR110">
+        <v>1290</v>
+      </c>
+      <c r="AS110">
+        <v>13</v>
+      </c>
+      <c r="AT110">
+        <v>0</v>
+      </c>
+      <c r="AU110">
+        <v>0</v>
+      </c>
+      <c r="AV110">
+        <v>0</v>
+      </c>
+      <c r="AW110">
+        <v>1</v>
+      </c>
+      <c r="AX110">
+        <v>3</v>
+      </c>
+      <c r="AY110">
+        <v>0</v>
+      </c>
+      <c r="AZ110">
+        <v>0</v>
+      </c>
+      <c r="BA110">
+        <v>3</v>
+      </c>
+      <c r="BB110">
+        <v>1</v>
+      </c>
+      <c r="BC110">
+        <v>12</v>
+      </c>
+      <c r="BD110">
+        <v>0</v>
+      </c>
+      <c r="BE110">
+        <v>0</v>
+      </c>
+      <c r="BF110">
+        <v>7</v>
+      </c>
+      <c r="BG110">
+        <v>15</v>
+      </c>
+      <c r="BH110">
+        <v>13</v>
+      </c>
+      <c r="BI110">
+        <v>0</v>
+      </c>
+      <c r="BJ110">
+        <v>0</v>
+      </c>
+      <c r="BK110">
+        <v>0</v>
+      </c>
+      <c r="BL110">
+        <v>1</v>
+      </c>
+      <c r="BM110">
+        <v>0</v>
+      </c>
+      <c r="BN110">
+        <v>0</v>
+      </c>
+      <c r="BO110">
+        <v>0</v>
+      </c>
+      <c r="BP110">
+        <v>0</v>
+      </c>
+      <c r="BQ110">
+        <v>0</v>
+      </c>
+      <c r="BR110">
+        <v>3</v>
+      </c>
+      <c r="BS110">
+        <v>753</v>
+      </c>
+      <c r="BT110">
+        <v>0</v>
+      </c>
+      <c r="BU110">
+        <v>0</v>
+      </c>
+      <c r="BV110">
+        <v>0</v>
+      </c>
+      <c r="BW110">
+        <v>0</v>
+      </c>
+      <c r="BX110">
+        <v>299</v>
+      </c>
+      <c r="BY110">
+        <v>0</v>
+      </c>
+      <c r="BZ110">
+        <v>0</v>
+      </c>
+      <c r="CA110">
+        <v>3</v>
+      </c>
+      <c r="CB110">
+        <v>0</v>
+      </c>
+      <c r="CC110">
+        <v>0</v>
+      </c>
+      <c r="CD110">
+        <v>0</v>
+      </c>
+      <c r="CE110">
+        <v>2</v>
+      </c>
+      <c r="CF110">
+        <v>2</v>
+      </c>
+      <c r="CG110">
+        <v>0</v>
+      </c>
+      <c r="CH110">
+        <v>0</v>
+      </c>
+      <c r="CI110">
+        <v>0</v>
+      </c>
+      <c r="CJ110">
+        <v>0</v>
+      </c>
+      <c r="CK110">
+        <v>0</v>
+      </c>
+      <c r="CL110">
+        <v>6</v>
+      </c>
+      <c r="CM110">
+        <v>14</v>
+      </c>
+      <c r="CN110">
+        <v>0</v>
+      </c>
+      <c r="CO110">
+        <v>23</v>
+      </c>
+      <c r="CP110">
+        <v>27</v>
+      </c>
+      <c r="CQ110">
+        <v>92</v>
+      </c>
+      <c r="CR110">
+        <v>1</v>
+      </c>
+      <c r="CS110">
+        <v>42</v>
+      </c>
+      <c r="CT110">
+        <v>2</v>
+      </c>
+      <c r="CU110">
+        <v>12</v>
+      </c>
+      <c r="CV110">
+        <v>525</v>
+      </c>
+      <c r="CW110">
+        <v>0</v>
+      </c>
+      <c r="CX110">
+        <v>12</v>
+      </c>
+      <c r="CY110">
+        <v>4</v>
+      </c>
+      <c r="CZ110">
+        <v>0</v>
+      </c>
+      <c r="DA110">
+        <v>1</v>
+      </c>
+      <c r="DB110">
+        <v>1</v>
+      </c>
+      <c r="DC110">
+        <v>2</v>
+      </c>
+      <c r="DD110">
+        <v>0</v>
+      </c>
+      <c r="DE110">
+        <v>0</v>
+      </c>
+      <c r="DF110">
+        <v>0</v>
+      </c>
+      <c r="DG110">
+        <v>0</v>
+      </c>
+      <c r="DH110">
+        <v>0</v>
+      </c>
+      <c r="DI110">
+        <v>0</v>
+      </c>
+      <c r="DJ110">
+        <v>0</v>
+      </c>
+      <c r="DK110">
+        <v>0</v>
+      </c>
+      <c r="DL110">
+        <v>3</v>
+      </c>
+      <c r="DM110">
+        <v>0</v>
+      </c>
+      <c r="DN110">
+        <v>0</v>
+      </c>
+      <c r="DO110">
+        <v>0</v>
+      </c>
+      <c r="DP110">
+        <v>1</v>
+      </c>
+      <c r="DQ110">
+        <v>0</v>
+      </c>
+      <c r="DR110">
+        <v>0</v>
+      </c>
+      <c r="DS110">
+        <v>0</v>
+      </c>
+      <c r="DT110">
+        <v>0</v>
+      </c>
+      <c r="DU110">
+        <v>0</v>
+      </c>
+      <c r="DV110">
+        <v>37</v>
+      </c>
+      <c r="DW110">
+        <v>8</v>
+      </c>
+      <c r="DX110">
+        <v>0</v>
+      </c>
+      <c r="DY110">
+        <v>0</v>
+      </c>
+      <c r="DZ110">
+        <v>0</v>
+      </c>
+      <c r="EA110">
+        <v>0</v>
+      </c>
+      <c r="EB110">
+        <v>3</v>
+      </c>
+      <c r="EC110">
+        <v>0</v>
+      </c>
+      <c r="ED110">
+        <v>0</v>
+      </c>
+      <c r="EE110">
+        <v>0</v>
+      </c>
+      <c r="EF110">
+        <v>0</v>
+      </c>
+      <c r="EG110">
+        <v>181</v>
+      </c>
+      <c r="EH110">
+        <v>0</v>
+      </c>
+      <c r="EI110">
+        <v>2</v>
+      </c>
+      <c r="EJ110">
+        <v>0</v>
+      </c>
+      <c r="EK110">
+        <v>1</v>
+      </c>
+      <c r="EL110">
+        <v>1</v>
+      </c>
+      <c r="EM110">
+        <v>1</v>
+      </c>
+      <c r="EN110">
+        <v>0</v>
+      </c>
+      <c r="EO110">
+        <v>6</v>
+      </c>
+      <c r="EP110">
+        <v>0</v>
+      </c>
+      <c r="EQ110">
+        <v>11</v>
+      </c>
+      <c r="ER110">
+        <v>0</v>
+      </c>
+      <c r="ES110">
+        <v>6</v>
+      </c>
+      <c r="ET110">
+        <v>0</v>
+      </c>
+      <c r="EU110">
+        <v>0</v>
+      </c>
+      <c r="EV110">
+        <v>20</v>
+      </c>
+      <c r="EW110">
+        <v>13</v>
+      </c>
+      <c r="EX110">
+        <v>28</v>
+      </c>
+      <c r="EY110">
+        <v>30</v>
+      </c>
+      <c r="EZ110">
+        <v>5</v>
+      </c>
+      <c r="FA110">
+        <v>0</v>
+      </c>
+      <c r="FB110">
+        <v>15</v>
+      </c>
+      <c r="FC110">
+        <v>34</v>
+      </c>
+      <c r="FD110">
+        <v>0</v>
+      </c>
+      <c r="FE110">
+        <v>0</v>
+      </c>
+      <c r="FF110">
+        <v>0</v>
+      </c>
+      <c r="FG110">
+        <v>0</v>
+      </c>
+      <c r="FH110">
+        <v>2</v>
+      </c>
+      <c r="FI110">
+        <v>0</v>
+      </c>
+      <c r="FJ110">
+        <v>4</v>
+      </c>
+      <c r="FK110">
+        <v>0</v>
+      </c>
+      <c r="FL110">
+        <v>4</v>
+      </c>
+      <c r="FM110">
+        <v>0</v>
+      </c>
+      <c r="FN110">
+        <v>0</v>
+      </c>
+      <c r="FO110">
+        <v>0</v>
+      </c>
+      <c r="FP110">
+        <v>0</v>
+      </c>
+      <c r="FQ110">
+        <v>2</v>
+      </c>
+      <c r="FR110">
+        <v>0</v>
+      </c>
+      <c r="FS110">
+        <v>0</v>
+      </c>
+      <c r="FT110">
+        <v>14</v>
+      </c>
+      <c r="FU110">
+        <v>1</v>
+      </c>
+      <c r="FV110">
+        <v>0</v>
+      </c>
+      <c r="FW110">
+        <v>551</v>
+      </c>
+      <c r="FX110">
+        <v>0</v>
+      </c>
+      <c r="FY110">
+        <v>0</v>
+      </c>
+      <c r="FZ110">
+        <v>0</v>
+      </c>
+      <c r="GA110">
+        <v>130</v>
+      </c>
+      <c r="GB110">
+        <v>360</v>
+      </c>
+      <c r="GC110">
+        <v>0</v>
+      </c>
+      <c r="GD110">
+        <v>0</v>
+      </c>
+      <c r="GE110">
+        <v>1</v>
+      </c>
+      <c r="GF110">
+        <v>0</v>
+      </c>
+      <c r="GG110">
+        <v>2</v>
+      </c>
+      <c r="GH110">
+        <v>0</v>
+      </c>
+      <c r="GI110">
+        <v>2</v>
+      </c>
+      <c r="GJ110">
+        <v>125</v>
+      </c>
+      <c r="GK110">
+        <v>0</v>
+      </c>
+      <c r="GL110">
+        <v>0</v>
+      </c>
+      <c r="GM110">
+        <v>9</v>
+      </c>
+      <c r="GN110">
+        <v>0</v>
+      </c>
+      <c r="GO110">
+        <v>861</v>
+      </c>
+      <c r="GP110">
+        <v>0</v>
+      </c>
+      <c r="GQ110">
+        <v>0</v>
+      </c>
+      <c r="GR110">
+        <v>2299</v>
+      </c>
+      <c r="GS110">
+        <v>0</v>
+      </c>
+      <c r="GT110">
+        <v>0</v>
+      </c>
+      <c r="GU110">
+        <v>0</v>
+      </c>
+      <c r="GV110">
+        <v>0</v>
+      </c>
+      <c r="GW110">
+        <v>0</v>
+      </c>
+      <c r="GX110">
+        <v>0</v>
+      </c>
+      <c r="GY110">
         <v>0</v>
       </c>
     </row>

--- a/ecdc_csv/data/ecdc_csv_diff.xlsx
+++ b/ecdc_csv/data/ecdc_csv_diff.xlsx
@@ -997,7 +997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY110"/>
+  <dimension ref="A1:GY111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -36253,6 +36253,626 @@
         <v>1</v>
       </c>
     </row>
+    <row r="111" spans="1:207">
+      <c r="A111" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B111">
+        <v>51</v>
+      </c>
+      <c r="C111">
+        <v>21</v>
+      </c>
+      <c r="D111">
+        <v>150</v>
+      </c>
+      <c r="E111">
+        <v>14</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>98</v>
+      </c>
+      <c r="J111">
+        <v>47</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>36</v>
+      </c>
+      <c r="M111">
+        <v>155</v>
+      </c>
+      <c r="N111">
+        <v>57</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111">
+        <v>44</v>
+      </c>
+      <c r="Q111">
+        <v>266</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>575</v>
+      </c>
+      <c r="T111">
+        <v>1329</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>28</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>58</v>
+      </c>
+      <c r="AB111">
+        <v>0</v>
+      </c>
+      <c r="AC111">
+        <v>3257</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
+      </c>
+      <c r="AF111">
+        <v>46</v>
+      </c>
+      <c r="AG111">
+        <v>14</v>
+      </c>
+      <c r="AH111">
+        <v>1</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AJ111">
+        <v>161</v>
+      </c>
+      <c r="AK111">
+        <v>1791</v>
+      </c>
+      <c r="AL111">
+        <v>1</v>
+      </c>
+      <c r="AN111">
+        <v>0</v>
+      </c>
+      <c r="AO111">
+        <v>0</v>
+      </c>
+      <c r="AP111">
+        <v>6</v>
+      </c>
+      <c r="AQ111">
+        <v>445</v>
+      </c>
+      <c r="AR111">
+        <v>31</v>
+      </c>
+      <c r="AS111">
+        <v>206</v>
+      </c>
+      <c r="AT111">
+        <v>26</v>
+      </c>
+      <c r="AU111">
+        <v>7</v>
+      </c>
+      <c r="AV111">
+        <v>54</v>
+      </c>
+      <c r="AW111">
+        <v>23</v>
+      </c>
+      <c r="AX111">
+        <v>61</v>
+      </c>
+      <c r="AY111">
+        <v>0</v>
+      </c>
+      <c r="AZ111">
+        <v>0</v>
+      </c>
+      <c r="BA111">
+        <v>116</v>
+      </c>
+      <c r="BB111">
+        <v>20</v>
+      </c>
+      <c r="BC111">
+        <v>194</v>
+      </c>
+      <c r="BD111">
+        <v>141</v>
+      </c>
+      <c r="BE111">
+        <v>0</v>
+      </c>
+      <c r="BF111">
+        <v>371</v>
+      </c>
+      <c r="BG111">
+        <v>225</v>
+      </c>
+      <c r="BH111">
+        <v>171</v>
+      </c>
+      <c r="BI111">
+        <v>13</v>
+      </c>
+      <c r="BJ111">
+        <v>28</v>
+      </c>
+      <c r="BK111">
+        <v>0</v>
+      </c>
+      <c r="BL111">
+        <v>25</v>
+      </c>
+      <c r="BM111">
+        <v>3</v>
+      </c>
+      <c r="BN111">
+        <v>4</v>
+      </c>
+      <c r="BO111">
+        <v>0</v>
+      </c>
+      <c r="BP111">
+        <v>0</v>
+      </c>
+      <c r="BQ111">
+        <v>0</v>
+      </c>
+      <c r="BR111">
+        <v>120</v>
+      </c>
+      <c r="BS111">
+        <v>405</v>
+      </c>
+      <c r="BT111">
+        <v>0</v>
+      </c>
+      <c r="BU111">
+        <v>13</v>
+      </c>
+      <c r="BV111">
+        <v>0</v>
+      </c>
+      <c r="BW111">
+        <v>22</v>
+      </c>
+      <c r="BX111">
+        <v>3609</v>
+      </c>
+      <c r="BY111">
+        <v>0</v>
+      </c>
+      <c r="BZ111">
+        <v>0</v>
+      </c>
+      <c r="CA111">
+        <v>0</v>
+      </c>
+      <c r="CB111">
+        <v>0</v>
+      </c>
+      <c r="CC111">
+        <v>0</v>
+      </c>
+      <c r="CD111">
+        <v>1</v>
+      </c>
+      <c r="CE111">
+        <v>21</v>
+      </c>
+      <c r="CF111">
+        <v>0</v>
+      </c>
+      <c r="CG111">
+        <v>39</v>
+      </c>
+      <c r="CH111">
+        <v>4</v>
+      </c>
+      <c r="CI111">
+        <v>6</v>
+      </c>
+      <c r="CJ111">
+        <v>1</v>
+      </c>
+      <c r="CK111">
+        <v>0</v>
+      </c>
+      <c r="CL111">
+        <v>15</v>
+      </c>
+      <c r="CM111">
+        <v>71</v>
+      </c>
+      <c r="CN111">
+        <v>15</v>
+      </c>
+      <c r="CO111">
+        <v>991</v>
+      </c>
+      <c r="CP111">
+        <v>407</v>
+      </c>
+      <c r="CQ111">
+        <v>1499</v>
+      </c>
+      <c r="CR111">
+        <v>48</v>
+      </c>
+      <c r="CS111">
+        <v>709</v>
+      </c>
+      <c r="CT111">
+        <v>5</v>
+      </c>
+      <c r="CU111">
+        <v>224</v>
+      </c>
+      <c r="CV111">
+        <v>3493</v>
+      </c>
+      <c r="CW111">
+        <v>20</v>
+      </c>
+      <c r="CX111">
+        <v>628</v>
+      </c>
+      <c r="CY111">
+        <v>1</v>
+      </c>
+      <c r="CZ111">
+        <v>5</v>
+      </c>
+      <c r="DA111">
+        <v>121</v>
+      </c>
+      <c r="DB111">
+        <v>12</v>
+      </c>
+      <c r="DC111">
+        <v>31</v>
+      </c>
+      <c r="DD111">
+        <v>134</v>
+      </c>
+      <c r="DE111">
+        <v>17</v>
+      </c>
+      <c r="DF111">
+        <v>0</v>
+      </c>
+      <c r="DG111">
+        <v>7</v>
+      </c>
+      <c r="DH111">
+        <v>5</v>
+      </c>
+      <c r="DI111">
+        <v>3</v>
+      </c>
+      <c r="DJ111">
+        <v>0</v>
+      </c>
+      <c r="DK111">
+        <v>0</v>
+      </c>
+      <c r="DL111">
+        <v>90</v>
+      </c>
+      <c r="DM111">
+        <v>36</v>
+      </c>
+      <c r="DN111">
+        <v>6</v>
+      </c>
+      <c r="DO111">
+        <v>1</v>
+      </c>
+      <c r="DP111">
+        <v>69</v>
+      </c>
+      <c r="DQ111">
+        <v>4</v>
+      </c>
+      <c r="DR111">
+        <v>19</v>
+      </c>
+      <c r="DS111">
+        <v>10</v>
+      </c>
+      <c r="DT111">
+        <v>0</v>
+      </c>
+      <c r="DU111">
+        <v>0</v>
+      </c>
+      <c r="DV111">
+        <v>578</v>
+      </c>
+      <c r="DW111">
+        <v>110</v>
+      </c>
+      <c r="DX111">
+        <v>1</v>
+      </c>
+      <c r="DY111">
+        <v>0</v>
+      </c>
+      <c r="DZ111">
+        <v>0</v>
+      </c>
+      <c r="EA111">
+        <v>0</v>
+      </c>
+      <c r="EB111">
+        <v>281</v>
+      </c>
+      <c r="EC111">
+        <v>3</v>
+      </c>
+      <c r="ED111">
+        <v>9</v>
+      </c>
+      <c r="EE111">
+        <v>0</v>
+      </c>
+      <c r="EF111">
+        <v>14</v>
+      </c>
+      <c r="EG111">
+        <v>1235</v>
+      </c>
+      <c r="EH111">
+        <v>0</v>
+      </c>
+      <c r="EI111">
+        <v>8</v>
+      </c>
+      <c r="EJ111">
+        <v>0</v>
+      </c>
+      <c r="EK111">
+        <v>18</v>
+      </c>
+      <c r="EL111">
+        <v>51</v>
+      </c>
+      <c r="EM111">
+        <v>36</v>
+      </c>
+      <c r="EN111">
+        <v>1</v>
+      </c>
+      <c r="EO111">
+        <v>0</v>
+      </c>
+      <c r="EP111">
+        <v>50</v>
+      </c>
+      <c r="EQ111">
+        <v>456</v>
+      </c>
+      <c r="ER111">
+        <v>13</v>
+      </c>
+      <c r="ES111">
+        <v>194</v>
+      </c>
+      <c r="ET111">
+        <v>0</v>
+      </c>
+      <c r="EU111">
+        <v>28</v>
+      </c>
+      <c r="EV111">
+        <v>998</v>
+      </c>
+      <c r="EW111">
+        <v>218</v>
+      </c>
+      <c r="EX111">
+        <v>461</v>
+      </c>
+      <c r="EY111">
+        <v>181</v>
+      </c>
+      <c r="EZ111">
+        <v>25</v>
+      </c>
+      <c r="FA111">
+        <v>560</v>
+      </c>
+      <c r="FB111">
+        <v>360</v>
+      </c>
+      <c r="FC111">
+        <v>4070</v>
+      </c>
+      <c r="FD111">
+        <v>5</v>
+      </c>
+      <c r="FE111">
+        <v>0</v>
+      </c>
+      <c r="FF111">
+        <v>0</v>
+      </c>
+      <c r="FG111">
+        <v>0</v>
+      </c>
+      <c r="FH111">
+        <v>9</v>
+      </c>
+      <c r="FI111">
+        <v>0</v>
+      </c>
+      <c r="FJ111">
+        <v>762</v>
+      </c>
+      <c r="FK111">
+        <v>7</v>
+      </c>
+      <c r="FL111">
+        <v>372</v>
+      </c>
+      <c r="FM111">
+        <v>0</v>
+      </c>
+      <c r="FN111">
+        <v>11</v>
+      </c>
+      <c r="FO111">
+        <v>623</v>
+      </c>
+      <c r="FP111">
+        <v>0</v>
+      </c>
+      <c r="FQ111">
+        <v>72</v>
+      </c>
+      <c r="FR111">
+        <v>36</v>
+      </c>
+      <c r="FS111">
+        <v>36</v>
+      </c>
+      <c r="FT111">
+        <v>178</v>
+      </c>
+      <c r="FU111">
+        <v>18</v>
+      </c>
+      <c r="FV111">
+        <v>0</v>
+      </c>
+      <c r="FW111">
+        <v>5252</v>
+      </c>
+      <c r="FX111">
+        <v>6</v>
+      </c>
+      <c r="FY111">
+        <v>0</v>
+      </c>
+      <c r="FZ111">
+        <v>0</v>
+      </c>
+      <c r="GA111">
+        <v>676</v>
+      </c>
+      <c r="GB111">
+        <v>346</v>
+      </c>
+      <c r="GC111">
+        <v>5</v>
+      </c>
+      <c r="GD111">
+        <v>0</v>
+      </c>
+      <c r="GE111">
+        <v>0</v>
+      </c>
+      <c r="GF111">
+        <v>0</v>
+      </c>
+      <c r="GG111">
+        <v>2</v>
+      </c>
+      <c r="GH111">
+        <v>0</v>
+      </c>
+      <c r="GI111">
+        <v>42</v>
+      </c>
+      <c r="GJ111">
+        <v>4353</v>
+      </c>
+      <c r="GK111">
+        <v>0</v>
+      </c>
+      <c r="GL111">
+        <v>0</v>
+      </c>
+      <c r="GM111">
+        <v>644</v>
+      </c>
+      <c r="GN111">
+        <v>0</v>
+      </c>
+      <c r="GO111">
+        <v>5599</v>
+      </c>
+      <c r="GP111">
+        <v>53</v>
+      </c>
+      <c r="GQ111">
+        <v>0</v>
+      </c>
+      <c r="GR111">
+        <v>30833</v>
+      </c>
+      <c r="GS111">
+        <v>18</v>
+      </c>
+      <c r="GT111">
+        <v>70</v>
+      </c>
+      <c r="GU111">
+        <v>23</v>
+      </c>
+      <c r="GV111">
+        <v>1</v>
+      </c>
+      <c r="GW111">
+        <v>0</v>
+      </c>
+      <c r="GX111">
+        <v>4</v>
+      </c>
+      <c r="GY111">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36260,7 +36880,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY110"/>
+  <dimension ref="A1:GY111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -71444,7 +72064,7 @@
         <v>130</v>
       </c>
       <c r="GB110">
-        <v>360</v>
+        <v>43</v>
       </c>
       <c r="GC110">
         <v>0</v>
@@ -71513,6 +72133,626 @@
         <v>0</v>
       </c>
       <c r="GY110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:207">
+      <c r="A111" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>16</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>7</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>4</v>
+      </c>
+      <c r="M111">
+        <v>21</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>15</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
+        <v>306</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>3</v>
+      </c>
+      <c r="AB111">
+        <v>0</v>
+      </c>
+      <c r="AC111">
+        <v>217</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
+      </c>
+      <c r="AF111">
+        <v>3</v>
+      </c>
+      <c r="AG111">
+        <v>3</v>
+      </c>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AJ111">
+        <v>0</v>
+      </c>
+      <c r="AK111">
+        <v>116</v>
+      </c>
+      <c r="AL111">
+        <v>0</v>
+      </c>
+      <c r="AN111">
+        <v>0</v>
+      </c>
+      <c r="AO111">
+        <v>0</v>
+      </c>
+      <c r="AP111">
+        <v>0</v>
+      </c>
+      <c r="AQ111">
+        <v>11</v>
+      </c>
+      <c r="AR111">
+        <v>0</v>
+      </c>
+      <c r="AS111">
+        <v>9</v>
+      </c>
+      <c r="AT111">
+        <v>1</v>
+      </c>
+      <c r="AU111">
+        <v>0</v>
+      </c>
+      <c r="AV111">
+        <v>0</v>
+      </c>
+      <c r="AW111">
+        <v>1</v>
+      </c>
+      <c r="AX111">
+        <v>4</v>
+      </c>
+      <c r="AY111">
+        <v>0</v>
+      </c>
+      <c r="AZ111">
+        <v>0</v>
+      </c>
+      <c r="BA111">
+        <v>4</v>
+      </c>
+      <c r="BB111">
+        <v>2</v>
+      </c>
+      <c r="BC111">
+        <v>15</v>
+      </c>
+      <c r="BD111">
+        <v>0</v>
+      </c>
+      <c r="BE111">
+        <v>0</v>
+      </c>
+      <c r="BF111">
+        <v>4</v>
+      </c>
+      <c r="BG111">
+        <v>18</v>
+      </c>
+      <c r="BH111">
+        <v>9</v>
+      </c>
+      <c r="BI111">
+        <v>1</v>
+      </c>
+      <c r="BJ111">
+        <v>0</v>
+      </c>
+      <c r="BK111">
+        <v>0</v>
+      </c>
+      <c r="BL111">
+        <v>2</v>
+      </c>
+      <c r="BM111">
+        <v>1</v>
+      </c>
+      <c r="BN111">
+        <v>0</v>
+      </c>
+      <c r="BO111">
+        <v>0</v>
+      </c>
+      <c r="BP111">
+        <v>0</v>
+      </c>
+      <c r="BQ111">
+        <v>0</v>
+      </c>
+      <c r="BR111">
+        <v>7</v>
+      </c>
+      <c r="BS111">
+        <v>761</v>
+      </c>
+      <c r="BT111">
+        <v>0</v>
+      </c>
+      <c r="BU111">
+        <v>0</v>
+      </c>
+      <c r="BV111">
+        <v>0</v>
+      </c>
+      <c r="BW111">
+        <v>0</v>
+      </c>
+      <c r="BX111">
+        <v>242</v>
+      </c>
+      <c r="BY111">
+        <v>0</v>
+      </c>
+      <c r="BZ111">
+        <v>0</v>
+      </c>
+      <c r="CA111">
+        <v>0</v>
+      </c>
+      <c r="CB111">
+        <v>0</v>
+      </c>
+      <c r="CC111">
+        <v>0</v>
+      </c>
+      <c r="CD111">
+        <v>0</v>
+      </c>
+      <c r="CE111">
+        <v>0</v>
+      </c>
+      <c r="CF111">
+        <v>0</v>
+      </c>
+      <c r="CG111">
+        <v>2</v>
+      </c>
+      <c r="CH111">
+        <v>0</v>
+      </c>
+      <c r="CI111">
+        <v>0</v>
+      </c>
+      <c r="CJ111">
+        <v>0</v>
+      </c>
+      <c r="CK111">
+        <v>0</v>
+      </c>
+      <c r="CL111">
+        <v>5</v>
+      </c>
+      <c r="CM111">
+        <v>16</v>
+      </c>
+      <c r="CN111">
+        <v>0</v>
+      </c>
+      <c r="CO111">
+        <v>43</v>
+      </c>
+      <c r="CP111">
+        <v>24</v>
+      </c>
+      <c r="CQ111">
+        <v>89</v>
+      </c>
+      <c r="CR111">
+        <v>1</v>
+      </c>
+      <c r="CS111">
+        <v>44</v>
+      </c>
+      <c r="CT111">
+        <v>0</v>
+      </c>
+      <c r="CU111">
+        <v>9</v>
+      </c>
+      <c r="CV111">
+        <v>575</v>
+      </c>
+      <c r="CW111">
+        <v>0</v>
+      </c>
+      <c r="CX111">
+        <v>6</v>
+      </c>
+      <c r="CY111">
+        <v>1</v>
+      </c>
+      <c r="CZ111">
+        <v>0</v>
+      </c>
+      <c r="DA111">
+        <v>0</v>
+      </c>
+      <c r="DB111">
+        <v>0</v>
+      </c>
+      <c r="DC111">
+        <v>1</v>
+      </c>
+      <c r="DD111">
+        <v>2</v>
+      </c>
+      <c r="DE111">
+        <v>0</v>
+      </c>
+      <c r="DF111">
+        <v>0</v>
+      </c>
+      <c r="DG111">
+        <v>0</v>
+      </c>
+      <c r="DH111">
+        <v>0</v>
+      </c>
+      <c r="DI111">
+        <v>1</v>
+      </c>
+      <c r="DJ111">
+        <v>0</v>
+      </c>
+      <c r="DK111">
+        <v>0</v>
+      </c>
+      <c r="DL111">
+        <v>1</v>
+      </c>
+      <c r="DM111">
+        <v>3</v>
+      </c>
+      <c r="DN111">
+        <v>0</v>
+      </c>
+      <c r="DO111">
+        <v>0</v>
+      </c>
+      <c r="DP111">
+        <v>2</v>
+      </c>
+      <c r="DQ111">
+        <v>0</v>
+      </c>
+      <c r="DR111">
+        <v>0</v>
+      </c>
+      <c r="DS111">
+        <v>0</v>
+      </c>
+      <c r="DT111">
+        <v>0</v>
+      </c>
+      <c r="DU111">
+        <v>0</v>
+      </c>
+      <c r="DV111">
+        <v>60</v>
+      </c>
+      <c r="DW111">
+        <v>2</v>
+      </c>
+      <c r="DX111">
+        <v>0</v>
+      </c>
+      <c r="DY111">
+        <v>0</v>
+      </c>
+      <c r="DZ111">
+        <v>0</v>
+      </c>
+      <c r="EA111">
+        <v>0</v>
+      </c>
+      <c r="EB111">
+        <v>5</v>
+      </c>
+      <c r="EC111">
+        <v>0</v>
+      </c>
+      <c r="ED111">
+        <v>1</v>
+      </c>
+      <c r="EE111">
+        <v>0</v>
+      </c>
+      <c r="EF111">
+        <v>0</v>
+      </c>
+      <c r="EG111">
+        <v>144</v>
+      </c>
+      <c r="EH111">
+        <v>0</v>
+      </c>
+      <c r="EI111">
+        <v>0</v>
+      </c>
+      <c r="EJ111">
+        <v>0</v>
+      </c>
+      <c r="EK111">
+        <v>3</v>
+      </c>
+      <c r="EL111">
+        <v>4</v>
+      </c>
+      <c r="EM111">
+        <v>3</v>
+      </c>
+      <c r="EN111">
+        <v>0</v>
+      </c>
+      <c r="EO111">
+        <v>0</v>
+      </c>
+      <c r="EP111">
+        <v>2</v>
+      </c>
+      <c r="EQ111">
+        <v>8</v>
+      </c>
+      <c r="ER111">
+        <v>0</v>
+      </c>
+      <c r="ES111">
+        <v>7</v>
+      </c>
+      <c r="ET111">
+        <v>0</v>
+      </c>
+      <c r="EU111">
+        <v>0</v>
+      </c>
+      <c r="EV111">
+        <v>26</v>
+      </c>
+      <c r="EW111">
+        <v>25</v>
+      </c>
+      <c r="EX111">
+        <v>18</v>
+      </c>
+      <c r="EY111">
+        <v>28</v>
+      </c>
+      <c r="EZ111">
+        <v>2</v>
+      </c>
+      <c r="FA111">
+        <v>0</v>
+      </c>
+      <c r="FB111">
+        <v>13</v>
+      </c>
+      <c r="FC111">
+        <v>41</v>
+      </c>
+      <c r="FD111">
+        <v>0</v>
+      </c>
+      <c r="FE111">
+        <v>0</v>
+      </c>
+      <c r="FF111">
+        <v>0</v>
+      </c>
+      <c r="FG111">
+        <v>0</v>
+      </c>
+      <c r="FH111">
+        <v>1</v>
+      </c>
+      <c r="FI111">
+        <v>0</v>
+      </c>
+      <c r="FJ111">
+        <v>4</v>
+      </c>
+      <c r="FK111">
+        <v>1</v>
+      </c>
+      <c r="FL111">
+        <v>7</v>
+      </c>
+      <c r="FM111">
+        <v>0</v>
+      </c>
+      <c r="FN111">
+        <v>0</v>
+      </c>
+      <c r="FO111">
+        <v>1</v>
+      </c>
+      <c r="FP111">
+        <v>0</v>
+      </c>
+      <c r="FQ111">
+        <v>1</v>
+      </c>
+      <c r="FR111">
+        <v>5</v>
+      </c>
+      <c r="FS111">
+        <v>0</v>
+      </c>
+      <c r="FT111">
+        <v>2</v>
+      </c>
+      <c r="FU111">
+        <v>2</v>
+      </c>
+      <c r="FV111">
+        <v>0</v>
+      </c>
+      <c r="FW111">
+        <v>348</v>
+      </c>
+      <c r="FX111">
+        <v>0</v>
+      </c>
+      <c r="FY111">
+        <v>0</v>
+      </c>
+      <c r="FZ111">
+        <v>0</v>
+      </c>
+      <c r="GA111">
+        <v>67</v>
+      </c>
+      <c r="GB111">
+        <v>42</v>
+      </c>
+      <c r="GC111">
+        <v>0</v>
+      </c>
+      <c r="GD111">
+        <v>0</v>
+      </c>
+      <c r="GE111">
+        <v>0</v>
+      </c>
+      <c r="GF111">
+        <v>0</v>
+      </c>
+      <c r="GG111">
+        <v>0</v>
+      </c>
+      <c r="GH111">
+        <v>0</v>
+      </c>
+      <c r="GI111">
+        <v>0</v>
+      </c>
+      <c r="GJ111">
+        <v>126</v>
+      </c>
+      <c r="GK111">
+        <v>0</v>
+      </c>
+      <c r="GL111">
+        <v>0</v>
+      </c>
+      <c r="GM111">
+        <v>8</v>
+      </c>
+      <c r="GN111">
+        <v>2</v>
+      </c>
+      <c r="GO111">
+        <v>847</v>
+      </c>
+      <c r="GP111">
+        <v>1</v>
+      </c>
+      <c r="GQ111">
+        <v>1</v>
+      </c>
+      <c r="GR111">
+        <v>3770</v>
+      </c>
+      <c r="GS111">
+        <v>0</v>
+      </c>
+      <c r="GT111">
+        <v>0</v>
+      </c>
+      <c r="GU111">
+        <v>0</v>
+      </c>
+      <c r="GV111">
+        <v>0</v>
+      </c>
+      <c r="GW111">
+        <v>0</v>
+      </c>
+      <c r="GX111">
+        <v>0</v>
+      </c>
+      <c r="GY111">
         <v>0</v>
       </c>
     </row>

--- a/ecdc_csv/data/ecdc_csv_diff.xlsx
+++ b/ecdc_csv/data/ecdc_csv_diff.xlsx
@@ -997,7 +997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY111"/>
+  <dimension ref="A1:GY112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -36873,6 +36873,626 @@
         <v>0</v>
       </c>
     </row>
+    <row r="112" spans="1:207">
+      <c r="A112" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B112">
+        <v>63</v>
+      </c>
+      <c r="C112">
+        <v>9</v>
+      </c>
+      <c r="D112">
+        <v>117</v>
+      </c>
+      <c r="E112">
+        <v>8</v>
+      </c>
+      <c r="F112">
+        <v>5</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>170</v>
+      </c>
+      <c r="J112">
+        <v>43</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>53</v>
+      </c>
+      <c r="M112">
+        <v>59</v>
+      </c>
+      <c r="N112">
+        <v>33</v>
+      </c>
+      <c r="O112">
+        <v>3</v>
+      </c>
+      <c r="P112">
+        <v>29</v>
+      </c>
+      <c r="Q112">
+        <v>306</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>1045</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>3</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>27</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>44</v>
+      </c>
+      <c r="AB112">
+        <v>0</v>
+      </c>
+      <c r="AC112">
+        <v>2917</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>1</v>
+      </c>
+      <c r="AF112">
+        <v>32</v>
+      </c>
+      <c r="AG112">
+        <v>8</v>
+      </c>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
+        <v>0</v>
+      </c>
+      <c r="AJ112">
+        <v>0</v>
+      </c>
+      <c r="AK112">
+        <v>1469</v>
+      </c>
+      <c r="AL112">
+        <v>2</v>
+      </c>
+      <c r="AN112">
+        <v>0</v>
+      </c>
+      <c r="AO112">
+        <v>0</v>
+      </c>
+      <c r="AP112">
+        <v>0</v>
+      </c>
+      <c r="AQ112">
+        <v>478</v>
+      </c>
+      <c r="AR112">
+        <v>18</v>
+      </c>
+      <c r="AS112">
+        <v>182</v>
+      </c>
+      <c r="AT112">
+        <v>0</v>
+      </c>
+      <c r="AU112">
+        <v>6</v>
+      </c>
+      <c r="AV112">
+        <v>59</v>
+      </c>
+      <c r="AW112">
+        <v>18</v>
+      </c>
+      <c r="AX112">
+        <v>63</v>
+      </c>
+      <c r="AY112">
+        <v>0</v>
+      </c>
+      <c r="AZ112">
+        <v>26</v>
+      </c>
+      <c r="BA112">
+        <v>105</v>
+      </c>
+      <c r="BB112">
+        <v>20</v>
+      </c>
+      <c r="BC112">
+        <v>169</v>
+      </c>
+      <c r="BD112">
+        <v>0</v>
+      </c>
+      <c r="BE112">
+        <v>0</v>
+      </c>
+      <c r="BF112">
+        <v>209</v>
+      </c>
+      <c r="BG112">
+        <v>572</v>
+      </c>
+      <c r="BH112">
+        <v>188</v>
+      </c>
+      <c r="BI112">
+        <v>13</v>
+      </c>
+      <c r="BJ112">
+        <v>0</v>
+      </c>
+      <c r="BK112">
+        <v>0</v>
+      </c>
+      <c r="BL112">
+        <v>53</v>
+      </c>
+      <c r="BM112">
+        <v>0</v>
+      </c>
+      <c r="BN112">
+        <v>9</v>
+      </c>
+      <c r="BO112">
+        <v>0</v>
+      </c>
+      <c r="BP112">
+        <v>0</v>
+      </c>
+      <c r="BQ112">
+        <v>0</v>
+      </c>
+      <c r="BR112">
+        <v>192</v>
+      </c>
+      <c r="BS112">
+        <v>2569</v>
+      </c>
+      <c r="BT112">
+        <v>0</v>
+      </c>
+      <c r="BU112">
+        <v>1</v>
+      </c>
+      <c r="BV112">
+        <v>0</v>
+      </c>
+      <c r="BW112">
+        <v>18</v>
+      </c>
+      <c r="BX112">
+        <v>2458</v>
+      </c>
+      <c r="BY112">
+        <v>193</v>
+      </c>
+      <c r="BZ112">
+        <v>0</v>
+      </c>
+      <c r="CA112">
+        <v>0</v>
+      </c>
+      <c r="CB112">
+        <v>0</v>
+      </c>
+      <c r="CC112">
+        <v>0</v>
+      </c>
+      <c r="CD112">
+        <v>0</v>
+      </c>
+      <c r="CE112">
+        <v>22</v>
+      </c>
+      <c r="CF112">
+        <v>5</v>
+      </c>
+      <c r="CG112">
+        <v>0</v>
+      </c>
+      <c r="CH112">
+        <v>0</v>
+      </c>
+      <c r="CI112">
+        <v>0</v>
+      </c>
+      <c r="CJ112">
+        <v>0</v>
+      </c>
+      <c r="CK112">
+        <v>0</v>
+      </c>
+      <c r="CL112">
+        <v>15</v>
+      </c>
+      <c r="CM112">
+        <v>82</v>
+      </c>
+      <c r="CN112">
+        <v>6</v>
+      </c>
+      <c r="CO112">
+        <v>1334</v>
+      </c>
+      <c r="CP112">
+        <v>325</v>
+      </c>
+      <c r="CQ112">
+        <v>1374</v>
+      </c>
+      <c r="CR112">
+        <v>0</v>
+      </c>
+      <c r="CS112">
+        <v>778</v>
+      </c>
+      <c r="CT112">
+        <v>8</v>
+      </c>
+      <c r="CU112">
+        <v>283</v>
+      </c>
+      <c r="CV112">
+        <v>3491</v>
+      </c>
+      <c r="CW112">
+        <v>10</v>
+      </c>
+      <c r="CX112">
+        <v>566</v>
+      </c>
+      <c r="CY112">
+        <v>21</v>
+      </c>
+      <c r="CZ112">
+        <v>6</v>
+      </c>
+      <c r="DA112">
+        <v>63</v>
+      </c>
+      <c r="DB112">
+        <v>16</v>
+      </c>
+      <c r="DC112">
+        <v>30</v>
+      </c>
+      <c r="DD112">
+        <v>94</v>
+      </c>
+      <c r="DE112">
+        <v>48</v>
+      </c>
+      <c r="DF112">
+        <v>0</v>
+      </c>
+      <c r="DG112">
+        <v>30</v>
+      </c>
+      <c r="DH112">
+        <v>4</v>
+      </c>
+      <c r="DI112">
+        <v>5</v>
+      </c>
+      <c r="DJ112">
+        <v>0</v>
+      </c>
+      <c r="DK112">
+        <v>1</v>
+      </c>
+      <c r="DL112">
+        <v>59</v>
+      </c>
+      <c r="DM112">
+        <v>57</v>
+      </c>
+      <c r="DN112">
+        <v>0</v>
+      </c>
+      <c r="DO112">
+        <v>0</v>
+      </c>
+      <c r="DP112">
+        <v>54</v>
+      </c>
+      <c r="DQ112">
+        <v>6</v>
+      </c>
+      <c r="DR112">
+        <v>26</v>
+      </c>
+      <c r="DS112">
+        <v>4</v>
+      </c>
+      <c r="DT112">
+        <v>0</v>
+      </c>
+      <c r="DU112">
+        <v>1</v>
+      </c>
+      <c r="DV112">
+        <v>622</v>
+      </c>
+      <c r="DW112">
+        <v>87</v>
+      </c>
+      <c r="DX112">
+        <v>0</v>
+      </c>
+      <c r="DY112">
+        <v>0</v>
+      </c>
+      <c r="DZ112">
+        <v>4</v>
+      </c>
+      <c r="EA112">
+        <v>0</v>
+      </c>
+      <c r="EB112">
+        <v>121</v>
+      </c>
+      <c r="EC112">
+        <v>1</v>
+      </c>
+      <c r="ED112">
+        <v>13</v>
+      </c>
+      <c r="EE112">
+        <v>0</v>
+      </c>
+      <c r="EF112">
+        <v>1</v>
+      </c>
+      <c r="EG112">
+        <v>1140</v>
+      </c>
+      <c r="EH112">
+        <v>0</v>
+      </c>
+      <c r="EI112">
+        <v>4</v>
+      </c>
+      <c r="EJ112">
+        <v>0</v>
+      </c>
+      <c r="EK112">
+        <v>12</v>
+      </c>
+      <c r="EL112">
+        <v>49</v>
+      </c>
+      <c r="EM112">
+        <v>53</v>
+      </c>
+      <c r="EN112">
+        <v>0</v>
+      </c>
+      <c r="EO112">
+        <v>193</v>
+      </c>
+      <c r="EP112">
+        <v>111</v>
+      </c>
+      <c r="EQ112">
+        <v>512</v>
+      </c>
+      <c r="ER112">
+        <v>6</v>
+      </c>
+      <c r="ES112">
+        <v>63</v>
+      </c>
+      <c r="ET112">
+        <v>0</v>
+      </c>
+      <c r="EU112">
+        <v>0</v>
+      </c>
+      <c r="EV112">
+        <v>931</v>
+      </c>
+      <c r="EW112">
+        <v>209</v>
+      </c>
+      <c r="EX112">
+        <v>363</v>
+      </c>
+      <c r="EY112">
+        <v>663</v>
+      </c>
+      <c r="EZ112">
+        <v>50</v>
+      </c>
+      <c r="FA112">
+        <v>345</v>
+      </c>
+      <c r="FB112">
+        <v>351</v>
+      </c>
+      <c r="FC112">
+        <v>4785</v>
+      </c>
+      <c r="FD112">
+        <v>1</v>
+      </c>
+      <c r="FE112">
+        <v>0</v>
+      </c>
+      <c r="FF112">
+        <v>0</v>
+      </c>
+      <c r="FG112">
+        <v>0</v>
+      </c>
+      <c r="FH112">
+        <v>20</v>
+      </c>
+      <c r="FI112">
+        <v>0</v>
+      </c>
+      <c r="FJ112">
+        <v>1132</v>
+      </c>
+      <c r="FK112">
+        <v>8</v>
+      </c>
+      <c r="FL112">
+        <v>304</v>
+      </c>
+      <c r="FM112">
+        <v>0</v>
+      </c>
+      <c r="FN112">
+        <v>4</v>
+      </c>
+      <c r="FO112">
+        <v>942</v>
+      </c>
+      <c r="FP112">
+        <v>7</v>
+      </c>
+      <c r="FQ112">
+        <v>40</v>
+      </c>
+      <c r="FR112">
+        <v>13</v>
+      </c>
+      <c r="FS112">
+        <v>19</v>
+      </c>
+      <c r="FT112">
+        <v>251</v>
+      </c>
+      <c r="FU112">
+        <v>8</v>
+      </c>
+      <c r="FV112">
+        <v>0</v>
+      </c>
+      <c r="FW112">
+        <v>3658</v>
+      </c>
+      <c r="FX112">
+        <v>10</v>
+      </c>
+      <c r="FY112">
+        <v>34</v>
+      </c>
+      <c r="FZ112">
+        <v>0</v>
+      </c>
+      <c r="GA112">
+        <v>606</v>
+      </c>
+      <c r="GB112">
+        <v>325</v>
+      </c>
+      <c r="GC112">
+        <v>0</v>
+      </c>
+      <c r="GD112">
+        <v>3</v>
+      </c>
+      <c r="GE112">
+        <v>33</v>
+      </c>
+      <c r="GF112">
+        <v>0</v>
+      </c>
+      <c r="GG112">
+        <v>1</v>
+      </c>
+      <c r="GH112">
+        <v>0</v>
+      </c>
+      <c r="GI112">
+        <v>2</v>
+      </c>
+      <c r="GJ112">
+        <v>3783</v>
+      </c>
+      <c r="GK112">
+        <v>0</v>
+      </c>
+      <c r="GL112">
+        <v>0</v>
+      </c>
+      <c r="GM112">
+        <v>343</v>
+      </c>
+      <c r="GN112">
+        <v>477</v>
+      </c>
+      <c r="GO112">
+        <v>5525</v>
+      </c>
+      <c r="GP112">
+        <v>1</v>
+      </c>
+      <c r="GQ112">
+        <v>2</v>
+      </c>
+      <c r="GR112">
+        <v>32922</v>
+      </c>
+      <c r="GS112">
+        <v>18</v>
+      </c>
+      <c r="GT112">
+        <v>45</v>
+      </c>
+      <c r="GU112">
+        <v>0</v>
+      </c>
+      <c r="GV112">
+        <v>0</v>
+      </c>
+      <c r="GW112">
+        <v>0</v>
+      </c>
+      <c r="GX112">
+        <v>5</v>
+      </c>
+      <c r="GY112">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36880,7 +37500,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY111"/>
+  <dimension ref="A1:GY112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -72756,6 +73376,626 @@
         <v>0</v>
       </c>
     </row>
+    <row r="112" spans="1:207">
+      <c r="A112" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>10</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>12</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>9</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>3</v>
+      </c>
+      <c r="T112">
+        <v>290</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>1</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>1</v>
+      </c>
+      <c r="AB112">
+        <v>0</v>
+      </c>
+      <c r="AC112">
+        <v>206</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
+      </c>
+      <c r="AF112">
+        <v>0</v>
+      </c>
+      <c r="AG112">
+        <v>1</v>
+      </c>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
+        <v>0</v>
+      </c>
+      <c r="AJ112">
+        <v>0</v>
+      </c>
+      <c r="AK112">
+        <v>158</v>
+      </c>
+      <c r="AL112">
+        <v>0</v>
+      </c>
+      <c r="AN112">
+        <v>0</v>
+      </c>
+      <c r="AO112">
+        <v>0</v>
+      </c>
+      <c r="AP112">
+        <v>0</v>
+      </c>
+      <c r="AQ112">
+        <v>10</v>
+      </c>
+      <c r="AR112">
+        <v>0</v>
+      </c>
+      <c r="AS112">
+        <v>13</v>
+      </c>
+      <c r="AT112">
+        <v>0</v>
+      </c>
+      <c r="AU112">
+        <v>0</v>
+      </c>
+      <c r="AV112">
+        <v>2</v>
+      </c>
+      <c r="AW112">
+        <v>3</v>
+      </c>
+      <c r="AX112">
+        <v>1</v>
+      </c>
+      <c r="AY112">
+        <v>0</v>
+      </c>
+      <c r="AZ112">
+        <v>0</v>
+      </c>
+      <c r="BA112">
+        <v>8</v>
+      </c>
+      <c r="BB112">
+        <v>0</v>
+      </c>
+      <c r="BC112">
+        <v>10</v>
+      </c>
+      <c r="BD112">
+        <v>0</v>
+      </c>
+      <c r="BE112">
+        <v>0</v>
+      </c>
+      <c r="BF112">
+        <v>17</v>
+      </c>
+      <c r="BG112">
+        <v>35</v>
+      </c>
+      <c r="BH112">
+        <v>19</v>
+      </c>
+      <c r="BI112">
+        <v>0</v>
+      </c>
+      <c r="BJ112">
+        <v>0</v>
+      </c>
+      <c r="BK112">
+        <v>0</v>
+      </c>
+      <c r="BL112">
+        <v>0</v>
+      </c>
+      <c r="BM112">
+        <v>0</v>
+      </c>
+      <c r="BN112">
+        <v>0</v>
+      </c>
+      <c r="BO112">
+        <v>0</v>
+      </c>
+      <c r="BP112">
+        <v>0</v>
+      </c>
+      <c r="BQ112">
+        <v>0</v>
+      </c>
+      <c r="BR112">
+        <v>8</v>
+      </c>
+      <c r="BS112">
+        <v>642</v>
+      </c>
+      <c r="BT112">
+        <v>0</v>
+      </c>
+      <c r="BU112">
+        <v>0</v>
+      </c>
+      <c r="BV112">
+        <v>0</v>
+      </c>
+      <c r="BW112">
+        <v>1</v>
+      </c>
+      <c r="BX112">
+        <v>184</v>
+      </c>
+      <c r="BY112">
+        <v>1</v>
+      </c>
+      <c r="BZ112">
+        <v>0</v>
+      </c>
+      <c r="CA112">
+        <v>0</v>
+      </c>
+      <c r="CB112">
+        <v>0</v>
+      </c>
+      <c r="CC112">
+        <v>0</v>
+      </c>
+      <c r="CD112">
+        <v>0</v>
+      </c>
+      <c r="CE112">
+        <v>0</v>
+      </c>
+      <c r="CF112">
+        <v>0</v>
+      </c>
+      <c r="CG112">
+        <v>0</v>
+      </c>
+      <c r="CH112">
+        <v>0</v>
+      </c>
+      <c r="CI112">
+        <v>1</v>
+      </c>
+      <c r="CJ112">
+        <v>0</v>
+      </c>
+      <c r="CK112">
+        <v>0</v>
+      </c>
+      <c r="CL112">
+        <v>0</v>
+      </c>
+      <c r="CM112">
+        <v>17</v>
+      </c>
+      <c r="CN112">
+        <v>1</v>
+      </c>
+      <c r="CO112">
+        <v>27</v>
+      </c>
+      <c r="CP112">
+        <v>15</v>
+      </c>
+      <c r="CQ112">
+        <v>73</v>
+      </c>
+      <c r="CR112">
+        <v>0</v>
+      </c>
+      <c r="CS112">
+        <v>41</v>
+      </c>
+      <c r="CT112">
+        <v>2</v>
+      </c>
+      <c r="CU112">
+        <v>13</v>
+      </c>
+      <c r="CV112">
+        <v>480</v>
+      </c>
+      <c r="CW112">
+        <v>0</v>
+      </c>
+      <c r="CX112">
+        <v>7</v>
+      </c>
+      <c r="CY112">
+        <v>1</v>
+      </c>
+      <c r="CZ112">
+        <v>0</v>
+      </c>
+      <c r="DA112">
+        <v>0</v>
+      </c>
+      <c r="DB112">
+        <v>1</v>
+      </c>
+      <c r="DC112">
+        <v>0</v>
+      </c>
+      <c r="DD112">
+        <v>1</v>
+      </c>
+      <c r="DE112">
+        <v>0</v>
+      </c>
+      <c r="DF112">
+        <v>0</v>
+      </c>
+      <c r="DG112">
+        <v>0</v>
+      </c>
+      <c r="DH112">
+        <v>0</v>
+      </c>
+      <c r="DI112">
+        <v>0</v>
+      </c>
+      <c r="DJ112">
+        <v>0</v>
+      </c>
+      <c r="DK112">
+        <v>0</v>
+      </c>
+      <c r="DL112">
+        <v>0</v>
+      </c>
+      <c r="DM112">
+        <v>0</v>
+      </c>
+      <c r="DN112">
+        <v>0</v>
+      </c>
+      <c r="DO112">
+        <v>0</v>
+      </c>
+      <c r="DP112">
+        <v>2</v>
+      </c>
+      <c r="DQ112">
+        <v>0</v>
+      </c>
+      <c r="DR112">
+        <v>0</v>
+      </c>
+      <c r="DS112">
+        <v>0</v>
+      </c>
+      <c r="DT112">
+        <v>0</v>
+      </c>
+      <c r="DU112">
+        <v>0</v>
+      </c>
+      <c r="DV112">
+        <v>104</v>
+      </c>
+      <c r="DW112">
+        <v>4</v>
+      </c>
+      <c r="DX112">
+        <v>0</v>
+      </c>
+      <c r="DY112">
+        <v>0</v>
+      </c>
+      <c r="DZ112">
+        <v>1</v>
+      </c>
+      <c r="EA112">
+        <v>0</v>
+      </c>
+      <c r="EB112">
+        <v>2</v>
+      </c>
+      <c r="EC112">
+        <v>0</v>
+      </c>
+      <c r="ED112">
+        <v>0</v>
+      </c>
+      <c r="EE112">
+        <v>0</v>
+      </c>
+      <c r="EF112">
+        <v>0</v>
+      </c>
+      <c r="EG112">
+        <v>142</v>
+      </c>
+      <c r="EH112">
+        <v>0</v>
+      </c>
+      <c r="EI112">
+        <v>1</v>
+      </c>
+      <c r="EJ112">
+        <v>0</v>
+      </c>
+      <c r="EK112">
+        <v>1</v>
+      </c>
+      <c r="EL112">
+        <v>2</v>
+      </c>
+      <c r="EM112">
+        <v>0</v>
+      </c>
+      <c r="EN112">
+        <v>0</v>
+      </c>
+      <c r="EO112">
+        <v>12</v>
+      </c>
+      <c r="EP112">
+        <v>0</v>
+      </c>
+      <c r="EQ112">
+        <v>16</v>
+      </c>
+      <c r="ER112">
+        <v>0</v>
+      </c>
+      <c r="ES112">
+        <v>4</v>
+      </c>
+      <c r="ET112">
+        <v>0</v>
+      </c>
+      <c r="EU112">
+        <v>0</v>
+      </c>
+      <c r="EV112">
+        <v>48</v>
+      </c>
+      <c r="EW112">
+        <v>10</v>
+      </c>
+      <c r="EX112">
+        <v>15</v>
+      </c>
+      <c r="EY112">
+        <v>30</v>
+      </c>
+      <c r="EZ112">
+        <v>2</v>
+      </c>
+      <c r="FA112">
+        <v>1</v>
+      </c>
+      <c r="FB112">
+        <v>17</v>
+      </c>
+      <c r="FC112">
+        <v>40</v>
+      </c>
+      <c r="FD112">
+        <v>0</v>
+      </c>
+      <c r="FE112">
+        <v>0</v>
+      </c>
+      <c r="FF112">
+        <v>0</v>
+      </c>
+      <c r="FG112">
+        <v>0</v>
+      </c>
+      <c r="FH112">
+        <v>0</v>
+      </c>
+      <c r="FI112">
+        <v>0</v>
+      </c>
+      <c r="FJ112">
+        <v>5</v>
+      </c>
+      <c r="FK112">
+        <v>0</v>
+      </c>
+      <c r="FL112">
+        <v>7</v>
+      </c>
+      <c r="FM112">
+        <v>0</v>
+      </c>
+      <c r="FN112">
+        <v>0</v>
+      </c>
+      <c r="FO112">
+        <v>0</v>
+      </c>
+      <c r="FP112">
+        <v>0</v>
+      </c>
+      <c r="FQ112">
+        <v>2</v>
+      </c>
+      <c r="FR112">
+        <v>4</v>
+      </c>
+      <c r="FS112">
+        <v>2</v>
+      </c>
+      <c r="FT112">
+        <v>2</v>
+      </c>
+      <c r="FU112">
+        <v>2</v>
+      </c>
+      <c r="FV112">
+        <v>0</v>
+      </c>
+      <c r="FW112">
+        <v>565</v>
+      </c>
+      <c r="FX112">
+        <v>0</v>
+      </c>
+      <c r="FY112">
+        <v>5</v>
+      </c>
+      <c r="FZ112">
+        <v>0</v>
+      </c>
+      <c r="GA112">
+        <v>111</v>
+      </c>
+      <c r="GB112">
+        <v>52</v>
+      </c>
+      <c r="GC112">
+        <v>0</v>
+      </c>
+      <c r="GD112">
+        <v>0</v>
+      </c>
+      <c r="GE112">
+        <v>0</v>
+      </c>
+      <c r="GF112">
+        <v>0</v>
+      </c>
+      <c r="GG112">
+        <v>0</v>
+      </c>
+      <c r="GH112">
+        <v>0</v>
+      </c>
+      <c r="GI112">
+        <v>0</v>
+      </c>
+      <c r="GJ112">
+        <v>121</v>
+      </c>
+      <c r="GK112">
+        <v>0</v>
+      </c>
+      <c r="GL112">
+        <v>0</v>
+      </c>
+      <c r="GM112">
+        <v>8</v>
+      </c>
+      <c r="GN112">
+        <v>2</v>
+      </c>
+      <c r="GO112">
+        <v>888</v>
+      </c>
+      <c r="GP112">
+        <v>0</v>
+      </c>
+      <c r="GQ112">
+        <v>1</v>
+      </c>
+      <c r="GR112">
+        <v>1856</v>
+      </c>
+      <c r="GS112">
+        <v>0</v>
+      </c>
+      <c r="GT112">
+        <v>1</v>
+      </c>
+      <c r="GU112">
+        <v>0</v>
+      </c>
+      <c r="GV112">
+        <v>0</v>
+      </c>
+      <c r="GW112">
+        <v>0</v>
+      </c>
+      <c r="GX112">
+        <v>0</v>
+      </c>
+      <c r="GY112">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ecdc_csv/data/ecdc_csv_diff.xlsx
+++ b/ecdc_csv/data/ecdc_csv_diff.xlsx
@@ -997,7 +997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY112"/>
+  <dimension ref="A1:GY113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -14628,6 +14628,9 @@
       <c r="T65">
         <v>6</v>
       </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
       <c r="AK65">
         <v>3</v>
       </c>
@@ -14762,6 +14765,9 @@
       <c r="T66">
         <v>5</v>
       </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
       <c r="AK66">
         <v>3</v>
       </c>
@@ -14980,6 +14986,9 @@
       <c r="EY67">
         <v>1</v>
       </c>
+      <c r="FC67">
+        <v>0</v>
+      </c>
       <c r="FH67">
         <v>5</v>
       </c>
@@ -15147,6 +15156,9 @@
       <c r="FB68">
         <v>2</v>
       </c>
+      <c r="FC68">
+        <v>0</v>
+      </c>
       <c r="FH68">
         <v>7</v>
       </c>
@@ -15520,6 +15532,9 @@
       <c r="FB70">
         <v>6</v>
       </c>
+      <c r="FC70">
+        <v>0</v>
+      </c>
       <c r="FH70">
         <v>3</v>
       </c>
@@ -15714,6 +15729,9 @@
       <c r="FB71">
         <v>2</v>
       </c>
+      <c r="FC71">
+        <v>0</v>
+      </c>
       <c r="FH71">
         <v>11</v>
       </c>
@@ -15776,6 +15794,9 @@
       <c r="T72">
         <v>39</v>
       </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
       <c r="AE72">
         <v>1</v>
       </c>
@@ -16126,6 +16147,9 @@
       <c r="FB73">
         <v>8</v>
       </c>
+      <c r="FC73">
+        <v>0</v>
+      </c>
       <c r="FH73">
         <v>13</v>
       </c>
@@ -26150,7 +26174,7 @@
         <v>2</v>
       </c>
       <c r="DP94">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="DQ94">
         <v>1</v>
@@ -26752,7 +26776,7 @@
         <v>8</v>
       </c>
       <c r="DP95">
-        <v>282</v>
+        <v>142</v>
       </c>
       <c r="DQ95">
         <v>1</v>
@@ -34273,7 +34297,7 @@
         <v>11</v>
       </c>
       <c r="FL107">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="FM107">
         <v>0</v>
@@ -34893,7 +34917,7 @@
         <v>8</v>
       </c>
       <c r="FL108">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="FM108">
         <v>1</v>
@@ -35513,7 +35537,7 @@
         <v>15</v>
       </c>
       <c r="FL109">
-        <v>819</v>
+        <v>408</v>
       </c>
       <c r="FM109">
         <v>0</v>
@@ -37491,6 +37515,626 @@
       </c>
       <c r="GY112">
         <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:207">
+      <c r="A113" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B113">
+        <v>88</v>
+      </c>
+      <c r="C113">
+        <v>14</v>
+      </c>
+      <c r="D113">
+        <v>94</v>
+      </c>
+      <c r="E113">
+        <v>9</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>102</v>
+      </c>
+      <c r="J113">
+        <v>48</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>26</v>
+      </c>
+      <c r="M113">
+        <v>48</v>
+      </c>
+      <c r="N113">
+        <v>25</v>
+      </c>
+      <c r="O113">
+        <v>2</v>
+      </c>
+      <c r="P113">
+        <v>100</v>
+      </c>
+      <c r="Q113">
+        <v>312</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>1313</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>44</v>
+      </c>
+      <c r="Z113">
+        <v>1</v>
+      </c>
+      <c r="AA113">
+        <v>15</v>
+      </c>
+      <c r="AB113">
+        <v>5</v>
+      </c>
+      <c r="AC113">
+        <v>2055</v>
+      </c>
+      <c r="AD113">
+        <v>1</v>
+      </c>
+      <c r="AE113">
+        <v>1</v>
+      </c>
+      <c r="AF113">
+        <v>37</v>
+      </c>
+      <c r="AG113">
+        <v>11</v>
+      </c>
+      <c r="AH113">
+        <v>0</v>
+      </c>
+      <c r="AI113">
+        <v>0</v>
+      </c>
+      <c r="AJ113">
+        <v>0</v>
+      </c>
+      <c r="AK113">
+        <v>1436</v>
+      </c>
+      <c r="AL113">
+        <v>3</v>
+      </c>
+      <c r="AN113">
+        <v>0</v>
+      </c>
+      <c r="AO113">
+        <v>0</v>
+      </c>
+      <c r="AP113">
+        <v>0</v>
+      </c>
+      <c r="AQ113">
+        <v>358</v>
+      </c>
+      <c r="AR113">
+        <v>14</v>
+      </c>
+      <c r="AS113">
+        <v>171</v>
+      </c>
+      <c r="AT113">
+        <v>17</v>
+      </c>
+      <c r="AU113">
+        <v>5</v>
+      </c>
+      <c r="AV113">
+        <v>46</v>
+      </c>
+      <c r="AW113">
+        <v>39</v>
+      </c>
+      <c r="AX113">
+        <v>49</v>
+      </c>
+      <c r="AY113">
+        <v>0</v>
+      </c>
+      <c r="AZ113">
+        <v>6</v>
+      </c>
+      <c r="BA113">
+        <v>133</v>
+      </c>
+      <c r="BB113">
+        <v>5</v>
+      </c>
+      <c r="BC113">
+        <v>142</v>
+      </c>
+      <c r="BD113">
+        <v>114</v>
+      </c>
+      <c r="BE113">
+        <v>0</v>
+      </c>
+      <c r="BF113">
+        <v>345</v>
+      </c>
+      <c r="BG113">
+        <v>446</v>
+      </c>
+      <c r="BH113">
+        <v>112</v>
+      </c>
+      <c r="BI113">
+        <v>11</v>
+      </c>
+      <c r="BJ113">
+        <v>0</v>
+      </c>
+      <c r="BK113">
+        <v>4</v>
+      </c>
+      <c r="BL113">
+        <v>16</v>
+      </c>
+      <c r="BM113">
+        <v>3</v>
+      </c>
+      <c r="BN113">
+        <v>3</v>
+      </c>
+      <c r="BO113">
+        <v>0</v>
+      </c>
+      <c r="BP113">
+        <v>1</v>
+      </c>
+      <c r="BQ113">
+        <v>0</v>
+      </c>
+      <c r="BR113">
+        <v>102</v>
+      </c>
+      <c r="BS113">
+        <v>785</v>
+      </c>
+      <c r="BT113">
+        <v>0</v>
+      </c>
+      <c r="BU113">
+        <v>0</v>
+      </c>
+      <c r="BV113">
+        <v>1</v>
+      </c>
+      <c r="BW113">
+        <v>6</v>
+      </c>
+      <c r="BX113">
+        <v>1775</v>
+      </c>
+      <c r="BY113">
+        <v>208</v>
+      </c>
+      <c r="BZ113">
+        <v>0</v>
+      </c>
+      <c r="CA113">
+        <v>28</v>
+      </c>
+      <c r="CB113">
+        <v>0</v>
+      </c>
+      <c r="CC113">
+        <v>0</v>
+      </c>
+      <c r="CD113">
+        <v>0</v>
+      </c>
+      <c r="CE113">
+        <v>32</v>
+      </c>
+      <c r="CF113">
+        <v>0</v>
+      </c>
+      <c r="CG113">
+        <v>102</v>
+      </c>
+      <c r="CH113">
+        <v>0</v>
+      </c>
+      <c r="CI113">
+        <v>2</v>
+      </c>
+      <c r="CJ113">
+        <v>3</v>
+      </c>
+      <c r="CK113">
+        <v>0</v>
+      </c>
+      <c r="CL113">
+        <v>5</v>
+      </c>
+      <c r="CM113">
+        <v>68</v>
+      </c>
+      <c r="CN113">
+        <v>11</v>
+      </c>
+      <c r="CO113">
+        <v>1553</v>
+      </c>
+      <c r="CP113">
+        <v>327</v>
+      </c>
+      <c r="CQ113">
+        <v>1343</v>
+      </c>
+      <c r="CR113">
+        <v>57</v>
+      </c>
+      <c r="CS113">
+        <v>493</v>
+      </c>
+      <c r="CT113">
+        <v>1</v>
+      </c>
+      <c r="CU113">
+        <v>226</v>
+      </c>
+      <c r="CV113">
+        <v>3047</v>
+      </c>
+      <c r="CW113">
+        <v>23</v>
+      </c>
+      <c r="CX113">
+        <v>390</v>
+      </c>
+      <c r="CY113">
+        <v>4</v>
+      </c>
+      <c r="CZ113">
+        <v>4</v>
+      </c>
+      <c r="DA113">
+        <v>81</v>
+      </c>
+      <c r="DB113">
+        <v>8</v>
+      </c>
+      <c r="DC113">
+        <v>0</v>
+      </c>
+      <c r="DD113">
+        <v>163</v>
+      </c>
+      <c r="DE113">
+        <v>14</v>
+      </c>
+      <c r="DF113">
+        <v>0</v>
+      </c>
+      <c r="DG113">
+        <v>15</v>
+      </c>
+      <c r="DH113">
+        <v>1</v>
+      </c>
+      <c r="DI113">
+        <v>10</v>
+      </c>
+      <c r="DJ113">
+        <v>0</v>
+      </c>
+      <c r="DK113">
+        <v>0</v>
+      </c>
+      <c r="DL113">
+        <v>28</v>
+      </c>
+      <c r="DM113">
+        <v>13</v>
+      </c>
+      <c r="DN113">
+        <v>4</v>
+      </c>
+      <c r="DO113">
+        <v>0</v>
+      </c>
+      <c r="DP113">
+        <v>84</v>
+      </c>
+      <c r="DQ113">
+        <v>17</v>
+      </c>
+      <c r="DR113">
+        <v>8</v>
+      </c>
+      <c r="DS113">
+        <v>1</v>
+      </c>
+      <c r="DT113">
+        <v>0</v>
+      </c>
+      <c r="DU113">
+        <v>3</v>
+      </c>
+      <c r="DV113">
+        <v>764</v>
+      </c>
+      <c r="DW113">
+        <v>121</v>
+      </c>
+      <c r="DX113">
+        <v>4</v>
+      </c>
+      <c r="DY113">
+        <v>1</v>
+      </c>
+      <c r="DZ113">
+        <v>1</v>
+      </c>
+      <c r="EA113">
+        <v>0</v>
+      </c>
+      <c r="EB113">
+        <v>170</v>
+      </c>
+      <c r="EC113">
+        <v>4</v>
+      </c>
+      <c r="ED113">
+        <v>4</v>
+      </c>
+      <c r="EE113">
+        <v>0</v>
+      </c>
+      <c r="EF113">
+        <v>0</v>
+      </c>
+      <c r="EG113">
+        <v>1066</v>
+      </c>
+      <c r="EH113">
+        <v>0</v>
+      </c>
+      <c r="EI113">
+        <v>7</v>
+      </c>
+      <c r="EJ113">
+        <v>0</v>
+      </c>
+      <c r="EK113">
+        <v>9</v>
+      </c>
+      <c r="EL113">
+        <v>85</v>
+      </c>
+      <c r="EM113">
+        <v>37</v>
+      </c>
+      <c r="EN113">
+        <v>0</v>
+      </c>
+      <c r="EO113">
+        <v>84</v>
+      </c>
+      <c r="EP113">
+        <v>86</v>
+      </c>
+      <c r="EQ113">
+        <v>425</v>
+      </c>
+      <c r="ER113">
+        <v>9</v>
+      </c>
+      <c r="ES113">
+        <v>194</v>
+      </c>
+      <c r="ET113">
+        <v>0</v>
+      </c>
+      <c r="EU113">
+        <v>4</v>
+      </c>
+      <c r="EV113">
+        <v>1208</v>
+      </c>
+      <c r="EW113">
+        <v>172</v>
+      </c>
+      <c r="EX113">
+        <v>545</v>
+      </c>
+      <c r="EY113">
+        <v>521</v>
+      </c>
+      <c r="EZ113">
+        <v>95</v>
+      </c>
+      <c r="FA113">
+        <v>440</v>
+      </c>
+      <c r="FB113">
+        <v>328</v>
+      </c>
+      <c r="FC113">
+        <v>6060</v>
+      </c>
+      <c r="FD113">
+        <v>3</v>
+      </c>
+      <c r="FE113">
+        <v>1</v>
+      </c>
+      <c r="FF113">
+        <v>0</v>
+      </c>
+      <c r="FG113">
+        <v>0</v>
+      </c>
+      <c r="FH113">
+        <v>6</v>
+      </c>
+      <c r="FI113">
+        <v>0</v>
+      </c>
+      <c r="FJ113">
+        <v>1088</v>
+      </c>
+      <c r="FK113">
+        <v>17</v>
+      </c>
+      <c r="FL113">
+        <v>324</v>
+      </c>
+      <c r="FM113">
+        <v>0</v>
+      </c>
+      <c r="FN113">
+        <v>5</v>
+      </c>
+      <c r="FO113">
+        <v>596</v>
+      </c>
+      <c r="FP113">
+        <v>3</v>
+      </c>
+      <c r="FQ113">
+        <v>72</v>
+      </c>
+      <c r="FR113">
+        <v>13</v>
+      </c>
+      <c r="FS113">
+        <v>29</v>
+      </c>
+      <c r="FT113">
+        <v>124</v>
+      </c>
+      <c r="FU113">
+        <v>13</v>
+      </c>
+      <c r="FV113">
+        <v>0</v>
+      </c>
+      <c r="FW113">
+        <v>4218</v>
+      </c>
+      <c r="FX113">
+        <v>41</v>
+      </c>
+      <c r="FY113">
+        <v>0</v>
+      </c>
+      <c r="FZ113">
+        <v>0</v>
+      </c>
+      <c r="GA113">
+        <v>563</v>
+      </c>
+      <c r="GB113">
+        <v>336</v>
+      </c>
+      <c r="GC113">
+        <v>1</v>
+      </c>
+      <c r="GD113">
+        <v>22</v>
+      </c>
+      <c r="GE113">
+        <v>32</v>
+      </c>
+      <c r="GF113">
+        <v>1</v>
+      </c>
+      <c r="GG113">
+        <v>0</v>
+      </c>
+      <c r="GH113">
+        <v>0</v>
+      </c>
+      <c r="GI113">
+        <v>13</v>
+      </c>
+      <c r="GJ113">
+        <v>3977</v>
+      </c>
+      <c r="GK113">
+        <v>0</v>
+      </c>
+      <c r="GL113">
+        <v>0</v>
+      </c>
+      <c r="GM113">
+        <v>261</v>
+      </c>
+      <c r="GN113">
+        <v>479</v>
+      </c>
+      <c r="GO113">
+        <v>5850</v>
+      </c>
+      <c r="GP113">
+        <v>22</v>
+      </c>
+      <c r="GQ113">
+        <v>0</v>
+      </c>
+      <c r="GR113">
+        <v>24601</v>
+      </c>
+      <c r="GS113">
+        <v>4</v>
+      </c>
+      <c r="GT113">
+        <v>70</v>
+      </c>
+      <c r="GU113">
+        <v>29</v>
+      </c>
+      <c r="GV113">
+        <v>0</v>
+      </c>
+      <c r="GW113">
+        <v>0</v>
+      </c>
+      <c r="GX113">
+        <v>4</v>
+      </c>
+      <c r="GY113">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -37500,7 +38144,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY112"/>
+  <dimension ref="A1:GY113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -51131,6 +51775,9 @@
       <c r="T65">
         <v>0</v>
       </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
       <c r="AK65">
         <v>0</v>
       </c>
@@ -51265,6 +51912,9 @@
       <c r="T66">
         <v>0</v>
       </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
       <c r="AK66">
         <v>0</v>
       </c>
@@ -51483,6 +52133,9 @@
       <c r="EY67">
         <v>0</v>
       </c>
+      <c r="FC67">
+        <v>0</v>
+      </c>
       <c r="FH67">
         <v>0</v>
       </c>
@@ -51650,6 +52303,9 @@
       <c r="FB68">
         <v>0</v>
       </c>
+      <c r="FC68">
+        <v>0</v>
+      </c>
       <c r="FH68">
         <v>0</v>
       </c>
@@ -52023,6 +52679,9 @@
       <c r="FB70">
         <v>0</v>
       </c>
+      <c r="FC70">
+        <v>0</v>
+      </c>
       <c r="FH70">
         <v>0</v>
       </c>
@@ -52217,6 +52876,9 @@
       <c r="FB71">
         <v>0</v>
       </c>
+      <c r="FC71">
+        <v>0</v>
+      </c>
       <c r="FH71">
         <v>0</v>
       </c>
@@ -52279,6 +52941,9 @@
       <c r="T72">
         <v>0</v>
       </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
       <c r="AE72">
         <v>0</v>
       </c>
@@ -52629,6 +53294,9 @@
       <c r="FB73">
         <v>0</v>
       </c>
+      <c r="FC73">
+        <v>0</v>
+      </c>
       <c r="FH73">
         <v>0</v>
       </c>
@@ -62653,7 +63321,7 @@
         <v>0</v>
       </c>
       <c r="DP94">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="DQ94">
         <v>0</v>
@@ -63255,7 +63923,7 @@
         <v>0</v>
       </c>
       <c r="DP95">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="DQ95">
         <v>0</v>
@@ -70776,7 +71444,7 @@
         <v>0</v>
       </c>
       <c r="FL107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="FM107">
         <v>0</v>
@@ -71396,7 +72064,7 @@
         <v>0</v>
       </c>
       <c r="FL108">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="FM108">
         <v>0</v>
@@ -72016,7 +72684,7 @@
         <v>0</v>
       </c>
       <c r="FL109">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="FM109">
         <v>0</v>
@@ -73993,6 +74661,626 @@
         <v>0</v>
       </c>
       <c r="GY112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:207">
+      <c r="A113" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>8</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113">
+        <v>2</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>9</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>7</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <v>230</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>1</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>1</v>
+      </c>
+      <c r="AB113">
+        <v>0</v>
+      </c>
+      <c r="AC113">
+        <v>115</v>
+      </c>
+      <c r="AD113">
+        <v>1</v>
+      </c>
+      <c r="AE113">
+        <v>0</v>
+      </c>
+      <c r="AF113">
+        <v>2</v>
+      </c>
+      <c r="AG113">
+        <v>0</v>
+      </c>
+      <c r="AH113">
+        <v>0</v>
+      </c>
+      <c r="AI113">
+        <v>0</v>
+      </c>
+      <c r="AJ113">
+        <v>21</v>
+      </c>
+      <c r="AK113">
+        <v>113</v>
+      </c>
+      <c r="AL113">
+        <v>0</v>
+      </c>
+      <c r="AN113">
+        <v>0</v>
+      </c>
+      <c r="AO113">
+        <v>0</v>
+      </c>
+      <c r="AP113">
+        <v>0</v>
+      </c>
+      <c r="AQ113">
+        <v>7</v>
+      </c>
+      <c r="AR113">
+        <v>0</v>
+      </c>
+      <c r="AS113">
+        <v>13</v>
+      </c>
+      <c r="AT113">
+        <v>0</v>
+      </c>
+      <c r="AU113">
+        <v>0</v>
+      </c>
+      <c r="AV113">
+        <v>1</v>
+      </c>
+      <c r="AW113">
+        <v>8</v>
+      </c>
+      <c r="AX113">
+        <v>2</v>
+      </c>
+      <c r="AY113">
+        <v>0</v>
+      </c>
+      <c r="AZ113">
+        <v>0</v>
+      </c>
+      <c r="BA113">
+        <v>7</v>
+      </c>
+      <c r="BB113">
+        <v>0</v>
+      </c>
+      <c r="BC113">
+        <v>9</v>
+      </c>
+      <c r="BD113">
+        <v>0</v>
+      </c>
+      <c r="BE113">
+        <v>0</v>
+      </c>
+      <c r="BF113">
+        <v>9</v>
+      </c>
+      <c r="BG113">
+        <v>18</v>
+      </c>
+      <c r="BH113">
+        <v>15</v>
+      </c>
+      <c r="BI113">
+        <v>0</v>
+      </c>
+      <c r="BJ113">
+        <v>0</v>
+      </c>
+      <c r="BK113">
+        <v>0</v>
+      </c>
+      <c r="BL113">
+        <v>2</v>
+      </c>
+      <c r="BM113">
+        <v>0</v>
+      </c>
+      <c r="BN113">
+        <v>0</v>
+      </c>
+      <c r="BO113">
+        <v>0</v>
+      </c>
+      <c r="BP113">
+        <v>0</v>
+      </c>
+      <c r="BQ113">
+        <v>0</v>
+      </c>
+      <c r="BR113">
+        <v>4</v>
+      </c>
+      <c r="BS113">
+        <v>395</v>
+      </c>
+      <c r="BT113">
+        <v>0</v>
+      </c>
+      <c r="BU113">
+        <v>0</v>
+      </c>
+      <c r="BV113">
+        <v>0</v>
+      </c>
+      <c r="BW113">
+        <v>0</v>
+      </c>
+      <c r="BX113">
+        <v>110</v>
+      </c>
+      <c r="BY113">
+        <v>0</v>
+      </c>
+      <c r="BZ113">
+        <v>0</v>
+      </c>
+      <c r="CA113">
+        <v>5</v>
+      </c>
+      <c r="CB113">
+        <v>0</v>
+      </c>
+      <c r="CC113">
+        <v>0</v>
+      </c>
+      <c r="CD113">
+        <v>0</v>
+      </c>
+      <c r="CE113">
+        <v>0</v>
+      </c>
+      <c r="CF113">
+        <v>0</v>
+      </c>
+      <c r="CG113">
+        <v>2</v>
+      </c>
+      <c r="CH113">
+        <v>0</v>
+      </c>
+      <c r="CI113">
+        <v>0</v>
+      </c>
+      <c r="CJ113">
+        <v>0</v>
+      </c>
+      <c r="CK113">
+        <v>0</v>
+      </c>
+      <c r="CL113">
+        <v>0</v>
+      </c>
+      <c r="CM113">
+        <v>10</v>
+      </c>
+      <c r="CN113">
+        <v>0</v>
+      </c>
+      <c r="CO113">
+        <v>36</v>
+      </c>
+      <c r="CP113">
+        <v>47</v>
+      </c>
+      <c r="CQ113">
+        <v>87</v>
+      </c>
+      <c r="CR113">
+        <v>1</v>
+      </c>
+      <c r="CS113">
+        <v>39</v>
+      </c>
+      <c r="CT113">
+        <v>0</v>
+      </c>
+      <c r="CU113">
+        <v>8</v>
+      </c>
+      <c r="CV113">
+        <v>433</v>
+      </c>
+      <c r="CW113">
+        <v>0</v>
+      </c>
+      <c r="CX113">
+        <v>10</v>
+      </c>
+      <c r="CY113">
+        <v>0</v>
+      </c>
+      <c r="CZ113">
+        <v>0</v>
+      </c>
+      <c r="DA113">
+        <v>2</v>
+      </c>
+      <c r="DB113">
+        <v>2</v>
+      </c>
+      <c r="DC113">
+        <v>0</v>
+      </c>
+      <c r="DD113">
+        <v>1</v>
+      </c>
+      <c r="DE113">
+        <v>2</v>
+      </c>
+      <c r="DF113">
+        <v>0</v>
+      </c>
+      <c r="DG113">
+        <v>0</v>
+      </c>
+      <c r="DH113">
+        <v>0</v>
+      </c>
+      <c r="DI113">
+        <v>1</v>
+      </c>
+      <c r="DJ113">
+        <v>0</v>
+      </c>
+      <c r="DK113">
+        <v>0</v>
+      </c>
+      <c r="DL113">
+        <v>3</v>
+      </c>
+      <c r="DM113">
+        <v>1</v>
+      </c>
+      <c r="DN113">
+        <v>0</v>
+      </c>
+      <c r="DO113">
+        <v>0</v>
+      </c>
+      <c r="DP113">
+        <v>1</v>
+      </c>
+      <c r="DQ113">
+        <v>0</v>
+      </c>
+      <c r="DR113">
+        <v>1</v>
+      </c>
+      <c r="DS113">
+        <v>0</v>
+      </c>
+      <c r="DT113">
+        <v>0</v>
+      </c>
+      <c r="DU113">
+        <v>0</v>
+      </c>
+      <c r="DV113">
+        <v>36</v>
+      </c>
+      <c r="DW113">
+        <v>7</v>
+      </c>
+      <c r="DX113">
+        <v>0</v>
+      </c>
+      <c r="DY113">
+        <v>0</v>
+      </c>
+      <c r="DZ113">
+        <v>0</v>
+      </c>
+      <c r="EA113">
+        <v>0</v>
+      </c>
+      <c r="EB113">
+        <v>4</v>
+      </c>
+      <c r="EC113">
+        <v>0</v>
+      </c>
+      <c r="ED113">
+        <v>0</v>
+      </c>
+      <c r="EE113">
+        <v>0</v>
+      </c>
+      <c r="EF113">
+        <v>0</v>
+      </c>
+      <c r="EG113">
+        <v>83</v>
+      </c>
+      <c r="EH113">
+        <v>0</v>
+      </c>
+      <c r="EI113">
+        <v>0</v>
+      </c>
+      <c r="EJ113">
+        <v>0</v>
+      </c>
+      <c r="EK113">
+        <v>1</v>
+      </c>
+      <c r="EL113">
+        <v>2</v>
+      </c>
+      <c r="EM113">
+        <v>2</v>
+      </c>
+      <c r="EN113">
+        <v>0</v>
+      </c>
+      <c r="EO113">
+        <v>6</v>
+      </c>
+      <c r="EP113">
+        <v>1</v>
+      </c>
+      <c r="EQ113">
+        <v>17</v>
+      </c>
+      <c r="ER113">
+        <v>0</v>
+      </c>
+      <c r="ES113">
+        <v>6</v>
+      </c>
+      <c r="ET113">
+        <v>0</v>
+      </c>
+      <c r="EU113">
+        <v>0</v>
+      </c>
+      <c r="EV113">
+        <v>52</v>
+      </c>
+      <c r="EW113">
+        <v>12</v>
+      </c>
+      <c r="EX113">
+        <v>13</v>
+      </c>
+      <c r="EY113">
+        <v>27</v>
+      </c>
+      <c r="EZ113">
+        <v>2</v>
+      </c>
+      <c r="FA113">
+        <v>0</v>
+      </c>
+      <c r="FB113">
+        <v>17</v>
+      </c>
+      <c r="FC113">
+        <v>48</v>
+      </c>
+      <c r="FD113">
+        <v>0</v>
+      </c>
+      <c r="FE113">
+        <v>0</v>
+      </c>
+      <c r="FF113">
+        <v>0</v>
+      </c>
+      <c r="FG113">
+        <v>0</v>
+      </c>
+      <c r="FH113">
+        <v>0</v>
+      </c>
+      <c r="FI113">
+        <v>0</v>
+      </c>
+      <c r="FJ113">
+        <v>5</v>
+      </c>
+      <c r="FK113">
+        <v>1</v>
+      </c>
+      <c r="FL113">
+        <v>5</v>
+      </c>
+      <c r="FM113">
+        <v>0</v>
+      </c>
+      <c r="FN113">
+        <v>0</v>
+      </c>
+      <c r="FO113">
+        <v>0</v>
+      </c>
+      <c r="FP113">
+        <v>1</v>
+      </c>
+      <c r="FQ113">
+        <v>1</v>
+      </c>
+      <c r="FR113">
+        <v>4</v>
+      </c>
+      <c r="FS113">
+        <v>0</v>
+      </c>
+      <c r="FT113">
+        <v>2</v>
+      </c>
+      <c r="FU113">
+        <v>2</v>
+      </c>
+      <c r="FV113">
+        <v>0</v>
+      </c>
+      <c r="FW113">
+        <v>410</v>
+      </c>
+      <c r="FX113">
+        <v>0</v>
+      </c>
+      <c r="FY113">
+        <v>0</v>
+      </c>
+      <c r="FZ113">
+        <v>0</v>
+      </c>
+      <c r="GA113">
+        <v>29</v>
+      </c>
+      <c r="GB113">
+        <v>24</v>
+      </c>
+      <c r="GC113">
+        <v>1</v>
+      </c>
+      <c r="GD113">
+        <v>0</v>
+      </c>
+      <c r="GE113">
+        <v>0</v>
+      </c>
+      <c r="GF113">
+        <v>0</v>
+      </c>
+      <c r="GG113">
+        <v>0</v>
+      </c>
+      <c r="GH113">
+        <v>0</v>
+      </c>
+      <c r="GI113">
+        <v>1</v>
+      </c>
+      <c r="GJ113">
+        <v>127</v>
+      </c>
+      <c r="GK113">
+        <v>0</v>
+      </c>
+      <c r="GL113">
+        <v>0</v>
+      </c>
+      <c r="GM113">
+        <v>10</v>
+      </c>
+      <c r="GN113">
+        <v>4</v>
+      </c>
+      <c r="GO113">
+        <v>596</v>
+      </c>
+      <c r="GP113">
+        <v>0</v>
+      </c>
+      <c r="GQ113">
+        <v>0</v>
+      </c>
+      <c r="GR113">
+        <v>1772</v>
+      </c>
+      <c r="GS113">
+        <v>1</v>
+      </c>
+      <c r="GT113">
+        <v>0</v>
+      </c>
+      <c r="GU113">
+        <v>0</v>
+      </c>
+      <c r="GV113">
+        <v>0</v>
+      </c>
+      <c r="GW113">
+        <v>0</v>
+      </c>
+      <c r="GX113">
+        <v>1</v>
+      </c>
+      <c r="GY113">
         <v>0</v>
       </c>
     </row>

--- a/ecdc_csv/data/ecdc_csv_diff.xlsx
+++ b/ecdc_csv/data/ecdc_csv_diff.xlsx
@@ -997,7 +997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY113"/>
+  <dimension ref="A1:GY114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -38137,6 +38137,626 @@
         <v>0</v>
       </c>
     </row>
+    <row r="114" spans="1:207">
+      <c r="A114" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B114">
+        <v>35</v>
+      </c>
+      <c r="C114">
+        <v>22</v>
+      </c>
+      <c r="D114">
+        <v>89</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>90</v>
+      </c>
+      <c r="J114">
+        <v>62</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>13</v>
+      </c>
+      <c r="M114">
+        <v>73</v>
+      </c>
+      <c r="N114">
+        <v>38</v>
+      </c>
+      <c r="O114">
+        <v>4</v>
+      </c>
+      <c r="P114">
+        <v>34</v>
+      </c>
+      <c r="Q114">
+        <v>492</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>1485</v>
+      </c>
+      <c r="T114">
+        <v>1487</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>17</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>1</v>
+      </c>
+      <c r="Y114">
+        <v>34</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>216</v>
+      </c>
+      <c r="AB114">
+        <v>0</v>
+      </c>
+      <c r="AC114">
+        <v>1927</v>
+      </c>
+      <c r="AD114">
+        <v>1</v>
+      </c>
+      <c r="AE114">
+        <v>0</v>
+      </c>
+      <c r="AF114">
+        <v>14</v>
+      </c>
+      <c r="AG114">
+        <v>5</v>
+      </c>
+      <c r="AH114">
+        <v>0</v>
+      </c>
+      <c r="AI114">
+        <v>0</v>
+      </c>
+      <c r="AJ114">
+        <v>1</v>
+      </c>
+      <c r="AK114">
+        <v>2046</v>
+      </c>
+      <c r="AL114">
+        <v>6</v>
+      </c>
+      <c r="AN114">
+        <v>5</v>
+      </c>
+      <c r="AO114">
+        <v>0</v>
+      </c>
+      <c r="AP114">
+        <v>0</v>
+      </c>
+      <c r="AQ114">
+        <v>419</v>
+      </c>
+      <c r="AR114">
+        <v>32</v>
+      </c>
+      <c r="AS114">
+        <v>185</v>
+      </c>
+      <c r="AT114">
+        <v>0</v>
+      </c>
+      <c r="AU114">
+        <v>2</v>
+      </c>
+      <c r="AV114">
+        <v>32</v>
+      </c>
+      <c r="AW114">
+        <v>10</v>
+      </c>
+      <c r="AX114">
+        <v>52</v>
+      </c>
+      <c r="AY114">
+        <v>0</v>
+      </c>
+      <c r="AZ114">
+        <v>5</v>
+      </c>
+      <c r="BA114">
+        <v>127</v>
+      </c>
+      <c r="BB114">
+        <v>18</v>
+      </c>
+      <c r="BC114">
+        <v>131</v>
+      </c>
+      <c r="BD114">
+        <v>0</v>
+      </c>
+      <c r="BE114">
+        <v>0</v>
+      </c>
+      <c r="BF114">
+        <v>284</v>
+      </c>
+      <c r="BG114">
+        <v>660</v>
+      </c>
+      <c r="BH114">
+        <v>189</v>
+      </c>
+      <c r="BI114">
+        <v>17</v>
+      </c>
+      <c r="BJ114">
+        <v>0</v>
+      </c>
+      <c r="BK114">
+        <v>0</v>
+      </c>
+      <c r="BL114">
+        <v>7</v>
+      </c>
+      <c r="BM114">
+        <v>2</v>
+      </c>
+      <c r="BN114">
+        <v>3</v>
+      </c>
+      <c r="BO114">
+        <v>0</v>
+      </c>
+      <c r="BP114">
+        <v>0</v>
+      </c>
+      <c r="BQ114">
+        <v>1</v>
+      </c>
+      <c r="BR114">
+        <v>85</v>
+      </c>
+      <c r="BS114">
+        <v>2051</v>
+      </c>
+      <c r="BT114">
+        <v>1</v>
+      </c>
+      <c r="BU114">
+        <v>11</v>
+      </c>
+      <c r="BV114">
+        <v>0</v>
+      </c>
+      <c r="BW114">
+        <v>8</v>
+      </c>
+      <c r="BX114">
+        <v>1785</v>
+      </c>
+      <c r="BY114">
+        <v>0</v>
+      </c>
+      <c r="BZ114">
+        <v>0</v>
+      </c>
+      <c r="CA114">
+        <v>10</v>
+      </c>
+      <c r="CB114">
+        <v>0</v>
+      </c>
+      <c r="CC114">
+        <v>0</v>
+      </c>
+      <c r="CD114">
+        <v>0</v>
+      </c>
+      <c r="CE114">
+        <v>5</v>
+      </c>
+      <c r="CF114">
+        <v>0</v>
+      </c>
+      <c r="CG114">
+        <v>43</v>
+      </c>
+      <c r="CH114">
+        <v>0</v>
+      </c>
+      <c r="CI114">
+        <v>1</v>
+      </c>
+      <c r="CJ114">
+        <v>10</v>
+      </c>
+      <c r="CK114">
+        <v>1</v>
+      </c>
+      <c r="CL114">
+        <v>17</v>
+      </c>
+      <c r="CM114">
+        <v>114</v>
+      </c>
+      <c r="CN114">
+        <v>2</v>
+      </c>
+      <c r="CO114">
+        <v>1335</v>
+      </c>
+      <c r="CP114">
+        <v>185</v>
+      </c>
+      <c r="CQ114">
+        <v>1294</v>
+      </c>
+      <c r="CR114">
+        <v>35</v>
+      </c>
+      <c r="CS114">
+        <v>401</v>
+      </c>
+      <c r="CT114">
+        <v>2</v>
+      </c>
+      <c r="CU114">
+        <v>222</v>
+      </c>
+      <c r="CV114">
+        <v>2256</v>
+      </c>
+      <c r="CW114">
+        <v>27</v>
+      </c>
+      <c r="CX114">
+        <v>367</v>
+      </c>
+      <c r="CY114">
+        <v>0</v>
+      </c>
+      <c r="CZ114">
+        <v>8</v>
+      </c>
+      <c r="DA114">
+        <v>214</v>
+      </c>
+      <c r="DB114">
+        <v>11</v>
+      </c>
+      <c r="DC114">
+        <v>88</v>
+      </c>
+      <c r="DD114">
+        <v>80</v>
+      </c>
+      <c r="DE114">
+        <v>22</v>
+      </c>
+      <c r="DF114">
+        <v>0</v>
+      </c>
+      <c r="DG114">
+        <v>12</v>
+      </c>
+      <c r="DH114">
+        <v>4</v>
+      </c>
+      <c r="DI114">
+        <v>8</v>
+      </c>
+      <c r="DJ114">
+        <v>2</v>
+      </c>
+      <c r="DK114">
+        <v>0</v>
+      </c>
+      <c r="DL114">
+        <v>24</v>
+      </c>
+      <c r="DM114">
+        <v>8</v>
+      </c>
+      <c r="DN114">
+        <v>0</v>
+      </c>
+      <c r="DO114">
+        <v>0</v>
+      </c>
+      <c r="DP114">
+        <v>36</v>
+      </c>
+      <c r="DQ114">
+        <v>17</v>
+      </c>
+      <c r="DR114">
+        <v>22</v>
+      </c>
+      <c r="DS114">
+        <v>4</v>
+      </c>
+      <c r="DT114">
+        <v>0</v>
+      </c>
+      <c r="DU114">
+        <v>0</v>
+      </c>
+      <c r="DV114">
+        <v>511</v>
+      </c>
+      <c r="DW114">
+        <v>76</v>
+      </c>
+      <c r="DX114">
+        <v>0</v>
+      </c>
+      <c r="DY114">
+        <v>2</v>
+      </c>
+      <c r="DZ114">
+        <v>4</v>
+      </c>
+      <c r="EA114">
+        <v>0</v>
+      </c>
+      <c r="EB114">
+        <v>191</v>
+      </c>
+      <c r="EC114">
+        <v>0</v>
+      </c>
+      <c r="ED114">
+        <v>8</v>
+      </c>
+      <c r="EE114">
+        <v>0</v>
+      </c>
+      <c r="EF114">
+        <v>0</v>
+      </c>
+      <c r="EG114">
+        <v>750</v>
+      </c>
+      <c r="EH114">
+        <v>0</v>
+      </c>
+      <c r="EI114">
+        <v>2</v>
+      </c>
+      <c r="EJ114">
+        <v>1</v>
+      </c>
+      <c r="EK114">
+        <v>7</v>
+      </c>
+      <c r="EL114">
+        <v>38</v>
+      </c>
+      <c r="EM114">
+        <v>18</v>
+      </c>
+      <c r="EN114">
+        <v>0</v>
+      </c>
+      <c r="EO114">
+        <v>45</v>
+      </c>
+      <c r="EP114">
+        <v>242</v>
+      </c>
+      <c r="EQ114">
+        <v>798</v>
+      </c>
+      <c r="ER114">
+        <v>7</v>
+      </c>
+      <c r="ES114">
+        <v>191</v>
+      </c>
+      <c r="ET114">
+        <v>0</v>
+      </c>
+      <c r="EU114">
+        <v>2</v>
+      </c>
+      <c r="EV114">
+        <v>697</v>
+      </c>
+      <c r="EW114">
+        <v>200</v>
+      </c>
+      <c r="EX114">
+        <v>306</v>
+      </c>
+      <c r="EY114">
+        <v>657</v>
+      </c>
+      <c r="EZ114">
+        <v>39</v>
+      </c>
+      <c r="FA114">
+        <v>567</v>
+      </c>
+      <c r="FB114">
+        <v>190</v>
+      </c>
+      <c r="FC114">
+        <v>4268</v>
+      </c>
+      <c r="FD114">
+        <v>0</v>
+      </c>
+      <c r="FE114">
+        <v>0</v>
+      </c>
+      <c r="FF114">
+        <v>0</v>
+      </c>
+      <c r="FG114">
+        <v>0</v>
+      </c>
+      <c r="FH114">
+        <v>1</v>
+      </c>
+      <c r="FI114">
+        <v>0</v>
+      </c>
+      <c r="FJ114">
+        <v>1122</v>
+      </c>
+      <c r="FK114">
+        <v>10</v>
+      </c>
+      <c r="FL114">
+        <v>312</v>
+      </c>
+      <c r="FM114">
+        <v>0</v>
+      </c>
+      <c r="FN114">
+        <v>8</v>
+      </c>
+      <c r="FO114">
+        <v>0</v>
+      </c>
+      <c r="FP114">
+        <v>1</v>
+      </c>
+      <c r="FQ114">
+        <v>12</v>
+      </c>
+      <c r="FR114">
+        <v>5</v>
+      </c>
+      <c r="FS114">
+        <v>73</v>
+      </c>
+      <c r="FT114">
+        <v>142</v>
+      </c>
+      <c r="FU114">
+        <v>9</v>
+      </c>
+      <c r="FV114">
+        <v>0</v>
+      </c>
+      <c r="FW114">
+        <v>4266</v>
+      </c>
+      <c r="FX114">
+        <v>9</v>
+      </c>
+      <c r="FY114">
+        <v>26</v>
+      </c>
+      <c r="FZ114">
+        <v>0</v>
+      </c>
+      <c r="GA114">
+        <v>392</v>
+      </c>
+      <c r="GB114">
+        <v>168</v>
+      </c>
+      <c r="GC114">
+        <v>0</v>
+      </c>
+      <c r="GD114">
+        <v>2</v>
+      </c>
+      <c r="GE114">
+        <v>27</v>
+      </c>
+      <c r="GF114">
+        <v>3</v>
+      </c>
+      <c r="GG114">
+        <v>0</v>
+      </c>
+      <c r="GH114">
+        <v>0</v>
+      </c>
+      <c r="GI114">
+        <v>5</v>
+      </c>
+      <c r="GJ114">
+        <v>4674</v>
+      </c>
+      <c r="GK114">
+        <v>0</v>
+      </c>
+      <c r="GL114">
+        <v>1</v>
+      </c>
+      <c r="GM114">
+        <v>415</v>
+      </c>
+      <c r="GN114">
+        <v>484</v>
+      </c>
+      <c r="GO114">
+        <v>4676</v>
+      </c>
+      <c r="GP114">
+        <v>0</v>
+      </c>
+      <c r="GQ114">
+        <v>1</v>
+      </c>
+      <c r="GR114">
+        <v>28065</v>
+      </c>
+      <c r="GS114">
+        <v>10</v>
+      </c>
+      <c r="GT114">
+        <v>92</v>
+      </c>
+      <c r="GU114">
+        <v>0</v>
+      </c>
+      <c r="GV114">
+        <v>0</v>
+      </c>
+      <c r="GW114">
+        <v>0</v>
+      </c>
+      <c r="GX114">
+        <v>4</v>
+      </c>
+      <c r="GY114">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38144,7 +38764,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY113"/>
+  <dimension ref="A1:GY114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -75284,6 +75904,626 @@
         <v>0</v>
       </c>
     </row>
+    <row r="114" spans="1:207">
+      <c r="A114" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>9</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>8</v>
+      </c>
+      <c r="J114">
+        <v>2</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>18</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>10</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>4</v>
+      </c>
+      <c r="T114">
+        <v>145</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>1</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>2</v>
+      </c>
+      <c r="AB114">
+        <v>0</v>
+      </c>
+      <c r="AC114">
+        <v>113</v>
+      </c>
+      <c r="AD114">
+        <v>0</v>
+      </c>
+      <c r="AE114">
+        <v>0</v>
+      </c>
+      <c r="AF114">
+        <v>0</v>
+      </c>
+      <c r="AG114">
+        <v>2</v>
+      </c>
+      <c r="AH114">
+        <v>0</v>
+      </c>
+      <c r="AI114">
+        <v>0</v>
+      </c>
+      <c r="AJ114">
+        <v>0</v>
+      </c>
+      <c r="AK114">
+        <v>110</v>
+      </c>
+      <c r="AL114">
+        <v>0</v>
+      </c>
+      <c r="AN114">
+        <v>0</v>
+      </c>
+      <c r="AO114">
+        <v>0</v>
+      </c>
+      <c r="AP114">
+        <v>0</v>
+      </c>
+      <c r="AQ114">
+        <v>6</v>
+      </c>
+      <c r="AR114">
+        <v>0</v>
+      </c>
+      <c r="AS114">
+        <v>10</v>
+      </c>
+      <c r="AT114">
+        <v>0</v>
+      </c>
+      <c r="AU114">
+        <v>2</v>
+      </c>
+      <c r="AV114">
+        <v>1</v>
+      </c>
+      <c r="AW114">
+        <v>0</v>
+      </c>
+      <c r="AX114">
+        <v>2</v>
+      </c>
+      <c r="AY114">
+        <v>0</v>
+      </c>
+      <c r="AZ114">
+        <v>0</v>
+      </c>
+      <c r="BA114">
+        <v>8</v>
+      </c>
+      <c r="BB114">
+        <v>0</v>
+      </c>
+      <c r="BC114">
+        <v>9</v>
+      </c>
+      <c r="BD114">
+        <v>0</v>
+      </c>
+      <c r="BE114">
+        <v>0</v>
+      </c>
+      <c r="BF114">
+        <v>9</v>
+      </c>
+      <c r="BG114">
+        <v>33</v>
+      </c>
+      <c r="BH114">
+        <v>11</v>
+      </c>
+      <c r="BI114">
+        <v>0</v>
+      </c>
+      <c r="BJ114">
+        <v>0</v>
+      </c>
+      <c r="BK114">
+        <v>0</v>
+      </c>
+      <c r="BL114">
+        <v>0</v>
+      </c>
+      <c r="BM114">
+        <v>0</v>
+      </c>
+      <c r="BN114">
+        <v>0</v>
+      </c>
+      <c r="BO114">
+        <v>0</v>
+      </c>
+      <c r="BP114">
+        <v>0</v>
+      </c>
+      <c r="BQ114">
+        <v>0</v>
+      </c>
+      <c r="BR114">
+        <v>4</v>
+      </c>
+      <c r="BS114">
+        <v>547</v>
+      </c>
+      <c r="BT114">
+        <v>0</v>
+      </c>
+      <c r="BU114">
+        <v>0</v>
+      </c>
+      <c r="BV114">
+        <v>0</v>
+      </c>
+      <c r="BW114">
+        <v>0</v>
+      </c>
+      <c r="BX114">
+        <v>194</v>
+      </c>
+      <c r="BY114">
+        <v>0</v>
+      </c>
+      <c r="BZ114">
+        <v>0</v>
+      </c>
+      <c r="CA114">
+        <v>6</v>
+      </c>
+      <c r="CB114">
+        <v>0</v>
+      </c>
+      <c r="CC114">
+        <v>0</v>
+      </c>
+      <c r="CD114">
+        <v>0</v>
+      </c>
+      <c r="CE114">
+        <v>0</v>
+      </c>
+      <c r="CF114">
+        <v>1</v>
+      </c>
+      <c r="CG114">
+        <v>0</v>
+      </c>
+      <c r="CH114">
+        <v>0</v>
+      </c>
+      <c r="CI114">
+        <v>0</v>
+      </c>
+      <c r="CJ114">
+        <v>0</v>
+      </c>
+      <c r="CK114">
+        <v>0</v>
+      </c>
+      <c r="CL114">
+        <v>0</v>
+      </c>
+      <c r="CM114">
+        <v>14</v>
+      </c>
+      <c r="CN114">
+        <v>1</v>
+      </c>
+      <c r="CO114">
+        <v>47</v>
+      </c>
+      <c r="CP114">
+        <v>8</v>
+      </c>
+      <c r="CQ114">
+        <v>91</v>
+      </c>
+      <c r="CR114">
+        <v>0</v>
+      </c>
+      <c r="CS114">
+        <v>77</v>
+      </c>
+      <c r="CT114">
+        <v>3</v>
+      </c>
+      <c r="CU114">
+        <v>5</v>
+      </c>
+      <c r="CV114">
+        <v>454</v>
+      </c>
+      <c r="CW114">
+        <v>1</v>
+      </c>
+      <c r="CX114">
+        <v>15</v>
+      </c>
+      <c r="CY114">
+        <v>2</v>
+      </c>
+      <c r="CZ114">
+        <v>0</v>
+      </c>
+      <c r="DA114">
+        <v>0</v>
+      </c>
+      <c r="DB114">
+        <v>0</v>
+      </c>
+      <c r="DC114">
+        <v>3</v>
+      </c>
+      <c r="DD114">
+        <v>2</v>
+      </c>
+      <c r="DE114">
+        <v>0</v>
+      </c>
+      <c r="DF114">
+        <v>0</v>
+      </c>
+      <c r="DG114">
+        <v>0</v>
+      </c>
+      <c r="DH114">
+        <v>0</v>
+      </c>
+      <c r="DI114">
+        <v>0</v>
+      </c>
+      <c r="DJ114">
+        <v>0</v>
+      </c>
+      <c r="DK114">
+        <v>0</v>
+      </c>
+      <c r="DL114">
+        <v>1</v>
+      </c>
+      <c r="DM114">
+        <v>2</v>
+      </c>
+      <c r="DN114">
+        <v>0</v>
+      </c>
+      <c r="DO114">
+        <v>0</v>
+      </c>
+      <c r="DP114">
+        <v>0</v>
+      </c>
+      <c r="DQ114">
+        <v>0</v>
+      </c>
+      <c r="DR114">
+        <v>0</v>
+      </c>
+      <c r="DS114">
+        <v>0</v>
+      </c>
+      <c r="DT114">
+        <v>0</v>
+      </c>
+      <c r="DU114">
+        <v>0</v>
+      </c>
+      <c r="DV114">
+        <v>26</v>
+      </c>
+      <c r="DW114">
+        <v>3</v>
+      </c>
+      <c r="DX114">
+        <v>0</v>
+      </c>
+      <c r="DY114">
+        <v>0</v>
+      </c>
+      <c r="DZ114">
+        <v>0</v>
+      </c>
+      <c r="EA114">
+        <v>0</v>
+      </c>
+      <c r="EB114">
+        <v>2</v>
+      </c>
+      <c r="EC114">
+        <v>0</v>
+      </c>
+      <c r="ED114">
+        <v>0</v>
+      </c>
+      <c r="EE114">
+        <v>0</v>
+      </c>
+      <c r="EF114">
+        <v>0</v>
+      </c>
+      <c r="EG114">
+        <v>67</v>
+      </c>
+      <c r="EH114">
+        <v>0</v>
+      </c>
+      <c r="EI114">
+        <v>1</v>
+      </c>
+      <c r="EJ114">
+        <v>1</v>
+      </c>
+      <c r="EK114">
+        <v>0</v>
+      </c>
+      <c r="EL114">
+        <v>1</v>
+      </c>
+      <c r="EM114">
+        <v>3</v>
+      </c>
+      <c r="EN114">
+        <v>0</v>
+      </c>
+      <c r="EO114">
+        <v>0</v>
+      </c>
+      <c r="EP114">
+        <v>1</v>
+      </c>
+      <c r="EQ114">
+        <v>16</v>
+      </c>
+      <c r="ER114">
+        <v>0</v>
+      </c>
+      <c r="ES114">
+        <v>10</v>
+      </c>
+      <c r="ET114">
+        <v>0</v>
+      </c>
+      <c r="EU114">
+        <v>0</v>
+      </c>
+      <c r="EV114">
+        <v>45</v>
+      </c>
+      <c r="EW114">
+        <v>19</v>
+      </c>
+      <c r="EX114">
+        <v>20</v>
+      </c>
+      <c r="EY114">
+        <v>21</v>
+      </c>
+      <c r="EZ114">
+        <v>1</v>
+      </c>
+      <c r="FA114">
+        <v>1</v>
+      </c>
+      <c r="FB114">
+        <v>17</v>
+      </c>
+      <c r="FC114">
+        <v>44</v>
+      </c>
+      <c r="FD114">
+        <v>0</v>
+      </c>
+      <c r="FE114">
+        <v>0</v>
+      </c>
+      <c r="FF114">
+        <v>0</v>
+      </c>
+      <c r="FG114">
+        <v>0</v>
+      </c>
+      <c r="FH114">
+        <v>0</v>
+      </c>
+      <c r="FI114">
+        <v>0</v>
+      </c>
+      <c r="FJ114">
+        <v>6</v>
+      </c>
+      <c r="FK114">
+        <v>1</v>
+      </c>
+      <c r="FL114">
+        <v>3</v>
+      </c>
+      <c r="FM114">
+        <v>0</v>
+      </c>
+      <c r="FN114">
+        <v>0</v>
+      </c>
+      <c r="FO114">
+        <v>0</v>
+      </c>
+      <c r="FP114">
+        <v>0</v>
+      </c>
+      <c r="FQ114">
+        <v>1</v>
+      </c>
+      <c r="FR114">
+        <v>0</v>
+      </c>
+      <c r="FS114">
+        <v>1</v>
+      </c>
+      <c r="FT114">
+        <v>4</v>
+      </c>
+      <c r="FU114">
+        <v>1</v>
+      </c>
+      <c r="FV114">
+        <v>0</v>
+      </c>
+      <c r="FW114">
+        <v>399</v>
+      </c>
+      <c r="FX114">
+        <v>0</v>
+      </c>
+      <c r="FY114">
+        <v>2</v>
+      </c>
+      <c r="FZ114">
+        <v>0</v>
+      </c>
+      <c r="GA114">
+        <v>40</v>
+      </c>
+      <c r="GB114">
+        <v>7</v>
+      </c>
+      <c r="GC114">
+        <v>0</v>
+      </c>
+      <c r="GD114">
+        <v>0</v>
+      </c>
+      <c r="GE114">
+        <v>0</v>
+      </c>
+      <c r="GF114">
+        <v>0</v>
+      </c>
+      <c r="GG114">
+        <v>1</v>
+      </c>
+      <c r="GH114">
+        <v>0</v>
+      </c>
+      <c r="GI114">
+        <v>0</v>
+      </c>
+      <c r="GJ114">
+        <v>123</v>
+      </c>
+      <c r="GK114">
+        <v>0</v>
+      </c>
+      <c r="GL114">
+        <v>0</v>
+      </c>
+      <c r="GM114">
+        <v>10</v>
+      </c>
+      <c r="GN114">
+        <v>2</v>
+      </c>
+      <c r="GO114">
+        <v>449</v>
+      </c>
+      <c r="GP114">
+        <v>0</v>
+      </c>
+      <c r="GQ114">
+        <v>0</v>
+      </c>
+      <c r="GR114">
+        <v>1857</v>
+      </c>
+      <c r="GS114">
+        <v>0</v>
+      </c>
+      <c r="GT114">
+        <v>0</v>
+      </c>
+      <c r="GU114">
+        <v>0</v>
+      </c>
+      <c r="GV114">
+        <v>0</v>
+      </c>
+      <c r="GW114">
+        <v>0</v>
+      </c>
+      <c r="GX114">
+        <v>0</v>
+      </c>
+      <c r="GY114">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ecdc_csv/data/ecdc_csv_diff.xlsx
+++ b/ecdc_csv/data/ecdc_csv_diff.xlsx
@@ -997,7 +997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY114"/>
+  <dimension ref="A1:GY116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -19954,7 +19954,7 @@
         <v>14</v>
       </c>
       <c r="EJ83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK83">
         <v>1</v>
@@ -21017,7 +21017,7 @@
         <v>36</v>
       </c>
       <c r="EJ85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK85">
         <v>0</v>
@@ -24467,7 +24467,7 @@
         <v>60</v>
       </c>
       <c r="EJ91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EK91">
         <v>0</v>
@@ -24638,7 +24638,7 @@
         <v>19979</v>
       </c>
       <c r="GS91">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="GT91">
         <v>29</v>
@@ -25228,7 +25228,7 @@
         <v>18360</v>
       </c>
       <c r="GS92">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="GT92">
         <v>12</v>
@@ -25641,7 +25641,7 @@
         <v>95</v>
       </c>
       <c r="EJ93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK93">
         <v>10</v>
@@ -25809,7 +25809,7 @@
         <v>21595</v>
       </c>
       <c r="GS93">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="GT93">
         <v>4</v>
@@ -26231,7 +26231,7 @@
         <v>0</v>
       </c>
       <c r="EJ94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK94">
         <v>0</v>
@@ -26408,7 +26408,7 @@
         <v>24998</v>
       </c>
       <c r="GS94">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="GT94">
         <v>24</v>
@@ -26836,7 +26836,7 @@
         <v>76</v>
       </c>
       <c r="EJ95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK95">
         <v>54</v>
@@ -27013,7 +27013,7 @@
         <v>27103</v>
       </c>
       <c r="GS95">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="GT95">
         <v>14</v>
@@ -27621,7 +27621,7 @@
         <v>28819</v>
       </c>
       <c r="GS96">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="GT96">
         <v>3</v>
@@ -28232,7 +28232,7 @@
         <v>32425</v>
       </c>
       <c r="GS97">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="GT97">
         <v>37</v>
@@ -28840,7 +28840,7 @@
         <v>34272</v>
       </c>
       <c r="GS98">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="GT98">
         <v>39</v>
@@ -29454,7 +29454,7 @@
         <v>25398</v>
       </c>
       <c r="GS99">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="GT99">
         <v>76</v>
@@ -30068,7 +30068,7 @@
         <v>30561</v>
       </c>
       <c r="GS100">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="GT100">
         <v>55</v>
@@ -30682,7 +30682,7 @@
         <v>30613</v>
       </c>
       <c r="GS101">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="GT101">
         <v>107</v>
@@ -31299,7 +31299,7 @@
         <v>33323</v>
       </c>
       <c r="GS102">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="GT102">
         <v>51</v>
@@ -31916,7 +31916,7 @@
         <v>33901</v>
       </c>
       <c r="GS103">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="GT103">
         <v>27</v>
@@ -32353,7 +32353,7 @@
         <v>20</v>
       </c>
       <c r="EJ104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK104">
         <v>28</v>
@@ -32536,7 +32536,7 @@
         <v>35527</v>
       </c>
       <c r="GS104">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="GT104">
         <v>42</v>
@@ -32973,7 +32973,7 @@
         <v>14</v>
       </c>
       <c r="EJ105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EK105">
         <v>53</v>
@@ -33593,7 +33593,7 @@
         <v>15</v>
       </c>
       <c r="EJ106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EK106">
         <v>38</v>
@@ -33776,7 +33776,7 @@
         <v>27620</v>
       </c>
       <c r="GS106">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="GT106">
         <v>69</v>
@@ -34213,7 +34213,7 @@
         <v>8</v>
       </c>
       <c r="EJ107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK107">
         <v>19</v>
@@ -34396,7 +34396,7 @@
         <v>25023</v>
       </c>
       <c r="GS107">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="GT107">
         <v>133</v>
@@ -35016,7 +35016,7 @@
         <v>26922</v>
       </c>
       <c r="GS108">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="GT108">
         <v>167</v>
@@ -35025,7 +35025,7 @@
         <v>4</v>
       </c>
       <c r="GV108">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="GW108">
         <v>0</v>
@@ -35636,7 +35636,7 @@
         <v>30148</v>
       </c>
       <c r="GS109">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="GT109">
         <v>137</v>
@@ -36256,7 +36256,7 @@
         <v>31667</v>
       </c>
       <c r="GS110">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="GT110">
         <v>78</v>
@@ -36265,7 +36265,7 @@
         <v>7</v>
       </c>
       <c r="GV110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GW110">
         <v>0</v>
@@ -36876,7 +36876,7 @@
         <v>30833</v>
       </c>
       <c r="GS111">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="GT111">
         <v>70</v>
@@ -36885,7 +36885,7 @@
         <v>23</v>
       </c>
       <c r="GV111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GW111">
         <v>0</v>
@@ -37496,7 +37496,7 @@
         <v>32922</v>
       </c>
       <c r="GS112">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="GT112">
         <v>45</v>
@@ -38116,7 +38116,7 @@
         <v>24601</v>
       </c>
       <c r="GS113">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="GT113">
         <v>70</v>
@@ -38217,7 +38217,7 @@
         <v>0</v>
       </c>
       <c r="AA114">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="AB114">
         <v>0</v>
@@ -38553,7 +38553,7 @@
         <v>2</v>
       </c>
       <c r="EJ114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK114">
         <v>7</v>
@@ -38646,7 +38646,7 @@
         <v>8</v>
       </c>
       <c r="FO114">
-        <v>0</v>
+        <v>1426</v>
       </c>
       <c r="FP114">
         <v>1</v>
@@ -38736,7 +38736,7 @@
         <v>28065</v>
       </c>
       <c r="GS114">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="GT114">
         <v>92</v>
@@ -38754,6 +38754,1246 @@
         <v>4</v>
       </c>
       <c r="GY114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:207">
+      <c r="A115" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B115">
+        <v>61</v>
+      </c>
+      <c r="C115">
+        <v>25</v>
+      </c>
+      <c r="D115">
+        <v>93</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>112</v>
+      </c>
+      <c r="J115">
+        <v>72</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>22</v>
+      </c>
+      <c r="M115">
+        <v>50</v>
+      </c>
+      <c r="N115">
+        <v>44</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="P115">
+        <v>66</v>
+      </c>
+      <c r="Q115">
+        <v>434</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>459</v>
+      </c>
+      <c r="T115">
+        <v>973</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>12</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>11</v>
+      </c>
+      <c r="Z115">
+        <v>1</v>
+      </c>
+      <c r="AA115">
+        <v>40</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+      <c r="AC115">
+        <v>2498</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
+      </c>
+      <c r="AF115">
+        <v>46</v>
+      </c>
+      <c r="AG115">
+        <v>19</v>
+      </c>
+      <c r="AH115">
+        <v>0</v>
+      </c>
+      <c r="AI115">
+        <v>0</v>
+      </c>
+      <c r="AJ115">
+        <v>146</v>
+      </c>
+      <c r="AK115">
+        <v>1590</v>
+      </c>
+      <c r="AL115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>0</v>
+      </c>
+      <c r="AO115">
+        <v>2</v>
+      </c>
+      <c r="AP115">
+        <v>1</v>
+      </c>
+      <c r="AQ115">
+        <v>325</v>
+      </c>
+      <c r="AR115">
+        <v>15</v>
+      </c>
+      <c r="AS115">
+        <v>172</v>
+      </c>
+      <c r="AT115">
+        <v>5</v>
+      </c>
+      <c r="AU115">
+        <v>7</v>
+      </c>
+      <c r="AV115">
+        <v>37</v>
+      </c>
+      <c r="AW115">
+        <v>27</v>
+      </c>
+      <c r="AX115">
+        <v>50</v>
+      </c>
+      <c r="AY115">
+        <v>0</v>
+      </c>
+      <c r="AZ115">
+        <v>12</v>
+      </c>
+      <c r="BA115">
+        <v>127</v>
+      </c>
+      <c r="BB115">
+        <v>9</v>
+      </c>
+      <c r="BC115">
+        <v>180</v>
+      </c>
+      <c r="BD115">
+        <v>99</v>
+      </c>
+      <c r="BE115">
+        <v>0</v>
+      </c>
+      <c r="BF115">
+        <v>80</v>
+      </c>
+      <c r="BG115">
+        <v>270</v>
+      </c>
+      <c r="BH115">
+        <v>157</v>
+      </c>
+      <c r="BI115">
+        <v>7</v>
+      </c>
+      <c r="BJ115">
+        <v>0</v>
+      </c>
+      <c r="BK115">
+        <v>0</v>
+      </c>
+      <c r="BL115">
+        <v>17</v>
+      </c>
+      <c r="BM115">
+        <v>0</v>
+      </c>
+      <c r="BN115">
+        <v>3</v>
+      </c>
+      <c r="BO115">
+        <v>1</v>
+      </c>
+      <c r="BP115">
+        <v>0</v>
+      </c>
+      <c r="BQ115">
+        <v>0</v>
+      </c>
+      <c r="BR115">
+        <v>146</v>
+      </c>
+      <c r="BS115">
+        <v>2667</v>
+      </c>
+      <c r="BT115">
+        <v>1</v>
+      </c>
+      <c r="BU115">
+        <v>36</v>
+      </c>
+      <c r="BV115">
+        <v>0</v>
+      </c>
+      <c r="BW115">
+        <v>6</v>
+      </c>
+      <c r="BX115">
+        <v>2237</v>
+      </c>
+      <c r="BY115">
+        <v>0</v>
+      </c>
+      <c r="BZ115">
+        <v>0</v>
+      </c>
+      <c r="CA115">
+        <v>156</v>
+      </c>
+      <c r="CB115">
+        <v>0</v>
+      </c>
+      <c r="CC115">
+        <v>0</v>
+      </c>
+      <c r="CD115">
+        <v>0</v>
+      </c>
+      <c r="CE115">
+        <v>22</v>
+      </c>
+      <c r="CF115">
+        <v>0</v>
+      </c>
+      <c r="CG115">
+        <v>66</v>
+      </c>
+      <c r="CH115">
+        <v>0</v>
+      </c>
+      <c r="CI115">
+        <v>1</v>
+      </c>
+      <c r="CJ115">
+        <v>1</v>
+      </c>
+      <c r="CK115">
+        <v>0</v>
+      </c>
+      <c r="CL115">
+        <v>16</v>
+      </c>
+      <c r="CM115">
+        <v>70</v>
+      </c>
+      <c r="CN115">
+        <v>5</v>
+      </c>
+      <c r="CO115">
+        <v>1384</v>
+      </c>
+      <c r="CP115">
+        <v>375</v>
+      </c>
+      <c r="CQ115">
+        <v>1297</v>
+      </c>
+      <c r="CR115">
+        <v>28</v>
+      </c>
+      <c r="CS115">
+        <v>388</v>
+      </c>
+      <c r="CT115">
+        <v>7</v>
+      </c>
+      <c r="CU115">
+        <v>229</v>
+      </c>
+      <c r="CV115">
+        <v>2729</v>
+      </c>
+      <c r="CW115">
+        <v>10</v>
+      </c>
+      <c r="CX115">
+        <v>378</v>
+      </c>
+      <c r="CY115">
+        <v>6</v>
+      </c>
+      <c r="CZ115">
+        <v>0</v>
+      </c>
+      <c r="DA115">
+        <v>76</v>
+      </c>
+      <c r="DB115">
+        <v>0</v>
+      </c>
+      <c r="DC115">
+        <v>6</v>
+      </c>
+      <c r="DD115">
+        <v>85</v>
+      </c>
+      <c r="DE115">
+        <v>22</v>
+      </c>
+      <c r="DF115">
+        <v>0</v>
+      </c>
+      <c r="DG115">
+        <v>9</v>
+      </c>
+      <c r="DH115">
+        <v>0</v>
+      </c>
+      <c r="DI115">
+        <v>2</v>
+      </c>
+      <c r="DJ115">
+        <v>0</v>
+      </c>
+      <c r="DK115">
+        <v>0</v>
+      </c>
+      <c r="DL115">
+        <v>20</v>
+      </c>
+      <c r="DM115">
+        <v>60</v>
+      </c>
+      <c r="DN115">
+        <v>0</v>
+      </c>
+      <c r="DO115">
+        <v>1</v>
+      </c>
+      <c r="DP115">
+        <v>57</v>
+      </c>
+      <c r="DQ115">
+        <v>16</v>
+      </c>
+      <c r="DR115">
+        <v>12</v>
+      </c>
+      <c r="DS115">
+        <v>12</v>
+      </c>
+      <c r="DT115">
+        <v>0</v>
+      </c>
+      <c r="DU115">
+        <v>0</v>
+      </c>
+      <c r="DV115">
+        <v>729</v>
+      </c>
+      <c r="DW115">
+        <v>66</v>
+      </c>
+      <c r="DX115">
+        <v>0</v>
+      </c>
+      <c r="DY115">
+        <v>1</v>
+      </c>
+      <c r="DZ115">
+        <v>1</v>
+      </c>
+      <c r="EA115">
+        <v>0</v>
+      </c>
+      <c r="EB115">
+        <v>163</v>
+      </c>
+      <c r="EC115">
+        <v>0</v>
+      </c>
+      <c r="ED115">
+        <v>2</v>
+      </c>
+      <c r="EE115">
+        <v>0</v>
+      </c>
+      <c r="EF115">
+        <v>11</v>
+      </c>
+      <c r="EG115">
+        <v>729</v>
+      </c>
+      <c r="EH115">
+        <v>0</v>
+      </c>
+      <c r="EI115">
+        <v>5</v>
+      </c>
+      <c r="EJ115">
+        <v>1</v>
+      </c>
+      <c r="EK115">
+        <v>0</v>
+      </c>
+      <c r="EL115">
+        <v>117</v>
+      </c>
+      <c r="EM115">
+        <v>6</v>
+      </c>
+      <c r="EN115">
+        <v>0</v>
+      </c>
+      <c r="EO115">
+        <v>53</v>
+      </c>
+      <c r="EP115">
+        <v>0</v>
+      </c>
+      <c r="EQ115">
+        <v>533</v>
+      </c>
+      <c r="ER115">
+        <v>0</v>
+      </c>
+      <c r="ES115">
+        <v>163</v>
+      </c>
+      <c r="ET115">
+        <v>0</v>
+      </c>
+      <c r="EU115">
+        <v>5</v>
+      </c>
+      <c r="EV115">
+        <v>1512</v>
+      </c>
+      <c r="EW115">
+        <v>140</v>
+      </c>
+      <c r="EX115">
+        <v>263</v>
+      </c>
+      <c r="EY115">
+        <v>516</v>
+      </c>
+      <c r="EZ115">
+        <v>0</v>
+      </c>
+      <c r="FA115">
+        <v>518</v>
+      </c>
+      <c r="FB115">
+        <v>306</v>
+      </c>
+      <c r="FC115">
+        <v>5642</v>
+      </c>
+      <c r="FD115">
+        <v>3</v>
+      </c>
+      <c r="FE115">
+        <v>0</v>
+      </c>
+      <c r="FF115">
+        <v>0</v>
+      </c>
+      <c r="FG115">
+        <v>0</v>
+      </c>
+      <c r="FH115">
+        <v>14</v>
+      </c>
+      <c r="FI115">
+        <v>0</v>
+      </c>
+      <c r="FJ115">
+        <v>1147</v>
+      </c>
+      <c r="FK115">
+        <v>35</v>
+      </c>
+      <c r="FL115">
+        <v>260</v>
+      </c>
+      <c r="FM115">
+        <v>0</v>
+      </c>
+      <c r="FN115">
+        <v>7</v>
+      </c>
+      <c r="FO115">
+        <v>1111</v>
+      </c>
+      <c r="FP115">
+        <v>0</v>
+      </c>
+      <c r="FQ115">
+        <v>26</v>
+      </c>
+      <c r="FR115">
+        <v>5</v>
+      </c>
+      <c r="FS115">
+        <v>49</v>
+      </c>
+      <c r="FT115">
+        <v>165</v>
+      </c>
+      <c r="FU115">
+        <v>11</v>
+      </c>
+      <c r="FV115">
+        <v>0</v>
+      </c>
+      <c r="FW115">
+        <v>3968</v>
+      </c>
+      <c r="FX115">
+        <v>6</v>
+      </c>
+      <c r="FY115">
+        <v>15</v>
+      </c>
+      <c r="FZ115">
+        <v>0</v>
+      </c>
+      <c r="GA115">
+        <v>545</v>
+      </c>
+      <c r="GB115">
+        <v>155</v>
+      </c>
+      <c r="GC115">
+        <v>3</v>
+      </c>
+      <c r="GD115">
+        <v>3</v>
+      </c>
+      <c r="GE115">
+        <v>19</v>
+      </c>
+      <c r="GF115">
+        <v>1</v>
+      </c>
+      <c r="GG115">
+        <v>2</v>
+      </c>
+      <c r="GH115">
+        <v>1</v>
+      </c>
+      <c r="GI115">
+        <v>17</v>
+      </c>
+      <c r="GJ115">
+        <v>4611</v>
+      </c>
+      <c r="GK115">
+        <v>0</v>
+      </c>
+      <c r="GL115">
+        <v>2</v>
+      </c>
+      <c r="GM115">
+        <v>467</v>
+      </c>
+      <c r="GN115">
+        <v>490</v>
+      </c>
+      <c r="GO115">
+        <v>4301</v>
+      </c>
+      <c r="GP115">
+        <v>84</v>
+      </c>
+      <c r="GQ115">
+        <v>0</v>
+      </c>
+      <c r="GR115">
+        <v>37289</v>
+      </c>
+      <c r="GS115">
+        <v>8</v>
+      </c>
+      <c r="GT115">
+        <v>35</v>
+      </c>
+      <c r="GU115">
+        <v>29</v>
+      </c>
+      <c r="GV115">
+        <v>0</v>
+      </c>
+      <c r="GW115">
+        <v>0</v>
+      </c>
+      <c r="GX115">
+        <v>0</v>
+      </c>
+      <c r="GY115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:207">
+      <c r="A116" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B116">
+        <v>84</v>
+      </c>
+      <c r="C116">
+        <v>25</v>
+      </c>
+      <c r="D116">
+        <v>99</v>
+      </c>
+      <c r="E116">
+        <v>6</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>144</v>
+      </c>
+      <c r="J116">
+        <v>50</v>
+      </c>
+      <c r="K116">
+        <v>3</v>
+      </c>
+      <c r="L116">
+        <v>7</v>
+      </c>
+      <c r="M116">
+        <v>91</v>
+      </c>
+      <c r="N116">
+        <v>38</v>
+      </c>
+      <c r="O116">
+        <v>5</v>
+      </c>
+      <c r="P116">
+        <v>34</v>
+      </c>
+      <c r="Q116">
+        <v>390</v>
+      </c>
+      <c r="R116">
+        <v>1</v>
+      </c>
+      <c r="S116">
+        <v>558</v>
+      </c>
+      <c r="T116">
+        <v>933</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>1</v>
+      </c>
+      <c r="X116">
+        <v>1</v>
+      </c>
+      <c r="Y116">
+        <v>63</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>27</v>
+      </c>
+      <c r="AB116">
+        <v>2</v>
+      </c>
+      <c r="AC116">
+        <v>2678</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
+      </c>
+      <c r="AF116">
+        <v>49</v>
+      </c>
+      <c r="AG116">
+        <v>9</v>
+      </c>
+      <c r="AH116">
+        <v>5</v>
+      </c>
+      <c r="AI116">
+        <v>0</v>
+      </c>
+      <c r="AJ116">
+        <v>0</v>
+      </c>
+      <c r="AK116">
+        <v>1766</v>
+      </c>
+      <c r="AL116">
+        <v>6</v>
+      </c>
+      <c r="AN116">
+        <v>0</v>
+      </c>
+      <c r="AO116">
+        <v>2</v>
+      </c>
+      <c r="AP116">
+        <v>0</v>
+      </c>
+      <c r="AQ116">
+        <v>464</v>
+      </c>
+      <c r="AR116">
+        <v>12</v>
+      </c>
+      <c r="AS116">
+        <v>207</v>
+      </c>
+      <c r="AT116">
+        <v>21</v>
+      </c>
+      <c r="AU116">
+        <v>12</v>
+      </c>
+      <c r="AV116">
+        <v>36</v>
+      </c>
+      <c r="AW116">
+        <v>42</v>
+      </c>
+      <c r="AX116">
+        <v>52</v>
+      </c>
+      <c r="AY116">
+        <v>0</v>
+      </c>
+      <c r="AZ116">
+        <v>6</v>
+      </c>
+      <c r="BA116">
+        <v>95</v>
+      </c>
+      <c r="BB116">
+        <v>18</v>
+      </c>
+      <c r="BC116">
+        <v>217</v>
+      </c>
+      <c r="BD116">
+        <v>29</v>
+      </c>
+      <c r="BE116">
+        <v>0</v>
+      </c>
+      <c r="BF116">
+        <v>256</v>
+      </c>
+      <c r="BG116">
+        <v>452</v>
+      </c>
+      <c r="BH116">
+        <v>0</v>
+      </c>
+      <c r="BI116">
+        <v>12</v>
+      </c>
+      <c r="BJ116">
+        <v>4</v>
+      </c>
+      <c r="BK116">
+        <v>0</v>
+      </c>
+      <c r="BL116">
+        <v>7</v>
+      </c>
+      <c r="BM116">
+        <v>7</v>
+      </c>
+      <c r="BN116">
+        <v>2</v>
+      </c>
+      <c r="BO116">
+        <v>0</v>
+      </c>
+      <c r="BP116">
+        <v>0</v>
+      </c>
+      <c r="BQ116">
+        <v>0</v>
+      </c>
+      <c r="BR116">
+        <v>115</v>
+      </c>
+      <c r="BS116">
+        <v>1827</v>
+      </c>
+      <c r="BT116">
+        <v>0</v>
+      </c>
+      <c r="BU116">
+        <v>10</v>
+      </c>
+      <c r="BV116">
+        <v>0</v>
+      </c>
+      <c r="BW116">
+        <v>8</v>
+      </c>
+      <c r="BX116">
+        <v>2352</v>
+      </c>
+      <c r="BY116">
+        <v>112</v>
+      </c>
+      <c r="BZ116">
+        <v>0</v>
+      </c>
+      <c r="CA116">
+        <v>7</v>
+      </c>
+      <c r="CB116">
+        <v>0</v>
+      </c>
+      <c r="CC116">
+        <v>1</v>
+      </c>
+      <c r="CD116">
+        <v>1</v>
+      </c>
+      <c r="CE116">
+        <v>26</v>
+      </c>
+      <c r="CF116">
+        <v>4</v>
+      </c>
+      <c r="CG116">
+        <v>73</v>
+      </c>
+      <c r="CH116">
+        <v>0</v>
+      </c>
+      <c r="CI116">
+        <v>0</v>
+      </c>
+      <c r="CJ116">
+        <v>4</v>
+      </c>
+      <c r="CK116">
+        <v>0</v>
+      </c>
+      <c r="CL116">
+        <v>9</v>
+      </c>
+      <c r="CM116">
+        <v>116</v>
+      </c>
+      <c r="CN116">
+        <v>7</v>
+      </c>
+      <c r="CO116">
+        <v>1409</v>
+      </c>
+      <c r="CP116">
+        <v>283</v>
+      </c>
+      <c r="CQ116">
+        <v>1194</v>
+      </c>
+      <c r="CR116">
+        <v>0</v>
+      </c>
+      <c r="CS116">
+        <v>631</v>
+      </c>
+      <c r="CT116">
+        <v>0</v>
+      </c>
+      <c r="CU116">
+        <v>650</v>
+      </c>
+      <c r="CV116">
+        <v>3370</v>
+      </c>
+      <c r="CW116">
+        <v>19</v>
+      </c>
+      <c r="CX116">
+        <v>276</v>
+      </c>
+      <c r="CY116">
+        <v>0</v>
+      </c>
+      <c r="CZ116">
+        <v>3</v>
+      </c>
+      <c r="DA116">
+        <v>166</v>
+      </c>
+      <c r="DB116">
+        <v>22</v>
+      </c>
+      <c r="DC116">
+        <v>26</v>
+      </c>
+      <c r="DD116">
+        <v>168</v>
+      </c>
+      <c r="DE116">
+        <v>19</v>
+      </c>
+      <c r="DF116">
+        <v>0</v>
+      </c>
+      <c r="DG116">
+        <v>13</v>
+      </c>
+      <c r="DH116">
+        <v>5</v>
+      </c>
+      <c r="DI116">
+        <v>0</v>
+      </c>
+      <c r="DJ116">
+        <v>8</v>
+      </c>
+      <c r="DK116">
+        <v>0</v>
+      </c>
+      <c r="DL116">
+        <v>28</v>
+      </c>
+      <c r="DM116">
+        <v>36</v>
+      </c>
+      <c r="DN116">
+        <v>0</v>
+      </c>
+      <c r="DO116">
+        <v>5</v>
+      </c>
+      <c r="DP116">
+        <v>50</v>
+      </c>
+      <c r="DQ116">
+        <v>0</v>
+      </c>
+      <c r="DR116">
+        <v>35</v>
+      </c>
+      <c r="DS116">
+        <v>1</v>
+      </c>
+      <c r="DT116">
+        <v>0</v>
+      </c>
+      <c r="DU116">
+        <v>1</v>
+      </c>
+      <c r="DV116">
+        <v>1043</v>
+      </c>
+      <c r="DW116">
+        <v>164</v>
+      </c>
+      <c r="DX116">
+        <v>0</v>
+      </c>
+      <c r="DY116">
+        <v>0</v>
+      </c>
+      <c r="DZ116">
+        <v>2</v>
+      </c>
+      <c r="EA116">
+        <v>0</v>
+      </c>
+      <c r="EB116">
+        <v>168</v>
+      </c>
+      <c r="EC116">
+        <v>2</v>
+      </c>
+      <c r="ED116">
+        <v>6</v>
+      </c>
+      <c r="EE116">
+        <v>0</v>
+      </c>
+      <c r="EF116">
+        <v>3</v>
+      </c>
+      <c r="EG116">
+        <v>708</v>
+      </c>
+      <c r="EH116">
+        <v>0</v>
+      </c>
+      <c r="EI116">
+        <v>0</v>
+      </c>
+      <c r="EJ116">
+        <v>0</v>
+      </c>
+      <c r="EK116">
+        <v>7</v>
+      </c>
+      <c r="EL116">
+        <v>91</v>
+      </c>
+      <c r="EM116">
+        <v>28</v>
+      </c>
+      <c r="EN116">
+        <v>0</v>
+      </c>
+      <c r="EO116">
+        <v>84</v>
+      </c>
+      <c r="EP116">
+        <v>106</v>
+      </c>
+      <c r="EQ116">
+        <v>0</v>
+      </c>
+      <c r="ER116">
+        <v>6</v>
+      </c>
+      <c r="ES116">
+        <v>171</v>
+      </c>
+      <c r="ET116">
+        <v>1</v>
+      </c>
+      <c r="EU116">
+        <v>0</v>
+      </c>
+      <c r="EV116">
+        <v>1413</v>
+      </c>
+      <c r="EW116">
+        <v>111</v>
+      </c>
+      <c r="EX116">
+        <v>313</v>
+      </c>
+      <c r="EY116">
+        <v>603</v>
+      </c>
+      <c r="EZ116">
+        <v>46</v>
+      </c>
+      <c r="FA116">
+        <v>608</v>
+      </c>
+      <c r="FB116">
+        <v>468</v>
+      </c>
+      <c r="FC116">
+        <v>5236</v>
+      </c>
+      <c r="FD116">
+        <v>3</v>
+      </c>
+      <c r="FE116">
+        <v>0</v>
+      </c>
+      <c r="FF116">
+        <v>0</v>
+      </c>
+      <c r="FG116">
+        <v>1</v>
+      </c>
+      <c r="FH116">
+        <v>12</v>
+      </c>
+      <c r="FI116">
+        <v>3</v>
+      </c>
+      <c r="FJ116">
+        <v>1141</v>
+      </c>
+      <c r="FK116">
+        <v>30</v>
+      </c>
+      <c r="FL116">
+        <v>224</v>
+      </c>
+      <c r="FM116">
+        <v>0</v>
+      </c>
+      <c r="FN116">
+        <v>11</v>
+      </c>
+      <c r="FO116">
+        <v>1016</v>
+      </c>
+      <c r="FP116">
+        <v>5</v>
+      </c>
+      <c r="FQ116">
+        <v>45</v>
+      </c>
+      <c r="FR116">
+        <v>13</v>
+      </c>
+      <c r="FS116">
+        <v>0</v>
+      </c>
+      <c r="FT116">
+        <v>170</v>
+      </c>
+      <c r="FU116">
+        <v>8</v>
+      </c>
+      <c r="FV116">
+        <v>0</v>
+      </c>
+      <c r="FW116">
+        <v>4211</v>
+      </c>
+      <c r="FX116">
+        <v>20</v>
+      </c>
+      <c r="FY116">
+        <v>33</v>
+      </c>
+      <c r="FZ116">
+        <v>0</v>
+      </c>
+      <c r="GA116">
+        <v>682</v>
+      </c>
+      <c r="GB116">
+        <v>205</v>
+      </c>
+      <c r="GC116">
+        <v>0</v>
+      </c>
+      <c r="GD116">
+        <v>1</v>
+      </c>
+      <c r="GE116">
+        <v>28</v>
+      </c>
+      <c r="GF116">
+        <v>0</v>
+      </c>
+      <c r="GG116">
+        <v>2</v>
+      </c>
+      <c r="GH116">
+        <v>0</v>
+      </c>
+      <c r="GI116">
+        <v>0</v>
+      </c>
+      <c r="GJ116">
+        <v>3083</v>
+      </c>
+      <c r="GK116">
+        <v>0</v>
+      </c>
+      <c r="GL116">
+        <v>3</v>
+      </c>
+      <c r="GM116">
+        <v>578</v>
+      </c>
+      <c r="GN116">
+        <v>483</v>
+      </c>
+      <c r="GO116">
+        <v>4451</v>
+      </c>
+      <c r="GP116">
+        <v>31</v>
+      </c>
+      <c r="GQ116">
+        <v>0</v>
+      </c>
+      <c r="GR116">
+        <v>17588</v>
+      </c>
+      <c r="GS116">
+        <v>6</v>
+      </c>
+      <c r="GT116">
+        <v>24</v>
+      </c>
+      <c r="GU116">
+        <v>3</v>
+      </c>
+      <c r="GV116">
+        <v>0</v>
+      </c>
+      <c r="GW116">
+        <v>0</v>
+      </c>
+      <c r="GX116">
+        <v>9</v>
+      </c>
+      <c r="GY116">
         <v>0</v>
       </c>
     </row>
@@ -38764,7 +40004,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY114"/>
+  <dimension ref="A1:GY116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -75942,7 +77182,7 @@
         <v>1</v>
       </c>
       <c r="M114">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -76521,6 +77761,1246 @@
         <v>0</v>
       </c>
       <c r="GY114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:207">
+      <c r="A115" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>8</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>9</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>3</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>9</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>4</v>
+      </c>
+      <c r="T115">
+        <v>170</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>3</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>2</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+      <c r="AC115">
+        <v>166</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
+      </c>
+      <c r="AF115">
+        <v>2</v>
+      </c>
+      <c r="AG115">
+        <v>0</v>
+      </c>
+      <c r="AH115">
+        <v>0</v>
+      </c>
+      <c r="AI115">
+        <v>0</v>
+      </c>
+      <c r="AJ115">
+        <v>0</v>
+      </c>
+      <c r="AK115">
+        <v>144</v>
+      </c>
+      <c r="AL115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>0</v>
+      </c>
+      <c r="AO115">
+        <v>0</v>
+      </c>
+      <c r="AP115">
+        <v>0</v>
+      </c>
+      <c r="AQ115">
+        <v>8</v>
+      </c>
+      <c r="AR115">
+        <v>0</v>
+      </c>
+      <c r="AS115">
+        <v>7</v>
+      </c>
+      <c r="AT115">
+        <v>0</v>
+      </c>
+      <c r="AU115">
+        <v>0</v>
+      </c>
+      <c r="AV115">
+        <v>3</v>
+      </c>
+      <c r="AW115">
+        <v>1</v>
+      </c>
+      <c r="AX115">
+        <v>2</v>
+      </c>
+      <c r="AY115">
+        <v>0</v>
+      </c>
+      <c r="AZ115">
+        <v>0</v>
+      </c>
+      <c r="BA115">
+        <v>5</v>
+      </c>
+      <c r="BB115">
+        <v>0</v>
+      </c>
+      <c r="BC115">
+        <v>6</v>
+      </c>
+      <c r="BD115">
+        <v>0</v>
+      </c>
+      <c r="BE115">
+        <v>0</v>
+      </c>
+      <c r="BF115">
+        <v>10</v>
+      </c>
+      <c r="BG115">
+        <v>13</v>
+      </c>
+      <c r="BH115">
+        <v>14</v>
+      </c>
+      <c r="BI115">
+        <v>0</v>
+      </c>
+      <c r="BJ115">
+        <v>0</v>
+      </c>
+      <c r="BK115">
+        <v>0</v>
+      </c>
+      <c r="BL115">
+        <v>3</v>
+      </c>
+      <c r="BM115">
+        <v>0</v>
+      </c>
+      <c r="BN115">
+        <v>0</v>
+      </c>
+      <c r="BO115">
+        <v>0</v>
+      </c>
+      <c r="BP115">
+        <v>0</v>
+      </c>
+      <c r="BQ115">
+        <v>0</v>
+      </c>
+      <c r="BR115">
+        <v>43</v>
+      </c>
+      <c r="BS115">
+        <v>531</v>
+      </c>
+      <c r="BT115">
+        <v>0</v>
+      </c>
+      <c r="BU115">
+        <v>0</v>
+      </c>
+      <c r="BV115">
+        <v>0</v>
+      </c>
+      <c r="BW115">
+        <v>0</v>
+      </c>
+      <c r="BX115">
+        <v>281</v>
+      </c>
+      <c r="BY115">
+        <v>0</v>
+      </c>
+      <c r="BZ115">
+        <v>0</v>
+      </c>
+      <c r="CA115">
+        <v>5</v>
+      </c>
+      <c r="CB115">
+        <v>0</v>
+      </c>
+      <c r="CC115">
+        <v>0</v>
+      </c>
+      <c r="CD115">
+        <v>0</v>
+      </c>
+      <c r="CE115">
+        <v>1</v>
+      </c>
+      <c r="CF115">
+        <v>0</v>
+      </c>
+      <c r="CG115">
+        <v>1</v>
+      </c>
+      <c r="CH115">
+        <v>0</v>
+      </c>
+      <c r="CI115">
+        <v>0</v>
+      </c>
+      <c r="CJ115">
+        <v>1</v>
+      </c>
+      <c r="CK115">
+        <v>0</v>
+      </c>
+      <c r="CL115">
+        <v>0</v>
+      </c>
+      <c r="CM115">
+        <v>12</v>
+      </c>
+      <c r="CN115">
+        <v>0</v>
+      </c>
+      <c r="CO115">
+        <v>50</v>
+      </c>
+      <c r="CP115">
+        <v>26</v>
+      </c>
+      <c r="CQ115">
+        <v>88</v>
+      </c>
+      <c r="CR115">
+        <v>1</v>
+      </c>
+      <c r="CS115">
+        <v>43</v>
+      </c>
+      <c r="CT115">
+        <v>1</v>
+      </c>
+      <c r="CU115">
+        <v>7</v>
+      </c>
+      <c r="CV115">
+        <v>534</v>
+      </c>
+      <c r="CW115">
+        <v>0</v>
+      </c>
+      <c r="CX115">
+        <v>0</v>
+      </c>
+      <c r="CY115">
+        <v>0</v>
+      </c>
+      <c r="CZ115">
+        <v>0</v>
+      </c>
+      <c r="DA115">
+        <v>0</v>
+      </c>
+      <c r="DB115">
+        <v>0</v>
+      </c>
+      <c r="DC115">
+        <v>3</v>
+      </c>
+      <c r="DD115">
+        <v>2</v>
+      </c>
+      <c r="DE115">
+        <v>0</v>
+      </c>
+      <c r="DF115">
+        <v>0</v>
+      </c>
+      <c r="DG115">
+        <v>4</v>
+      </c>
+      <c r="DH115">
+        <v>0</v>
+      </c>
+      <c r="DI115">
+        <v>0</v>
+      </c>
+      <c r="DJ115">
+        <v>0</v>
+      </c>
+      <c r="DK115">
+        <v>0</v>
+      </c>
+      <c r="DL115">
+        <v>1</v>
+      </c>
+      <c r="DM115">
+        <v>3</v>
+      </c>
+      <c r="DN115">
+        <v>0</v>
+      </c>
+      <c r="DO115">
+        <v>0</v>
+      </c>
+      <c r="DP115">
+        <v>3</v>
+      </c>
+      <c r="DQ115">
+        <v>0</v>
+      </c>
+      <c r="DR115">
+        <v>0</v>
+      </c>
+      <c r="DS115">
+        <v>0</v>
+      </c>
+      <c r="DT115">
+        <v>0</v>
+      </c>
+      <c r="DU115">
+        <v>0</v>
+      </c>
+      <c r="DV115">
+        <v>145</v>
+      </c>
+      <c r="DW115">
+        <v>3</v>
+      </c>
+      <c r="DX115">
+        <v>0</v>
+      </c>
+      <c r="DY115">
+        <v>0</v>
+      </c>
+      <c r="DZ115">
+        <v>0</v>
+      </c>
+      <c r="EA115">
+        <v>0</v>
+      </c>
+      <c r="EB115">
+        <v>2</v>
+      </c>
+      <c r="EC115">
+        <v>0</v>
+      </c>
+      <c r="ED115">
+        <v>0</v>
+      </c>
+      <c r="EE115">
+        <v>0</v>
+      </c>
+      <c r="EF115">
+        <v>0</v>
+      </c>
+      <c r="EG115">
+        <v>165</v>
+      </c>
+      <c r="EH115">
+        <v>0</v>
+      </c>
+      <c r="EI115">
+        <v>1</v>
+      </c>
+      <c r="EJ115">
+        <v>0</v>
+      </c>
+      <c r="EK115">
+        <v>0</v>
+      </c>
+      <c r="EL115">
+        <v>3</v>
+      </c>
+      <c r="EM115">
+        <v>1</v>
+      </c>
+      <c r="EN115">
+        <v>0</v>
+      </c>
+      <c r="EO115">
+        <v>9</v>
+      </c>
+      <c r="EP115">
+        <v>0</v>
+      </c>
+      <c r="EQ115">
+        <v>17</v>
+      </c>
+      <c r="ER115">
+        <v>0</v>
+      </c>
+      <c r="ES115">
+        <v>5</v>
+      </c>
+      <c r="ET115">
+        <v>0</v>
+      </c>
+      <c r="EU115">
+        <v>1</v>
+      </c>
+      <c r="EV115">
+        <v>39</v>
+      </c>
+      <c r="EW115">
+        <v>9</v>
+      </c>
+      <c r="EX115">
+        <v>21</v>
+      </c>
+      <c r="EY115">
+        <v>27</v>
+      </c>
+      <c r="EZ115">
+        <v>0</v>
+      </c>
+      <c r="FA115">
+        <v>0</v>
+      </c>
+      <c r="FB115">
+        <v>32</v>
+      </c>
+      <c r="FC115">
+        <v>51</v>
+      </c>
+      <c r="FD115">
+        <v>0</v>
+      </c>
+      <c r="FE115">
+        <v>0</v>
+      </c>
+      <c r="FF115">
+        <v>0</v>
+      </c>
+      <c r="FG115">
+        <v>0</v>
+      </c>
+      <c r="FH115">
+        <v>1</v>
+      </c>
+      <c r="FI115">
+        <v>0</v>
+      </c>
+      <c r="FJ115">
+        <v>6</v>
+      </c>
+      <c r="FK115">
+        <v>0</v>
+      </c>
+      <c r="FL115">
+        <v>0</v>
+      </c>
+      <c r="FM115">
+        <v>0</v>
+      </c>
+      <c r="FN115">
+        <v>0</v>
+      </c>
+      <c r="FO115">
+        <v>0</v>
+      </c>
+      <c r="FP115">
+        <v>0</v>
+      </c>
+      <c r="FQ115">
+        <v>1</v>
+      </c>
+      <c r="FR115">
+        <v>3</v>
+      </c>
+      <c r="FS115">
+        <v>0</v>
+      </c>
+      <c r="FT115">
+        <v>0</v>
+      </c>
+      <c r="FU115">
+        <v>1</v>
+      </c>
+      <c r="FV115">
+        <v>0</v>
+      </c>
+      <c r="FW115">
+        <v>430</v>
+      </c>
+      <c r="FX115">
+        <v>0</v>
+      </c>
+      <c r="FY115">
+        <v>0</v>
+      </c>
+      <c r="FZ115">
+        <v>0</v>
+      </c>
+      <c r="GA115">
+        <v>185</v>
+      </c>
+      <c r="GB115">
+        <v>45</v>
+      </c>
+      <c r="GC115">
+        <v>0</v>
+      </c>
+      <c r="GD115">
+        <v>0</v>
+      </c>
+      <c r="GE115">
+        <v>1</v>
+      </c>
+      <c r="GF115">
+        <v>0</v>
+      </c>
+      <c r="GG115">
+        <v>0</v>
+      </c>
+      <c r="GH115">
+        <v>0</v>
+      </c>
+      <c r="GI115">
+        <v>0</v>
+      </c>
+      <c r="GJ115">
+        <v>119</v>
+      </c>
+      <c r="GK115">
+        <v>0</v>
+      </c>
+      <c r="GL115">
+        <v>0</v>
+      </c>
+      <c r="GM115">
+        <v>13</v>
+      </c>
+      <c r="GN115">
+        <v>3</v>
+      </c>
+      <c r="GO115">
+        <v>828</v>
+      </c>
+      <c r="GP115">
+        <v>3</v>
+      </c>
+      <c r="GQ115">
+        <v>0</v>
+      </c>
+      <c r="GR115">
+        <v>2524</v>
+      </c>
+      <c r="GS115">
+        <v>2</v>
+      </c>
+      <c r="GT115">
+        <v>1</v>
+      </c>
+      <c r="GU115">
+        <v>1</v>
+      </c>
+      <c r="GV115">
+        <v>0</v>
+      </c>
+      <c r="GW115">
+        <v>0</v>
+      </c>
+      <c r="GX115">
+        <v>0</v>
+      </c>
+      <c r="GY115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:207">
+      <c r="A116" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>10</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>8</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>31</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>10</v>
+      </c>
+      <c r="R116">
+        <v>1</v>
+      </c>
+      <c r="S116">
+        <v>3</v>
+      </c>
+      <c r="T116">
+        <v>264</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>3</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>2</v>
+      </c>
+      <c r="AB116">
+        <v>0</v>
+      </c>
+      <c r="AC116">
+        <v>165</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
+      </c>
+      <c r="AF116">
+        <v>4</v>
+      </c>
+      <c r="AG116">
+        <v>1</v>
+      </c>
+      <c r="AH116">
+        <v>0</v>
+      </c>
+      <c r="AI116">
+        <v>0</v>
+      </c>
+      <c r="AJ116">
+        <v>1</v>
+      </c>
+      <c r="AK116">
+        <v>140</v>
+      </c>
+      <c r="AL116">
+        <v>0</v>
+      </c>
+      <c r="AN116">
+        <v>0</v>
+      </c>
+      <c r="AO116">
+        <v>0</v>
+      </c>
+      <c r="AP116">
+        <v>0</v>
+      </c>
+      <c r="AQ116">
+        <v>13</v>
+      </c>
+      <c r="AR116">
+        <v>0</v>
+      </c>
+      <c r="AS116">
+        <v>10</v>
+      </c>
+      <c r="AT116">
+        <v>0</v>
+      </c>
+      <c r="AU116">
+        <v>0</v>
+      </c>
+      <c r="AV116">
+        <v>1</v>
+      </c>
+      <c r="AW116">
+        <v>0</v>
+      </c>
+      <c r="AX116">
+        <v>2</v>
+      </c>
+      <c r="AY116">
+        <v>0</v>
+      </c>
+      <c r="AZ116">
+        <v>0</v>
+      </c>
+      <c r="BA116">
+        <v>9</v>
+      </c>
+      <c r="BB116">
+        <v>0</v>
+      </c>
+      <c r="BC116">
+        <v>14</v>
+      </c>
+      <c r="BD116">
+        <v>0</v>
+      </c>
+      <c r="BE116">
+        <v>0</v>
+      </c>
+      <c r="BF116">
+        <v>15</v>
+      </c>
+      <c r="BG116">
+        <v>17</v>
+      </c>
+      <c r="BH116">
+        <v>0</v>
+      </c>
+      <c r="BI116">
+        <v>1</v>
+      </c>
+      <c r="BJ116">
+        <v>0</v>
+      </c>
+      <c r="BK116">
+        <v>0</v>
+      </c>
+      <c r="BL116">
+        <v>1</v>
+      </c>
+      <c r="BM116">
+        <v>0</v>
+      </c>
+      <c r="BN116">
+        <v>0</v>
+      </c>
+      <c r="BO116">
+        <v>0</v>
+      </c>
+      <c r="BP116">
+        <v>0</v>
+      </c>
+      <c r="BQ116">
+        <v>0</v>
+      </c>
+      <c r="BR116">
+        <v>8</v>
+      </c>
+      <c r="BS116">
+        <v>544</v>
+      </c>
+      <c r="BT116">
+        <v>0</v>
+      </c>
+      <c r="BU116">
+        <v>0</v>
+      </c>
+      <c r="BV116">
+        <v>0</v>
+      </c>
+      <c r="BW116">
+        <v>1</v>
+      </c>
+      <c r="BX116">
+        <v>215</v>
+      </c>
+      <c r="BY116">
+        <v>0</v>
+      </c>
+      <c r="BZ116">
+        <v>0</v>
+      </c>
+      <c r="CA116">
+        <v>0</v>
+      </c>
+      <c r="CB116">
+        <v>0</v>
+      </c>
+      <c r="CC116">
+        <v>0</v>
+      </c>
+      <c r="CD116">
+        <v>0</v>
+      </c>
+      <c r="CE116">
+        <v>2</v>
+      </c>
+      <c r="CF116">
+        <v>0</v>
+      </c>
+      <c r="CG116">
+        <v>0</v>
+      </c>
+      <c r="CH116">
+        <v>0</v>
+      </c>
+      <c r="CI116">
+        <v>0</v>
+      </c>
+      <c r="CJ116">
+        <v>0</v>
+      </c>
+      <c r="CK116">
+        <v>0</v>
+      </c>
+      <c r="CL116">
+        <v>1</v>
+      </c>
+      <c r="CM116">
+        <v>0</v>
+      </c>
+      <c r="CN116">
+        <v>0</v>
+      </c>
+      <c r="CO116">
+        <v>41</v>
+      </c>
+      <c r="CP116">
+        <v>19</v>
+      </c>
+      <c r="CQ116">
+        <v>94</v>
+      </c>
+      <c r="CR116">
+        <v>0</v>
+      </c>
+      <c r="CS116">
+        <v>39</v>
+      </c>
+      <c r="CT116">
+        <v>5</v>
+      </c>
+      <c r="CU116">
+        <v>7</v>
+      </c>
+      <c r="CV116">
+        <v>437</v>
+      </c>
+      <c r="CW116">
+        <v>0</v>
+      </c>
+      <c r="CX116">
+        <v>101</v>
+      </c>
+      <c r="CY116">
+        <v>4</v>
+      </c>
+      <c r="CZ116">
+        <v>0</v>
+      </c>
+      <c r="DA116">
+        <v>0</v>
+      </c>
+      <c r="DB116">
+        <v>0</v>
+      </c>
+      <c r="DC116">
+        <v>0</v>
+      </c>
+      <c r="DD116">
+        <v>2</v>
+      </c>
+      <c r="DE116">
+        <v>1</v>
+      </c>
+      <c r="DF116">
+        <v>0</v>
+      </c>
+      <c r="DG116">
+        <v>2</v>
+      </c>
+      <c r="DH116">
+        <v>1</v>
+      </c>
+      <c r="DI116">
+        <v>0</v>
+      </c>
+      <c r="DJ116">
+        <v>0</v>
+      </c>
+      <c r="DK116">
+        <v>0</v>
+      </c>
+      <c r="DL116">
+        <v>0</v>
+      </c>
+      <c r="DM116">
+        <v>2</v>
+      </c>
+      <c r="DN116">
+        <v>0</v>
+      </c>
+      <c r="DO116">
+        <v>1</v>
+      </c>
+      <c r="DP116">
+        <v>1</v>
+      </c>
+      <c r="DQ116">
+        <v>0</v>
+      </c>
+      <c r="DR116">
+        <v>3</v>
+      </c>
+      <c r="DS116">
+        <v>0</v>
+      </c>
+      <c r="DT116">
+        <v>0</v>
+      </c>
+      <c r="DU116">
+        <v>0</v>
+      </c>
+      <c r="DV116">
+        <v>113</v>
+      </c>
+      <c r="DW116">
+        <v>3</v>
+      </c>
+      <c r="DX116">
+        <v>0</v>
+      </c>
+      <c r="DY116">
+        <v>0</v>
+      </c>
+      <c r="DZ116">
+        <v>0</v>
+      </c>
+      <c r="EA116">
+        <v>0</v>
+      </c>
+      <c r="EB116">
+        <v>4</v>
+      </c>
+      <c r="EC116">
+        <v>0</v>
+      </c>
+      <c r="ED116">
+        <v>0</v>
+      </c>
+      <c r="EE116">
+        <v>0</v>
+      </c>
+      <c r="EF116">
+        <v>0</v>
+      </c>
+      <c r="EG116">
+        <v>138</v>
+      </c>
+      <c r="EH116">
+        <v>0</v>
+      </c>
+      <c r="EI116">
+        <v>2</v>
+      </c>
+      <c r="EJ116">
+        <v>0</v>
+      </c>
+      <c r="EK116">
+        <v>2</v>
+      </c>
+      <c r="EL116">
+        <v>3</v>
+      </c>
+      <c r="EM116">
+        <v>1</v>
+      </c>
+      <c r="EN116">
+        <v>0</v>
+      </c>
+      <c r="EO116">
+        <v>6</v>
+      </c>
+      <c r="EP116">
+        <v>0</v>
+      </c>
+      <c r="EQ116">
+        <v>0</v>
+      </c>
+      <c r="ER116">
+        <v>0</v>
+      </c>
+      <c r="ES116">
+        <v>3</v>
+      </c>
+      <c r="ET116">
+        <v>0</v>
+      </c>
+      <c r="EU116">
+        <v>0</v>
+      </c>
+      <c r="EV116">
+        <v>46</v>
+      </c>
+      <c r="EW116">
+        <v>9</v>
+      </c>
+      <c r="EX116">
+        <v>25</v>
+      </c>
+      <c r="EY116">
+        <v>23</v>
+      </c>
+      <c r="EZ116">
+        <v>1</v>
+      </c>
+      <c r="FA116">
+        <v>1</v>
+      </c>
+      <c r="FB116">
+        <v>25</v>
+      </c>
+      <c r="FC116">
+        <v>57</v>
+      </c>
+      <c r="FD116">
+        <v>0</v>
+      </c>
+      <c r="FE116">
+        <v>0</v>
+      </c>
+      <c r="FF116">
+        <v>0</v>
+      </c>
+      <c r="FG116">
+        <v>0</v>
+      </c>
+      <c r="FH116">
+        <v>0</v>
+      </c>
+      <c r="FI116">
+        <v>0</v>
+      </c>
+      <c r="FJ116">
+        <v>5</v>
+      </c>
+      <c r="FK116">
+        <v>1</v>
+      </c>
+      <c r="FL116">
+        <v>9</v>
+      </c>
+      <c r="FM116">
+        <v>0</v>
+      </c>
+      <c r="FN116">
+        <v>0</v>
+      </c>
+      <c r="FO116">
+        <v>1</v>
+      </c>
+      <c r="FP116">
+        <v>2</v>
+      </c>
+      <c r="FQ116">
+        <v>0</v>
+      </c>
+      <c r="FR116">
+        <v>2</v>
+      </c>
+      <c r="FS116">
+        <v>6</v>
+      </c>
+      <c r="FT116">
+        <v>7</v>
+      </c>
+      <c r="FU116">
+        <v>2</v>
+      </c>
+      <c r="FV116">
+        <v>0</v>
+      </c>
+      <c r="FW116">
+        <v>435</v>
+      </c>
+      <c r="FX116">
+        <v>0</v>
+      </c>
+      <c r="FY116">
+        <v>1</v>
+      </c>
+      <c r="FZ116">
+        <v>0</v>
+      </c>
+      <c r="GA116">
+        <v>172</v>
+      </c>
+      <c r="GB116">
+        <v>30</v>
+      </c>
+      <c r="GC116">
+        <v>0</v>
+      </c>
+      <c r="GD116">
+        <v>0</v>
+      </c>
+      <c r="GE116">
+        <v>2</v>
+      </c>
+      <c r="GF116">
+        <v>0</v>
+      </c>
+      <c r="GG116">
+        <v>0</v>
+      </c>
+      <c r="GH116">
+        <v>0</v>
+      </c>
+      <c r="GI116">
+        <v>0</v>
+      </c>
+      <c r="GJ116">
+        <v>117</v>
+      </c>
+      <c r="GK116">
+        <v>0</v>
+      </c>
+      <c r="GL116">
+        <v>0</v>
+      </c>
+      <c r="GM116">
+        <v>13</v>
+      </c>
+      <c r="GN116">
+        <v>6</v>
+      </c>
+      <c r="GO116">
+        <v>763</v>
+      </c>
+      <c r="GP116">
+        <v>2</v>
+      </c>
+      <c r="GQ116">
+        <v>0</v>
+      </c>
+      <c r="GR116">
+        <v>1721</v>
+      </c>
+      <c r="GS116">
+        <v>0</v>
+      </c>
+      <c r="GT116">
+        <v>1</v>
+      </c>
+      <c r="GU116">
+        <v>0</v>
+      </c>
+      <c r="GV116">
+        <v>0</v>
+      </c>
+      <c r="GW116">
+        <v>0</v>
+      </c>
+      <c r="GX116">
+        <v>0</v>
+      </c>
+      <c r="GY116">
         <v>0</v>
       </c>
     </row>

--- a/ecdc_csv/data/ecdc_csv_diff.xlsx
+++ b/ecdc_csv/data/ecdc_csv_diff.xlsx
@@ -997,7 +997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY116"/>
+  <dimension ref="A1:GY117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -37897,7 +37897,7 @@
         <v>121</v>
       </c>
       <c r="DX113">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DY113">
         <v>1</v>
@@ -39995,6 +39995,626 @@
       </c>
       <c r="GY116">
         <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:207">
+      <c r="A117" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B117">
+        <v>105</v>
+      </c>
+      <c r="C117">
+        <v>29</v>
+      </c>
+      <c r="D117">
+        <v>97</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>147</v>
+      </c>
+      <c r="J117">
+        <v>73</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>13</v>
+      </c>
+      <c r="M117">
+        <v>61</v>
+      </c>
+      <c r="N117">
+        <v>30</v>
+      </c>
+      <c r="O117">
+        <v>2</v>
+      </c>
+      <c r="P117">
+        <v>210</v>
+      </c>
+      <c r="Q117">
+        <v>414</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>741</v>
+      </c>
+      <c r="T117">
+        <v>908</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>4</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>31</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>46</v>
+      </c>
+      <c r="AB117">
+        <v>0</v>
+      </c>
+      <c r="AC117">
+        <v>3735</v>
+      </c>
+      <c r="AD117">
+        <v>0</v>
+      </c>
+      <c r="AE117">
+        <v>0</v>
+      </c>
+      <c r="AF117">
+        <v>73</v>
+      </c>
+      <c r="AG117">
+        <v>7</v>
+      </c>
+      <c r="AH117">
+        <v>0</v>
+      </c>
+      <c r="AI117">
+        <v>0</v>
+      </c>
+      <c r="AJ117">
+        <v>238</v>
+      </c>
+      <c r="AK117">
+        <v>1920</v>
+      </c>
+      <c r="AL117">
+        <v>9</v>
+      </c>
+      <c r="AN117">
+        <v>0</v>
+      </c>
+      <c r="AO117">
+        <v>1</v>
+      </c>
+      <c r="AP117">
+        <v>6</v>
+      </c>
+      <c r="AQ117">
+        <v>516</v>
+      </c>
+      <c r="AR117">
+        <v>8</v>
+      </c>
+      <c r="AS117">
+        <v>205</v>
+      </c>
+      <c r="AT117">
+        <v>0</v>
+      </c>
+      <c r="AU117">
+        <v>6</v>
+      </c>
+      <c r="AV117">
+        <v>52</v>
+      </c>
+      <c r="AW117">
+        <v>31</v>
+      </c>
+      <c r="AX117">
+        <v>46</v>
+      </c>
+      <c r="AY117">
+        <v>0</v>
+      </c>
+      <c r="AZ117">
+        <v>5</v>
+      </c>
+      <c r="BA117">
+        <v>52</v>
+      </c>
+      <c r="BB117">
+        <v>17</v>
+      </c>
+      <c r="BC117">
+        <v>161</v>
+      </c>
+      <c r="BD117">
+        <v>12</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>243</v>
+      </c>
+      <c r="BG117">
+        <v>333</v>
+      </c>
+      <c r="BH117">
+        <v>169</v>
+      </c>
+      <c r="BI117">
+        <v>13</v>
+      </c>
+      <c r="BJ117">
+        <v>1</v>
+      </c>
+      <c r="BK117">
+        <v>0</v>
+      </c>
+      <c r="BL117">
+        <v>33</v>
+      </c>
+      <c r="BM117">
+        <v>1</v>
+      </c>
+      <c r="BN117">
+        <v>0</v>
+      </c>
+      <c r="BO117">
+        <v>0</v>
+      </c>
+      <c r="BP117">
+        <v>2</v>
+      </c>
+      <c r="BQ117">
+        <v>0</v>
+      </c>
+      <c r="BR117">
+        <v>155</v>
+      </c>
+      <c r="BS117">
+        <v>1653</v>
+      </c>
+      <c r="BT117">
+        <v>0</v>
+      </c>
+      <c r="BU117">
+        <v>1</v>
+      </c>
+      <c r="BV117">
+        <v>0</v>
+      </c>
+      <c r="BW117">
+        <v>9</v>
+      </c>
+      <c r="BX117">
+        <v>2337</v>
+      </c>
+      <c r="BY117">
+        <v>0</v>
+      </c>
+      <c r="BZ117">
+        <v>0</v>
+      </c>
+      <c r="CA117">
+        <v>55</v>
+      </c>
+      <c r="CB117">
+        <v>0</v>
+      </c>
+      <c r="CC117">
+        <v>0</v>
+      </c>
+      <c r="CD117">
+        <v>3</v>
+      </c>
+      <c r="CE117">
+        <v>42</v>
+      </c>
+      <c r="CF117">
+        <v>2</v>
+      </c>
+      <c r="CG117">
+        <v>101</v>
+      </c>
+      <c r="CH117">
+        <v>2</v>
+      </c>
+      <c r="CI117">
+        <v>3</v>
+      </c>
+      <c r="CJ117">
+        <v>10</v>
+      </c>
+      <c r="CK117">
+        <v>0</v>
+      </c>
+      <c r="CL117">
+        <v>0</v>
+      </c>
+      <c r="CM117">
+        <v>99</v>
+      </c>
+      <c r="CN117">
+        <v>4</v>
+      </c>
+      <c r="CO117">
+        <v>1684</v>
+      </c>
+      <c r="CP117">
+        <v>357</v>
+      </c>
+      <c r="CQ117">
+        <v>1030</v>
+      </c>
+      <c r="CR117">
+        <v>75</v>
+      </c>
+      <c r="CS117">
+        <v>936</v>
+      </c>
+      <c r="CT117">
+        <v>0</v>
+      </c>
+      <c r="CU117">
+        <v>290</v>
+      </c>
+      <c r="CV117">
+        <v>2646</v>
+      </c>
+      <c r="CW117">
+        <v>0</v>
+      </c>
+      <c r="CX117">
+        <v>468</v>
+      </c>
+      <c r="CY117">
+        <v>21</v>
+      </c>
+      <c r="CZ117">
+        <v>9</v>
+      </c>
+      <c r="DA117">
+        <v>143</v>
+      </c>
+      <c r="DB117">
+        <v>17</v>
+      </c>
+      <c r="DC117">
+        <v>39</v>
+      </c>
+      <c r="DD117">
+        <v>151</v>
+      </c>
+      <c r="DE117">
+        <v>25</v>
+      </c>
+      <c r="DF117">
+        <v>0</v>
+      </c>
+      <c r="DG117">
+        <v>17</v>
+      </c>
+      <c r="DH117">
+        <v>6</v>
+      </c>
+      <c r="DI117">
+        <v>0</v>
+      </c>
+      <c r="DJ117">
+        <v>1</v>
+      </c>
+      <c r="DK117">
+        <v>0</v>
+      </c>
+      <c r="DL117">
+        <v>12</v>
+      </c>
+      <c r="DM117">
+        <v>11</v>
+      </c>
+      <c r="DN117">
+        <v>0</v>
+      </c>
+      <c r="DO117">
+        <v>10</v>
+      </c>
+      <c r="DP117">
+        <v>71</v>
+      </c>
+      <c r="DQ117">
+        <v>25</v>
+      </c>
+      <c r="DR117">
+        <v>16</v>
+      </c>
+      <c r="DS117">
+        <v>1</v>
+      </c>
+      <c r="DT117">
+        <v>0</v>
+      </c>
+      <c r="DU117">
+        <v>2</v>
+      </c>
+      <c r="DV117">
+        <v>1089</v>
+      </c>
+      <c r="DW117">
+        <v>148</v>
+      </c>
+      <c r="DX117">
+        <v>0</v>
+      </c>
+      <c r="DY117">
+        <v>1</v>
+      </c>
+      <c r="DZ117">
+        <v>4</v>
+      </c>
+      <c r="EA117">
+        <v>0</v>
+      </c>
+      <c r="EB117">
+        <v>191</v>
+      </c>
+      <c r="EC117">
+        <v>5</v>
+      </c>
+      <c r="ED117">
+        <v>5</v>
+      </c>
+      <c r="EE117">
+        <v>0</v>
+      </c>
+      <c r="EF117">
+        <v>3</v>
+      </c>
+      <c r="EG117">
+        <v>887</v>
+      </c>
+      <c r="EH117">
+        <v>0</v>
+      </c>
+      <c r="EI117">
+        <v>2</v>
+      </c>
+      <c r="EJ117">
+        <v>0</v>
+      </c>
+      <c r="EK117">
+        <v>9</v>
+      </c>
+      <c r="EL117">
+        <v>108</v>
+      </c>
+      <c r="EM117">
+        <v>41</v>
+      </c>
+      <c r="EN117">
+        <v>0</v>
+      </c>
+      <c r="EO117">
+        <v>95</v>
+      </c>
+      <c r="EP117">
+        <v>102</v>
+      </c>
+      <c r="EQ117">
+        <v>1406</v>
+      </c>
+      <c r="ER117">
+        <v>1</v>
+      </c>
+      <c r="ES117">
+        <v>174</v>
+      </c>
+      <c r="ET117">
+        <v>0</v>
+      </c>
+      <c r="EU117">
+        <v>7</v>
+      </c>
+      <c r="EV117">
+        <v>1664</v>
+      </c>
+      <c r="EW117">
+        <v>271</v>
+      </c>
+      <c r="EX117">
+        <v>342</v>
+      </c>
+      <c r="EY117">
+        <v>371</v>
+      </c>
+      <c r="EZ117">
+        <v>118</v>
+      </c>
+      <c r="FA117">
+        <v>623</v>
+      </c>
+      <c r="FB117">
+        <v>386</v>
+      </c>
+      <c r="FC117">
+        <v>4774</v>
+      </c>
+      <c r="FD117">
+        <v>1</v>
+      </c>
+      <c r="FE117">
+        <v>0</v>
+      </c>
+      <c r="FF117">
+        <v>0</v>
+      </c>
+      <c r="FG117">
+        <v>0</v>
+      </c>
+      <c r="FH117">
+        <v>13</v>
+      </c>
+      <c r="FI117">
+        <v>1</v>
+      </c>
+      <c r="FJ117">
+        <v>1158</v>
+      </c>
+      <c r="FK117">
+        <v>37</v>
+      </c>
+      <c r="FL117">
+        <v>162</v>
+      </c>
+      <c r="FM117">
+        <v>0</v>
+      </c>
+      <c r="FN117">
+        <v>3</v>
+      </c>
+      <c r="FO117">
+        <v>1037</v>
+      </c>
+      <c r="FP117">
+        <v>0</v>
+      </c>
+      <c r="FQ117">
+        <v>81</v>
+      </c>
+      <c r="FR117">
+        <v>13</v>
+      </c>
+      <c r="FS117">
+        <v>42</v>
+      </c>
+      <c r="FT117">
+        <v>318</v>
+      </c>
+      <c r="FU117">
+        <v>6</v>
+      </c>
+      <c r="FV117">
+        <v>0</v>
+      </c>
+      <c r="FW117">
+        <v>4635</v>
+      </c>
+      <c r="FX117">
+        <v>38</v>
+      </c>
+      <c r="FY117">
+        <v>22</v>
+      </c>
+      <c r="FZ117">
+        <v>0</v>
+      </c>
+      <c r="GA117">
+        <v>751</v>
+      </c>
+      <c r="GB117">
+        <v>228</v>
+      </c>
+      <c r="GC117">
+        <v>0</v>
+      </c>
+      <c r="GD117">
+        <v>1</v>
+      </c>
+      <c r="GE117">
+        <v>0</v>
+      </c>
+      <c r="GF117">
+        <v>0</v>
+      </c>
+      <c r="GG117">
+        <v>0</v>
+      </c>
+      <c r="GH117">
+        <v>0</v>
+      </c>
+      <c r="GI117">
+        <v>17</v>
+      </c>
+      <c r="GJ117">
+        <v>3116</v>
+      </c>
+      <c r="GK117">
+        <v>0</v>
+      </c>
+      <c r="GL117">
+        <v>13</v>
+      </c>
+      <c r="GM117">
+        <v>477</v>
+      </c>
+      <c r="GN117">
+        <v>518</v>
+      </c>
+      <c r="GO117">
+        <v>4583</v>
+      </c>
+      <c r="GP117">
+        <v>0</v>
+      </c>
+      <c r="GQ117">
+        <v>0</v>
+      </c>
+      <c r="GR117">
+        <v>26543</v>
+      </c>
+      <c r="GS117">
+        <v>8</v>
+      </c>
+      <c r="GT117">
+        <v>62</v>
+      </c>
+      <c r="GU117">
+        <v>10</v>
+      </c>
+      <c r="GV117">
+        <v>0</v>
+      </c>
+      <c r="GW117">
+        <v>0</v>
+      </c>
+      <c r="GX117">
+        <v>2</v>
+      </c>
+      <c r="GY117">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -40004,7 +40624,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY116"/>
+  <dimension ref="A1:GY117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -79004,6 +79624,626 @@
         <v>0</v>
       </c>
     </row>
+    <row r="117" spans="1:207">
+      <c r="A117" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>6</v>
+      </c>
+      <c r="J117">
+        <v>3</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>14</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>2</v>
+      </c>
+      <c r="P117">
+        <v>1</v>
+      </c>
+      <c r="Q117">
+        <v>7</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>2</v>
+      </c>
+      <c r="T117">
+        <v>228</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>3</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>1</v>
+      </c>
+      <c r="AB117">
+        <v>0</v>
+      </c>
+      <c r="AC117">
+        <v>407</v>
+      </c>
+      <c r="AD117">
+        <v>0</v>
+      </c>
+      <c r="AE117">
+        <v>0</v>
+      </c>
+      <c r="AF117">
+        <v>3</v>
+      </c>
+      <c r="AG117">
+        <v>2</v>
+      </c>
+      <c r="AH117">
+        <v>0</v>
+      </c>
+      <c r="AI117">
+        <v>0</v>
+      </c>
+      <c r="AJ117">
+        <v>6</v>
+      </c>
+      <c r="AK117">
+        <v>172</v>
+      </c>
+      <c r="AL117">
+        <v>0</v>
+      </c>
+      <c r="AN117">
+        <v>0</v>
+      </c>
+      <c r="AO117">
+        <v>0</v>
+      </c>
+      <c r="AP117">
+        <v>0</v>
+      </c>
+      <c r="AQ117">
+        <v>8</v>
+      </c>
+      <c r="AR117">
+        <v>0</v>
+      </c>
+      <c r="AS117">
+        <v>9</v>
+      </c>
+      <c r="AT117">
+        <v>0</v>
+      </c>
+      <c r="AU117">
+        <v>0</v>
+      </c>
+      <c r="AV117">
+        <v>0</v>
+      </c>
+      <c r="AW117">
+        <v>2</v>
+      </c>
+      <c r="AX117">
+        <v>3</v>
+      </c>
+      <c r="AY117">
+        <v>0</v>
+      </c>
+      <c r="AZ117">
+        <v>0</v>
+      </c>
+      <c r="BA117">
+        <v>3</v>
+      </c>
+      <c r="BB117">
+        <v>0</v>
+      </c>
+      <c r="BC117">
+        <v>10</v>
+      </c>
+      <c r="BD117">
+        <v>0</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>5</v>
+      </c>
+      <c r="BG117">
+        <v>23</v>
+      </c>
+      <c r="BH117">
+        <v>12</v>
+      </c>
+      <c r="BI117">
+        <v>0</v>
+      </c>
+      <c r="BJ117">
+        <v>1</v>
+      </c>
+      <c r="BK117">
+        <v>0</v>
+      </c>
+      <c r="BL117">
+        <v>1</v>
+      </c>
+      <c r="BM117">
+        <v>0</v>
+      </c>
+      <c r="BN117">
+        <v>0</v>
+      </c>
+      <c r="BO117">
+        <v>0</v>
+      </c>
+      <c r="BP117">
+        <v>0</v>
+      </c>
+      <c r="BQ117">
+        <v>0</v>
+      </c>
+      <c r="BR117">
+        <v>23</v>
+      </c>
+      <c r="BS117">
+        <v>516</v>
+      </c>
+      <c r="BT117">
+        <v>0</v>
+      </c>
+      <c r="BU117">
+        <v>1</v>
+      </c>
+      <c r="BV117">
+        <v>0</v>
+      </c>
+      <c r="BW117">
+        <v>0</v>
+      </c>
+      <c r="BX117">
+        <v>227</v>
+      </c>
+      <c r="BY117">
+        <v>0</v>
+      </c>
+      <c r="BZ117">
+        <v>0</v>
+      </c>
+      <c r="CA117">
+        <v>4</v>
+      </c>
+      <c r="CB117">
+        <v>0</v>
+      </c>
+      <c r="CC117">
+        <v>0</v>
+      </c>
+      <c r="CD117">
+        <v>0</v>
+      </c>
+      <c r="CE117">
+        <v>1</v>
+      </c>
+      <c r="CF117">
+        <v>0</v>
+      </c>
+      <c r="CG117">
+        <v>0</v>
+      </c>
+      <c r="CH117">
+        <v>0</v>
+      </c>
+      <c r="CI117">
+        <v>0</v>
+      </c>
+      <c r="CJ117">
+        <v>1</v>
+      </c>
+      <c r="CK117">
+        <v>0</v>
+      </c>
+      <c r="CL117">
+        <v>0</v>
+      </c>
+      <c r="CM117">
+        <v>25</v>
+      </c>
+      <c r="CN117">
+        <v>0</v>
+      </c>
+      <c r="CO117">
+        <v>37</v>
+      </c>
+      <c r="CP117">
+        <v>12</v>
+      </c>
+      <c r="CQ117">
+        <v>90</v>
+      </c>
+      <c r="CR117">
+        <v>0</v>
+      </c>
+      <c r="CS117">
+        <v>25</v>
+      </c>
+      <c r="CT117">
+        <v>1</v>
+      </c>
+      <c r="CU117">
+        <v>2</v>
+      </c>
+      <c r="CV117">
+        <v>464</v>
+      </c>
+      <c r="CW117">
+        <v>0</v>
+      </c>
+      <c r="CX117">
+        <v>30</v>
+      </c>
+      <c r="CY117">
+        <v>1</v>
+      </c>
+      <c r="CZ117">
+        <v>0</v>
+      </c>
+      <c r="DA117">
+        <v>3</v>
+      </c>
+      <c r="DB117">
+        <v>0</v>
+      </c>
+      <c r="DC117">
+        <v>1</v>
+      </c>
+      <c r="DD117">
+        <v>1</v>
+      </c>
+      <c r="DE117">
+        <v>0</v>
+      </c>
+      <c r="DF117">
+        <v>0</v>
+      </c>
+      <c r="DG117">
+        <v>0</v>
+      </c>
+      <c r="DH117">
+        <v>0</v>
+      </c>
+      <c r="DI117">
+        <v>0</v>
+      </c>
+      <c r="DJ117">
+        <v>1</v>
+      </c>
+      <c r="DK117">
+        <v>0</v>
+      </c>
+      <c r="DL117">
+        <v>2</v>
+      </c>
+      <c r="DM117">
+        <v>3</v>
+      </c>
+      <c r="DN117">
+        <v>0</v>
+      </c>
+      <c r="DO117">
+        <v>0</v>
+      </c>
+      <c r="DP117">
+        <v>2</v>
+      </c>
+      <c r="DQ117">
+        <v>0</v>
+      </c>
+      <c r="DR117">
+        <v>4</v>
+      </c>
+      <c r="DS117">
+        <v>0</v>
+      </c>
+      <c r="DT117">
+        <v>0</v>
+      </c>
+      <c r="DU117">
+        <v>0</v>
+      </c>
+      <c r="DV117">
+        <v>99</v>
+      </c>
+      <c r="DW117">
+        <v>4</v>
+      </c>
+      <c r="DX117">
+        <v>1</v>
+      </c>
+      <c r="DY117">
+        <v>0</v>
+      </c>
+      <c r="DZ117">
+        <v>0</v>
+      </c>
+      <c r="EA117">
+        <v>0</v>
+      </c>
+      <c r="EB117">
+        <v>6</v>
+      </c>
+      <c r="EC117">
+        <v>0</v>
+      </c>
+      <c r="ED117">
+        <v>0</v>
+      </c>
+      <c r="EE117">
+        <v>0</v>
+      </c>
+      <c r="EF117">
+        <v>0</v>
+      </c>
+      <c r="EG117">
+        <v>123</v>
+      </c>
+      <c r="EH117">
+        <v>0</v>
+      </c>
+      <c r="EI117">
+        <v>1</v>
+      </c>
+      <c r="EJ117">
+        <v>0</v>
+      </c>
+      <c r="EK117">
+        <v>2</v>
+      </c>
+      <c r="EL117">
+        <v>3</v>
+      </c>
+      <c r="EM117">
+        <v>0</v>
+      </c>
+      <c r="EN117">
+        <v>0</v>
+      </c>
+      <c r="EO117">
+        <v>11</v>
+      </c>
+      <c r="EP117">
+        <v>1</v>
+      </c>
+      <c r="EQ117">
+        <v>28</v>
+      </c>
+      <c r="ER117">
+        <v>0</v>
+      </c>
+      <c r="ES117">
+        <v>2</v>
+      </c>
+      <c r="ET117">
+        <v>0</v>
+      </c>
+      <c r="EU117">
+        <v>0</v>
+      </c>
+      <c r="EV117">
+        <v>42</v>
+      </c>
+      <c r="EW117">
+        <v>16</v>
+      </c>
+      <c r="EX117">
+        <v>28</v>
+      </c>
+      <c r="EY117">
+        <v>35</v>
+      </c>
+      <c r="EZ117">
+        <v>5</v>
+      </c>
+      <c r="FA117">
+        <v>0</v>
+      </c>
+      <c r="FB117">
+        <v>19</v>
+      </c>
+      <c r="FC117">
+        <v>42</v>
+      </c>
+      <c r="FD117">
+        <v>0</v>
+      </c>
+      <c r="FE117">
+        <v>0</v>
+      </c>
+      <c r="FF117">
+        <v>0</v>
+      </c>
+      <c r="FG117">
+        <v>0</v>
+      </c>
+      <c r="FH117">
+        <v>0</v>
+      </c>
+      <c r="FI117">
+        <v>0</v>
+      </c>
+      <c r="FJ117">
+        <v>7</v>
+      </c>
+      <c r="FK117">
+        <v>0</v>
+      </c>
+      <c r="FL117">
+        <v>5</v>
+      </c>
+      <c r="FM117">
+        <v>0</v>
+      </c>
+      <c r="FN117">
+        <v>1</v>
+      </c>
+      <c r="FO117">
+        <v>0</v>
+      </c>
+      <c r="FP117">
+        <v>0</v>
+      </c>
+      <c r="FQ117">
+        <v>1</v>
+      </c>
+      <c r="FR117">
+        <v>0</v>
+      </c>
+      <c r="FS117">
+        <v>0</v>
+      </c>
+      <c r="FT117">
+        <v>10</v>
+      </c>
+      <c r="FU117">
+        <v>0</v>
+      </c>
+      <c r="FV117">
+        <v>0</v>
+      </c>
+      <c r="FW117">
+        <v>440</v>
+      </c>
+      <c r="FX117">
+        <v>0</v>
+      </c>
+      <c r="FY117">
+        <v>0</v>
+      </c>
+      <c r="FZ117">
+        <v>0</v>
+      </c>
+      <c r="GA117">
+        <v>84</v>
+      </c>
+      <c r="GB117">
+        <v>51</v>
+      </c>
+      <c r="GC117">
+        <v>0</v>
+      </c>
+      <c r="GD117">
+        <v>0</v>
+      </c>
+      <c r="GE117">
+        <v>0</v>
+      </c>
+      <c r="GF117">
+        <v>0</v>
+      </c>
+      <c r="GG117">
+        <v>0</v>
+      </c>
+      <c r="GH117">
+        <v>0</v>
+      </c>
+      <c r="GI117">
+        <v>0</v>
+      </c>
+      <c r="GJ117">
+        <v>115</v>
+      </c>
+      <c r="GK117">
+        <v>0</v>
+      </c>
+      <c r="GL117">
+        <v>0</v>
+      </c>
+      <c r="GM117">
+        <v>6</v>
+      </c>
+      <c r="GN117">
+        <v>4</v>
+      </c>
+      <c r="GO117">
+        <v>638</v>
+      </c>
+      <c r="GP117">
+        <v>0</v>
+      </c>
+      <c r="GQ117">
+        <v>0</v>
+      </c>
+      <c r="GR117">
+        <v>3179</v>
+      </c>
+      <c r="GS117">
+        <v>0</v>
+      </c>
+      <c r="GT117">
+        <v>0</v>
+      </c>
+      <c r="GU117">
+        <v>0</v>
+      </c>
+      <c r="GV117">
+        <v>0</v>
+      </c>
+      <c r="GW117">
+        <v>0</v>
+      </c>
+      <c r="GX117">
+        <v>0</v>
+      </c>
+      <c r="GY117">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ecdc_csv/data/ecdc_csv_diff.xlsx
+++ b/ecdc_csv/data/ecdc_csv_diff.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="208">
   <si>
     <t>Date</t>
   </si>
@@ -629,6 +629,9 @@
     <t>Vietnam</t>
   </si>
   <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
     <t>Yemen</t>
   </si>
   <si>
@@ -997,7 +1000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY117"/>
+  <dimension ref="A1:GZ120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1011,7 +1014,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:207">
+    <row r="1" spans="1:208">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1633,8 +1636,11 @@
       <c r="GY1" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="GZ1" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
-    <row r="2" spans="1:207">
+    <row r="2" spans="1:208">
       <c r="A2" s="2">
         <v>43830</v>
       </c>
@@ -1840,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:207">
+    <row r="3" spans="1:208">
       <c r="A3" s="2">
         <v>43831</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:207">
+    <row r="4" spans="1:208">
       <c r="A4" s="2">
         <v>43832</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:207">
+    <row r="5" spans="1:208">
       <c r="A5" s="2">
         <v>43833</v>
       </c>
@@ -2458,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:207">
+    <row r="6" spans="1:208">
       <c r="A6" s="2">
         <v>43834</v>
       </c>
@@ -2664,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:207">
+    <row r="7" spans="1:208">
       <c r="A7" s="2">
         <v>43835</v>
       </c>
@@ -2870,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:207">
+    <row r="8" spans="1:208">
       <c r="A8" s="2">
         <v>43836</v>
       </c>
@@ -3076,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:207">
+    <row r="9" spans="1:208">
       <c r="A9" s="2">
         <v>43837</v>
       </c>
@@ -3282,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:207">
+    <row r="10" spans="1:208">
       <c r="A10" s="2">
         <v>43838</v>
       </c>
@@ -3488,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:207">
+    <row r="11" spans="1:208">
       <c r="A11" s="2">
         <v>43839</v>
       </c>
@@ -3694,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:207">
+    <row r="12" spans="1:208">
       <c r="A12" s="2">
         <v>43840</v>
       </c>
@@ -3900,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:207">
+    <row r="13" spans="1:208">
       <c r="A13" s="2">
         <v>43841</v>
       </c>
@@ -4106,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:207">
+    <row r="14" spans="1:208">
       <c r="A14" s="2">
         <v>43842</v>
       </c>
@@ -4312,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:207">
+    <row r="15" spans="1:208">
       <c r="A15" s="2">
         <v>43843</v>
       </c>
@@ -4518,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:207">
+    <row r="16" spans="1:208">
       <c r="A16" s="2">
         <v>43844</v>
       </c>
@@ -15966,7 +15972,7 @@
         <v>200</v>
       </c>
       <c r="GV72">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:204">
@@ -16471,7 +16477,7 @@
         <v>287</v>
       </c>
       <c r="GV74">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:204">
@@ -17042,7 +17048,7 @@
         <v>511</v>
       </c>
       <c r="GV76">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:204">
@@ -17410,7 +17416,7 @@
         <v>10</v>
       </c>
       <c r="GV77">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:204">
@@ -18649,10 +18655,10 @@
         <v>0</v>
       </c>
       <c r="GV80">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:207">
+    <row r="81" spans="1:208">
       <c r="A81" s="2">
         <v>43909</v>
       </c>
@@ -19098,13 +19104,13 @@
         <v>0</v>
       </c>
       <c r="GV81">
-        <v>15</v>
-      </c>
-      <c r="GX81">
+        <v>8</v>
+      </c>
+      <c r="GY81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:207">
+    <row r="82" spans="1:208">
       <c r="A82" s="2">
         <v>43910</v>
       </c>
@@ -19592,13 +19598,13 @@
         <v>0</v>
       </c>
       <c r="GV82">
-        <v>9</v>
-      </c>
-      <c r="GX82">
+        <v>11</v>
+      </c>
+      <c r="GY82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:207">
+    <row r="83" spans="1:208">
       <c r="A83" s="2">
         <v>43911</v>
       </c>
@@ -20107,16 +20113,16 @@
         <v>3</v>
       </c>
       <c r="GV83">
-        <v>2</v>
-      </c>
-      <c r="GX83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GY83">
+        <v>0</v>
+      </c>
+      <c r="GZ83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:207">
+    <row r="84" spans="1:208">
       <c r="A84" s="2">
         <v>43912</v>
       </c>
@@ -20639,14 +20645,14 @@
       <c r="GV84">
         <v>7</v>
       </c>
-      <c r="GX84">
-        <v>0</v>
-      </c>
       <c r="GY84">
+        <v>0</v>
+      </c>
+      <c r="GZ84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:207">
+    <row r="85" spans="1:208">
       <c r="A85" s="2">
         <v>43913</v>
       </c>
@@ -21179,16 +21185,16 @@
         <v>0</v>
       </c>
       <c r="GV85">
-        <v>24</v>
-      </c>
-      <c r="GX85">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="GY85">
+        <v>1</v>
+      </c>
+      <c r="GZ85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:207">
+    <row r="86" spans="1:208">
       <c r="A86" s="2">
         <v>43914</v>
       </c>
@@ -21736,16 +21742,16 @@
         <v>48</v>
       </c>
       <c r="GV86">
-        <v>5</v>
-      </c>
-      <c r="GX86">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="GY86">
         <v>0</v>
       </c>
+      <c r="GZ86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:207">
+    <row r="87" spans="1:208">
       <c r="A87" s="2">
         <v>43915</v>
       </c>
@@ -22302,16 +22308,16 @@
         <v>7</v>
       </c>
       <c r="GV87">
-        <v>11</v>
-      </c>
-      <c r="GX87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="GY87">
         <v>0</v>
       </c>
+      <c r="GZ87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:207">
+    <row r="88" spans="1:208">
       <c r="A88" s="2">
         <v>43916</v>
       </c>
@@ -22880,16 +22886,16 @@
         <v>15</v>
       </c>
       <c r="GV88">
-        <v>14</v>
-      </c>
-      <c r="GX88">
+        <v>16</v>
+      </c>
+      <c r="GY88">
         <v>9</v>
       </c>
-      <c r="GY88">
+      <c r="GZ88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:207">
+    <row r="89" spans="1:208">
       <c r="A89" s="2">
         <v>43917</v>
       </c>
@@ -23467,16 +23473,16 @@
         <v>1</v>
       </c>
       <c r="GV89">
-        <v>5</v>
-      </c>
-      <c r="GX89">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="GY89">
+        <v>2</v>
+      </c>
+      <c r="GZ89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:207">
+    <row r="90" spans="1:208">
       <c r="A90" s="2">
         <v>43918</v>
       </c>
@@ -24057,16 +24063,16 @@
         <v>12</v>
       </c>
       <c r="GV90">
-        <v>16</v>
-      </c>
-      <c r="GX90">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="GY90">
         <v>2</v>
       </c>
+      <c r="GZ90">
+        <v>2</v>
+      </c>
     </row>
-    <row r="91" spans="1:207">
+    <row r="91" spans="1:208">
       <c r="A91" s="2">
         <v>43919</v>
       </c>
@@ -24647,16 +24653,16 @@
         <v>0</v>
       </c>
       <c r="GV91">
-        <v>54</v>
-      </c>
-      <c r="GX91">
+        <v>17</v>
+      </c>
+      <c r="GY91">
         <v>12</v>
       </c>
-      <c r="GY91">
+      <c r="GZ91">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:207">
+    <row r="92" spans="1:208">
       <c r="A92" s="2">
         <v>43920</v>
       </c>
@@ -25237,16 +25243,16 @@
         <v>0</v>
       </c>
       <c r="GV92">
-        <v>5</v>
-      </c>
-      <c r="GX92">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="GY92">
+        <v>1</v>
+      </c>
+      <c r="GZ92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:207">
+    <row r="93" spans="1:208">
       <c r="A93" s="2">
         <v>43921</v>
       </c>
@@ -25818,16 +25824,16 @@
         <v>16</v>
       </c>
       <c r="GV93">
-        <v>1</v>
-      </c>
-      <c r="GX93">
+        <v>3</v>
+      </c>
+      <c r="GY93">
         <v>6</v>
       </c>
-      <c r="GY93">
+      <c r="GZ93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:207">
+    <row r="94" spans="1:208">
       <c r="A94" s="2">
         <v>43922</v>
       </c>
@@ -26417,16 +26423,16 @@
         <v>0</v>
       </c>
       <c r="GV94">
-        <v>0</v>
-      </c>
-      <c r="GX94">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="GY94">
+        <v>0</v>
+      </c>
+      <c r="GZ94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:207">
+    <row r="95" spans="1:208">
       <c r="A95" s="2">
         <v>43923</v>
       </c>
@@ -27022,16 +27028,16 @@
         <v>8</v>
       </c>
       <c r="GV95">
-        <v>6</v>
-      </c>
-      <c r="GX95">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="GY95">
+        <v>1</v>
+      </c>
+      <c r="GZ95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:207">
+    <row r="96" spans="1:208">
       <c r="A96" s="2">
         <v>43924</v>
       </c>
@@ -27630,16 +27636,16 @@
         <v>1</v>
       </c>
       <c r="GV96">
-        <v>4</v>
-      </c>
-      <c r="GX96">
         <v>3</v>
       </c>
       <c r="GY96">
+        <v>3</v>
+      </c>
+      <c r="GZ96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:207">
+    <row r="97" spans="1:208">
       <c r="A97" s="2">
         <v>43925</v>
       </c>
@@ -28241,16 +28247,16 @@
         <v>0</v>
       </c>
       <c r="GV97">
-        <v>0</v>
-      </c>
-      <c r="GX97">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="GY97">
+        <v>0</v>
+      </c>
+      <c r="GZ97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:207">
+    <row r="98" spans="1:208">
       <c r="A98" s="2">
         <v>43926</v>
       </c>
@@ -28851,14 +28857,14 @@
       <c r="GV98">
         <v>1</v>
       </c>
-      <c r="GX98">
-        <v>0</v>
-      </c>
       <c r="GY98">
         <v>0</v>
       </c>
+      <c r="GZ98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:207">
+    <row r="99" spans="1:208">
       <c r="A99" s="2">
         <v>43927</v>
       </c>
@@ -29463,16 +29469,16 @@
         <v>4</v>
       </c>
       <c r="GV99">
-        <v>1</v>
-      </c>
-      <c r="GX99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="GY99">
         <v>0</v>
       </c>
+      <c r="GZ99">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:207">
+    <row r="100" spans="1:208">
       <c r="A100" s="2">
         <v>43928</v>
       </c>
@@ -30077,16 +30083,16 @@
         <v>11</v>
       </c>
       <c r="GV100">
-        <v>4</v>
-      </c>
-      <c r="GX100">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="GY100">
         <v>0</v>
       </c>
+      <c r="GZ100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:207">
+    <row r="101" spans="1:208">
       <c r="A101" s="2">
         <v>43929</v>
       </c>
@@ -30691,16 +30697,16 @@
         <v>7</v>
       </c>
       <c r="GV101">
-        <v>6</v>
-      </c>
-      <c r="GX101">
         <v>0</v>
       </c>
       <c r="GY101">
+        <v>0</v>
+      </c>
+      <c r="GZ101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:207">
+    <row r="102" spans="1:208">
       <c r="A102" s="2">
         <v>43930</v>
       </c>
@@ -31308,16 +31314,16 @@
         <v>1</v>
       </c>
       <c r="GV102">
-        <v>0</v>
-      </c>
-      <c r="GX102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="GY102">
+        <v>0</v>
+      </c>
+      <c r="GZ102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:207">
+    <row r="103" spans="1:208">
       <c r="A103" s="2">
         <v>43931</v>
       </c>
@@ -31925,19 +31931,19 @@
         <v>4</v>
       </c>
       <c r="GV103">
-        <v>4</v>
-      </c>
-      <c r="GW103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GX103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GY103">
         <v>0</v>
       </c>
+      <c r="GZ103">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="1:207">
+    <row r="104" spans="1:208">
       <c r="A104" s="2">
         <v>43932</v>
       </c>
@@ -32545,19 +32551,19 @@
         <v>4</v>
       </c>
       <c r="GV104">
-        <v>2</v>
-      </c>
-      <c r="GW104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GY104">
+        <v>1</v>
+      </c>
+      <c r="GZ104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:207">
+    <row r="105" spans="1:208">
       <c r="A105" s="2">
         <v>43933</v>
       </c>
@@ -33165,19 +33171,19 @@
         <v>0</v>
       </c>
       <c r="GV105">
-        <v>1</v>
-      </c>
-      <c r="GW105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="GX105">
         <v>0</v>
       </c>
       <c r="GY105">
+        <v>0</v>
+      </c>
+      <c r="GZ105">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:207">
+    <row r="106" spans="1:208">
       <c r="A106" s="2">
         <v>43934</v>
       </c>
@@ -33785,19 +33791,19 @@
         <v>6</v>
       </c>
       <c r="GV106">
-        <v>4</v>
-      </c>
-      <c r="GW106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GX106">
+        <v>0</v>
+      </c>
+      <c r="GY106">
         <v>3</v>
       </c>
-      <c r="GY106">
+      <c r="GZ106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:207">
+    <row r="107" spans="1:208">
       <c r="A107" s="2">
         <v>43935</v>
       </c>
@@ -34407,17 +34413,17 @@
       <c r="GV107">
         <v>3</v>
       </c>
-      <c r="GW107">
-        <v>0</v>
-      </c>
       <c r="GX107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GY107">
+        <v>2</v>
+      </c>
+      <c r="GZ107">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:207">
+    <row r="108" spans="1:208">
       <c r="A108" s="2">
         <v>43936</v>
       </c>
@@ -34950,7 +34956,7 @@
         <v>0</v>
       </c>
       <c r="FW108">
-        <v>3045</v>
+        <v>7968</v>
       </c>
       <c r="FX108">
         <v>15</v>
@@ -35027,17 +35033,17 @@
       <c r="GV108">
         <v>1</v>
       </c>
-      <c r="GW108">
-        <v>0</v>
-      </c>
       <c r="GX108">
         <v>0</v>
       </c>
       <c r="GY108">
         <v>0</v>
       </c>
+      <c r="GZ108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:207">
+    <row r="109" spans="1:208">
       <c r="A109" s="2">
         <v>43937</v>
       </c>
@@ -35570,7 +35576,7 @@
         <v>0</v>
       </c>
       <c r="FW109">
-        <v>5092</v>
+        <v>4040</v>
       </c>
       <c r="FX109">
         <v>4</v>
@@ -35645,19 +35651,19 @@
         <v>4</v>
       </c>
       <c r="GV109">
-        <v>1</v>
-      </c>
-      <c r="GW109">
         <v>0</v>
       </c>
       <c r="GX109">
+        <v>0</v>
+      </c>
+      <c r="GY109">
         <v>3</v>
       </c>
-      <c r="GY109">
+      <c r="GZ109">
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:207">
+    <row r="110" spans="1:208">
       <c r="A110" s="2">
         <v>43938</v>
       </c>
@@ -36190,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="FW110">
-        <v>5183</v>
+        <v>4400</v>
       </c>
       <c r="FX110">
         <v>1</v>
@@ -36265,19 +36271,19 @@
         <v>7</v>
       </c>
       <c r="GV110">
-        <v>1</v>
-      </c>
-      <c r="GW110">
         <v>0</v>
       </c>
       <c r="GX110">
         <v>0</v>
       </c>
       <c r="GY110">
+        <v>0</v>
+      </c>
+      <c r="GZ110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:207">
+    <row r="111" spans="1:208">
       <c r="A111" s="2">
         <v>43939</v>
       </c>
@@ -36810,7 +36816,7 @@
         <v>0</v>
       </c>
       <c r="FW111">
-        <v>5252</v>
+        <v>4104</v>
       </c>
       <c r="FX111">
         <v>6</v>
@@ -36887,17 +36893,17 @@
       <c r="GV111">
         <v>0</v>
       </c>
-      <c r="GW111">
-        <v>0</v>
-      </c>
       <c r="GX111">
+        <v>0</v>
+      </c>
+      <c r="GY111">
         <v>4</v>
       </c>
-      <c r="GY111">
+      <c r="GZ111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:207">
+    <row r="112" spans="1:208">
       <c r="A112" s="2">
         <v>43940</v>
       </c>
@@ -37430,7 +37436,7 @@
         <v>0</v>
       </c>
       <c r="FW112">
-        <v>3658</v>
+        <v>-1430</v>
       </c>
       <c r="FX112">
         <v>10</v>
@@ -37507,17 +37513,17 @@
       <c r="GV112">
         <v>0</v>
       </c>
-      <c r="GW112">
-        <v>0</v>
-      </c>
       <c r="GX112">
+        <v>0</v>
+      </c>
+      <c r="GY112">
         <v>5</v>
       </c>
-      <c r="GY112">
+      <c r="GZ112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:207">
+    <row r="113" spans="1:208">
       <c r="A113" s="2">
         <v>43941</v>
       </c>
@@ -38050,7 +38056,7 @@
         <v>0</v>
       </c>
       <c r="FW113">
-        <v>4218</v>
+        <v>2585</v>
       </c>
       <c r="FX113">
         <v>41</v>
@@ -38127,17 +38133,17 @@
       <c r="GV113">
         <v>0</v>
       </c>
-      <c r="GW113">
-        <v>0</v>
-      </c>
       <c r="GX113">
+        <v>0</v>
+      </c>
+      <c r="GY113">
         <v>4</v>
       </c>
-      <c r="GY113">
+      <c r="GZ113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:207">
+    <row r="114" spans="1:208">
       <c r="A114" s="2">
         <v>43942</v>
       </c>
@@ -38670,7 +38676,7 @@
         <v>0</v>
       </c>
       <c r="FW114">
-        <v>4266</v>
+        <v>3352</v>
       </c>
       <c r="FX114">
         <v>9</v>
@@ -38747,17 +38753,17 @@
       <c r="GV114">
         <v>0</v>
       </c>
-      <c r="GW114">
-        <v>0</v>
-      </c>
       <c r="GX114">
+        <v>0</v>
+      </c>
+      <c r="GY114">
         <v>4</v>
       </c>
-      <c r="GY114">
+      <c r="GZ114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:207">
+    <row r="115" spans="1:208">
       <c r="A115" s="2">
         <v>43943</v>
       </c>
@@ -39290,7 +39296,7 @@
         <v>0</v>
       </c>
       <c r="FW115">
-        <v>3968</v>
+        <v>2627</v>
       </c>
       <c r="FX115">
         <v>6</v>
@@ -39367,17 +39373,17 @@
       <c r="GV115">
         <v>0</v>
       </c>
-      <c r="GW115">
-        <v>0</v>
-      </c>
       <c r="GX115">
         <v>0</v>
       </c>
       <c r="GY115">
+        <v>0</v>
+      </c>
+      <c r="GZ115">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:207">
+    <row r="116" spans="1:208">
       <c r="A116" s="2">
         <v>43944</v>
       </c>
@@ -39910,7 +39916,7 @@
         <v>0</v>
       </c>
       <c r="FW116">
-        <v>4211</v>
+        <v>3052</v>
       </c>
       <c r="FX116">
         <v>20</v>
@@ -39987,17 +39993,17 @@
       <c r="GV116">
         <v>0</v>
       </c>
-      <c r="GW116">
-        <v>0</v>
-      </c>
       <c r="GX116">
+        <v>0</v>
+      </c>
+      <c r="GY116">
         <v>9</v>
       </c>
-      <c r="GY116">
+      <c r="GZ116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:207">
+    <row r="117" spans="1:208">
       <c r="A117" s="2">
         <v>43945</v>
       </c>
@@ -40530,7 +40536,7 @@
         <v>0</v>
       </c>
       <c r="FW117">
-        <v>4635</v>
+        <v>2767</v>
       </c>
       <c r="FX117">
         <v>38</v>
@@ -40605,16 +40611,1882 @@
         <v>10</v>
       </c>
       <c r="GV117">
-        <v>0</v>
-      </c>
-      <c r="GW117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GX117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GY117">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="GZ117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:208">
+      <c r="A118" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B118">
+        <v>70</v>
+      </c>
+      <c r="C118">
+        <v>15</v>
+      </c>
+      <c r="D118">
+        <v>120</v>
+      </c>
+      <c r="E118">
+        <v>7</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>81</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>20</v>
+      </c>
+      <c r="M118">
+        <v>83</v>
+      </c>
+      <c r="N118">
+        <v>44</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118">
+        <v>301</v>
+      </c>
+      <c r="Q118">
+        <v>503</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>751</v>
+      </c>
+      <c r="T118">
+        <v>1496</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>104</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>7</v>
+      </c>
+      <c r="AB118">
+        <v>0</v>
+      </c>
+      <c r="AC118">
+        <v>3503</v>
+      </c>
+      <c r="AD118">
+        <v>1</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
+      </c>
+      <c r="AF118">
+        <v>91</v>
+      </c>
+      <c r="AG118">
+        <v>10</v>
+      </c>
+      <c r="AH118">
+        <v>1</v>
+      </c>
+      <c r="AI118">
+        <v>0</v>
+      </c>
+      <c r="AJ118">
+        <v>2</v>
+      </c>
+      <c r="AK118">
+        <v>1778</v>
+      </c>
+      <c r="AL118">
+        <v>6</v>
+      </c>
+      <c r="AN118">
+        <v>0</v>
+      </c>
+      <c r="AO118">
+        <v>2</v>
+      </c>
+      <c r="AP118">
+        <v>0</v>
+      </c>
+      <c r="AQ118">
+        <v>494</v>
+      </c>
+      <c r="AR118">
+        <v>15</v>
+      </c>
+      <c r="AS118">
+        <v>320</v>
+      </c>
+      <c r="AT118">
+        <v>14</v>
+      </c>
+      <c r="AU118">
+        <v>0</v>
+      </c>
+      <c r="AV118">
+        <v>73</v>
+      </c>
+      <c r="AW118">
+        <v>28</v>
+      </c>
+      <c r="AX118">
+        <v>50</v>
+      </c>
+      <c r="AY118">
+        <v>2</v>
+      </c>
+      <c r="AZ118">
+        <v>9</v>
+      </c>
+      <c r="BA118">
+        <v>85</v>
+      </c>
+      <c r="BB118">
+        <v>22</v>
+      </c>
+      <c r="BC118">
+        <v>137</v>
+      </c>
+      <c r="BD118">
+        <v>13</v>
+      </c>
+      <c r="BE118">
+        <v>0</v>
+      </c>
+      <c r="BF118">
+        <v>206</v>
+      </c>
+      <c r="BG118">
+        <v>0</v>
+      </c>
+      <c r="BH118">
+        <v>433</v>
+      </c>
+      <c r="BI118">
+        <v>11</v>
+      </c>
+      <c r="BJ118">
+        <v>128</v>
+      </c>
+      <c r="BK118">
+        <v>0</v>
+      </c>
+      <c r="BL118">
+        <v>13</v>
+      </c>
+      <c r="BM118">
+        <v>8</v>
+      </c>
+      <c r="BN118">
+        <v>1</v>
+      </c>
+      <c r="BO118">
+        <v>0</v>
+      </c>
+      <c r="BP118">
+        <v>0</v>
+      </c>
+      <c r="BQ118">
+        <v>0</v>
+      </c>
+      <c r="BR118">
+        <v>111</v>
+      </c>
+      <c r="BS118">
+        <v>1773</v>
+      </c>
+      <c r="BT118">
+        <v>0</v>
+      </c>
+      <c r="BU118">
+        <v>5</v>
+      </c>
+      <c r="BV118">
+        <v>0</v>
+      </c>
+      <c r="BW118">
+        <v>19</v>
+      </c>
+      <c r="BX118">
+        <v>2055</v>
+      </c>
+      <c r="BY118">
+        <v>125</v>
+      </c>
+      <c r="BZ118">
+        <v>0</v>
+      </c>
+      <c r="CA118">
+        <v>27</v>
+      </c>
+      <c r="CB118">
+        <v>0</v>
+      </c>
+      <c r="CC118">
+        <v>0</v>
+      </c>
+      <c r="CD118">
+        <v>1</v>
+      </c>
+      <c r="CE118">
+        <v>46</v>
+      </c>
+      <c r="CF118">
+        <v>0</v>
+      </c>
+      <c r="CG118">
+        <v>92</v>
+      </c>
+      <c r="CH118">
+        <v>0</v>
+      </c>
+      <c r="CI118">
+        <v>3</v>
+      </c>
+      <c r="CJ118">
+        <v>0</v>
+      </c>
+      <c r="CK118">
+        <v>0</v>
+      </c>
+      <c r="CL118">
+        <v>72</v>
+      </c>
+      <c r="CM118">
+        <v>60</v>
+      </c>
+      <c r="CN118">
+        <v>0</v>
+      </c>
+      <c r="CO118">
+        <v>1429</v>
+      </c>
+      <c r="CP118">
+        <v>436</v>
+      </c>
+      <c r="CQ118">
+        <v>1168</v>
+      </c>
+      <c r="CR118">
+        <v>31</v>
+      </c>
+      <c r="CS118">
+        <v>577</v>
+      </c>
+      <c r="CT118">
+        <v>1</v>
+      </c>
+      <c r="CU118">
+        <v>176</v>
+      </c>
+      <c r="CV118">
+        <v>3021</v>
+      </c>
+      <c r="CW118">
+        <v>36</v>
+      </c>
+      <c r="CX118">
+        <v>652</v>
+      </c>
+      <c r="CY118">
+        <v>2</v>
+      </c>
+      <c r="CZ118">
+        <v>4</v>
+      </c>
+      <c r="DA118">
+        <v>148</v>
+      </c>
+      <c r="DB118">
+        <v>16</v>
+      </c>
+      <c r="DC118">
+        <v>34</v>
+      </c>
+      <c r="DD118">
+        <v>215</v>
+      </c>
+      <c r="DE118">
+        <v>9</v>
+      </c>
+      <c r="DF118">
+        <v>0</v>
+      </c>
+      <c r="DG118">
+        <v>6</v>
+      </c>
+      <c r="DH118">
+        <v>8</v>
+      </c>
+      <c r="DI118">
+        <v>16</v>
+      </c>
+      <c r="DJ118">
+        <v>1</v>
+      </c>
+      <c r="DK118">
+        <v>0</v>
+      </c>
+      <c r="DL118">
+        <v>0</v>
+      </c>
+      <c r="DM118">
+        <v>30</v>
+      </c>
+      <c r="DN118">
+        <v>1</v>
+      </c>
+      <c r="DO118">
+        <v>0</v>
+      </c>
+      <c r="DP118">
+        <v>88</v>
+      </c>
+      <c r="DQ118">
+        <v>18</v>
+      </c>
+      <c r="DR118">
+        <v>16</v>
+      </c>
+      <c r="DS118">
+        <v>2</v>
+      </c>
+      <c r="DT118">
+        <v>0</v>
+      </c>
+      <c r="DU118">
+        <v>0</v>
+      </c>
+      <c r="DV118">
+        <v>1239</v>
+      </c>
+      <c r="DW118">
+        <v>184</v>
+      </c>
+      <c r="DX118">
+        <v>0</v>
+      </c>
+      <c r="DY118">
+        <v>0</v>
+      </c>
+      <c r="DZ118">
+        <v>0</v>
+      </c>
+      <c r="EA118">
+        <v>0</v>
+      </c>
+      <c r="EB118">
+        <v>190</v>
+      </c>
+      <c r="EC118">
+        <v>19</v>
+      </c>
+      <c r="ED118">
+        <v>12</v>
+      </c>
+      <c r="EE118">
+        <v>0</v>
+      </c>
+      <c r="EF118">
+        <v>1</v>
+      </c>
+      <c r="EG118">
+        <v>806</v>
+      </c>
+      <c r="EH118">
+        <v>0</v>
+      </c>
+      <c r="EI118">
+        <v>3</v>
+      </c>
+      <c r="EJ118">
+        <v>1</v>
+      </c>
+      <c r="EK118">
+        <v>10</v>
+      </c>
+      <c r="EL118">
+        <v>114</v>
+      </c>
+      <c r="EM118">
+        <v>26</v>
+      </c>
+      <c r="EN118">
+        <v>0</v>
+      </c>
+      <c r="EO118">
+        <v>63</v>
+      </c>
+      <c r="EP118">
+        <v>74</v>
+      </c>
+      <c r="EQ118">
+        <v>785</v>
+      </c>
+      <c r="ER118">
+        <v>4</v>
+      </c>
+      <c r="ES118">
+        <v>172</v>
+      </c>
+      <c r="ET118">
+        <v>0</v>
+      </c>
+      <c r="EU118">
+        <v>3</v>
+      </c>
+      <c r="EV118">
+        <v>734</v>
+      </c>
+      <c r="EW118">
+        <v>211</v>
+      </c>
+      <c r="EX118">
+        <v>381</v>
+      </c>
+      <c r="EY118">
+        <v>444</v>
+      </c>
+      <c r="EZ118">
+        <v>0</v>
+      </c>
+      <c r="FA118">
+        <v>761</v>
+      </c>
+      <c r="FB118">
+        <v>321</v>
+      </c>
+      <c r="FC118">
+        <v>5849</v>
+      </c>
+      <c r="FD118">
+        <v>22</v>
+      </c>
+      <c r="FE118">
+        <v>0</v>
+      </c>
+      <c r="FF118">
+        <v>0</v>
+      </c>
+      <c r="FG118">
+        <v>1</v>
+      </c>
+      <c r="FH118">
+        <v>12</v>
+      </c>
+      <c r="FI118">
+        <v>0</v>
+      </c>
+      <c r="FJ118">
+        <v>1172</v>
+      </c>
+      <c r="FK118">
+        <v>66</v>
+      </c>
+      <c r="FL118">
+        <v>207</v>
+      </c>
+      <c r="FM118">
+        <v>0</v>
+      </c>
+      <c r="FN118">
+        <v>18</v>
+      </c>
+      <c r="FO118">
+        <v>0</v>
+      </c>
+      <c r="FP118">
+        <v>0</v>
+      </c>
+      <c r="FQ118">
+        <v>35</v>
+      </c>
+      <c r="FR118">
+        <v>7</v>
+      </c>
+      <c r="FS118">
+        <v>0</v>
+      </c>
+      <c r="FT118">
+        <v>267</v>
+      </c>
+      <c r="FU118">
+        <v>10</v>
+      </c>
+      <c r="FV118">
+        <v>1</v>
+      </c>
+      <c r="FW118">
+        <v>2944</v>
+      </c>
+      <c r="FX118">
+        <v>52</v>
+      </c>
+      <c r="FY118">
+        <v>12</v>
+      </c>
+      <c r="FZ118">
+        <v>0</v>
+      </c>
+      <c r="GA118">
+        <v>812</v>
+      </c>
+      <c r="GB118">
+        <v>181</v>
+      </c>
+      <c r="GC118">
+        <v>0</v>
+      </c>
+      <c r="GD118">
+        <v>1</v>
+      </c>
+      <c r="GE118">
+        <v>15</v>
+      </c>
+      <c r="GF118">
+        <v>1</v>
+      </c>
+      <c r="GG118">
+        <v>2</v>
+      </c>
+      <c r="GH118">
+        <v>0</v>
+      </c>
+      <c r="GI118">
+        <v>4</v>
+      </c>
+      <c r="GJ118">
+        <v>3122</v>
+      </c>
+      <c r="GK118">
+        <v>0</v>
+      </c>
+      <c r="GL118">
+        <v>1</v>
+      </c>
+      <c r="GM118">
+        <v>478</v>
+      </c>
+      <c r="GN118">
+        <v>525</v>
+      </c>
+      <c r="GO118">
+        <v>5386</v>
+      </c>
+      <c r="GP118">
+        <v>15</v>
+      </c>
+      <c r="GQ118">
+        <v>0</v>
+      </c>
+      <c r="GR118">
+        <v>21352</v>
+      </c>
+      <c r="GS118">
+        <v>6</v>
+      </c>
+      <c r="GT118">
+        <v>58</v>
+      </c>
+      <c r="GU118">
+        <v>20</v>
+      </c>
+      <c r="GV118">
+        <v>0</v>
+      </c>
+      <c r="GX118">
+        <v>0</v>
+      </c>
+      <c r="GY118">
+        <v>8</v>
+      </c>
+      <c r="GZ118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:208">
+      <c r="A119" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B119">
+        <v>112</v>
+      </c>
+      <c r="C119">
+        <v>34</v>
+      </c>
+      <c r="D119">
+        <v>129</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>344</v>
+      </c>
+      <c r="J119">
+        <v>69</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>16</v>
+      </c>
+      <c r="M119">
+        <v>66</v>
+      </c>
+      <c r="N119">
+        <v>25</v>
+      </c>
+      <c r="O119">
+        <v>5</v>
+      </c>
+      <c r="P119">
+        <v>71</v>
+      </c>
+      <c r="Q119">
+        <v>309</v>
+      </c>
+      <c r="R119">
+        <v>3</v>
+      </c>
+      <c r="S119">
+        <v>817</v>
+      </c>
+      <c r="T119">
+        <v>1032</v>
+      </c>
+      <c r="U119">
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>59</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>65</v>
+      </c>
+      <c r="AB119">
+        <v>0</v>
+      </c>
+      <c r="AC119">
+        <v>5514</v>
+      </c>
+      <c r="AD119">
+        <v>0</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
+      </c>
+      <c r="AF119">
+        <v>59</v>
+      </c>
+      <c r="AG119">
+        <v>3</v>
+      </c>
+      <c r="AH119">
+        <v>3</v>
+      </c>
+      <c r="AI119">
+        <v>0</v>
+      </c>
+      <c r="AJ119">
+        <v>115</v>
+      </c>
+      <c r="AK119">
+        <v>1464</v>
+      </c>
+      <c r="AL119">
+        <v>2</v>
+      </c>
+      <c r="AN119">
+        <v>4</v>
+      </c>
+      <c r="AO119">
+        <v>0</v>
+      </c>
+      <c r="AP119">
+        <v>0</v>
+      </c>
+      <c r="AQ119">
+        <v>552</v>
+      </c>
+      <c r="AR119">
+        <v>10</v>
+      </c>
+      <c r="AS119">
+        <v>261</v>
+      </c>
+      <c r="AT119">
+        <v>0</v>
+      </c>
+      <c r="AU119">
+        <v>6</v>
+      </c>
+      <c r="AV119">
+        <v>34</v>
+      </c>
+      <c r="AW119">
+        <v>7</v>
+      </c>
+      <c r="AX119">
+        <v>52</v>
+      </c>
+      <c r="AY119">
+        <v>0</v>
+      </c>
+      <c r="AZ119">
+        <v>6</v>
+      </c>
+      <c r="BA119">
+        <v>79</v>
+      </c>
+      <c r="BB119">
+        <v>26</v>
+      </c>
+      <c r="BC119">
+        <v>235</v>
+      </c>
+      <c r="BD119">
+        <v>9</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>177</v>
+      </c>
+      <c r="BG119">
+        <v>0</v>
+      </c>
+      <c r="BH119">
+        <v>227</v>
+      </c>
+      <c r="BI119">
+        <v>37</v>
+      </c>
+      <c r="BJ119">
+        <v>2</v>
+      </c>
+      <c r="BK119">
+        <v>0</v>
+      </c>
+      <c r="BL119">
+        <v>30</v>
+      </c>
+      <c r="BM119">
+        <v>0</v>
+      </c>
+      <c r="BN119">
+        <v>5</v>
+      </c>
+      <c r="BO119">
+        <v>1</v>
+      </c>
+      <c r="BP119">
+        <v>0</v>
+      </c>
+      <c r="BQ119">
+        <v>0</v>
+      </c>
+      <c r="BR119">
+        <v>80</v>
+      </c>
+      <c r="BS119">
+        <v>1537</v>
+      </c>
+      <c r="BT119">
+        <v>0</v>
+      </c>
+      <c r="BU119">
+        <v>4</v>
+      </c>
+      <c r="BV119">
+        <v>0</v>
+      </c>
+      <c r="BW119">
+        <v>12</v>
+      </c>
+      <c r="BX119">
+        <v>1737</v>
+      </c>
+      <c r="BY119">
+        <v>0</v>
+      </c>
+      <c r="BZ119">
+        <v>3</v>
+      </c>
+      <c r="CA119">
+        <v>16</v>
+      </c>
+      <c r="CB119">
+        <v>0</v>
+      </c>
+      <c r="CC119">
+        <v>3</v>
+      </c>
+      <c r="CD119">
+        <v>0</v>
+      </c>
+      <c r="CE119">
+        <v>43</v>
+      </c>
+      <c r="CF119">
+        <v>0</v>
+      </c>
+      <c r="CG119">
+        <v>42</v>
+      </c>
+      <c r="CH119">
+        <v>0</v>
+      </c>
+      <c r="CI119">
+        <v>1</v>
+      </c>
+      <c r="CJ119">
+        <v>0</v>
+      </c>
+      <c r="CK119">
+        <v>0</v>
+      </c>
+      <c r="CL119">
+        <v>36</v>
+      </c>
+      <c r="CM119">
+        <v>57</v>
+      </c>
+      <c r="CN119">
+        <v>1</v>
+      </c>
+      <c r="CO119">
+        <v>1990</v>
+      </c>
+      <c r="CP119">
+        <v>396</v>
+      </c>
+      <c r="CQ119">
+        <v>1134</v>
+      </c>
+      <c r="CR119">
+        <v>55</v>
+      </c>
+      <c r="CS119">
+        <v>377</v>
+      </c>
+      <c r="CT119">
+        <v>0</v>
+      </c>
+      <c r="CU119">
+        <v>240</v>
+      </c>
+      <c r="CV119">
+        <v>2357</v>
+      </c>
+      <c r="CW119">
+        <v>17</v>
+      </c>
+      <c r="CX119">
+        <v>290</v>
+      </c>
+      <c r="CY119">
+        <v>2</v>
+      </c>
+      <c r="CZ119">
+        <v>3</v>
+      </c>
+      <c r="DA119">
+        <v>170</v>
+      </c>
+      <c r="DB119">
+        <v>7</v>
+      </c>
+      <c r="DC119">
+        <v>28</v>
+      </c>
+      <c r="DD119">
+        <v>278</v>
+      </c>
+      <c r="DE119">
+        <v>17</v>
+      </c>
+      <c r="DF119">
+        <v>0</v>
+      </c>
+      <c r="DG119">
+        <v>20</v>
+      </c>
+      <c r="DH119">
+        <v>8</v>
+      </c>
+      <c r="DI119">
+        <v>3</v>
+      </c>
+      <c r="DJ119">
+        <v>0</v>
+      </c>
+      <c r="DK119">
+        <v>1</v>
+      </c>
+      <c r="DL119">
+        <v>28</v>
+      </c>
+      <c r="DM119">
+        <v>16</v>
+      </c>
+      <c r="DN119">
+        <v>2</v>
+      </c>
+      <c r="DO119">
+        <v>0</v>
+      </c>
+      <c r="DP119">
+        <v>51</v>
+      </c>
+      <c r="DQ119">
+        <v>9</v>
+      </c>
+      <c r="DR119">
+        <v>45</v>
+      </c>
+      <c r="DS119">
+        <v>1</v>
+      </c>
+      <c r="DT119">
+        <v>0</v>
+      </c>
+      <c r="DU119">
+        <v>0</v>
+      </c>
+      <c r="DV119">
+        <v>970</v>
+      </c>
+      <c r="DW119">
+        <v>194</v>
+      </c>
+      <c r="DX119">
+        <v>0</v>
+      </c>
+      <c r="DY119">
+        <v>2</v>
+      </c>
+      <c r="DZ119">
+        <v>1</v>
+      </c>
+      <c r="EA119">
+        <v>0</v>
+      </c>
+      <c r="EB119">
+        <v>139</v>
+      </c>
+      <c r="EC119">
+        <v>5</v>
+      </c>
+      <c r="ED119">
+        <v>2</v>
+      </c>
+      <c r="EE119">
+        <v>0</v>
+      </c>
+      <c r="EF119">
+        <v>0</v>
+      </c>
+      <c r="EG119">
+        <v>655</v>
+      </c>
+      <c r="EH119">
+        <v>0</v>
+      </c>
+      <c r="EI119">
+        <v>4</v>
+      </c>
+      <c r="EJ119">
+        <v>1</v>
+      </c>
+      <c r="EK119">
+        <v>3</v>
+      </c>
+      <c r="EL119">
+        <v>87</v>
+      </c>
+      <c r="EM119">
+        <v>41</v>
+      </c>
+      <c r="EN119">
+        <v>0</v>
+      </c>
+      <c r="EO119">
+        <v>59</v>
+      </c>
+      <c r="EP119">
+        <v>115</v>
+      </c>
+      <c r="EQ119">
+        <v>783</v>
+      </c>
+      <c r="ER119">
+        <v>2</v>
+      </c>
+      <c r="ES119">
+        <v>200</v>
+      </c>
+      <c r="ET119">
+        <v>0</v>
+      </c>
+      <c r="EU119">
+        <v>5</v>
+      </c>
+      <c r="EV119">
+        <v>3683</v>
+      </c>
+      <c r="EW119">
+        <v>102</v>
+      </c>
+      <c r="EX119">
+        <v>381</v>
+      </c>
+      <c r="EY119">
+        <v>595</v>
+      </c>
+      <c r="EZ119">
+        <v>0</v>
+      </c>
+      <c r="FA119">
+        <v>833</v>
+      </c>
+      <c r="FB119">
+        <v>218</v>
+      </c>
+      <c r="FC119">
+        <v>5966</v>
+      </c>
+      <c r="FD119">
+        <v>7</v>
+      </c>
+      <c r="FE119">
+        <v>0</v>
+      </c>
+      <c r="FF119">
+        <v>0</v>
+      </c>
+      <c r="FG119">
+        <v>0</v>
+      </c>
+      <c r="FH119">
+        <v>0</v>
+      </c>
+      <c r="FI119">
+        <v>0</v>
+      </c>
+      <c r="FJ119">
+        <v>1197</v>
+      </c>
+      <c r="FK119">
+        <v>69</v>
+      </c>
+      <c r="FL119">
+        <v>296</v>
+      </c>
+      <c r="FM119">
+        <v>0</v>
+      </c>
+      <c r="FN119">
+        <v>0</v>
+      </c>
+      <c r="FO119">
+        <v>1515</v>
+      </c>
+      <c r="FP119">
+        <v>0</v>
+      </c>
+      <c r="FQ119">
+        <v>13</v>
+      </c>
+      <c r="FR119">
+        <v>15</v>
+      </c>
+      <c r="FS119">
+        <v>62</v>
+      </c>
+      <c r="FT119">
+        <v>141</v>
+      </c>
+      <c r="FU119">
+        <v>10</v>
+      </c>
+      <c r="FV119">
+        <v>0</v>
+      </c>
+      <c r="FW119">
+        <v>1729</v>
+      </c>
+      <c r="FX119">
+        <v>42</v>
+      </c>
+      <c r="FY119">
+        <v>39</v>
+      </c>
+      <c r="FZ119">
+        <v>0</v>
+      </c>
+      <c r="GA119">
+        <v>610</v>
+      </c>
+      <c r="GB119">
+        <v>216</v>
+      </c>
+      <c r="GC119">
+        <v>0</v>
+      </c>
+      <c r="GD119">
+        <v>1</v>
+      </c>
+      <c r="GE119">
+        <v>68</v>
+      </c>
+      <c r="GF119">
+        <v>0</v>
+      </c>
+      <c r="GG119">
+        <v>6</v>
+      </c>
+      <c r="GH119">
+        <v>0</v>
+      </c>
+      <c r="GI119">
+        <v>17</v>
+      </c>
+      <c r="GJ119">
+        <v>2861</v>
+      </c>
+      <c r="GK119">
+        <v>0</v>
+      </c>
+      <c r="GL119">
+        <v>0</v>
+      </c>
+      <c r="GM119">
+        <v>492</v>
+      </c>
+      <c r="GN119">
+        <v>532</v>
+      </c>
+      <c r="GO119">
+        <v>4913</v>
+      </c>
+      <c r="GP119">
+        <v>0</v>
+      </c>
+      <c r="GQ119">
+        <v>1</v>
+      </c>
+      <c r="GR119">
+        <v>48529</v>
+      </c>
+      <c r="GS119">
+        <v>33</v>
+      </c>
+      <c r="GT119">
+        <v>29</v>
+      </c>
+      <c r="GU119">
+        <v>5</v>
+      </c>
+      <c r="GV119">
+        <v>0</v>
+      </c>
+      <c r="GW119">
+        <v>6</v>
+      </c>
+      <c r="GX119">
+        <v>0</v>
+      </c>
+      <c r="GY119">
+        <v>0</v>
+      </c>
+      <c r="GZ119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:208">
+      <c r="A120" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B120">
+        <v>68</v>
+      </c>
+      <c r="C120">
+        <v>14</v>
+      </c>
+      <c r="D120">
+        <v>126</v>
+      </c>
+      <c r="E120">
+        <v>7</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>62</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>10</v>
+      </c>
+      <c r="M120">
+        <v>55</v>
+      </c>
+      <c r="N120">
+        <v>28</v>
+      </c>
+      <c r="O120">
+        <v>2</v>
+      </c>
+      <c r="P120">
+        <v>58</v>
+      </c>
+      <c r="Q120">
+        <v>418</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>873</v>
+      </c>
+      <c r="T120">
+        <v>809</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>6</v>
+      </c>
+      <c r="W120">
+        <v>10</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>84</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>31</v>
+      </c>
+      <c r="AB120">
+        <v>0</v>
+      </c>
+      <c r="AC120">
+        <v>3379</v>
+      </c>
+      <c r="AD120">
+        <v>0</v>
+      </c>
+      <c r="AE120">
+        <v>0</v>
+      </c>
+      <c r="AF120">
+        <v>53</v>
+      </c>
+      <c r="AG120">
+        <v>3</v>
+      </c>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AI120">
+        <v>0</v>
+      </c>
+      <c r="AJ120">
+        <v>103</v>
+      </c>
+      <c r="AK120">
+        <v>1543</v>
+      </c>
+      <c r="AL120">
+        <v>16</v>
+      </c>
+      <c r="AN120">
+        <v>0</v>
+      </c>
+      <c r="AO120">
+        <v>0</v>
+      </c>
+      <c r="AP120">
+        <v>6</v>
+      </c>
+      <c r="AQ120">
+        <v>473</v>
+      </c>
+      <c r="AR120">
+        <v>290</v>
+      </c>
+      <c r="AS120">
+        <v>237</v>
+      </c>
+      <c r="AT120">
+        <v>0</v>
+      </c>
+      <c r="AU120">
+        <v>2</v>
+      </c>
+      <c r="AV120">
+        <v>39</v>
+      </c>
+      <c r="AW120">
+        <v>14</v>
+      </c>
+      <c r="AX120">
+        <v>32</v>
+      </c>
+      <c r="AY120">
+        <v>0</v>
+      </c>
+      <c r="AZ120">
+        <v>7</v>
+      </c>
+      <c r="BA120">
+        <v>52</v>
+      </c>
+      <c r="BB120">
+        <v>17</v>
+      </c>
+      <c r="BC120">
+        <v>130</v>
+      </c>
+      <c r="BD120">
+        <v>15</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>209</v>
+      </c>
+      <c r="BG120">
+        <v>11536</v>
+      </c>
+      <c r="BH120">
+        <v>0</v>
+      </c>
+      <c r="BI120">
+        <v>0</v>
+      </c>
+      <c r="BJ120">
+        <v>44</v>
+      </c>
+      <c r="BK120">
+        <v>0</v>
+      </c>
+      <c r="BL120">
+        <v>8</v>
+      </c>
+      <c r="BM120">
+        <v>19</v>
+      </c>
+      <c r="BN120">
+        <v>1</v>
+      </c>
+      <c r="BO120">
+        <v>0</v>
+      </c>
+      <c r="BP120">
+        <v>0</v>
+      </c>
+      <c r="BQ120">
+        <v>0</v>
+      </c>
+      <c r="BR120">
+        <v>101</v>
+      </c>
+      <c r="BS120">
+        <v>461</v>
+      </c>
+      <c r="BT120">
+        <v>0</v>
+      </c>
+      <c r="BU120">
+        <v>0</v>
+      </c>
+      <c r="BV120">
+        <v>0</v>
+      </c>
+      <c r="BW120">
+        <v>30</v>
+      </c>
+      <c r="BX120">
+        <v>1018</v>
+      </c>
+      <c r="BY120">
+        <v>271</v>
+      </c>
+      <c r="BZ120">
+        <v>5</v>
+      </c>
+      <c r="CA120">
+        <v>0</v>
+      </c>
+      <c r="CB120">
+        <v>0</v>
+      </c>
+      <c r="CC120">
+        <v>0</v>
+      </c>
+      <c r="CD120">
+        <v>1</v>
+      </c>
+      <c r="CE120">
+        <v>27</v>
+      </c>
+      <c r="CF120">
+        <v>2</v>
+      </c>
+      <c r="CG120">
+        <v>98</v>
+      </c>
+      <c r="CH120">
+        <v>1</v>
+      </c>
+      <c r="CI120">
+        <v>0</v>
+      </c>
+      <c r="CJ120">
+        <v>0</v>
+      </c>
+      <c r="CK120">
+        <v>0</v>
+      </c>
+      <c r="CL120">
+        <v>34</v>
+      </c>
+      <c r="CM120">
+        <v>83</v>
+      </c>
+      <c r="CN120">
+        <v>2</v>
+      </c>
+      <c r="CO120">
+        <v>1396</v>
+      </c>
+      <c r="CP120">
+        <v>275</v>
+      </c>
+      <c r="CQ120">
+        <v>1153</v>
+      </c>
+      <c r="CR120">
+        <v>57</v>
+      </c>
+      <c r="CS120">
+        <v>701</v>
+      </c>
+      <c r="CT120">
+        <v>0</v>
+      </c>
+      <c r="CU120">
+        <v>100</v>
+      </c>
+      <c r="CV120">
+        <v>2324</v>
+      </c>
+      <c r="CW120">
+        <v>45</v>
+      </c>
+      <c r="CX120">
+        <v>203</v>
+      </c>
+      <c r="CY120">
+        <v>1</v>
+      </c>
+      <c r="CZ120">
+        <v>3</v>
+      </c>
+      <c r="DA120">
+        <v>65</v>
+      </c>
+      <c r="DB120">
+        <v>12</v>
+      </c>
+      <c r="DC120">
+        <v>32</v>
+      </c>
+      <c r="DD120">
+        <v>183</v>
+      </c>
+      <c r="DE120">
+        <v>13</v>
+      </c>
+      <c r="DF120">
+        <v>0</v>
+      </c>
+      <c r="DG120">
+        <v>8</v>
+      </c>
+      <c r="DH120">
+        <v>3</v>
+      </c>
+      <c r="DI120">
+        <v>4</v>
+      </c>
+      <c r="DJ120">
+        <v>0</v>
+      </c>
+      <c r="DK120">
+        <v>0</v>
+      </c>
+      <c r="DL120">
+        <v>11</v>
+      </c>
+      <c r="DM120">
+        <v>12</v>
+      </c>
+      <c r="DN120">
+        <v>0</v>
+      </c>
+      <c r="DO120">
+        <v>1</v>
+      </c>
+      <c r="DP120">
+        <v>38</v>
+      </c>
+      <c r="DQ120">
+        <v>77</v>
+      </c>
+      <c r="DR120">
+        <v>19</v>
+      </c>
+      <c r="DS120">
+        <v>0</v>
+      </c>
+      <c r="DT120">
+        <v>0</v>
+      </c>
+      <c r="DU120">
+        <v>1</v>
+      </c>
+      <c r="DV120">
+        <v>835</v>
+      </c>
+      <c r="DW120">
+        <v>104</v>
+      </c>
+      <c r="DX120">
+        <v>0</v>
+      </c>
+      <c r="DY120">
+        <v>0</v>
+      </c>
+      <c r="DZ120">
+        <v>1</v>
+      </c>
+      <c r="EA120">
+        <v>0</v>
+      </c>
+      <c r="EB120">
+        <v>168</v>
+      </c>
+      <c r="EC120">
+        <v>6</v>
+      </c>
+      <c r="ED120">
+        <v>0</v>
+      </c>
+      <c r="EE120">
+        <v>0</v>
+      </c>
+      <c r="EF120">
+        <v>3</v>
+      </c>
+      <c r="EG120">
+        <v>655</v>
+      </c>
+      <c r="EH120">
+        <v>0</v>
+      </c>
+      <c r="EI120">
+        <v>1</v>
+      </c>
+      <c r="EJ120">
+        <v>1</v>
+      </c>
+      <c r="EK120">
+        <v>12</v>
+      </c>
+      <c r="EL120">
+        <v>91</v>
+      </c>
+      <c r="EM120">
+        <v>19</v>
+      </c>
+      <c r="EN120">
+        <v>0</v>
+      </c>
+      <c r="EO120">
+        <v>38</v>
+      </c>
+      <c r="EP120">
+        <v>93</v>
+      </c>
+      <c r="EQ120">
+        <v>605</v>
+      </c>
+      <c r="ER120">
+        <v>153</v>
+      </c>
+      <c r="ES120">
+        <v>241</v>
+      </c>
+      <c r="ET120">
+        <v>0</v>
+      </c>
+      <c r="EU120">
+        <v>0</v>
+      </c>
+      <c r="EV120">
+        <v>2186</v>
+      </c>
+      <c r="EW120">
+        <v>285</v>
+      </c>
+      <c r="EX120">
+        <v>344</v>
+      </c>
+      <c r="EY120">
+        <v>472</v>
+      </c>
+      <c r="EZ120">
+        <v>0</v>
+      </c>
+      <c r="FA120">
+        <v>929</v>
+      </c>
+      <c r="FB120">
+        <v>401</v>
+      </c>
+      <c r="FC120">
+        <v>6361</v>
+      </c>
+      <c r="FD120">
+        <v>8</v>
+      </c>
+      <c r="FE120">
+        <v>0</v>
+      </c>
+      <c r="FF120">
+        <v>0</v>
+      </c>
+      <c r="FG120">
+        <v>0</v>
+      </c>
+      <c r="FH120">
+        <v>25</v>
+      </c>
+      <c r="FI120">
+        <v>0</v>
+      </c>
+      <c r="FJ120">
+        <v>1223</v>
+      </c>
+      <c r="FK120">
+        <v>57</v>
+      </c>
+      <c r="FL120">
+        <v>263</v>
+      </c>
+      <c r="FM120">
+        <v>0</v>
+      </c>
+      <c r="FN120">
+        <v>11</v>
+      </c>
+      <c r="FO120">
+        <v>931</v>
+      </c>
+      <c r="FP120">
+        <v>1</v>
+      </c>
+      <c r="FQ120">
+        <v>6</v>
+      </c>
+      <c r="FR120">
+        <v>19</v>
+      </c>
+      <c r="FS120">
+        <v>46</v>
+      </c>
+      <c r="FT120">
+        <v>185</v>
+      </c>
+      <c r="FU120">
+        <v>10</v>
+      </c>
+      <c r="FV120">
+        <v>1</v>
+      </c>
+      <c r="FW120">
+        <v>1831</v>
+      </c>
+      <c r="FX120">
+        <v>61</v>
+      </c>
+      <c r="FY120">
+        <v>24</v>
+      </c>
+      <c r="FZ120">
+        <v>0</v>
+      </c>
+      <c r="GA120">
+        <v>463</v>
+      </c>
+      <c r="GB120">
+        <v>167</v>
+      </c>
+      <c r="GC120">
+        <v>1</v>
+      </c>
+      <c r="GD120">
+        <v>0</v>
+      </c>
+      <c r="GE120">
+        <v>0</v>
+      </c>
+      <c r="GF120">
+        <v>0</v>
+      </c>
+      <c r="GG120">
+        <v>2</v>
+      </c>
+      <c r="GH120">
+        <v>1</v>
+      </c>
+      <c r="GI120">
+        <v>10</v>
+      </c>
+      <c r="GJ120">
+        <v>2357</v>
+      </c>
+      <c r="GK120">
+        <v>0</v>
+      </c>
+      <c r="GL120">
+        <v>4</v>
+      </c>
+      <c r="GM120">
+        <v>392</v>
+      </c>
+      <c r="GN120">
+        <v>536</v>
+      </c>
+      <c r="GO120">
+        <v>4463</v>
+      </c>
+      <c r="GP120">
+        <v>0</v>
+      </c>
+      <c r="GQ120">
+        <v>0</v>
+      </c>
+      <c r="GR120">
+        <v>26857</v>
+      </c>
+      <c r="GS120">
+        <v>10</v>
+      </c>
+      <c r="GT120">
+        <v>22</v>
+      </c>
+      <c r="GU120">
+        <v>2</v>
+      </c>
+      <c r="GV120">
+        <v>0</v>
+      </c>
+      <c r="GW120">
+        <v>0</v>
+      </c>
+      <c r="GX120">
+        <v>0</v>
+      </c>
+      <c r="GY120">
+        <v>4</v>
+      </c>
+      <c r="GZ120">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -40624,7 +42496,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GY117"/>
+  <dimension ref="A1:GZ120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -40638,7 +42510,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:207">
+    <row r="1" spans="1:208">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -41260,8 +43132,11 @@
       <c r="GY1" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="GZ1" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
-    <row r="2" spans="1:207">
+    <row r="2" spans="1:208">
       <c r="A2" s="2">
         <v>43830</v>
       </c>
@@ -41467,7 +43342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:207">
+    <row r="3" spans="1:208">
       <c r="A3" s="2">
         <v>43831</v>
       </c>
@@ -41673,7 +43548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:207">
+    <row r="4" spans="1:208">
       <c r="A4" s="2">
         <v>43832</v>
       </c>
@@ -41879,7 +43754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:207">
+    <row r="5" spans="1:208">
       <c r="A5" s="2">
         <v>43833</v>
       </c>
@@ -42085,7 +43960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:207">
+    <row r="6" spans="1:208">
       <c r="A6" s="2">
         <v>43834</v>
       </c>
@@ -42291,7 +44166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:207">
+    <row r="7" spans="1:208">
       <c r="A7" s="2">
         <v>43835</v>
       </c>
@@ -42497,7 +44372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:207">
+    <row r="8" spans="1:208">
       <c r="A8" s="2">
         <v>43836</v>
       </c>
@@ -42703,7 +44578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:207">
+    <row r="9" spans="1:208">
       <c r="A9" s="2">
         <v>43837</v>
       </c>
@@ -42909,7 +44784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:207">
+    <row r="10" spans="1:208">
       <c r="A10" s="2">
         <v>43838</v>
       </c>
@@ -43115,7 +44990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:207">
+    <row r="11" spans="1:208">
       <c r="A11" s="2">
         <v>43839</v>
       </c>
@@ -43321,7 +45196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:207">
+    <row r="12" spans="1:208">
       <c r="A12" s="2">
         <v>43840</v>
       </c>
@@ -43527,7 +45402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:207">
+    <row r="13" spans="1:208">
       <c r="A13" s="2">
         <v>43841</v>
       </c>
@@ -43733,7 +45608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:207">
+    <row r="14" spans="1:208">
       <c r="A14" s="2">
         <v>43842</v>
       </c>
@@ -43939,7 +45814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:207">
+    <row r="15" spans="1:208">
       <c r="A15" s="2">
         <v>43843</v>
       </c>
@@ -44145,7 +46020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:207">
+    <row r="16" spans="1:208">
       <c r="A16" s="2">
         <v>43844</v>
       </c>
@@ -58279,7 +60154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:207">
+    <row r="81" spans="1:208">
       <c r="A81" s="2">
         <v>43909</v>
       </c>
@@ -58727,11 +60602,11 @@
       <c r="GV81">
         <v>0</v>
       </c>
-      <c r="GX81">
+      <c r="GY81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:207">
+    <row r="82" spans="1:208">
       <c r="A82" s="2">
         <v>43910</v>
       </c>
@@ -59221,11 +61096,11 @@
       <c r="GV82">
         <v>0</v>
       </c>
-      <c r="GX82">
+      <c r="GY82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:207">
+    <row r="83" spans="1:208">
       <c r="A83" s="2">
         <v>43911</v>
       </c>
@@ -59736,14 +61611,14 @@
       <c r="GV83">
         <v>0</v>
       </c>
-      <c r="GX83">
-        <v>0</v>
-      </c>
       <c r="GY83">
         <v>0</v>
       </c>
+      <c r="GZ83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:207">
+    <row r="84" spans="1:208">
       <c r="A84" s="2">
         <v>43912</v>
       </c>
@@ -60266,14 +62141,14 @@
       <c r="GV84">
         <v>0</v>
       </c>
-      <c r="GX84">
-        <v>0</v>
-      </c>
       <c r="GY84">
         <v>0</v>
       </c>
+      <c r="GZ84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:207">
+    <row r="85" spans="1:208">
       <c r="A85" s="2">
         <v>43913</v>
       </c>
@@ -60808,14 +62683,14 @@
       <c r="GV85">
         <v>0</v>
       </c>
-      <c r="GX85">
-        <v>0</v>
-      </c>
       <c r="GY85">
         <v>0</v>
       </c>
+      <c r="GZ85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:207">
+    <row r="86" spans="1:208">
       <c r="A86" s="2">
         <v>43914</v>
       </c>
@@ -61365,14 +63240,14 @@
       <c r="GV86">
         <v>0</v>
       </c>
-      <c r="GX86">
-        <v>0</v>
-      </c>
       <c r="GY86">
+        <v>0</v>
+      </c>
+      <c r="GZ86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:207">
+    <row r="87" spans="1:208">
       <c r="A87" s="2">
         <v>43915</v>
       </c>
@@ -61931,14 +63806,14 @@
       <c r="GV87">
         <v>0</v>
       </c>
-      <c r="GX87">
-        <v>0</v>
-      </c>
       <c r="GY87">
         <v>0</v>
       </c>
+      <c r="GZ87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:207">
+    <row r="88" spans="1:208">
       <c r="A88" s="2">
         <v>43916</v>
       </c>
@@ -62509,14 +64384,14 @@
       <c r="GV88">
         <v>0</v>
       </c>
-      <c r="GX88">
-        <v>0</v>
-      </c>
       <c r="GY88">
         <v>0</v>
       </c>
+      <c r="GZ88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:207">
+    <row r="89" spans="1:208">
       <c r="A89" s="2">
         <v>43917</v>
       </c>
@@ -63096,14 +64971,14 @@
       <c r="GV89">
         <v>0</v>
       </c>
-      <c r="GX89">
-        <v>0</v>
-      </c>
       <c r="GY89">
         <v>0</v>
       </c>
+      <c r="GZ89">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:207">
+    <row r="90" spans="1:208">
       <c r="A90" s="2">
         <v>43918</v>
       </c>
@@ -63686,14 +65561,14 @@
       <c r="GV90">
         <v>0</v>
       </c>
-      <c r="GX90">
-        <v>0</v>
-      </c>
       <c r="GY90">
         <v>0</v>
       </c>
+      <c r="GZ90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:207">
+    <row r="91" spans="1:208">
       <c r="A91" s="2">
         <v>43919</v>
       </c>
@@ -64276,14 +66151,14 @@
       <c r="GV91">
         <v>0</v>
       </c>
-      <c r="GX91">
-        <v>0</v>
-      </c>
       <c r="GY91">
         <v>0</v>
       </c>
+      <c r="GZ91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:207">
+    <row r="92" spans="1:208">
       <c r="A92" s="2">
         <v>43920</v>
       </c>
@@ -64866,14 +66741,14 @@
       <c r="GV92">
         <v>0</v>
       </c>
-      <c r="GX92">
-        <v>0</v>
-      </c>
       <c r="GY92">
         <v>0</v>
       </c>
+      <c r="GZ92">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:207">
+    <row r="93" spans="1:208">
       <c r="A93" s="2">
         <v>43921</v>
       </c>
@@ -65447,14 +67322,14 @@
       <c r="GV93">
         <v>0</v>
       </c>
-      <c r="GX93">
-        <v>0</v>
-      </c>
       <c r="GY93">
         <v>0</v>
       </c>
+      <c r="GZ93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:207">
+    <row r="94" spans="1:208">
       <c r="A94" s="2">
         <v>43922</v>
       </c>
@@ -66046,14 +67921,14 @@
       <c r="GV94">
         <v>0</v>
       </c>
-      <c r="GX94">
-        <v>0</v>
-      </c>
       <c r="GY94">
         <v>0</v>
       </c>
+      <c r="GZ94">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:207">
+    <row r="95" spans="1:208">
       <c r="A95" s="2">
         <v>43923</v>
       </c>
@@ -66651,14 +68526,14 @@
       <c r="GV95">
         <v>0</v>
       </c>
-      <c r="GX95">
-        <v>0</v>
-      </c>
       <c r="GY95">
         <v>0</v>
       </c>
+      <c r="GZ95">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:207">
+    <row r="96" spans="1:208">
       <c r="A96" s="2">
         <v>43924</v>
       </c>
@@ -67259,14 +69134,14 @@
       <c r="GV96">
         <v>0</v>
       </c>
-      <c r="GX96">
-        <v>1</v>
-      </c>
       <c r="GY96">
+        <v>1</v>
+      </c>
+      <c r="GZ96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:207">
+    <row r="97" spans="1:208">
       <c r="A97" s="2">
         <v>43925</v>
       </c>
@@ -67870,14 +69745,14 @@
       <c r="GV97">
         <v>0</v>
       </c>
-      <c r="GX97">
-        <v>0</v>
-      </c>
       <c r="GY97">
         <v>0</v>
       </c>
+      <c r="GZ97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:207">
+    <row r="98" spans="1:208">
       <c r="A98" s="2">
         <v>43926</v>
       </c>
@@ -68478,14 +70353,14 @@
       <c r="GV98">
         <v>0</v>
       </c>
-      <c r="GX98">
-        <v>0</v>
-      </c>
       <c r="GY98">
         <v>0</v>
       </c>
+      <c r="GZ98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:207">
+    <row r="99" spans="1:208">
       <c r="A99" s="2">
         <v>43927</v>
       </c>
@@ -69092,14 +70967,14 @@
       <c r="GV99">
         <v>0</v>
       </c>
-      <c r="GX99">
-        <v>0</v>
-      </c>
       <c r="GY99">
         <v>0</v>
       </c>
+      <c r="GZ99">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:207">
+    <row r="100" spans="1:208">
       <c r="A100" s="2">
         <v>43928</v>
       </c>
@@ -69706,14 +71581,14 @@
       <c r="GV100">
         <v>0</v>
       </c>
-      <c r="GX100">
-        <v>0</v>
-      </c>
       <c r="GY100">
         <v>0</v>
       </c>
+      <c r="GZ100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:207">
+    <row r="101" spans="1:208">
       <c r="A101" s="2">
         <v>43929</v>
       </c>
@@ -70320,14 +72195,14 @@
       <c r="GV101">
         <v>0</v>
       </c>
-      <c r="GX101">
-        <v>0</v>
-      </c>
       <c r="GY101">
         <v>0</v>
       </c>
+      <c r="GZ101">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:207">
+    <row r="102" spans="1:208">
       <c r="A102" s="2">
         <v>43930</v>
       </c>
@@ -70937,14 +72812,14 @@
       <c r="GV102">
         <v>0</v>
       </c>
-      <c r="GX102">
-        <v>0</v>
-      </c>
       <c r="GY102">
+        <v>0</v>
+      </c>
+      <c r="GZ102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:207">
+    <row r="103" spans="1:208">
       <c r="A103" s="2">
         <v>43931</v>
       </c>
@@ -71554,17 +73429,17 @@
       <c r="GV103">
         <v>0</v>
       </c>
-      <c r="GW103">
-        <v>0</v>
-      </c>
       <c r="GX103">
         <v>0</v>
       </c>
       <c r="GY103">
+        <v>0</v>
+      </c>
+      <c r="GZ103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:207">
+    <row r="104" spans="1:208">
       <c r="A104" s="2">
         <v>43932</v>
       </c>
@@ -72174,17 +74049,17 @@
       <c r="GV104">
         <v>0</v>
       </c>
-      <c r="GW104">
-        <v>0</v>
-      </c>
       <c r="GX104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GY104">
+        <v>1</v>
+      </c>
+      <c r="GZ104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:207">
+    <row r="105" spans="1:208">
       <c r="A105" s="2">
         <v>43933</v>
       </c>
@@ -72794,17 +74669,17 @@
       <c r="GV105">
         <v>0</v>
       </c>
-      <c r="GW105">
-        <v>0</v>
-      </c>
       <c r="GX105">
         <v>0</v>
       </c>
       <c r="GY105">
         <v>0</v>
       </c>
+      <c r="GZ105">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:207">
+    <row r="106" spans="1:208">
       <c r="A106" s="2">
         <v>43934</v>
       </c>
@@ -73414,17 +75289,17 @@
       <c r="GV106">
         <v>0</v>
       </c>
-      <c r="GW106">
-        <v>0</v>
-      </c>
       <c r="GX106">
         <v>0</v>
       </c>
       <c r="GY106">
         <v>0</v>
       </c>
+      <c r="GZ106">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:207">
+    <row r="107" spans="1:208">
       <c r="A107" s="2">
         <v>43935</v>
       </c>
@@ -74034,17 +75909,17 @@
       <c r="GV107">
         <v>0</v>
       </c>
-      <c r="GW107">
-        <v>0</v>
-      </c>
       <c r="GX107">
         <v>0</v>
       </c>
       <c r="GY107">
         <v>0</v>
       </c>
+      <c r="GZ107">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:207">
+    <row r="108" spans="1:208">
       <c r="A108" s="2">
         <v>43936</v>
       </c>
@@ -74577,7 +76452,7 @@
         <v>0</v>
       </c>
       <c r="FW108">
-        <v>567</v>
+        <v>787</v>
       </c>
       <c r="FX108">
         <v>0</v>
@@ -74654,17 +76529,17 @@
       <c r="GV108">
         <v>0</v>
       </c>
-      <c r="GW108">
-        <v>0</v>
-      </c>
       <c r="GX108">
         <v>0</v>
       </c>
       <c r="GY108">
         <v>0</v>
       </c>
+      <c r="GZ108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:207">
+    <row r="109" spans="1:208">
       <c r="A109" s="2">
         <v>43937</v>
       </c>
@@ -75197,7 +77072,7 @@
         <v>0</v>
       </c>
       <c r="FW109">
-        <v>523</v>
+        <v>617</v>
       </c>
       <c r="FX109">
         <v>0</v>
@@ -75274,17 +77149,17 @@
       <c r="GV109">
         <v>0</v>
       </c>
-      <c r="GW109">
-        <v>0</v>
-      </c>
       <c r="GX109">
         <v>0</v>
       </c>
       <c r="GY109">
         <v>0</v>
       </c>
+      <c r="GZ109">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:207">
+    <row r="110" spans="1:208">
       <c r="A110" s="2">
         <v>43938</v>
       </c>
@@ -75817,7 +77692,7 @@
         <v>0</v>
       </c>
       <c r="FW110">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="FX110">
         <v>0</v>
@@ -75894,17 +77769,17 @@
       <c r="GV110">
         <v>0</v>
       </c>
-      <c r="GW110">
-        <v>0</v>
-      </c>
       <c r="GX110">
         <v>0</v>
       </c>
       <c r="GY110">
         <v>0</v>
       </c>
+      <c r="GZ110">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:207">
+    <row r="111" spans="1:208">
       <c r="A111" s="2">
         <v>43939</v>
       </c>
@@ -76437,7 +78312,7 @@
         <v>0</v>
       </c>
       <c r="FW111">
-        <v>348</v>
+        <v>565</v>
       </c>
       <c r="FX111">
         <v>0</v>
@@ -76514,17 +78389,17 @@
       <c r="GV111">
         <v>0</v>
       </c>
-      <c r="GW111">
-        <v>0</v>
-      </c>
       <c r="GX111">
         <v>0</v>
       </c>
       <c r="GY111">
         <v>0</v>
       </c>
+      <c r="GZ111">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:207">
+    <row r="112" spans="1:208">
       <c r="A112" s="2">
         <v>43940</v>
       </c>
@@ -77057,7 +78932,7 @@
         <v>0</v>
       </c>
       <c r="FW112">
-        <v>565</v>
+        <v>410</v>
       </c>
       <c r="FX112">
         <v>0</v>
@@ -77134,17 +79009,17 @@
       <c r="GV112">
         <v>0</v>
       </c>
-      <c r="GW112">
-        <v>0</v>
-      </c>
       <c r="GX112">
         <v>0</v>
       </c>
       <c r="GY112">
         <v>0</v>
       </c>
+      <c r="GZ112">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:207">
+    <row r="113" spans="1:208">
       <c r="A113" s="2">
         <v>43941</v>
       </c>
@@ -77677,7 +79552,7 @@
         <v>0</v>
       </c>
       <c r="FW113">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="FX113">
         <v>0</v>
@@ -77754,17 +79629,17 @@
       <c r="GV113">
         <v>0</v>
       </c>
-      <c r="GW113">
-        <v>0</v>
-      </c>
       <c r="GX113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GY113">
+        <v>1</v>
+      </c>
+      <c r="GZ113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:207">
+    <row r="114" spans="1:208">
       <c r="A114" s="2">
         <v>43942</v>
       </c>
@@ -78297,7 +80172,7 @@
         <v>0</v>
       </c>
       <c r="FW114">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="FX114">
         <v>0</v>
@@ -78374,17 +80249,17 @@
       <c r="GV114">
         <v>0</v>
       </c>
-      <c r="GW114">
-        <v>0</v>
-      </c>
       <c r="GX114">
         <v>0</v>
       </c>
       <c r="GY114">
         <v>0</v>
       </c>
+      <c r="GZ114">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:207">
+    <row r="115" spans="1:208">
       <c r="A115" s="2">
         <v>43943</v>
       </c>
@@ -78917,7 +80792,7 @@
         <v>0</v>
       </c>
       <c r="FW115">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="FX115">
         <v>0</v>
@@ -78994,17 +80869,17 @@
       <c r="GV115">
         <v>0</v>
       </c>
-      <c r="GW115">
-        <v>0</v>
-      </c>
       <c r="GX115">
         <v>0</v>
       </c>
       <c r="GY115">
         <v>0</v>
       </c>
+      <c r="GZ115">
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:207">
+    <row r="116" spans="1:208">
       <c r="A116" s="2">
         <v>43944</v>
       </c>
@@ -79537,7 +81412,7 @@
         <v>0</v>
       </c>
       <c r="FW116">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="FX116">
         <v>0</v>
@@ -79614,17 +81489,17 @@
       <c r="GV116">
         <v>0</v>
       </c>
-      <c r="GW116">
-        <v>0</v>
-      </c>
       <c r="GX116">
         <v>0</v>
       </c>
       <c r="GY116">
         <v>0</v>
       </c>
+      <c r="GZ116">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:207">
+    <row r="117" spans="1:208">
       <c r="A117" s="2">
         <v>43945</v>
       </c>
@@ -80157,7 +82032,7 @@
         <v>0</v>
       </c>
       <c r="FW117">
-        <v>440</v>
+        <v>367</v>
       </c>
       <c r="FX117">
         <v>0</v>
@@ -80234,13 +82109,1879 @@
       <c r="GV117">
         <v>0</v>
       </c>
-      <c r="GW117">
-        <v>0</v>
-      </c>
       <c r="GX117">
         <v>0</v>
       </c>
       <c r="GY117">
+        <v>0</v>
+      </c>
+      <c r="GZ117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:208">
+      <c r="A118" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>8</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>4</v>
+      </c>
+      <c r="M118">
+        <v>5</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>4</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>3</v>
+      </c>
+      <c r="T118">
+        <v>189</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>1</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>1</v>
+      </c>
+      <c r="AB118">
+        <v>0</v>
+      </c>
+      <c r="AC118">
+        <v>357</v>
+      </c>
+      <c r="AD118">
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
+      </c>
+      <c r="AF118">
+        <v>2</v>
+      </c>
+      <c r="AG118">
+        <v>0</v>
+      </c>
+      <c r="AH118">
+        <v>0</v>
+      </c>
+      <c r="AI118">
+        <v>0</v>
+      </c>
+      <c r="AJ118">
+        <v>0</v>
+      </c>
+      <c r="AK118">
+        <v>156</v>
+      </c>
+      <c r="AL118">
+        <v>0</v>
+      </c>
+      <c r="AN118">
+        <v>0</v>
+      </c>
+      <c r="AO118">
+        <v>0</v>
+      </c>
+      <c r="AP118">
+        <v>0</v>
+      </c>
+      <c r="AQ118">
+        <v>6</v>
+      </c>
+      <c r="AR118">
+        <v>0</v>
+      </c>
+      <c r="AS118">
+        <v>10</v>
+      </c>
+      <c r="AT118">
+        <v>0</v>
+      </c>
+      <c r="AU118">
+        <v>0</v>
+      </c>
+      <c r="AV118">
+        <v>0</v>
+      </c>
+      <c r="AW118">
+        <v>1</v>
+      </c>
+      <c r="AX118">
+        <v>6</v>
+      </c>
+      <c r="AY118">
+        <v>0</v>
+      </c>
+      <c r="AZ118">
+        <v>0</v>
+      </c>
+      <c r="BA118">
+        <v>2</v>
+      </c>
+      <c r="BB118">
+        <v>3</v>
+      </c>
+      <c r="BC118">
+        <v>9</v>
+      </c>
+      <c r="BD118">
+        <v>0</v>
+      </c>
+      <c r="BE118">
+        <v>0</v>
+      </c>
+      <c r="BF118">
+        <v>2</v>
+      </c>
+      <c r="BG118">
+        <v>16</v>
+      </c>
+      <c r="BH118">
+        <v>18</v>
+      </c>
+      <c r="BI118">
+        <v>0</v>
+      </c>
+      <c r="BJ118">
+        <v>0</v>
+      </c>
+      <c r="BK118">
+        <v>0</v>
+      </c>
+      <c r="BL118">
+        <v>1</v>
+      </c>
+      <c r="BM118">
+        <v>0</v>
+      </c>
+      <c r="BN118">
+        <v>0</v>
+      </c>
+      <c r="BO118">
+        <v>0</v>
+      </c>
+      <c r="BP118">
+        <v>0</v>
+      </c>
+      <c r="BQ118">
+        <v>0</v>
+      </c>
+      <c r="BR118">
+        <v>5</v>
+      </c>
+      <c r="BS118">
+        <v>389</v>
+      </c>
+      <c r="BT118">
+        <v>0</v>
+      </c>
+      <c r="BU118">
+        <v>1</v>
+      </c>
+      <c r="BV118">
+        <v>0</v>
+      </c>
+      <c r="BW118">
+        <v>0</v>
+      </c>
+      <c r="BX118">
+        <v>179</v>
+      </c>
+      <c r="BY118">
+        <v>1</v>
+      </c>
+      <c r="BZ118">
+        <v>0</v>
+      </c>
+      <c r="CA118">
+        <v>5</v>
+      </c>
+      <c r="CB118">
+        <v>0</v>
+      </c>
+      <c r="CC118">
+        <v>0</v>
+      </c>
+      <c r="CD118">
+        <v>0</v>
+      </c>
+      <c r="CE118">
+        <v>0</v>
+      </c>
+      <c r="CF118">
+        <v>1</v>
+      </c>
+      <c r="CG118">
+        <v>0</v>
+      </c>
+      <c r="CH118">
+        <v>0</v>
+      </c>
+      <c r="CI118">
+        <v>1</v>
+      </c>
+      <c r="CJ118">
+        <v>0</v>
+      </c>
+      <c r="CK118">
+        <v>0</v>
+      </c>
+      <c r="CL118">
+        <v>0</v>
+      </c>
+      <c r="CM118">
+        <v>12</v>
+      </c>
+      <c r="CN118">
+        <v>0</v>
+      </c>
+      <c r="CO118">
+        <v>57</v>
+      </c>
+      <c r="CP118">
+        <v>42</v>
+      </c>
+      <c r="CQ118">
+        <v>93</v>
+      </c>
+      <c r="CR118">
+        <v>3</v>
+      </c>
+      <c r="CS118">
+        <v>35</v>
+      </c>
+      <c r="CT118">
+        <v>2</v>
+      </c>
+      <c r="CU118">
+        <v>1</v>
+      </c>
+      <c r="CV118">
+        <v>420</v>
+      </c>
+      <c r="CW118">
+        <v>1</v>
+      </c>
+      <c r="CX118">
+        <v>17</v>
+      </c>
+      <c r="CY118">
+        <v>0</v>
+      </c>
+      <c r="CZ118">
+        <v>0</v>
+      </c>
+      <c r="DA118">
+        <v>3</v>
+      </c>
+      <c r="DB118">
+        <v>0</v>
+      </c>
+      <c r="DC118">
+        <v>0</v>
+      </c>
+      <c r="DD118">
+        <v>1</v>
+      </c>
+      <c r="DE118">
+        <v>0</v>
+      </c>
+      <c r="DF118">
+        <v>0</v>
+      </c>
+      <c r="DG118">
+        <v>1</v>
+      </c>
+      <c r="DH118">
+        <v>0</v>
+      </c>
+      <c r="DI118">
+        <v>0</v>
+      </c>
+      <c r="DJ118">
+        <v>0</v>
+      </c>
+      <c r="DK118">
+        <v>0</v>
+      </c>
+      <c r="DL118">
+        <v>0</v>
+      </c>
+      <c r="DM118">
+        <v>2</v>
+      </c>
+      <c r="DN118">
+        <v>0</v>
+      </c>
+      <c r="DO118">
+        <v>0</v>
+      </c>
+      <c r="DP118">
+        <v>1</v>
+      </c>
+      <c r="DQ118">
+        <v>0</v>
+      </c>
+      <c r="DR118">
+        <v>0</v>
+      </c>
+      <c r="DS118">
+        <v>0</v>
+      </c>
+      <c r="DT118">
+        <v>0</v>
+      </c>
+      <c r="DU118">
+        <v>0</v>
+      </c>
+      <c r="DV118">
+        <v>152</v>
+      </c>
+      <c r="DW118">
+        <v>7</v>
+      </c>
+      <c r="DX118">
+        <v>0</v>
+      </c>
+      <c r="DY118">
+        <v>0</v>
+      </c>
+      <c r="DZ118">
+        <v>1</v>
+      </c>
+      <c r="EA118">
+        <v>0</v>
+      </c>
+      <c r="EB118">
+        <v>3</v>
+      </c>
+      <c r="EC118">
+        <v>0</v>
+      </c>
+      <c r="ED118">
+        <v>0</v>
+      </c>
+      <c r="EE118">
+        <v>0</v>
+      </c>
+      <c r="EF118">
+        <v>0</v>
+      </c>
+      <c r="EG118">
+        <v>112</v>
+      </c>
+      <c r="EH118">
+        <v>0</v>
+      </c>
+      <c r="EI118">
+        <v>1</v>
+      </c>
+      <c r="EJ118">
+        <v>1</v>
+      </c>
+      <c r="EK118">
+        <v>0</v>
+      </c>
+      <c r="EL118">
+        <v>1</v>
+      </c>
+      <c r="EM118">
+        <v>1</v>
+      </c>
+      <c r="EN118">
+        <v>0</v>
+      </c>
+      <c r="EO118">
+        <v>11</v>
+      </c>
+      <c r="EP118">
+        <v>1</v>
+      </c>
+      <c r="EQ118">
+        <v>16</v>
+      </c>
+      <c r="ER118">
+        <v>0</v>
+      </c>
+      <c r="ES118">
+        <v>8</v>
+      </c>
+      <c r="ET118">
+        <v>0</v>
+      </c>
+      <c r="EU118">
+        <v>0</v>
+      </c>
+      <c r="EV118">
+        <v>62</v>
+      </c>
+      <c r="EW118">
+        <v>15</v>
+      </c>
+      <c r="EX118">
+        <v>40</v>
+      </c>
+      <c r="EY118">
+        <v>34</v>
+      </c>
+      <c r="EZ118">
+        <v>0</v>
+      </c>
+      <c r="FA118">
+        <v>0</v>
+      </c>
+      <c r="FB118">
+        <v>25</v>
+      </c>
+      <c r="FC118">
+        <v>60</v>
+      </c>
+      <c r="FD118">
+        <v>0</v>
+      </c>
+      <c r="FE118">
+        <v>0</v>
+      </c>
+      <c r="FF118">
+        <v>0</v>
+      </c>
+      <c r="FG118">
+        <v>0</v>
+      </c>
+      <c r="FH118">
+        <v>0</v>
+      </c>
+      <c r="FI118">
+        <v>0</v>
+      </c>
+      <c r="FJ118">
+        <v>6</v>
+      </c>
+      <c r="FK118">
+        <v>1</v>
+      </c>
+      <c r="FL118">
+        <v>5</v>
+      </c>
+      <c r="FM118">
+        <v>0</v>
+      </c>
+      <c r="FN118">
+        <v>2</v>
+      </c>
+      <c r="FO118">
+        <v>0</v>
+      </c>
+      <c r="FP118">
+        <v>0</v>
+      </c>
+      <c r="FQ118">
+        <v>2</v>
+      </c>
+      <c r="FR118">
+        <v>1</v>
+      </c>
+      <c r="FS118">
+        <v>2</v>
+      </c>
+      <c r="FT118">
+        <v>4</v>
+      </c>
+      <c r="FU118">
+        <v>0</v>
+      </c>
+      <c r="FV118">
+        <v>0</v>
+      </c>
+      <c r="FW118">
+        <v>378</v>
+      </c>
+      <c r="FX118">
+        <v>0</v>
+      </c>
+      <c r="FY118">
+        <v>3</v>
+      </c>
+      <c r="FZ118">
+        <v>0</v>
+      </c>
+      <c r="GA118">
+        <v>131</v>
+      </c>
+      <c r="GB118">
+        <v>41</v>
+      </c>
+      <c r="GC118">
+        <v>0</v>
+      </c>
+      <c r="GD118">
+        <v>0</v>
+      </c>
+      <c r="GE118">
+        <v>0</v>
+      </c>
+      <c r="GF118">
+        <v>0</v>
+      </c>
+      <c r="GG118">
+        <v>0</v>
+      </c>
+      <c r="GH118">
+        <v>0</v>
+      </c>
+      <c r="GI118">
+        <v>0</v>
+      </c>
+      <c r="GJ118">
+        <v>109</v>
+      </c>
+      <c r="GK118">
+        <v>0</v>
+      </c>
+      <c r="GL118">
+        <v>0</v>
+      </c>
+      <c r="GM118">
+        <v>8</v>
+      </c>
+      <c r="GN118">
+        <v>8</v>
+      </c>
+      <c r="GO118">
+        <v>768</v>
+      </c>
+      <c r="GP118">
+        <v>0</v>
+      </c>
+      <c r="GQ118">
+        <v>0</v>
+      </c>
+      <c r="GR118">
+        <v>1054</v>
+      </c>
+      <c r="GS118">
+        <v>0</v>
+      </c>
+      <c r="GT118">
+        <v>1</v>
+      </c>
+      <c r="GU118">
+        <v>0</v>
+      </c>
+      <c r="GV118">
+        <v>0</v>
+      </c>
+      <c r="GX118">
+        <v>0</v>
+      </c>
+      <c r="GY118">
+        <v>0</v>
+      </c>
+      <c r="GZ118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:208">
+      <c r="A119" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>18</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>23</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>9</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>4</v>
+      </c>
+      <c r="T119">
+        <v>238</v>
+      </c>
+      <c r="U119">
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>2</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>2</v>
+      </c>
+      <c r="AB119">
+        <v>0</v>
+      </c>
+      <c r="AC119">
+        <v>346</v>
+      </c>
+      <c r="AD119">
+        <v>0</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
+      </c>
+      <c r="AF119">
+        <v>1</v>
+      </c>
+      <c r="AG119">
+        <v>0</v>
+      </c>
+      <c r="AH119">
+        <v>0</v>
+      </c>
+      <c r="AI119">
+        <v>0</v>
+      </c>
+      <c r="AJ119">
+        <v>4</v>
+      </c>
+      <c r="AK119">
+        <v>163</v>
+      </c>
+      <c r="AL119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>0</v>
+      </c>
+      <c r="AO119">
+        <v>0</v>
+      </c>
+      <c r="AP119">
+        <v>0</v>
+      </c>
+      <c r="AQ119">
+        <v>7</v>
+      </c>
+      <c r="AR119">
+        <v>0</v>
+      </c>
+      <c r="AS119">
+        <v>8</v>
+      </c>
+      <c r="AT119">
+        <v>2</v>
+      </c>
+      <c r="AU119">
+        <v>0</v>
+      </c>
+      <c r="AV119">
+        <v>0</v>
+      </c>
+      <c r="AW119">
+        <v>3</v>
+      </c>
+      <c r="AX119">
+        <v>2</v>
+      </c>
+      <c r="AY119">
+        <v>0</v>
+      </c>
+      <c r="AZ119">
+        <v>0</v>
+      </c>
+      <c r="BA119">
+        <v>3</v>
+      </c>
+      <c r="BB119">
+        <v>0</v>
+      </c>
+      <c r="BC119">
+        <v>15</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>6</v>
+      </c>
+      <c r="BG119">
+        <v>0</v>
+      </c>
+      <c r="BH119">
+        <v>13</v>
+      </c>
+      <c r="BI119">
+        <v>0</v>
+      </c>
+      <c r="BJ119">
+        <v>0</v>
+      </c>
+      <c r="BK119">
+        <v>0</v>
+      </c>
+      <c r="BL119">
+        <v>0</v>
+      </c>
+      <c r="BM119">
+        <v>0</v>
+      </c>
+      <c r="BN119">
+        <v>0</v>
+      </c>
+      <c r="BO119">
+        <v>0</v>
+      </c>
+      <c r="BP119">
+        <v>0</v>
+      </c>
+      <c r="BQ119">
+        <v>0</v>
+      </c>
+      <c r="BR119">
+        <v>9</v>
+      </c>
+      <c r="BS119">
+        <v>369</v>
+      </c>
+      <c r="BT119">
+        <v>0</v>
+      </c>
+      <c r="BU119">
+        <v>0</v>
+      </c>
+      <c r="BV119">
+        <v>0</v>
+      </c>
+      <c r="BW119">
+        <v>0</v>
+      </c>
+      <c r="BX119">
+        <v>140</v>
+      </c>
+      <c r="BY119">
+        <v>0</v>
+      </c>
+      <c r="BZ119">
+        <v>0</v>
+      </c>
+      <c r="CA119">
+        <v>0</v>
+      </c>
+      <c r="CB119">
+        <v>0</v>
+      </c>
+      <c r="CC119">
+        <v>0</v>
+      </c>
+      <c r="CD119">
+        <v>0</v>
+      </c>
+      <c r="CE119">
+        <v>2</v>
+      </c>
+      <c r="CF119">
+        <v>1</v>
+      </c>
+      <c r="CG119">
+        <v>1</v>
+      </c>
+      <c r="CH119">
+        <v>0</v>
+      </c>
+      <c r="CI119">
+        <v>0</v>
+      </c>
+      <c r="CJ119">
+        <v>1</v>
+      </c>
+      <c r="CK119">
+        <v>0</v>
+      </c>
+      <c r="CL119">
+        <v>12</v>
+      </c>
+      <c r="CM119">
+        <v>10</v>
+      </c>
+      <c r="CN119">
+        <v>0</v>
+      </c>
+      <c r="CO119">
+        <v>49</v>
+      </c>
+      <c r="CP119">
+        <v>31</v>
+      </c>
+      <c r="CQ119">
+        <v>76</v>
+      </c>
+      <c r="CR119">
+        <v>0</v>
+      </c>
+      <c r="CS119">
+        <v>234</v>
+      </c>
+      <c r="CT119">
+        <v>0</v>
+      </c>
+      <c r="CU119">
+        <v>5</v>
+      </c>
+      <c r="CV119">
+        <v>415</v>
+      </c>
+      <c r="CW119">
+        <v>0</v>
+      </c>
+      <c r="CX119">
+        <v>14</v>
+      </c>
+      <c r="CY119">
+        <v>0</v>
+      </c>
+      <c r="CZ119">
+        <v>0</v>
+      </c>
+      <c r="DA119">
+        <v>0</v>
+      </c>
+      <c r="DB119">
+        <v>0</v>
+      </c>
+      <c r="DC119">
+        <v>1</v>
+      </c>
+      <c r="DD119">
+        <v>4</v>
+      </c>
+      <c r="DE119">
+        <v>0</v>
+      </c>
+      <c r="DF119">
+        <v>0</v>
+      </c>
+      <c r="DG119">
+        <v>0</v>
+      </c>
+      <c r="DH119">
+        <v>2</v>
+      </c>
+      <c r="DI119">
+        <v>3</v>
+      </c>
+      <c r="DJ119">
+        <v>0</v>
+      </c>
+      <c r="DK119">
+        <v>0</v>
+      </c>
+      <c r="DL119">
+        <v>1</v>
+      </c>
+      <c r="DM119">
+        <v>0</v>
+      </c>
+      <c r="DN119">
+        <v>0</v>
+      </c>
+      <c r="DO119">
+        <v>0</v>
+      </c>
+      <c r="DP119">
+        <v>2</v>
+      </c>
+      <c r="DQ119">
+        <v>0</v>
+      </c>
+      <c r="DR119">
+        <v>0</v>
+      </c>
+      <c r="DS119">
+        <v>1</v>
+      </c>
+      <c r="DT119">
+        <v>0</v>
+      </c>
+      <c r="DU119">
+        <v>0</v>
+      </c>
+      <c r="DV119">
+        <v>84</v>
+      </c>
+      <c r="DW119">
+        <v>7</v>
+      </c>
+      <c r="DX119">
+        <v>0</v>
+      </c>
+      <c r="DY119">
+        <v>0</v>
+      </c>
+      <c r="DZ119">
+        <v>0</v>
+      </c>
+      <c r="EA119">
+        <v>1</v>
+      </c>
+      <c r="EB119">
+        <v>1</v>
+      </c>
+      <c r="EC119">
+        <v>0</v>
+      </c>
+      <c r="ED119">
+        <v>0</v>
+      </c>
+      <c r="EE119">
+        <v>0</v>
+      </c>
+      <c r="EF119">
+        <v>0</v>
+      </c>
+      <c r="EG119">
+        <v>120</v>
+      </c>
+      <c r="EH119">
+        <v>0</v>
+      </c>
+      <c r="EI119">
+        <v>0</v>
+      </c>
+      <c r="EJ119">
+        <v>0</v>
+      </c>
+      <c r="EK119">
+        <v>3</v>
+      </c>
+      <c r="EL119">
+        <v>3</v>
+      </c>
+      <c r="EM119">
+        <v>2</v>
+      </c>
+      <c r="EN119">
+        <v>0</v>
+      </c>
+      <c r="EO119">
+        <v>2</v>
+      </c>
+      <c r="EP119">
+        <v>0</v>
+      </c>
+      <c r="EQ119">
+        <v>16</v>
+      </c>
+      <c r="ER119">
+        <v>0</v>
+      </c>
+      <c r="ES119">
+        <v>5</v>
+      </c>
+      <c r="ET119">
+        <v>0</v>
+      </c>
+      <c r="EU119">
+        <v>0</v>
+      </c>
+      <c r="EV119">
+        <v>66</v>
+      </c>
+      <c r="EW119">
+        <v>17</v>
+      </c>
+      <c r="EX119">
+        <v>30</v>
+      </c>
+      <c r="EY119">
+        <v>26</v>
+      </c>
+      <c r="EZ119">
+        <v>0</v>
+      </c>
+      <c r="FA119">
+        <v>0</v>
+      </c>
+      <c r="FB119">
+        <v>23</v>
+      </c>
+      <c r="FC119">
+        <v>66</v>
+      </c>
+      <c r="FD119">
+        <v>0</v>
+      </c>
+      <c r="FE119">
+        <v>0</v>
+      </c>
+      <c r="FF119">
+        <v>0</v>
+      </c>
+      <c r="FG119">
+        <v>0</v>
+      </c>
+      <c r="FH119">
+        <v>0</v>
+      </c>
+      <c r="FI119">
+        <v>0</v>
+      </c>
+      <c r="FJ119">
+        <v>9</v>
+      </c>
+      <c r="FK119">
+        <v>0</v>
+      </c>
+      <c r="FL119">
+        <v>7</v>
+      </c>
+      <c r="FM119">
+        <v>0</v>
+      </c>
+      <c r="FN119">
+        <v>0</v>
+      </c>
+      <c r="FO119">
+        <v>0</v>
+      </c>
+      <c r="FP119">
+        <v>0</v>
+      </c>
+      <c r="FQ119">
+        <v>0</v>
+      </c>
+      <c r="FR119">
+        <v>1</v>
+      </c>
+      <c r="FS119">
+        <v>2</v>
+      </c>
+      <c r="FT119">
+        <v>7</v>
+      </c>
+      <c r="FU119">
+        <v>2</v>
+      </c>
+      <c r="FV119">
+        <v>0</v>
+      </c>
+      <c r="FW119">
+        <v>288</v>
+      </c>
+      <c r="FX119">
+        <v>0</v>
+      </c>
+      <c r="FY119">
+        <v>1</v>
+      </c>
+      <c r="FZ119">
+        <v>0</v>
+      </c>
+      <c r="GA119">
+        <v>40</v>
+      </c>
+      <c r="GB119">
+        <v>20</v>
+      </c>
+      <c r="GC119">
+        <v>0</v>
+      </c>
+      <c r="GD119">
+        <v>0</v>
+      </c>
+      <c r="GE119">
+        <v>1</v>
+      </c>
+      <c r="GF119">
+        <v>0</v>
+      </c>
+      <c r="GG119">
+        <v>0</v>
+      </c>
+      <c r="GH119">
+        <v>0</v>
+      </c>
+      <c r="GI119">
+        <v>0</v>
+      </c>
+      <c r="GJ119">
+        <v>106</v>
+      </c>
+      <c r="GK119">
+        <v>0</v>
+      </c>
+      <c r="GL119">
+        <v>0</v>
+      </c>
+      <c r="GM119">
+        <v>8</v>
+      </c>
+      <c r="GN119">
+        <v>0</v>
+      </c>
+      <c r="GO119">
+        <v>813</v>
+      </c>
+      <c r="GP119">
+        <v>0</v>
+      </c>
+      <c r="GQ119">
+        <v>0</v>
+      </c>
+      <c r="GR119">
+        <v>2172</v>
+      </c>
+      <c r="GS119">
+        <v>2</v>
+      </c>
+      <c r="GT119">
+        <v>0</v>
+      </c>
+      <c r="GU119">
+        <v>0</v>
+      </c>
+      <c r="GV119">
+        <v>0</v>
+      </c>
+      <c r="GW119">
+        <v>0</v>
+      </c>
+      <c r="GX119">
+        <v>0</v>
+      </c>
+      <c r="GY119">
+        <v>0</v>
+      </c>
+      <c r="GZ119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:208">
+      <c r="A120" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B120">
+        <v>21</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>6</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>6</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>5</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>5</v>
+      </c>
+      <c r="T120">
+        <v>177</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>4</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>2</v>
+      </c>
+      <c r="AB120">
+        <v>0</v>
+      </c>
+      <c r="AC120">
+        <v>189</v>
+      </c>
+      <c r="AD120">
+        <v>0</v>
+      </c>
+      <c r="AE120">
+        <v>0</v>
+      </c>
+      <c r="AF120">
+        <v>1</v>
+      </c>
+      <c r="AG120">
+        <v>1</v>
+      </c>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AI120">
+        <v>0</v>
+      </c>
+      <c r="AJ120">
+        <v>3</v>
+      </c>
+      <c r="AK120">
+        <v>95</v>
+      </c>
+      <c r="AL120">
+        <v>0</v>
+      </c>
+      <c r="AN120">
+        <v>0</v>
+      </c>
+      <c r="AO120">
+        <v>0</v>
+      </c>
+      <c r="AP120">
+        <v>0</v>
+      </c>
+      <c r="AQ120">
+        <v>8</v>
+      </c>
+      <c r="AR120">
+        <v>3</v>
+      </c>
+      <c r="AS120">
+        <v>10</v>
+      </c>
+      <c r="AT120">
+        <v>0</v>
+      </c>
+      <c r="AU120">
+        <v>0</v>
+      </c>
+      <c r="AV120">
+        <v>0</v>
+      </c>
+      <c r="AW120">
+        <v>1</v>
+      </c>
+      <c r="AX120">
+        <v>3</v>
+      </c>
+      <c r="AY120">
+        <v>0</v>
+      </c>
+      <c r="AZ120">
+        <v>0</v>
+      </c>
+      <c r="BA120">
+        <v>3</v>
+      </c>
+      <c r="BB120">
+        <v>0</v>
+      </c>
+      <c r="BC120">
+        <v>4</v>
+      </c>
+      <c r="BD120">
+        <v>0</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>5</v>
+      </c>
+      <c r="BG120">
+        <v>0</v>
+      </c>
+      <c r="BH120">
+        <v>0</v>
+      </c>
+      <c r="BI120">
+        <v>0</v>
+      </c>
+      <c r="BJ120">
+        <v>0</v>
+      </c>
+      <c r="BK120">
+        <v>0</v>
+      </c>
+      <c r="BL120">
+        <v>3</v>
+      </c>
+      <c r="BM120">
+        <v>0</v>
+      </c>
+      <c r="BN120">
+        <v>0</v>
+      </c>
+      <c r="BO120">
+        <v>0</v>
+      </c>
+      <c r="BP120">
+        <v>0</v>
+      </c>
+      <c r="BQ120">
+        <v>0</v>
+      </c>
+      <c r="BR120">
+        <v>4</v>
+      </c>
+      <c r="BS120">
+        <v>242</v>
+      </c>
+      <c r="BT120">
+        <v>0</v>
+      </c>
+      <c r="BU120">
+        <v>0</v>
+      </c>
+      <c r="BV120">
+        <v>0</v>
+      </c>
+      <c r="BW120">
+        <v>1</v>
+      </c>
+      <c r="BX120">
+        <v>110</v>
+      </c>
+      <c r="BY120">
+        <v>1</v>
+      </c>
+      <c r="BZ120">
+        <v>0</v>
+      </c>
+      <c r="CA120">
+        <v>0</v>
+      </c>
+      <c r="CB120">
+        <v>0</v>
+      </c>
+      <c r="CC120">
+        <v>0</v>
+      </c>
+      <c r="CD120">
+        <v>0</v>
+      </c>
+      <c r="CE120">
+        <v>2</v>
+      </c>
+      <c r="CF120">
+        <v>1</v>
+      </c>
+      <c r="CG120">
+        <v>0</v>
+      </c>
+      <c r="CH120">
+        <v>1</v>
+      </c>
+      <c r="CI120">
+        <v>0</v>
+      </c>
+      <c r="CJ120">
+        <v>0</v>
+      </c>
+      <c r="CK120">
+        <v>0</v>
+      </c>
+      <c r="CL120">
+        <v>2</v>
+      </c>
+      <c r="CM120">
+        <v>8</v>
+      </c>
+      <c r="CN120">
+        <v>0</v>
+      </c>
+      <c r="CO120">
+        <v>48</v>
+      </c>
+      <c r="CP120">
+        <v>23</v>
+      </c>
+      <c r="CQ120">
+        <v>60</v>
+      </c>
+      <c r="CR120">
+        <v>1</v>
+      </c>
+      <c r="CS120">
+        <v>24</v>
+      </c>
+      <c r="CT120">
+        <v>0</v>
+      </c>
+      <c r="CU120">
+        <v>0</v>
+      </c>
+      <c r="CV120">
+        <v>260</v>
+      </c>
+      <c r="CW120">
+        <v>0</v>
+      </c>
+      <c r="CX120">
+        <v>3</v>
+      </c>
+      <c r="CY120">
+        <v>0</v>
+      </c>
+      <c r="CZ120">
+        <v>0</v>
+      </c>
+      <c r="DA120">
+        <v>0</v>
+      </c>
+      <c r="DB120">
+        <v>0</v>
+      </c>
+      <c r="DC120">
+        <v>1</v>
+      </c>
+      <c r="DD120">
+        <v>1</v>
+      </c>
+      <c r="DE120">
+        <v>0</v>
+      </c>
+      <c r="DF120">
+        <v>0</v>
+      </c>
+      <c r="DG120">
+        <v>0</v>
+      </c>
+      <c r="DH120">
+        <v>0</v>
+      </c>
+      <c r="DI120">
+        <v>1</v>
+      </c>
+      <c r="DJ120">
+        <v>0</v>
+      </c>
+      <c r="DK120">
+        <v>0</v>
+      </c>
+      <c r="DL120">
+        <v>0</v>
+      </c>
+      <c r="DM120">
+        <v>3</v>
+      </c>
+      <c r="DN120">
+        <v>0</v>
+      </c>
+      <c r="DO120">
+        <v>0</v>
+      </c>
+      <c r="DP120">
+        <v>0</v>
+      </c>
+      <c r="DQ120">
+        <v>0</v>
+      </c>
+      <c r="DR120">
+        <v>2</v>
+      </c>
+      <c r="DS120">
+        <v>0</v>
+      </c>
+      <c r="DT120">
+        <v>0</v>
+      </c>
+      <c r="DU120">
+        <v>0</v>
+      </c>
+      <c r="DV120">
+        <v>46</v>
+      </c>
+      <c r="DW120">
+        <v>2</v>
+      </c>
+      <c r="DX120">
+        <v>0</v>
+      </c>
+      <c r="DY120">
+        <v>0</v>
+      </c>
+      <c r="DZ120">
+        <v>1</v>
+      </c>
+      <c r="EA120">
+        <v>0</v>
+      </c>
+      <c r="EB120">
+        <v>2</v>
+      </c>
+      <c r="EC120">
+        <v>0</v>
+      </c>
+      <c r="ED120">
+        <v>0</v>
+      </c>
+      <c r="EE120">
+        <v>0</v>
+      </c>
+      <c r="EF120">
+        <v>0</v>
+      </c>
+      <c r="EG120">
+        <v>66</v>
+      </c>
+      <c r="EH120">
+        <v>0</v>
+      </c>
+      <c r="EI120">
+        <v>1</v>
+      </c>
+      <c r="EJ120">
+        <v>0</v>
+      </c>
+      <c r="EK120">
+        <v>2</v>
+      </c>
+      <c r="EL120">
+        <v>5</v>
+      </c>
+      <c r="EM120">
+        <v>2</v>
+      </c>
+      <c r="EN120">
+        <v>0</v>
+      </c>
+      <c r="EO120">
+        <v>0</v>
+      </c>
+      <c r="EP120">
+        <v>0</v>
+      </c>
+      <c r="EQ120">
+        <v>12</v>
+      </c>
+      <c r="ER120">
+        <v>0</v>
+      </c>
+      <c r="ES120">
+        <v>6</v>
+      </c>
+      <c r="ET120">
+        <v>0</v>
+      </c>
+      <c r="EU120">
+        <v>0</v>
+      </c>
+      <c r="EV120">
+        <v>28</v>
+      </c>
+      <c r="EW120">
+        <v>7</v>
+      </c>
+      <c r="EX120">
+        <v>11</v>
+      </c>
+      <c r="EY120">
+        <v>23</v>
+      </c>
+      <c r="EZ120">
+        <v>15</v>
+      </c>
+      <c r="FA120">
+        <v>0</v>
+      </c>
+      <c r="FB120">
+        <v>33</v>
+      </c>
+      <c r="FC120">
+        <v>66</v>
+      </c>
+      <c r="FD120">
+        <v>0</v>
+      </c>
+      <c r="FE120">
+        <v>0</v>
+      </c>
+      <c r="FF120">
+        <v>0</v>
+      </c>
+      <c r="FG120">
+        <v>0</v>
+      </c>
+      <c r="FH120">
+        <v>1</v>
+      </c>
+      <c r="FI120">
+        <v>0</v>
+      </c>
+      <c r="FJ120">
+        <v>3</v>
+      </c>
+      <c r="FK120">
+        <v>2</v>
+      </c>
+      <c r="FL120">
+        <v>5</v>
+      </c>
+      <c r="FM120">
+        <v>0</v>
+      </c>
+      <c r="FN120">
+        <v>1</v>
+      </c>
+      <c r="FO120">
+        <v>0</v>
+      </c>
+      <c r="FP120">
+        <v>1</v>
+      </c>
+      <c r="FQ120">
+        <v>1</v>
+      </c>
+      <c r="FR120">
+        <v>1</v>
+      </c>
+      <c r="FS120">
+        <v>5</v>
+      </c>
+      <c r="FT120">
+        <v>1</v>
+      </c>
+      <c r="FU120">
+        <v>1</v>
+      </c>
+      <c r="FV120">
+        <v>0</v>
+      </c>
+      <c r="FW120">
+        <v>0</v>
+      </c>
+      <c r="FX120">
+        <v>0</v>
+      </c>
+      <c r="FY120">
+        <v>4</v>
+      </c>
+      <c r="FZ120">
+        <v>0</v>
+      </c>
+      <c r="GA120">
+        <v>2</v>
+      </c>
+      <c r="GB120">
+        <v>8</v>
+      </c>
+      <c r="GC120">
+        <v>0</v>
+      </c>
+      <c r="GD120">
+        <v>0</v>
+      </c>
+      <c r="GE120">
+        <v>0</v>
+      </c>
+      <c r="GF120">
+        <v>0</v>
+      </c>
+      <c r="GG120">
+        <v>0</v>
+      </c>
+      <c r="GH120">
+        <v>0</v>
+      </c>
+      <c r="GI120">
+        <v>0</v>
+      </c>
+      <c r="GJ120">
+        <v>99</v>
+      </c>
+      <c r="GK120">
+        <v>0</v>
+      </c>
+      <c r="GL120">
+        <v>0</v>
+      </c>
+      <c r="GM120">
+        <v>11</v>
+      </c>
+      <c r="GN120">
+        <v>12</v>
+      </c>
+      <c r="GO120">
+        <v>413</v>
+      </c>
+      <c r="GP120">
+        <v>0</v>
+      </c>
+      <c r="GQ120">
+        <v>0</v>
+      </c>
+      <c r="GR120">
+        <v>1687</v>
+      </c>
+      <c r="GS120">
+        <v>1</v>
+      </c>
+      <c r="GT120">
+        <v>0</v>
+      </c>
+      <c r="GU120">
+        <v>0</v>
+      </c>
+      <c r="GV120">
+        <v>0</v>
+      </c>
+      <c r="GW120">
+        <v>0</v>
+      </c>
+      <c r="GX120">
+        <v>0</v>
+      </c>
+      <c r="GY120">
+        <v>0</v>
+      </c>
+      <c r="GZ120">
         <v>0</v>
       </c>
     </row>

--- a/ecdc_csv/data/ecdc_csv_diff.xlsx
+++ b/ecdc_csv/data/ecdc_csv_diff.xlsx
@@ -1000,7 +1000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GZ120"/>
+  <dimension ref="A1:GZ121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -39847,7 +39847,7 @@
         <v>603</v>
       </c>
       <c r="EZ116">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="FA116">
         <v>608</v>
@@ -40467,7 +40467,7 @@
         <v>371</v>
       </c>
       <c r="EZ117">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="FA117">
         <v>623</v>
@@ -41087,7 +41087,7 @@
         <v>444</v>
       </c>
       <c r="EZ118">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="FA118">
         <v>761</v>
@@ -41707,7 +41707,7 @@
         <v>595</v>
       </c>
       <c r="EZ119">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="FA119">
         <v>833</v>
@@ -41994,7 +41994,7 @@
         <v>473</v>
       </c>
       <c r="AR120">
-        <v>290</v>
+        <v>3</v>
       </c>
       <c r="AS120">
         <v>237</v>
@@ -42330,7 +42330,7 @@
         <v>472</v>
       </c>
       <c r="EZ120">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="FA120">
         <v>929</v>
@@ -42487,6 +42487,626 @@
       </c>
       <c r="GZ120">
         <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:208">
+      <c r="A121" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B121">
+        <v>172</v>
+      </c>
+      <c r="C121">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <v>135</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>223</v>
+      </c>
+      <c r="J121">
+        <v>59</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>12</v>
+      </c>
+      <c r="M121">
+        <v>67</v>
+      </c>
+      <c r="N121">
+        <v>33</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>76</v>
+      </c>
+      <c r="Q121">
+        <v>497</v>
+      </c>
+      <c r="R121">
+        <v>1</v>
+      </c>
+      <c r="S121">
+        <v>826</v>
+      </c>
+      <c r="T121">
+        <v>553</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>1</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>64</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>48</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+      <c r="AC121">
+        <v>4613</v>
+      </c>
+      <c r="AD121">
+        <v>0</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
+      </c>
+      <c r="AF121">
+        <v>63</v>
+      </c>
+      <c r="AG121">
+        <v>3</v>
+      </c>
+      <c r="AH121">
+        <v>0</v>
+      </c>
+      <c r="AI121">
+        <v>0</v>
+      </c>
+      <c r="AJ121">
+        <v>0</v>
+      </c>
+      <c r="AK121">
+        <v>1605</v>
+      </c>
+      <c r="AL121">
+        <v>3</v>
+      </c>
+      <c r="AN121">
+        <v>0</v>
+      </c>
+      <c r="AO121">
+        <v>31</v>
+      </c>
+      <c r="AP121">
+        <v>0</v>
+      </c>
+      <c r="AQ121">
+        <v>482</v>
+      </c>
+      <c r="AR121">
+        <v>26</v>
+      </c>
+      <c r="AS121">
+        <v>218</v>
+      </c>
+      <c r="AT121">
+        <v>7</v>
+      </c>
+      <c r="AU121">
+        <v>2</v>
+      </c>
+      <c r="AV121">
+        <v>14</v>
+      </c>
+      <c r="AW121">
+        <v>9</v>
+      </c>
+      <c r="AX121">
+        <v>20</v>
+      </c>
+      <c r="AY121">
+        <v>0</v>
+      </c>
+      <c r="AZ121">
+        <v>5</v>
+      </c>
+      <c r="BA121">
+        <v>45</v>
+      </c>
+      <c r="BB121">
+        <v>12</v>
+      </c>
+      <c r="BC121">
+        <v>123</v>
+      </c>
+      <c r="BD121">
+        <v>12</v>
+      </c>
+      <c r="BE121">
+        <v>0</v>
+      </c>
+      <c r="BF121">
+        <v>0</v>
+      </c>
+      <c r="BG121">
+        <v>521</v>
+      </c>
+      <c r="BH121">
+        <v>463</v>
+      </c>
+      <c r="BI121">
+        <v>25</v>
+      </c>
+      <c r="BJ121">
+        <v>0</v>
+      </c>
+      <c r="BK121">
+        <v>0</v>
+      </c>
+      <c r="BL121">
+        <v>4</v>
+      </c>
+      <c r="BM121">
+        <v>6</v>
+      </c>
+      <c r="BN121">
+        <v>1</v>
+      </c>
+      <c r="BO121">
+        <v>0</v>
+      </c>
+      <c r="BP121">
+        <v>0</v>
+      </c>
+      <c r="BQ121">
+        <v>0</v>
+      </c>
+      <c r="BR121">
+        <v>119</v>
+      </c>
+      <c r="BS121">
+        <v>3764</v>
+      </c>
+      <c r="BT121">
+        <v>1</v>
+      </c>
+      <c r="BU121">
+        <v>35</v>
+      </c>
+      <c r="BV121">
+        <v>0</v>
+      </c>
+      <c r="BW121">
+        <v>11</v>
+      </c>
+      <c r="BX121">
+        <v>1144</v>
+      </c>
+      <c r="BY121">
+        <v>0</v>
+      </c>
+      <c r="BZ121">
+        <v>0</v>
+      </c>
+      <c r="CA121">
+        <v>28</v>
+      </c>
+      <c r="CB121">
+        <v>0</v>
+      </c>
+      <c r="CC121">
+        <v>0</v>
+      </c>
+      <c r="CD121">
+        <v>2</v>
+      </c>
+      <c r="CE121">
+        <v>30</v>
+      </c>
+      <c r="CF121">
+        <v>0</v>
+      </c>
+      <c r="CG121">
+        <v>69</v>
+      </c>
+      <c r="CH121">
+        <v>20</v>
+      </c>
+      <c r="CI121">
+        <v>0</v>
+      </c>
+      <c r="CJ121">
+        <v>4</v>
+      </c>
+      <c r="CK121">
+        <v>0</v>
+      </c>
+      <c r="CL121">
+        <v>32</v>
+      </c>
+      <c r="CM121">
+        <v>66</v>
+      </c>
+      <c r="CN121">
+        <v>0</v>
+      </c>
+      <c r="CO121">
+        <v>1543</v>
+      </c>
+      <c r="CP121">
+        <v>214</v>
+      </c>
+      <c r="CQ121">
+        <v>991</v>
+      </c>
+      <c r="CR121">
+        <v>27</v>
+      </c>
+      <c r="CS121">
+        <v>386</v>
+      </c>
+      <c r="CT121">
+        <v>0</v>
+      </c>
+      <c r="CU121">
+        <v>68</v>
+      </c>
+      <c r="CV121">
+        <v>1739</v>
+      </c>
+      <c r="CW121">
+        <v>14</v>
+      </c>
+      <c r="CX121">
+        <v>191</v>
+      </c>
+      <c r="CY121">
+        <v>2</v>
+      </c>
+      <c r="CZ121">
+        <v>2</v>
+      </c>
+      <c r="DA121">
+        <v>143</v>
+      </c>
+      <c r="DB121">
+        <v>8</v>
+      </c>
+      <c r="DC121">
+        <v>17</v>
+      </c>
+      <c r="DD121">
+        <v>213</v>
+      </c>
+      <c r="DE121">
+        <v>13</v>
+      </c>
+      <c r="DF121">
+        <v>0</v>
+      </c>
+      <c r="DG121">
+        <v>6</v>
+      </c>
+      <c r="DH121">
+        <v>3</v>
+      </c>
+      <c r="DI121">
+        <v>9</v>
+      </c>
+      <c r="DJ121">
+        <v>0</v>
+      </c>
+      <c r="DK121">
+        <v>0</v>
+      </c>
+      <c r="DL121">
+        <v>0</v>
+      </c>
+      <c r="DM121">
+        <v>6</v>
+      </c>
+      <c r="DN121">
+        <v>4</v>
+      </c>
+      <c r="DO121">
+        <v>2</v>
+      </c>
+      <c r="DP121">
+        <v>40</v>
+      </c>
+      <c r="DQ121">
+        <v>0</v>
+      </c>
+      <c r="DR121">
+        <v>19</v>
+      </c>
+      <c r="DS121">
+        <v>2</v>
+      </c>
+      <c r="DT121">
+        <v>0</v>
+      </c>
+      <c r="DU121">
+        <v>2</v>
+      </c>
+      <c r="DV121">
+        <v>852</v>
+      </c>
+      <c r="DW121">
+        <v>73</v>
+      </c>
+      <c r="DX121">
+        <v>1</v>
+      </c>
+      <c r="DY121">
+        <v>0</v>
+      </c>
+      <c r="DZ121">
+        <v>0</v>
+      </c>
+      <c r="EA121">
+        <v>0</v>
+      </c>
+      <c r="EB121">
+        <v>55</v>
+      </c>
+      <c r="EC121">
+        <v>0</v>
+      </c>
+      <c r="ED121">
+        <v>0</v>
+      </c>
+      <c r="EE121">
+        <v>0</v>
+      </c>
+      <c r="EF121">
+        <v>0</v>
+      </c>
+      <c r="EG121">
+        <v>400</v>
+      </c>
+      <c r="EH121">
+        <v>0</v>
+      </c>
+      <c r="EI121">
+        <v>2</v>
+      </c>
+      <c r="EJ121">
+        <v>0</v>
+      </c>
+      <c r="EK121">
+        <v>5</v>
+      </c>
+      <c r="EL121">
+        <v>64</v>
+      </c>
+      <c r="EM121">
+        <v>13</v>
+      </c>
+      <c r="EN121">
+        <v>0</v>
+      </c>
+      <c r="EO121">
+        <v>28</v>
+      </c>
+      <c r="EP121">
+        <v>51</v>
+      </c>
+      <c r="EQ121">
+        <v>751</v>
+      </c>
+      <c r="ER121">
+        <v>0</v>
+      </c>
+      <c r="ES121">
+        <v>242</v>
+      </c>
+      <c r="ET121">
+        <v>0</v>
+      </c>
+      <c r="EU121">
+        <v>2</v>
+      </c>
+      <c r="EV121">
+        <v>1182</v>
+      </c>
+      <c r="EW121">
+        <v>198</v>
+      </c>
+      <c r="EX121">
+        <v>285</v>
+      </c>
+      <c r="EY121">
+        <v>163</v>
+      </c>
+      <c r="EZ121">
+        <v>18</v>
+      </c>
+      <c r="FA121">
+        <v>957</v>
+      </c>
+      <c r="FB121">
+        <v>303</v>
+      </c>
+      <c r="FC121">
+        <v>6198</v>
+      </c>
+      <c r="FD121">
+        <v>16</v>
+      </c>
+      <c r="FE121">
+        <v>0</v>
+      </c>
+      <c r="FF121">
+        <v>0</v>
+      </c>
+      <c r="FG121">
+        <v>1</v>
+      </c>
+      <c r="FH121">
+        <v>0</v>
+      </c>
+      <c r="FI121">
+        <v>0</v>
+      </c>
+      <c r="FJ121">
+        <v>1289</v>
+      </c>
+      <c r="FK121">
+        <v>64</v>
+      </c>
+      <c r="FL121">
+        <v>233</v>
+      </c>
+      <c r="FM121">
+        <v>0</v>
+      </c>
+      <c r="FN121">
+        <v>6</v>
+      </c>
+      <c r="FO121">
+        <v>799</v>
+      </c>
+      <c r="FP121">
+        <v>1</v>
+      </c>
+      <c r="FQ121">
+        <v>2</v>
+      </c>
+      <c r="FR121">
+        <v>0</v>
+      </c>
+      <c r="FS121">
+        <v>44</v>
+      </c>
+      <c r="FT121">
+        <v>247</v>
+      </c>
+      <c r="FU121">
+        <v>14</v>
+      </c>
+      <c r="FV121">
+        <v>0</v>
+      </c>
+      <c r="FX121">
+        <v>65</v>
+      </c>
+      <c r="FY121">
+        <v>38</v>
+      </c>
+      <c r="FZ121">
+        <v>0</v>
+      </c>
+      <c r="GA121">
+        <v>286</v>
+      </c>
+      <c r="GB121">
+        <v>103</v>
+      </c>
+      <c r="GC121">
+        <v>0</v>
+      </c>
+      <c r="GD121">
+        <v>0</v>
+      </c>
+      <c r="GE121">
+        <v>16</v>
+      </c>
+      <c r="GF121">
+        <v>0</v>
+      </c>
+      <c r="GG121">
+        <v>1</v>
+      </c>
+      <c r="GH121">
+        <v>0</v>
+      </c>
+      <c r="GI121">
+        <v>18</v>
+      </c>
+      <c r="GJ121">
+        <v>2131</v>
+      </c>
+      <c r="GK121">
+        <v>1</v>
+      </c>
+      <c r="GL121">
+        <v>0</v>
+      </c>
+      <c r="GM121">
+        <v>0</v>
+      </c>
+      <c r="GN121">
+        <v>490</v>
+      </c>
+      <c r="GO121">
+        <v>4309</v>
+      </c>
+      <c r="GP121">
+        <v>0</v>
+      </c>
+      <c r="GQ121">
+        <v>4</v>
+      </c>
+      <c r="GR121">
+        <v>22541</v>
+      </c>
+      <c r="GS121">
+        <v>14</v>
+      </c>
+      <c r="GT121">
+        <v>17</v>
+      </c>
+      <c r="GU121">
+        <v>4</v>
+      </c>
+      <c r="GV121">
+        <v>0</v>
+      </c>
+      <c r="GW121">
+        <v>0</v>
+      </c>
+      <c r="GX121">
+        <v>0</v>
+      </c>
+      <c r="GY121">
+        <v>1</v>
+      </c>
+      <c r="GZ121">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -42496,7 +43116,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GZ120"/>
+  <dimension ref="A1:GZ121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -74909,7 +75529,7 @@
         <v>0</v>
       </c>
       <c r="BZ106">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CA106">
         <v>5</v>
@@ -82583,7 +83203,7 @@
         <v>34</v>
       </c>
       <c r="EZ118">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FA118">
         <v>0</v>
@@ -83203,7 +83823,7 @@
         <v>26</v>
       </c>
       <c r="EZ119">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="FA119">
         <v>0</v>
@@ -83367,7 +83987,7 @@
         <v>43948</v>
       </c>
       <c r="B120">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -83490,7 +84110,7 @@
         <v>8</v>
       </c>
       <c r="AR120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS120">
         <v>10</v>
@@ -83826,7 +84446,7 @@
         <v>23</v>
       </c>
       <c r="EZ120">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="FA120">
         <v>0</v>
@@ -83982,6 +84602,626 @@
         <v>0</v>
       </c>
       <c r="GZ120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:208">
+      <c r="A121" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>7</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>11</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>7</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>7</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>3</v>
+      </c>
+      <c r="T121">
+        <v>113</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>1</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>3</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>2</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+      <c r="AC121">
+        <v>338</v>
+      </c>
+      <c r="AD121">
+        <v>0</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
+      </c>
+      <c r="AF121">
+        <v>2</v>
+      </c>
+      <c r="AG121">
+        <v>0</v>
+      </c>
+      <c r="AH121">
+        <v>0</v>
+      </c>
+      <c r="AI121">
+        <v>0</v>
+      </c>
+      <c r="AJ121">
+        <v>2</v>
+      </c>
+      <c r="AK121">
+        <v>147</v>
+      </c>
+      <c r="AL121">
+        <v>0</v>
+      </c>
+      <c r="AN121">
+        <v>0</v>
+      </c>
+      <c r="AO121">
+        <v>0</v>
+      </c>
+      <c r="AP121">
+        <v>0</v>
+      </c>
+      <c r="AQ121">
+        <v>9</v>
+      </c>
+      <c r="AR121">
+        <v>0</v>
+      </c>
+      <c r="AS121">
+        <v>10</v>
+      </c>
+      <c r="AT121">
+        <v>0</v>
+      </c>
+      <c r="AU121">
+        <v>0</v>
+      </c>
+      <c r="AV121">
+        <v>0</v>
+      </c>
+      <c r="AW121">
+        <v>4</v>
+      </c>
+      <c r="AX121">
+        <v>2</v>
+      </c>
+      <c r="AY121">
+        <v>0</v>
+      </c>
+      <c r="AZ121">
+        <v>3</v>
+      </c>
+      <c r="BA121">
+        <v>2</v>
+      </c>
+      <c r="BB121">
+        <v>2</v>
+      </c>
+      <c r="BC121">
+        <v>5</v>
+      </c>
+      <c r="BD121">
+        <v>0</v>
+      </c>
+      <c r="BE121">
+        <v>0</v>
+      </c>
+      <c r="BF121">
+        <v>0</v>
+      </c>
+      <c r="BG121">
+        <v>87</v>
+      </c>
+      <c r="BH121">
+        <v>30</v>
+      </c>
+      <c r="BI121">
+        <v>0</v>
+      </c>
+      <c r="BJ121">
+        <v>0</v>
+      </c>
+      <c r="BK121">
+        <v>0</v>
+      </c>
+      <c r="BL121">
+        <v>1</v>
+      </c>
+      <c r="BM121">
+        <v>0</v>
+      </c>
+      <c r="BN121">
+        <v>0</v>
+      </c>
+      <c r="BO121">
+        <v>0</v>
+      </c>
+      <c r="BP121">
+        <v>0</v>
+      </c>
+      <c r="BQ121">
+        <v>0</v>
+      </c>
+      <c r="BR121">
+        <v>3</v>
+      </c>
+      <c r="BS121">
+        <v>437</v>
+      </c>
+      <c r="BT121">
+        <v>0</v>
+      </c>
+      <c r="BU121">
+        <v>0</v>
+      </c>
+      <c r="BV121">
+        <v>0</v>
+      </c>
+      <c r="BW121">
+        <v>0</v>
+      </c>
+      <c r="BX121">
+        <v>163</v>
+      </c>
+      <c r="BY121">
+        <v>0</v>
+      </c>
+      <c r="BZ121">
+        <v>0</v>
+      </c>
+      <c r="CA121">
+        <v>6</v>
+      </c>
+      <c r="CB121">
+        <v>0</v>
+      </c>
+      <c r="CC121">
+        <v>0</v>
+      </c>
+      <c r="CD121">
+        <v>0</v>
+      </c>
+      <c r="CE121">
+        <v>0</v>
+      </c>
+      <c r="CF121">
+        <v>0</v>
+      </c>
+      <c r="CG121">
+        <v>0</v>
+      </c>
+      <c r="CH121">
+        <v>0</v>
+      </c>
+      <c r="CI121">
+        <v>0</v>
+      </c>
+      <c r="CJ121">
+        <v>0</v>
+      </c>
+      <c r="CK121">
+        <v>0</v>
+      </c>
+      <c r="CL121">
+        <v>0</v>
+      </c>
+      <c r="CM121">
+        <v>11</v>
+      </c>
+      <c r="CN121">
+        <v>0</v>
+      </c>
+      <c r="CO121">
+        <v>62</v>
+      </c>
+      <c r="CP121">
+        <v>22</v>
+      </c>
+      <c r="CQ121">
+        <v>96</v>
+      </c>
+      <c r="CR121">
+        <v>1</v>
+      </c>
+      <c r="CS121">
+        <v>15</v>
+      </c>
+      <c r="CT121">
+        <v>0</v>
+      </c>
+      <c r="CU121">
+        <v>3</v>
+      </c>
+      <c r="CV121">
+        <v>333</v>
+      </c>
+      <c r="CW121">
+        <v>0</v>
+      </c>
+      <c r="CX121">
+        <v>25</v>
+      </c>
+      <c r="CY121">
+        <v>0</v>
+      </c>
+      <c r="CZ121">
+        <v>0</v>
+      </c>
+      <c r="DA121">
+        <v>0</v>
+      </c>
+      <c r="DB121">
+        <v>0</v>
+      </c>
+      <c r="DC121">
+        <v>1</v>
+      </c>
+      <c r="DD121">
+        <v>2</v>
+      </c>
+      <c r="DE121">
+        <v>0</v>
+      </c>
+      <c r="DF121">
+        <v>0</v>
+      </c>
+      <c r="DG121">
+        <v>1</v>
+      </c>
+      <c r="DH121">
+        <v>0</v>
+      </c>
+      <c r="DI121">
+        <v>4</v>
+      </c>
+      <c r="DJ121">
+        <v>0</v>
+      </c>
+      <c r="DK121">
+        <v>0</v>
+      </c>
+      <c r="DL121">
+        <v>0</v>
+      </c>
+      <c r="DM121">
+        <v>0</v>
+      </c>
+      <c r="DN121">
+        <v>0</v>
+      </c>
+      <c r="DO121">
+        <v>0</v>
+      </c>
+      <c r="DP121">
+        <v>1</v>
+      </c>
+      <c r="DQ121">
+        <v>0</v>
+      </c>
+      <c r="DR121">
+        <v>0</v>
+      </c>
+      <c r="DS121">
+        <v>0</v>
+      </c>
+      <c r="DT121">
+        <v>0</v>
+      </c>
+      <c r="DU121">
+        <v>1</v>
+      </c>
+      <c r="DV121">
+        <v>83</v>
+      </c>
+      <c r="DW121">
+        <v>6</v>
+      </c>
+      <c r="DX121">
+        <v>0</v>
+      </c>
+      <c r="DY121">
+        <v>0</v>
+      </c>
+      <c r="DZ121">
+        <v>0</v>
+      </c>
+      <c r="EA121">
+        <v>0</v>
+      </c>
+      <c r="EB121">
+        <v>1</v>
+      </c>
+      <c r="EC121">
+        <v>0</v>
+      </c>
+      <c r="ED121">
+        <v>0</v>
+      </c>
+      <c r="EE121">
+        <v>0</v>
+      </c>
+      <c r="EF121">
+        <v>0</v>
+      </c>
+      <c r="EG121">
+        <v>43</v>
+      </c>
+      <c r="EH121">
+        <v>0</v>
+      </c>
+      <c r="EI121">
+        <v>0</v>
+      </c>
+      <c r="EJ121">
+        <v>0</v>
+      </c>
+      <c r="EK121">
+        <v>0</v>
+      </c>
+      <c r="EL121">
+        <v>0</v>
+      </c>
+      <c r="EM121">
+        <v>4</v>
+      </c>
+      <c r="EN121">
+        <v>0</v>
+      </c>
+      <c r="EO121">
+        <v>0</v>
+      </c>
+      <c r="EP121">
+        <v>0</v>
+      </c>
+      <c r="EQ121">
+        <v>20</v>
+      </c>
+      <c r="ER121">
+        <v>0</v>
+      </c>
+      <c r="ES121">
+        <v>2</v>
+      </c>
+      <c r="ET121">
+        <v>0</v>
+      </c>
+      <c r="EU121">
+        <v>0</v>
+      </c>
+      <c r="EV121">
+        <v>54</v>
+      </c>
+      <c r="EW121">
+        <v>10</v>
+      </c>
+      <c r="EX121">
+        <v>27</v>
+      </c>
+      <c r="EY121">
+        <v>25</v>
+      </c>
+      <c r="EZ121">
+        <v>0</v>
+      </c>
+      <c r="FA121">
+        <v>0</v>
+      </c>
+      <c r="FB121">
+        <v>23</v>
+      </c>
+      <c r="FC121">
+        <v>48</v>
+      </c>
+      <c r="FD121">
+        <v>0</v>
+      </c>
+      <c r="FE121">
+        <v>0</v>
+      </c>
+      <c r="FF121">
+        <v>0</v>
+      </c>
+      <c r="FG121">
+        <v>0</v>
+      </c>
+      <c r="FH121">
+        <v>0</v>
+      </c>
+      <c r="FI121">
+        <v>0</v>
+      </c>
+      <c r="FJ121">
+        <v>5</v>
+      </c>
+      <c r="FK121">
+        <v>0</v>
+      </c>
+      <c r="FL121">
+        <v>6</v>
+      </c>
+      <c r="FM121">
+        <v>0</v>
+      </c>
+      <c r="FN121">
+        <v>0</v>
+      </c>
+      <c r="FO121">
+        <v>2</v>
+      </c>
+      <c r="FP121">
+        <v>0</v>
+      </c>
+      <c r="FQ121">
+        <v>0</v>
+      </c>
+      <c r="FR121">
+        <v>1</v>
+      </c>
+      <c r="FS121">
+        <v>3</v>
+      </c>
+      <c r="FT121">
+        <v>3</v>
+      </c>
+      <c r="FU121">
+        <v>1</v>
+      </c>
+      <c r="FV121">
+        <v>0</v>
+      </c>
+      <c r="FX121">
+        <v>0</v>
+      </c>
+      <c r="FY121">
+        <v>1</v>
+      </c>
+      <c r="FZ121">
+        <v>0</v>
+      </c>
+      <c r="GA121">
+        <v>80</v>
+      </c>
+      <c r="GB121">
+        <v>16</v>
+      </c>
+      <c r="GC121">
+        <v>0</v>
+      </c>
+      <c r="GD121">
+        <v>0</v>
+      </c>
+      <c r="GE121">
+        <v>3</v>
+      </c>
+      <c r="GF121">
+        <v>0</v>
+      </c>
+      <c r="GG121">
+        <v>0</v>
+      </c>
+      <c r="GH121">
+        <v>0</v>
+      </c>
+      <c r="GI121">
+        <v>1</v>
+      </c>
+      <c r="GJ121">
+        <v>95</v>
+      </c>
+      <c r="GK121">
+        <v>0</v>
+      </c>
+      <c r="GL121">
+        <v>0</v>
+      </c>
+      <c r="GM121">
+        <v>0</v>
+      </c>
+      <c r="GN121">
+        <v>6</v>
+      </c>
+      <c r="GO121">
+        <v>360</v>
+      </c>
+      <c r="GP121">
+        <v>0</v>
+      </c>
+      <c r="GQ121">
+        <v>1</v>
+      </c>
+      <c r="GR121">
+        <v>1369</v>
+      </c>
+      <c r="GS121">
+        <v>0</v>
+      </c>
+      <c r="GT121">
+        <v>0</v>
+      </c>
+      <c r="GU121">
+        <v>0</v>
+      </c>
+      <c r="GV121">
+        <v>0</v>
+      </c>
+      <c r="GW121">
+        <v>0</v>
+      </c>
+      <c r="GX121">
+        <v>0</v>
+      </c>
+      <c r="GY121">
+        <v>0</v>
+      </c>
+      <c r="GZ121">
         <v>0</v>
       </c>
     </row>

--- a/ecdc_csv/data/ecdc_csv_diff.xlsx
+++ b/ecdc_csv/data/ecdc_csv_diff.xlsx
@@ -1000,7 +1000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GZ121"/>
+  <dimension ref="A1:GZ122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -42698,7 +42698,7 @@
         <v>119</v>
       </c>
       <c r="BS121">
-        <v>3764</v>
+        <v>1195</v>
       </c>
       <c r="BT121">
         <v>1</v>
@@ -43021,6 +43021,9 @@
       <c r="FV121">
         <v>0</v>
       </c>
+      <c r="FW121">
+        <v>1308</v>
+      </c>
       <c r="FX121">
         <v>65</v>
       </c>
@@ -43107,6 +43110,626 @@
       </c>
       <c r="GZ121">
         <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:208">
+      <c r="A122" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B122">
+        <v>124</v>
+      </c>
+      <c r="C122">
+        <v>14</v>
+      </c>
+      <c r="D122">
+        <v>132</v>
+      </c>
+      <c r="E122">
+        <v>5</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>124</v>
+      </c>
+      <c r="J122">
+        <v>65</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>13</v>
+      </c>
+      <c r="M122">
+        <v>58</v>
+      </c>
+      <c r="N122">
+        <v>39</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>88</v>
+      </c>
+      <c r="Q122">
+        <v>549</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>919</v>
+      </c>
+      <c r="T122">
+        <v>647</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>39</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>24</v>
+      </c>
+      <c r="AB122">
+        <v>1</v>
+      </c>
+      <c r="AC122">
+        <v>5385</v>
+      </c>
+      <c r="AD122">
+        <v>0</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
+      </c>
+      <c r="AF122">
+        <v>36</v>
+      </c>
+      <c r="AG122">
+        <v>3</v>
+      </c>
+      <c r="AH122">
+        <v>0</v>
+      </c>
+      <c r="AI122">
+        <v>0</v>
+      </c>
+      <c r="AJ122">
+        <v>185</v>
+      </c>
+      <c r="AK122">
+        <v>1526</v>
+      </c>
+      <c r="AL122">
+        <v>4</v>
+      </c>
+      <c r="AN122">
+        <v>0</v>
+      </c>
+      <c r="AO122">
+        <v>0</v>
+      </c>
+      <c r="AP122">
+        <v>6</v>
+      </c>
+      <c r="AQ122">
+        <v>552</v>
+      </c>
+      <c r="AR122">
+        <v>2</v>
+      </c>
+      <c r="AS122">
+        <v>352</v>
+      </c>
+      <c r="AT122">
+        <v>0</v>
+      </c>
+      <c r="AU122">
+        <v>8</v>
+      </c>
+      <c r="AV122">
+        <v>19</v>
+      </c>
+      <c r="AW122">
+        <v>8</v>
+      </c>
+      <c r="AX122">
+        <v>48</v>
+      </c>
+      <c r="AY122">
+        <v>0</v>
+      </c>
+      <c r="AZ122">
+        <v>15</v>
+      </c>
+      <c r="BA122">
+        <v>55</v>
+      </c>
+      <c r="BB122">
+        <v>20</v>
+      </c>
+      <c r="BC122">
+        <v>153</v>
+      </c>
+      <c r="BD122">
+        <v>37</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>281</v>
+      </c>
+      <c r="BG122">
+        <v>1018</v>
+      </c>
+      <c r="BH122">
+        <v>260</v>
+      </c>
+      <c r="BI122">
+        <v>22</v>
+      </c>
+      <c r="BJ122">
+        <v>57</v>
+      </c>
+      <c r="BK122">
+        <v>0</v>
+      </c>
+      <c r="BL122">
+        <v>13</v>
+      </c>
+      <c r="BM122">
+        <v>6</v>
+      </c>
+      <c r="BN122">
+        <v>2</v>
+      </c>
+      <c r="BO122">
+        <v>0</v>
+      </c>
+      <c r="BP122">
+        <v>0</v>
+      </c>
+      <c r="BQ122">
+        <v>0</v>
+      </c>
+      <c r="BR122">
+        <v>45</v>
+      </c>
+      <c r="BS122">
+        <v>1065</v>
+      </c>
+      <c r="BT122">
+        <v>0</v>
+      </c>
+      <c r="BU122">
+        <v>27</v>
+      </c>
+      <c r="BV122">
+        <v>0</v>
+      </c>
+      <c r="BW122">
+        <v>14</v>
+      </c>
+      <c r="BX122">
+        <v>1304</v>
+      </c>
+      <c r="BY122">
+        <v>121</v>
+      </c>
+      <c r="BZ122">
+        <v>0</v>
+      </c>
+      <c r="CA122">
+        <v>0</v>
+      </c>
+      <c r="CB122">
+        <v>0</v>
+      </c>
+      <c r="CC122">
+        <v>0</v>
+      </c>
+      <c r="CD122">
+        <v>1</v>
+      </c>
+      <c r="CE122">
+        <v>27</v>
+      </c>
+      <c r="CF122">
+        <v>0</v>
+      </c>
+      <c r="CG122">
+        <v>77</v>
+      </c>
+      <c r="CH122">
+        <v>0</v>
+      </c>
+      <c r="CI122">
+        <v>1</v>
+      </c>
+      <c r="CJ122">
+        <v>0</v>
+      </c>
+      <c r="CK122">
+        <v>0</v>
+      </c>
+      <c r="CL122">
+        <v>45</v>
+      </c>
+      <c r="CM122">
+        <v>78</v>
+      </c>
+      <c r="CN122">
+        <v>3</v>
+      </c>
+      <c r="CO122">
+        <v>1897</v>
+      </c>
+      <c r="CP122">
+        <v>415</v>
+      </c>
+      <c r="CQ122">
+        <v>1112</v>
+      </c>
+      <c r="CR122">
+        <v>0</v>
+      </c>
+      <c r="CS122">
+        <v>229</v>
+      </c>
+      <c r="CT122">
+        <v>1</v>
+      </c>
+      <c r="CU122">
+        <v>123</v>
+      </c>
+      <c r="CV122">
+        <v>2091</v>
+      </c>
+      <c r="CW122">
+        <v>17</v>
+      </c>
+      <c r="CX122">
+        <v>276</v>
+      </c>
+      <c r="CY122">
+        <v>1</v>
+      </c>
+      <c r="CZ122">
+        <v>0</v>
+      </c>
+      <c r="DA122">
+        <v>203</v>
+      </c>
+      <c r="DB122">
+        <v>11</v>
+      </c>
+      <c r="DC122">
+        <v>10</v>
+      </c>
+      <c r="DD122">
+        <v>152</v>
+      </c>
+      <c r="DE122">
+        <v>21</v>
+      </c>
+      <c r="DF122">
+        <v>0</v>
+      </c>
+      <c r="DG122">
+        <v>18</v>
+      </c>
+      <c r="DH122">
+        <v>7</v>
+      </c>
+      <c r="DI122">
+        <v>8</v>
+      </c>
+      <c r="DJ122">
+        <v>0</v>
+      </c>
+      <c r="DK122">
+        <v>0</v>
+      </c>
+      <c r="DL122">
+        <v>0</v>
+      </c>
+      <c r="DM122">
+        <v>12</v>
+      </c>
+      <c r="DN122">
+        <v>0</v>
+      </c>
+      <c r="DO122">
+        <v>0</v>
+      </c>
+      <c r="DP122">
+        <v>31</v>
+      </c>
+      <c r="DQ122">
+        <v>31</v>
+      </c>
+      <c r="DR122">
+        <v>16</v>
+      </c>
+      <c r="DS122">
+        <v>0</v>
+      </c>
+      <c r="DT122">
+        <v>0</v>
+      </c>
+      <c r="DU122">
+        <v>0</v>
+      </c>
+      <c r="DV122">
+        <v>1223</v>
+      </c>
+      <c r="DW122">
+        <v>157</v>
+      </c>
+      <c r="DX122">
+        <v>0</v>
+      </c>
+      <c r="DY122">
+        <v>0</v>
+      </c>
+      <c r="DZ122">
+        <v>0</v>
+      </c>
+      <c r="EA122">
+        <v>0</v>
+      </c>
+      <c r="EB122">
+        <v>132</v>
+      </c>
+      <c r="EC122">
+        <v>0</v>
+      </c>
+      <c r="ED122">
+        <v>4</v>
+      </c>
+      <c r="EE122">
+        <v>0</v>
+      </c>
+      <c r="EF122">
+        <v>2</v>
+      </c>
+      <c r="EG122">
+        <v>171</v>
+      </c>
+      <c r="EH122">
+        <v>0</v>
+      </c>
+      <c r="EI122">
+        <v>2</v>
+      </c>
+      <c r="EJ122">
+        <v>0</v>
+      </c>
+      <c r="EK122">
+        <v>8</v>
+      </c>
+      <c r="EL122">
+        <v>195</v>
+      </c>
+      <c r="EM122">
+        <v>22</v>
+      </c>
+      <c r="EN122">
+        <v>0</v>
+      </c>
+      <c r="EO122">
+        <v>72</v>
+      </c>
+      <c r="EP122">
+        <v>82</v>
+      </c>
+      <c r="EQ122">
+        <v>806</v>
+      </c>
+      <c r="ER122">
+        <v>0</v>
+      </c>
+      <c r="ES122">
+        <v>179</v>
+      </c>
+      <c r="ET122">
+        <v>0</v>
+      </c>
+      <c r="EU122">
+        <v>9</v>
+      </c>
+      <c r="EV122">
+        <v>2491</v>
+      </c>
+      <c r="EW122">
+        <v>181</v>
+      </c>
+      <c r="EX122">
+        <v>316</v>
+      </c>
+      <c r="EY122">
+        <v>295</v>
+      </c>
+      <c r="EZ122">
+        <v>11</v>
+      </c>
+      <c r="FA122">
+        <v>677</v>
+      </c>
+      <c r="FB122">
+        <v>277</v>
+      </c>
+      <c r="FC122">
+        <v>6411</v>
+      </c>
+      <c r="FD122">
+        <v>5</v>
+      </c>
+      <c r="FE122">
+        <v>0</v>
+      </c>
+      <c r="FF122">
+        <v>0</v>
+      </c>
+      <c r="FG122">
+        <v>1</v>
+      </c>
+      <c r="FH122">
+        <v>15</v>
+      </c>
+      <c r="FI122">
+        <v>3</v>
+      </c>
+      <c r="FJ122">
+        <v>1266</v>
+      </c>
+      <c r="FK122">
+        <v>88</v>
+      </c>
+      <c r="FL122">
+        <v>222</v>
+      </c>
+      <c r="FM122">
+        <v>0</v>
+      </c>
+      <c r="FN122">
+        <v>5</v>
+      </c>
+      <c r="FO122">
+        <v>528</v>
+      </c>
+      <c r="FP122">
+        <v>0</v>
+      </c>
+      <c r="FQ122">
+        <v>3</v>
+      </c>
+      <c r="FR122">
+        <v>1</v>
+      </c>
+      <c r="FS122">
+        <v>48</v>
+      </c>
+      <c r="FT122">
+        <v>203</v>
+      </c>
+      <c r="FU122">
+        <v>9</v>
+      </c>
+      <c r="FV122">
+        <v>28</v>
+      </c>
+      <c r="FX122">
+        <v>31</v>
+      </c>
+      <c r="FY122">
+        <v>43</v>
+      </c>
+      <c r="FZ122">
+        <v>0</v>
+      </c>
+      <c r="GA122">
+        <v>695</v>
+      </c>
+      <c r="GB122">
+        <v>100</v>
+      </c>
+      <c r="GC122">
+        <v>0</v>
+      </c>
+      <c r="GD122">
+        <v>0</v>
+      </c>
+      <c r="GE122">
+        <v>0</v>
+      </c>
+      <c r="GF122">
+        <v>0</v>
+      </c>
+      <c r="GG122">
+        <v>0</v>
+      </c>
+      <c r="GH122">
+        <v>0</v>
+      </c>
+      <c r="GI122">
+        <v>8</v>
+      </c>
+      <c r="GJ122">
+        <v>2392</v>
+      </c>
+      <c r="GK122">
+        <v>0</v>
+      </c>
+      <c r="GL122">
+        <v>0</v>
+      </c>
+      <c r="GM122">
+        <v>401</v>
+      </c>
+      <c r="GN122">
+        <v>541</v>
+      </c>
+      <c r="GO122">
+        <v>3996</v>
+      </c>
+      <c r="GP122">
+        <v>6</v>
+      </c>
+      <c r="GQ122">
+        <v>0</v>
+      </c>
+      <c r="GR122">
+        <v>24132</v>
+      </c>
+      <c r="GS122">
+        <v>5</v>
+      </c>
+      <c r="GT122">
+        <v>35</v>
+      </c>
+      <c r="GU122">
+        <v>0</v>
+      </c>
+      <c r="GV122">
+        <v>0</v>
+      </c>
+      <c r="GW122">
+        <v>0</v>
+      </c>
+      <c r="GX122">
+        <v>0</v>
+      </c>
+      <c r="GY122">
+        <v>6</v>
+      </c>
+      <c r="GZ122">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -43116,7 +43739,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GZ121"/>
+  <dimension ref="A1:GZ122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -85137,6 +85760,9 @@
       <c r="FV121">
         <v>0</v>
       </c>
+      <c r="FW121">
+        <v>632</v>
+      </c>
       <c r="FX121">
         <v>0</v>
       </c>
@@ -85222,6 +85848,626 @@
         <v>0</v>
       </c>
       <c r="GZ121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:208">
+      <c r="A122" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>10</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>4</v>
+      </c>
+      <c r="M122">
+        <v>20</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>3</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>4</v>
+      </c>
+      <c r="T122">
+        <v>124</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>2</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>2</v>
+      </c>
+      <c r="AB122">
+        <v>0</v>
+      </c>
+      <c r="AC122">
+        <v>474</v>
+      </c>
+      <c r="AD122">
+        <v>0</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
+      </c>
+      <c r="AF122">
+        <v>0</v>
+      </c>
+      <c r="AG122">
+        <v>0</v>
+      </c>
+      <c r="AH122">
+        <v>0</v>
+      </c>
+      <c r="AI122">
+        <v>0</v>
+      </c>
+      <c r="AJ122">
+        <v>1</v>
+      </c>
+      <c r="AK122">
+        <v>152</v>
+      </c>
+      <c r="AL122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>0</v>
+      </c>
+      <c r="AO122">
+        <v>0</v>
+      </c>
+      <c r="AP122">
+        <v>2</v>
+      </c>
+      <c r="AQ122">
+        <v>9</v>
+      </c>
+      <c r="AR122">
+        <v>0</v>
+      </c>
+      <c r="AS122">
+        <v>16</v>
+      </c>
+      <c r="AT122">
+        <v>0</v>
+      </c>
+      <c r="AU122">
+        <v>0</v>
+      </c>
+      <c r="AV122">
+        <v>0</v>
+      </c>
+      <c r="AW122">
+        <v>4</v>
+      </c>
+      <c r="AX122">
+        <v>2</v>
+      </c>
+      <c r="AY122">
+        <v>0</v>
+      </c>
+      <c r="AZ122">
+        <v>0</v>
+      </c>
+      <c r="BA122">
+        <v>4</v>
+      </c>
+      <c r="BB122">
+        <v>0</v>
+      </c>
+      <c r="BC122">
+        <v>7</v>
+      </c>
+      <c r="BD122">
+        <v>0</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>8</v>
+      </c>
+      <c r="BG122">
+        <v>208</v>
+      </c>
+      <c r="BH122">
+        <v>22</v>
+      </c>
+      <c r="BI122">
+        <v>1</v>
+      </c>
+      <c r="BJ122">
+        <v>0</v>
+      </c>
+      <c r="BK122">
+        <v>0</v>
+      </c>
+      <c r="BL122">
+        <v>0</v>
+      </c>
+      <c r="BM122">
+        <v>0</v>
+      </c>
+      <c r="BN122">
+        <v>0</v>
+      </c>
+      <c r="BO122">
+        <v>0</v>
+      </c>
+      <c r="BP122">
+        <v>0</v>
+      </c>
+      <c r="BQ122">
+        <v>0</v>
+      </c>
+      <c r="BR122">
+        <v>6</v>
+      </c>
+      <c r="BS122">
+        <v>367</v>
+      </c>
+      <c r="BT122">
+        <v>0</v>
+      </c>
+      <c r="BU122">
+        <v>0</v>
+      </c>
+      <c r="BV122">
+        <v>0</v>
+      </c>
+      <c r="BW122">
+        <v>0</v>
+      </c>
+      <c r="BX122">
+        <v>202</v>
+      </c>
+      <c r="BY122">
+        <v>5</v>
+      </c>
+      <c r="BZ122">
+        <v>0</v>
+      </c>
+      <c r="CA122">
+        <v>0</v>
+      </c>
+      <c r="CB122">
+        <v>0</v>
+      </c>
+      <c r="CC122">
+        <v>0</v>
+      </c>
+      <c r="CD122">
+        <v>0</v>
+      </c>
+      <c r="CE122">
+        <v>1</v>
+      </c>
+      <c r="CF122">
+        <v>0</v>
+      </c>
+      <c r="CG122">
+        <v>0</v>
+      </c>
+      <c r="CH122">
+        <v>0</v>
+      </c>
+      <c r="CI122">
+        <v>0</v>
+      </c>
+      <c r="CJ122">
+        <v>0</v>
+      </c>
+      <c r="CK122">
+        <v>0</v>
+      </c>
+      <c r="CL122">
+        <v>5</v>
+      </c>
+      <c r="CM122">
+        <v>9</v>
+      </c>
+      <c r="CN122">
+        <v>0</v>
+      </c>
+      <c r="CO122">
+        <v>73</v>
+      </c>
+      <c r="CP122">
+        <v>8</v>
+      </c>
+      <c r="CQ122">
+        <v>71</v>
+      </c>
+      <c r="CR122">
+        <v>0</v>
+      </c>
+      <c r="CS122">
+        <v>57</v>
+      </c>
+      <c r="CT122">
+        <v>3</v>
+      </c>
+      <c r="CU122">
+        <v>6</v>
+      </c>
+      <c r="CV122">
+        <v>382</v>
+      </c>
+      <c r="CW122">
+        <v>0</v>
+      </c>
+      <c r="CX122">
+        <v>13</v>
+      </c>
+      <c r="CY122">
+        <v>1</v>
+      </c>
+      <c r="CZ122">
+        <v>1</v>
+      </c>
+      <c r="DA122">
+        <v>0</v>
+      </c>
+      <c r="DB122">
+        <v>0</v>
+      </c>
+      <c r="DC122">
+        <v>0</v>
+      </c>
+      <c r="DD122">
+        <v>1</v>
+      </c>
+      <c r="DE122">
+        <v>0</v>
+      </c>
+      <c r="DF122">
+        <v>0</v>
+      </c>
+      <c r="DG122">
+        <v>0</v>
+      </c>
+      <c r="DH122">
+        <v>0</v>
+      </c>
+      <c r="DI122">
+        <v>0</v>
+      </c>
+      <c r="DJ122">
+        <v>0</v>
+      </c>
+      <c r="DK122">
+        <v>0</v>
+      </c>
+      <c r="DL122">
+        <v>3</v>
+      </c>
+      <c r="DM122">
+        <v>1</v>
+      </c>
+      <c r="DN122">
+        <v>0</v>
+      </c>
+      <c r="DO122">
+        <v>0</v>
+      </c>
+      <c r="DP122">
+        <v>1</v>
+      </c>
+      <c r="DQ122">
+        <v>0</v>
+      </c>
+      <c r="DR122">
+        <v>1</v>
+      </c>
+      <c r="DS122">
+        <v>0</v>
+      </c>
+      <c r="DT122">
+        <v>0</v>
+      </c>
+      <c r="DU122">
+        <v>0</v>
+      </c>
+      <c r="DV122">
+        <v>135</v>
+      </c>
+      <c r="DW122">
+        <v>5</v>
+      </c>
+      <c r="DX122">
+        <v>0</v>
+      </c>
+      <c r="DY122">
+        <v>0</v>
+      </c>
+      <c r="DZ122">
+        <v>0</v>
+      </c>
+      <c r="EA122">
+        <v>0</v>
+      </c>
+      <c r="EB122">
+        <v>3</v>
+      </c>
+      <c r="EC122">
+        <v>0</v>
+      </c>
+      <c r="ED122">
+        <v>0</v>
+      </c>
+      <c r="EE122">
+        <v>0</v>
+      </c>
+      <c r="EF122">
+        <v>0</v>
+      </c>
+      <c r="EG122">
+        <v>48</v>
+      </c>
+      <c r="EH122">
+        <v>0</v>
+      </c>
+      <c r="EI122">
+        <v>0</v>
+      </c>
+      <c r="EJ122">
+        <v>0</v>
+      </c>
+      <c r="EK122">
+        <v>2</v>
+      </c>
+      <c r="EL122">
+        <v>4</v>
+      </c>
+      <c r="EM122">
+        <v>6</v>
+      </c>
+      <c r="EN122">
+        <v>0</v>
+      </c>
+      <c r="EO122">
+        <v>2</v>
+      </c>
+      <c r="EP122">
+        <v>0</v>
+      </c>
+      <c r="EQ122">
+        <v>26</v>
+      </c>
+      <c r="ER122">
+        <v>0</v>
+      </c>
+      <c r="ES122">
+        <v>9</v>
+      </c>
+      <c r="ET122">
+        <v>0</v>
+      </c>
+      <c r="EU122">
+        <v>0</v>
+      </c>
+      <c r="EV122">
+        <v>72</v>
+      </c>
+      <c r="EW122">
+        <v>19</v>
+      </c>
+      <c r="EX122">
+        <v>34</v>
+      </c>
+      <c r="EY122">
+        <v>20</v>
+      </c>
+      <c r="EZ122">
+        <v>2</v>
+      </c>
+      <c r="FA122">
+        <v>0</v>
+      </c>
+      <c r="FB122">
+        <v>19</v>
+      </c>
+      <c r="FC122">
+        <v>72</v>
+      </c>
+      <c r="FD122">
+        <v>0</v>
+      </c>
+      <c r="FE122">
+        <v>0</v>
+      </c>
+      <c r="FF122">
+        <v>0</v>
+      </c>
+      <c r="FG122">
+        <v>0</v>
+      </c>
+      <c r="FH122">
+        <v>0</v>
+      </c>
+      <c r="FI122">
+        <v>0</v>
+      </c>
+      <c r="FJ122">
+        <v>8</v>
+      </c>
+      <c r="FK122">
+        <v>0</v>
+      </c>
+      <c r="FL122">
+        <v>6</v>
+      </c>
+      <c r="FM122">
+        <v>0</v>
+      </c>
+      <c r="FN122">
+        <v>1</v>
+      </c>
+      <c r="FO122">
+        <v>0</v>
+      </c>
+      <c r="FP122">
+        <v>0</v>
+      </c>
+      <c r="FQ122">
+        <v>2</v>
+      </c>
+      <c r="FR122">
+        <v>3</v>
+      </c>
+      <c r="FS122">
+        <v>2</v>
+      </c>
+      <c r="FT122">
+        <v>3</v>
+      </c>
+      <c r="FU122">
+        <v>2</v>
+      </c>
+      <c r="FV122">
+        <v>0</v>
+      </c>
+      <c r="FX122">
+        <v>0</v>
+      </c>
+      <c r="FY122">
+        <v>3</v>
+      </c>
+      <c r="FZ122">
+        <v>0</v>
+      </c>
+      <c r="GA122">
+        <v>81</v>
+      </c>
+      <c r="GB122">
+        <v>27</v>
+      </c>
+      <c r="GC122">
+        <v>0</v>
+      </c>
+      <c r="GD122">
+        <v>0</v>
+      </c>
+      <c r="GE122">
+        <v>0</v>
+      </c>
+      <c r="GF122">
+        <v>0</v>
+      </c>
+      <c r="GG122">
+        <v>0</v>
+      </c>
+      <c r="GH122">
+        <v>0</v>
+      </c>
+      <c r="GI122">
+        <v>1</v>
+      </c>
+      <c r="GJ122">
+        <v>92</v>
+      </c>
+      <c r="GK122">
+        <v>0</v>
+      </c>
+      <c r="GL122">
+        <v>0</v>
+      </c>
+      <c r="GM122">
+        <v>19</v>
+      </c>
+      <c r="GN122">
+        <v>7</v>
+      </c>
+      <c r="GO122">
+        <v>586</v>
+      </c>
+      <c r="GP122">
+        <v>0</v>
+      </c>
+      <c r="GQ122">
+        <v>0</v>
+      </c>
+      <c r="GR122">
+        <v>2110</v>
+      </c>
+      <c r="GS122">
+        <v>0</v>
+      </c>
+      <c r="GT122">
+        <v>0</v>
+      </c>
+      <c r="GU122">
+        <v>0</v>
+      </c>
+      <c r="GV122">
+        <v>0</v>
+      </c>
+      <c r="GW122">
+        <v>0</v>
+      </c>
+      <c r="GX122">
+        <v>0</v>
+      </c>
+      <c r="GY122">
+        <v>0</v>
+      </c>
+      <c r="GZ122">
         <v>0</v>
       </c>
     </row>

--- a/ecdc_csv/data/ecdc_csv_diff.xlsx
+++ b/ecdc_csv/data/ecdc_csv_diff.xlsx
@@ -1000,7 +1000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GZ122"/>
+  <dimension ref="A1:GZ123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -41587,7 +41587,7 @@
         <v>1</v>
       </c>
       <c r="DL119">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="DM119">
         <v>16</v>
@@ -42210,7 +42210,7 @@
         <v>0</v>
       </c>
       <c r="DL120">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DM120">
         <v>12</v>
@@ -42833,7 +42833,7 @@
         <v>0</v>
       </c>
       <c r="DL121">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="DM121">
         <v>6</v>
@@ -43456,7 +43456,7 @@
         <v>0</v>
       </c>
       <c r="DL122">
-        <v>0</v>
+        <v>-105</v>
       </c>
       <c r="DM122">
         <v>12</v>
@@ -43644,6 +43644,9 @@
       <c r="FV122">
         <v>28</v>
       </c>
+      <c r="FW122">
+        <v>2144</v>
+      </c>
       <c r="FX122">
         <v>31</v>
       </c>
@@ -43730,6 +43733,626 @@
       </c>
       <c r="GZ122">
         <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:208">
+      <c r="A123" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123">
+        <v>16</v>
+      </c>
+      <c r="D123">
+        <v>199</v>
+      </c>
+      <c r="E123">
+        <v>5</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>158</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>8</v>
+      </c>
+      <c r="M123">
+        <v>50</v>
+      </c>
+      <c r="N123">
+        <v>49</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>110</v>
+      </c>
+      <c r="Q123">
+        <v>641</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>973</v>
+      </c>
+      <c r="T123">
+        <v>525</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>5</v>
+      </c>
+      <c r="W123">
+        <v>1</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>57</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+      <c r="AB123">
+        <v>0</v>
+      </c>
+      <c r="AC123">
+        <v>6276</v>
+      </c>
+      <c r="AD123">
+        <v>0</v>
+      </c>
+      <c r="AE123">
+        <v>0</v>
+      </c>
+      <c r="AF123">
+        <v>48</v>
+      </c>
+      <c r="AG123">
+        <v>3</v>
+      </c>
+      <c r="AH123">
+        <v>0</v>
+      </c>
+      <c r="AI123">
+        <v>0</v>
+      </c>
+      <c r="AJ123">
+        <v>26</v>
+      </c>
+      <c r="AK123">
+        <v>1572</v>
+      </c>
+      <c r="AL123">
+        <v>0</v>
+      </c>
+      <c r="AN123">
+        <v>3</v>
+      </c>
+      <c r="AO123">
+        <v>0</v>
+      </c>
+      <c r="AP123">
+        <v>0</v>
+      </c>
+      <c r="AQ123">
+        <v>520</v>
+      </c>
+      <c r="AR123">
+        <v>4</v>
+      </c>
+      <c r="AS123">
+        <v>262</v>
+      </c>
+      <c r="AT123">
+        <v>13</v>
+      </c>
+      <c r="AU123">
+        <v>8</v>
+      </c>
+      <c r="AV123">
+        <v>55</v>
+      </c>
+      <c r="AW123">
+        <v>15</v>
+      </c>
+      <c r="AX123">
+        <v>30</v>
+      </c>
+      <c r="AY123">
+        <v>0</v>
+      </c>
+      <c r="AZ123">
+        <v>6</v>
+      </c>
+      <c r="BA123">
+        <v>75</v>
+      </c>
+      <c r="BB123">
+        <v>9</v>
+      </c>
+      <c r="BC123">
+        <v>157</v>
+      </c>
+      <c r="BD123">
+        <v>5</v>
+      </c>
+      <c r="BE123">
+        <v>0</v>
+      </c>
+      <c r="BF123">
+        <v>236</v>
+      </c>
+      <c r="BG123">
+        <v>417</v>
+      </c>
+      <c r="BH123">
+        <v>226</v>
+      </c>
+      <c r="BI123">
+        <v>32</v>
+      </c>
+      <c r="BJ123">
+        <v>0</v>
+      </c>
+      <c r="BK123">
+        <v>0</v>
+      </c>
+      <c r="BL123">
+        <v>6</v>
+      </c>
+      <c r="BM123">
+        <v>20</v>
+      </c>
+      <c r="BN123">
+        <v>4</v>
+      </c>
+      <c r="BO123">
+        <v>0</v>
+      </c>
+      <c r="BP123">
+        <v>0</v>
+      </c>
+      <c r="BQ123">
+        <v>0</v>
+      </c>
+      <c r="BR123">
+        <v>166</v>
+      </c>
+      <c r="BS123">
+        <v>1607</v>
+      </c>
+      <c r="BT123">
+        <v>0</v>
+      </c>
+      <c r="BU123">
+        <v>38</v>
+      </c>
+      <c r="BV123">
+        <v>1</v>
+      </c>
+      <c r="BW123">
+        <v>6</v>
+      </c>
+      <c r="BX123">
+        <v>1478</v>
+      </c>
+      <c r="BY123">
+        <v>0</v>
+      </c>
+      <c r="BZ123">
+        <v>0</v>
+      </c>
+      <c r="CA123">
+        <v>42</v>
+      </c>
+      <c r="CB123">
+        <v>0</v>
+      </c>
+      <c r="CC123">
+        <v>2</v>
+      </c>
+      <c r="CD123">
+        <v>0</v>
+      </c>
+      <c r="CE123">
+        <v>28</v>
+      </c>
+      <c r="CF123">
+        <v>4</v>
+      </c>
+      <c r="CG123">
+        <v>111</v>
+      </c>
+      <c r="CH123">
+        <v>4</v>
+      </c>
+      <c r="CI123">
+        <v>3</v>
+      </c>
+      <c r="CJ123">
+        <v>0</v>
+      </c>
+      <c r="CK123">
+        <v>1</v>
+      </c>
+      <c r="CL123">
+        <v>33</v>
+      </c>
+      <c r="CM123">
+        <v>48</v>
+      </c>
+      <c r="CN123">
+        <v>2</v>
+      </c>
+      <c r="CO123">
+        <v>1718</v>
+      </c>
+      <c r="CP123">
+        <v>260</v>
+      </c>
+      <c r="CQ123">
+        <v>1073</v>
+      </c>
+      <c r="CR123">
+        <v>156</v>
+      </c>
+      <c r="CS123">
+        <v>376</v>
+      </c>
+      <c r="CT123">
+        <v>4</v>
+      </c>
+      <c r="CU123">
+        <v>245</v>
+      </c>
+      <c r="CV123">
+        <v>2086</v>
+      </c>
+      <c r="CW123">
+        <v>15</v>
+      </c>
+      <c r="CX123">
+        <v>236</v>
+      </c>
+      <c r="CY123">
+        <v>2</v>
+      </c>
+      <c r="CZ123">
+        <v>2</v>
+      </c>
+      <c r="DA123">
+        <v>142</v>
+      </c>
+      <c r="DB123">
+        <v>10</v>
+      </c>
+      <c r="DC123">
+        <v>9</v>
+      </c>
+      <c r="DD123">
+        <v>300</v>
+      </c>
+      <c r="DE123">
+        <v>17</v>
+      </c>
+      <c r="DF123">
+        <v>0</v>
+      </c>
+      <c r="DG123">
+        <v>13</v>
+      </c>
+      <c r="DH123">
+        <v>4</v>
+      </c>
+      <c r="DI123">
+        <v>0</v>
+      </c>
+      <c r="DJ123">
+        <v>0</v>
+      </c>
+      <c r="DK123">
+        <v>0</v>
+      </c>
+      <c r="DL123">
+        <v>31</v>
+      </c>
+      <c r="DM123">
+        <v>28</v>
+      </c>
+      <c r="DN123">
+        <v>0</v>
+      </c>
+      <c r="DO123">
+        <v>0</v>
+      </c>
+      <c r="DP123">
+        <v>94</v>
+      </c>
+      <c r="DQ123">
+        <v>32</v>
+      </c>
+      <c r="DR123">
+        <v>58</v>
+      </c>
+      <c r="DS123">
+        <v>13</v>
+      </c>
+      <c r="DT123">
+        <v>0</v>
+      </c>
+      <c r="DU123">
+        <v>0</v>
+      </c>
+      <c r="DV123">
+        <v>1047</v>
+      </c>
+      <c r="DW123">
+        <v>133</v>
+      </c>
+      <c r="DX123">
+        <v>0</v>
+      </c>
+      <c r="DY123">
+        <v>0</v>
+      </c>
+      <c r="DZ123">
+        <v>1</v>
+      </c>
+      <c r="EA123">
+        <v>0</v>
+      </c>
+      <c r="EB123">
+        <v>69</v>
+      </c>
+      <c r="EC123">
+        <v>0</v>
+      </c>
+      <c r="ED123">
+        <v>0</v>
+      </c>
+      <c r="EE123">
+        <v>0</v>
+      </c>
+      <c r="EF123">
+        <v>3</v>
+      </c>
+      <c r="EG123">
+        <v>386</v>
+      </c>
+      <c r="EH123">
+        <v>0</v>
+      </c>
+      <c r="EI123">
+        <v>3</v>
+      </c>
+      <c r="EJ123">
+        <v>1</v>
+      </c>
+      <c r="EK123">
+        <v>4</v>
+      </c>
+      <c r="EL123">
+        <v>196</v>
+      </c>
+      <c r="EM123">
+        <v>21</v>
+      </c>
+      <c r="EN123">
+        <v>0</v>
+      </c>
+      <c r="EO123">
+        <v>62</v>
+      </c>
+      <c r="EP123">
+        <v>143</v>
+      </c>
+      <c r="EQ123">
+        <v>874</v>
+      </c>
+      <c r="ER123">
+        <v>12</v>
+      </c>
+      <c r="ES123">
+        <v>178</v>
+      </c>
+      <c r="ET123">
+        <v>0</v>
+      </c>
+      <c r="EU123">
+        <v>10</v>
+      </c>
+      <c r="EV123">
+        <v>2741</v>
+      </c>
+      <c r="EW123">
+        <v>254</v>
+      </c>
+      <c r="EX123">
+        <v>422</v>
+      </c>
+      <c r="EY123">
+        <v>183</v>
+      </c>
+      <c r="EZ123">
+        <v>33</v>
+      </c>
+      <c r="FA123">
+        <v>643</v>
+      </c>
+      <c r="FB123">
+        <v>362</v>
+      </c>
+      <c r="FC123">
+        <v>5841</v>
+      </c>
+      <c r="FD123">
+        <v>13</v>
+      </c>
+      <c r="FE123">
+        <v>0</v>
+      </c>
+      <c r="FF123">
+        <v>2</v>
+      </c>
+      <c r="FG123">
+        <v>0</v>
+      </c>
+      <c r="FH123">
+        <v>10</v>
+      </c>
+      <c r="FI123">
+        <v>3</v>
+      </c>
+      <c r="FJ123">
+        <v>1325</v>
+      </c>
+      <c r="FK123">
+        <v>59</v>
+      </c>
+      <c r="FL123">
+        <v>227</v>
+      </c>
+      <c r="FM123">
+        <v>0</v>
+      </c>
+      <c r="FN123">
+        <v>12</v>
+      </c>
+      <c r="FO123">
+        <v>690</v>
+      </c>
+      <c r="FP123">
+        <v>1</v>
+      </c>
+      <c r="FQ123">
+        <v>7</v>
+      </c>
+      <c r="FR123">
+        <v>10</v>
+      </c>
+      <c r="FS123">
+        <v>54</v>
+      </c>
+      <c r="FT123">
+        <v>354</v>
+      </c>
+      <c r="FU123">
+        <v>4</v>
+      </c>
+      <c r="FV123">
+        <v>0</v>
+      </c>
+      <c r="FX123">
+        <v>30</v>
+      </c>
+      <c r="FY123">
+        <v>57</v>
+      </c>
+      <c r="FZ123">
+        <v>0</v>
+      </c>
+      <c r="GA123">
+        <v>681</v>
+      </c>
+      <c r="GB123">
+        <v>143</v>
+      </c>
+      <c r="GC123">
+        <v>0</v>
+      </c>
+      <c r="GD123">
+        <v>0</v>
+      </c>
+      <c r="GE123">
+        <v>16</v>
+      </c>
+      <c r="GF123">
+        <v>0</v>
+      </c>
+      <c r="GG123">
+        <v>10</v>
+      </c>
+      <c r="GH123">
+        <v>0</v>
+      </c>
+      <c r="GI123">
+        <v>5</v>
+      </c>
+      <c r="GJ123">
+        <v>2936</v>
+      </c>
+      <c r="GK123">
+        <v>0</v>
+      </c>
+      <c r="GL123">
+        <v>2</v>
+      </c>
+      <c r="GM123">
+        <v>456</v>
+      </c>
+      <c r="GN123">
+        <v>549</v>
+      </c>
+      <c r="GO123">
+        <v>4076</v>
+      </c>
+      <c r="GP123">
+        <v>174</v>
+      </c>
+      <c r="GQ123">
+        <v>7</v>
+      </c>
+      <c r="GR123">
+        <v>27326</v>
+      </c>
+      <c r="GS123">
+        <v>5</v>
+      </c>
+      <c r="GT123">
+        <v>63</v>
+      </c>
+      <c r="GU123">
+        <v>2</v>
+      </c>
+      <c r="GV123">
+        <v>0</v>
+      </c>
+      <c r="GW123">
+        <v>0</v>
+      </c>
+      <c r="GX123">
+        <v>5</v>
+      </c>
+      <c r="GY123">
+        <v>2</v>
+      </c>
+      <c r="GZ123">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -43739,7 +44362,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GZ122"/>
+  <dimension ref="A1:GZ123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -86357,7 +86980,7 @@
         <v>0</v>
       </c>
       <c r="FN122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO122">
         <v>0</v>
@@ -86383,6 +87006,9 @@
       <c r="FV122">
         <v>0</v>
       </c>
+      <c r="FW122">
+        <v>453</v>
+      </c>
       <c r="FX122">
         <v>0</v>
       </c>
@@ -86468,6 +87094,626 @@
         <v>0</v>
       </c>
       <c r="GZ122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:208">
+      <c r="A123" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>7</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>7</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>11</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>8</v>
+      </c>
+      <c r="R123">
+        <v>1</v>
+      </c>
+      <c r="S123">
+        <v>5</v>
+      </c>
+      <c r="T123">
+        <v>170</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>1</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>4</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+      <c r="AB123">
+        <v>0</v>
+      </c>
+      <c r="AC123">
+        <v>449</v>
+      </c>
+      <c r="AD123">
+        <v>0</v>
+      </c>
+      <c r="AE123">
+        <v>0</v>
+      </c>
+      <c r="AF123">
+        <v>6</v>
+      </c>
+      <c r="AG123">
+        <v>1</v>
+      </c>
+      <c r="AH123">
+        <v>0</v>
+      </c>
+      <c r="AI123">
+        <v>0</v>
+      </c>
+      <c r="AJ123">
+        <v>2</v>
+      </c>
+      <c r="AK123">
+        <v>137</v>
+      </c>
+      <c r="AL123">
+        <v>0</v>
+      </c>
+      <c r="AN123">
+        <v>0</v>
+      </c>
+      <c r="AO123">
+        <v>0</v>
+      </c>
+      <c r="AP123">
+        <v>0</v>
+      </c>
+      <c r="AQ123">
+        <v>9</v>
+      </c>
+      <c r="AR123">
+        <v>0</v>
+      </c>
+      <c r="AS123">
+        <v>9</v>
+      </c>
+      <c r="AT123">
+        <v>1</v>
+      </c>
+      <c r="AU123">
+        <v>0</v>
+      </c>
+      <c r="AV123">
+        <v>0</v>
+      </c>
+      <c r="AW123">
+        <v>4</v>
+      </c>
+      <c r="AX123">
+        <v>0</v>
+      </c>
+      <c r="AY123">
+        <v>0</v>
+      </c>
+      <c r="AZ123">
+        <v>0</v>
+      </c>
+      <c r="BA123">
+        <v>0</v>
+      </c>
+      <c r="BB123">
+        <v>1</v>
+      </c>
+      <c r="BC123">
+        <v>9</v>
+      </c>
+      <c r="BD123">
+        <v>0</v>
+      </c>
+      <c r="BE123">
+        <v>0</v>
+      </c>
+      <c r="BF123">
+        <v>7</v>
+      </c>
+      <c r="BG123">
+        <v>12</v>
+      </c>
+      <c r="BH123">
+        <v>21</v>
+      </c>
+      <c r="BI123">
+        <v>0</v>
+      </c>
+      <c r="BJ123">
+        <v>0</v>
+      </c>
+      <c r="BK123">
+        <v>0</v>
+      </c>
+      <c r="BL123">
+        <v>0</v>
+      </c>
+      <c r="BM123">
+        <v>0</v>
+      </c>
+      <c r="BN123">
+        <v>0</v>
+      </c>
+      <c r="BO123">
+        <v>0</v>
+      </c>
+      <c r="BP123">
+        <v>0</v>
+      </c>
+      <c r="BQ123">
+        <v>0</v>
+      </c>
+      <c r="BR123">
+        <v>7</v>
+      </c>
+      <c r="BS123">
+        <v>427</v>
+      </c>
+      <c r="BT123">
+        <v>0</v>
+      </c>
+      <c r="BU123">
+        <v>0</v>
+      </c>
+      <c r="BV123">
+        <v>0</v>
+      </c>
+      <c r="BW123">
+        <v>0</v>
+      </c>
+      <c r="BX123">
+        <v>173</v>
+      </c>
+      <c r="BY123">
+        <v>0</v>
+      </c>
+      <c r="BZ123">
+        <v>0</v>
+      </c>
+      <c r="CA123">
+        <v>3</v>
+      </c>
+      <c r="CB123">
+        <v>0</v>
+      </c>
+      <c r="CC123">
+        <v>0</v>
+      </c>
+      <c r="CD123">
+        <v>0</v>
+      </c>
+      <c r="CE123">
+        <v>0</v>
+      </c>
+      <c r="CF123">
+        <v>0</v>
+      </c>
+      <c r="CG123">
+        <v>0</v>
+      </c>
+      <c r="CH123">
+        <v>0</v>
+      </c>
+      <c r="CI123">
+        <v>0</v>
+      </c>
+      <c r="CJ123">
+        <v>0</v>
+      </c>
+      <c r="CK123">
+        <v>0</v>
+      </c>
+      <c r="CL123">
+        <v>5</v>
+      </c>
+      <c r="CM123">
+        <v>12</v>
+      </c>
+      <c r="CN123">
+        <v>0</v>
+      </c>
+      <c r="CO123">
+        <v>67</v>
+      </c>
+      <c r="CP123">
+        <v>11</v>
+      </c>
+      <c r="CQ123">
+        <v>80</v>
+      </c>
+      <c r="CR123">
+        <v>4</v>
+      </c>
+      <c r="CS123">
+        <v>31</v>
+      </c>
+      <c r="CT123">
+        <v>0</v>
+      </c>
+      <c r="CU123">
+        <v>7</v>
+      </c>
+      <c r="CV123">
+        <v>323</v>
+      </c>
+      <c r="CW123">
+        <v>0</v>
+      </c>
+      <c r="CX123">
+        <v>26</v>
+      </c>
+      <c r="CY123">
+        <v>1</v>
+      </c>
+      <c r="CZ123">
+        <v>0</v>
+      </c>
+      <c r="DA123">
+        <v>0</v>
+      </c>
+      <c r="DB123">
+        <v>1</v>
+      </c>
+      <c r="DC123">
+        <v>0</v>
+      </c>
+      <c r="DD123">
+        <v>1</v>
+      </c>
+      <c r="DE123">
+        <v>0</v>
+      </c>
+      <c r="DF123">
+        <v>0</v>
+      </c>
+      <c r="DG123">
+        <v>2</v>
+      </c>
+      <c r="DH123">
+        <v>0</v>
+      </c>
+      <c r="DI123">
+        <v>0</v>
+      </c>
+      <c r="DJ123">
+        <v>0</v>
+      </c>
+      <c r="DK123">
+        <v>0</v>
+      </c>
+      <c r="DL123">
+        <v>1</v>
+      </c>
+      <c r="DM123">
+        <v>0</v>
+      </c>
+      <c r="DN123">
+        <v>0</v>
+      </c>
+      <c r="DO123">
+        <v>0</v>
+      </c>
+      <c r="DP123">
+        <v>0</v>
+      </c>
+      <c r="DQ123">
+        <v>0</v>
+      </c>
+      <c r="DR123">
+        <v>1</v>
+      </c>
+      <c r="DS123">
+        <v>0</v>
+      </c>
+      <c r="DT123">
+        <v>0</v>
+      </c>
+      <c r="DU123">
+        <v>0</v>
+      </c>
+      <c r="DV123">
+        <v>163</v>
+      </c>
+      <c r="DW123">
+        <v>4</v>
+      </c>
+      <c r="DX123">
+        <v>0</v>
+      </c>
+      <c r="DY123">
+        <v>0</v>
+      </c>
+      <c r="DZ123">
+        <v>0</v>
+      </c>
+      <c r="EA123">
+        <v>0</v>
+      </c>
+      <c r="EB123">
+        <v>3</v>
+      </c>
+      <c r="EC123">
+        <v>0</v>
+      </c>
+      <c r="ED123">
+        <v>1</v>
+      </c>
+      <c r="EE123">
+        <v>0</v>
+      </c>
+      <c r="EF123">
+        <v>0</v>
+      </c>
+      <c r="EG123">
+        <v>145</v>
+      </c>
+      <c r="EH123">
+        <v>0</v>
+      </c>
+      <c r="EI123">
+        <v>0</v>
+      </c>
+      <c r="EJ123">
+        <v>1</v>
+      </c>
+      <c r="EK123">
+        <v>1</v>
+      </c>
+      <c r="EL123">
+        <v>7</v>
+      </c>
+      <c r="EM123">
+        <v>2</v>
+      </c>
+      <c r="EN123">
+        <v>0</v>
+      </c>
+      <c r="EO123">
+        <v>7</v>
+      </c>
+      <c r="EP123">
+        <v>0</v>
+      </c>
+      <c r="EQ123">
+        <v>19</v>
+      </c>
+      <c r="ER123">
+        <v>0</v>
+      </c>
+      <c r="ES123">
+        <v>2</v>
+      </c>
+      <c r="ET123">
+        <v>0</v>
+      </c>
+      <c r="EU123">
+        <v>0</v>
+      </c>
+      <c r="EV123">
+        <v>89</v>
+      </c>
+      <c r="EW123">
+        <v>28</v>
+      </c>
+      <c r="EX123">
+        <v>28</v>
+      </c>
+      <c r="EY123">
+        <v>25</v>
+      </c>
+      <c r="EZ123">
+        <v>0</v>
+      </c>
+      <c r="FA123">
+        <v>0</v>
+      </c>
+      <c r="FB123">
+        <v>25</v>
+      </c>
+      <c r="FC123">
+        <v>105</v>
+      </c>
+      <c r="FD123">
+        <v>0</v>
+      </c>
+      <c r="FE123">
+        <v>0</v>
+      </c>
+      <c r="FF123">
+        <v>0</v>
+      </c>
+      <c r="FG123">
+        <v>0</v>
+      </c>
+      <c r="FH123">
+        <v>0</v>
+      </c>
+      <c r="FI123">
+        <v>0</v>
+      </c>
+      <c r="FJ123">
+        <v>5</v>
+      </c>
+      <c r="FK123">
+        <v>0</v>
+      </c>
+      <c r="FL123">
+        <v>5</v>
+      </c>
+      <c r="FM123">
+        <v>0</v>
+      </c>
+      <c r="FN123">
+        <v>0</v>
+      </c>
+      <c r="FO123">
+        <v>0</v>
+      </c>
+      <c r="FP123">
+        <v>0</v>
+      </c>
+      <c r="FQ123">
+        <v>2</v>
+      </c>
+      <c r="FR123">
+        <v>3</v>
+      </c>
+      <c r="FS123">
+        <v>0</v>
+      </c>
+      <c r="FT123">
+        <v>10</v>
+      </c>
+      <c r="FU123">
+        <v>1</v>
+      </c>
+      <c r="FV123">
+        <v>0</v>
+      </c>
+      <c r="FX123">
+        <v>0</v>
+      </c>
+      <c r="FY123">
+        <v>3</v>
+      </c>
+      <c r="FZ123">
+        <v>0</v>
+      </c>
+      <c r="GA123">
+        <v>107</v>
+      </c>
+      <c r="GB123">
+        <v>28</v>
+      </c>
+      <c r="GC123">
+        <v>0</v>
+      </c>
+      <c r="GD123">
+        <v>0</v>
+      </c>
+      <c r="GE123">
+        <v>0</v>
+      </c>
+      <c r="GF123">
+        <v>0</v>
+      </c>
+      <c r="GG123">
+        <v>1</v>
+      </c>
+      <c r="GH123">
+        <v>0</v>
+      </c>
+      <c r="GI123">
+        <v>0</v>
+      </c>
+      <c r="GJ123">
+        <v>89</v>
+      </c>
+      <c r="GK123">
+        <v>0</v>
+      </c>
+      <c r="GL123">
+        <v>0</v>
+      </c>
+      <c r="GM123">
+        <v>11</v>
+      </c>
+      <c r="GN123">
+        <v>9</v>
+      </c>
+      <c r="GO123">
+        <v>4419</v>
+      </c>
+      <c r="GP123">
+        <v>6</v>
+      </c>
+      <c r="GQ123">
+        <v>0</v>
+      </c>
+      <c r="GR123">
+        <v>2611</v>
+      </c>
+      <c r="GS123">
+        <v>0</v>
+      </c>
+      <c r="GT123">
+        <v>1</v>
+      </c>
+      <c r="GU123">
+        <v>0</v>
+      </c>
+      <c r="GV123">
+        <v>0</v>
+      </c>
+      <c r="GW123">
+        <v>0</v>
+      </c>
+      <c r="GX123">
+        <v>0</v>
+      </c>
+      <c r="GY123">
+        <v>0</v>
+      </c>
+      <c r="GZ123">
         <v>0</v>
       </c>
     </row>
